--- a/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE3812-0B74-4F93-B3F9-9A9F623B48E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB822F5F-3055-4CBF-BB70-2117666B29F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42047,9 +42047,6 @@
     <t>Right click to harvest(Left click is assigned by default)</t>
   </si>
   <si>
-    <t>#1 (Estoque: #2Circulando: #3)</t>
-  </si>
-  <si>
     <t>#1 (Stock: #2Roaming: #3)</t>
   </si>
   <si>
@@ -44016,9 +44013,6 @@
   </si>
   <si>
     <t>&lt;color=#FFCC88&gt;#1の討伐&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF88&gt;Onda de Inimigos #1 Nv.#3&lt;/color&gt; (#2 abate#(s))</t>
   </si>
   <si>
     <t>&lt;color=#FFFF88&gt;Enemy Wave #1 Lv.#3&lt;/color&gt; (#2 kill#(s2))</t>
@@ -44985,6 +44979,12 @@
   </si>
   <si>
     <t xml:space="preserve">#3/#2, #1 </t>
+  </si>
+  <si>
+    <t>#1 (Estoque: #2 / Circulando: #3)</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF88&gt;Onda de Inimigos #1 - Nv.#3&lt;/color&gt; (#2 abate#(s))</t>
   </si>
 </sst>
 </file>
@@ -45177,8 +45177,8 @@
   <dimension ref="A1:F2561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A615" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D649" sqref="D649"/>
+      <pane ySplit="2" topLeftCell="A2067" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2079" sqref="D2079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -45220,7 +45220,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9538</v>
+        <v>9536</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -45240,7 +45240,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9525</v>
+        <v>9523</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -45260,7 +45260,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9525</v>
+        <v>9523</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -45280,7 +45280,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9528</v>
+        <v>9526</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -45631,13 +45631,13 @@
         <v>1335</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9473</v>
+        <v>9471</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>8848</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>8849</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>8850</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -45648,7 +45648,7 @@
         <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8925</v>
+        <v>8924</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4996</v>
@@ -45785,7 +45785,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9470</v>
+        <v>9468</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>54</v>
@@ -45979,7 +45979,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8851</v>
+        <v>8850</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>4757</v>
@@ -46019,7 +46019,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9529</v>
+        <v>9527</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>138</v>
@@ -46056,7 +46056,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8852</v>
+        <v>8851</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>4760</v>
@@ -46093,7 +46093,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8853</v>
+        <v>8852</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>4763</v>
@@ -46130,7 +46130,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9542</v>
+        <v>9540</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>69</v>
@@ -46150,7 +46150,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9471</v>
+        <v>9469</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -46170,7 +46170,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9543</v>
+        <v>9541</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>69</v>
@@ -46250,7 +46250,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9527</v>
+        <v>9525</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>78</v>
@@ -46307,7 +46307,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8854</v>
+        <v>8853</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>4766</v>
@@ -46324,7 +46324,7 @@
         <v>981</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9530</v>
+        <v>9528</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>982</v>
@@ -46344,7 +46344,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>9540</v>
+        <v>9538</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>22</v>
@@ -46361,13 +46361,13 @@
         <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>9474</v>
+        <v>9472</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>8854</v>
+      </c>
+      <c r="F62" t="s">
         <v>8855</v>
-      </c>
-      <c r="F62" t="s">
-        <v>8856</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -46381,7 +46381,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>9541</v>
+        <v>9539</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>88</v>
@@ -46475,7 +46475,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8857</v>
+        <v>8856</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>4770</v>
@@ -46492,7 +46492,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8858</v>
+        <v>8857</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>4773</v>
@@ -46509,7 +46509,7 @@
         <v>4753</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9475</v>
+        <v>9473</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4754</v>
@@ -46572,7 +46572,7 @@
         <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>9533</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -46611,7 +46611,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>9526</v>
+        <v>9524</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>4776</v>
@@ -46631,7 +46631,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>9539</v>
+        <v>9537</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>90</v>
@@ -46677,7 +46677,7 @@
         <v>112</v>
       </c>
       <c r="F79" t="s">
-        <v>9532</v>
+        <v>9530</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -46708,7 +46708,7 @@
         <v>108</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9104</v>
+        <v>9103</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5585</v>
@@ -46745,7 +46745,7 @@
         <v>4339</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>8679</v>
+        <v>8678</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4130</v>
@@ -46782,7 +46782,7 @@
         <v>2973</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9396</v>
+        <v>9394</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>7041</v>
@@ -46799,7 +46799,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>8859</v>
+        <v>8858</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>4780</v>
@@ -46816,7 +46816,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>8861</v>
+        <v>8860</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4786</v>
@@ -46833,7 +46833,7 @@
         <v>1407</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>8860</v>
+        <v>8859</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>4783</v>
@@ -46850,7 +46850,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>8862</v>
+        <v>8861</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>4789</v>
@@ -47884,7 +47884,7 @@
         <v>6800</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9320</v>
+        <v>9318</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>6801</v>
@@ -49135,7 +49135,7 @@
         <v>2626</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>9098</v>
+        <v>9097</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>5564</v>
@@ -49175,7 +49175,7 @@
         <v>4445</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>8760</v>
+        <v>8759</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>4455</v>
@@ -49192,7 +49192,7 @@
         <v>2626</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>9414</v>
+        <v>9412</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>7101</v>
@@ -49209,7 +49209,7 @@
         <v>87</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>8863</v>
+        <v>8862</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>4792</v>
@@ -49226,7 +49226,7 @@
         <v>7</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>8864</v>
+        <v>8863</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>4795</v>
@@ -49243,7 +49243,7 @@
         <v>4798</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>8865</v>
+        <v>8864</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>4799</v>
@@ -49340,7 +49340,7 @@
         <v>15</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>9437</v>
+        <v>9435</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>7173</v>
@@ -49357,7 +49357,7 @@
         <v>6875</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>9343</v>
+        <v>9341</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>6876</v>
@@ -49414,7 +49414,7 @@
         <v>7</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>8866</v>
+        <v>8865</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>4802</v>
@@ -49431,7 +49431,7 @@
         <v>7</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>8867</v>
+        <v>8866</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>4805</v>
@@ -49448,7 +49448,7 @@
         <v>7</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>9544</v>
+        <v>9542</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>4808</v>
@@ -49465,7 +49465,7 @@
         <v>7</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>8868</v>
+        <v>8867</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>4811</v>
@@ -49482,7 +49482,7 @@
         <v>7</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>8935</v>
+        <v>8934</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>5029</v>
@@ -49599,7 +49599,7 @@
         <v>7</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>8869</v>
+        <v>8868</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>4814</v>
@@ -49616,7 +49616,7 @@
         <v>3085</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>9123</v>
+        <v>9122</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>5650</v>
@@ -49730,7 +49730,7 @@
         <v>2650</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>8870</v>
+        <v>8869</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>4818</v>
@@ -49887,7 +49887,7 @@
         <v>7</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>8872</v>
+        <v>8871</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>4824</v>
@@ -49984,7 +49984,7 @@
         <v>7</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>8873</v>
+        <v>8872</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>4827</v>
@@ -50001,7 +50001,7 @@
         <v>7</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>8874</v>
+        <v>8873</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>4830</v>
@@ -50258,7 +50258,7 @@
         <v>7</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>8875</v>
+        <v>8874</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>4833</v>
@@ -50335,7 +50335,7 @@
         <v>7</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>8876</v>
+        <v>8875</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>4836</v>
@@ -50392,7 +50392,7 @@
         <v>7</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>8877</v>
+        <v>8876</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>4839</v>
@@ -50409,7 +50409,7 @@
         <v>7</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>8878</v>
+        <v>8877</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>4285</v>
@@ -50566,7 +50566,7 @@
         <v>6062</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>9479</v>
+        <v>9477</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>6072</v>
@@ -50583,7 +50583,7 @@
         <v>2626</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>9415</v>
+        <v>9413</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>7104</v>
@@ -50983,13 +50983,13 @@
         <v>281</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>9472</v>
+        <v>9470</v>
       </c>
       <c r="E303" s="1" t="s">
+        <v>8878</v>
+      </c>
+      <c r="F303" s="1" t="s">
         <v>8879</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>8880</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -51177,7 +51177,7 @@
         <v>6038</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>9248</v>
+        <v>9247</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>3595</v>
@@ -51254,7 +51254,7 @@
         <v>7</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>8881</v>
+        <v>8880</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>4846</v>
@@ -51291,7 +51291,7 @@
         <v>53</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>8956</v>
+        <v>8955</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>5096</v>
@@ -51308,7 +51308,7 @@
         <v>2980</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>8958</v>
+        <v>8957</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>5103</v>
@@ -51325,7 +51325,7 @@
         <v>7</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>8882</v>
+        <v>8881</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>4849</v>
@@ -51342,7 +51342,7 @@
         <v>7</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>8883</v>
+        <v>8882</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>4852</v>
@@ -51379,7 +51379,7 @@
         <v>7</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>8885</v>
+        <v>8884</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>4858</v>
@@ -51493,7 +51493,7 @@
         <v>7</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>8886</v>
+        <v>8885</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>4864</v>
@@ -51510,7 +51510,7 @@
         <v>7</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>8887</v>
+        <v>8886</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>4867</v>
@@ -51544,7 +51544,7 @@
         <v>7</v>
       </c>
       <c r="D333" t="s">
-        <v>8888</v>
+        <v>8887</v>
       </c>
       <c r="E333" t="s">
         <v>4870</v>
@@ -51561,7 +51561,7 @@
         <v>7</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>8889</v>
+        <v>8888</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>4873</v>
@@ -51715,7 +51715,7 @@
         <v>6310</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>9471</v>
+        <v>9469</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>6314</v>
@@ -51769,7 +51769,7 @@
         <v>1207</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>8944</v>
+        <v>8943</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>5058</v>
@@ -51829,7 +51829,7 @@
         <v>6062</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>9258</v>
+        <v>9257</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>6069</v>
@@ -51889,7 +51889,7 @@
         <v>4445</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>8761</v>
+        <v>8760</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>4461</v>
@@ -51906,7 +51906,7 @@
         <v>7</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>8890</v>
+        <v>8889</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>4876</v>
@@ -51923,7 +51923,7 @@
         <v>7</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>8891</v>
+        <v>8890</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>4880</v>
@@ -51940,7 +51940,7 @@
         <v>7</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>8892</v>
+        <v>8891</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>4883</v>
@@ -51957,7 +51957,7 @@
         <v>7</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>8893</v>
+        <v>8892</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>4885</v>
@@ -51974,7 +51974,7 @@
         <v>7</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>8894</v>
+        <v>8893</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>4888</v>
@@ -51991,7 +51991,7 @@
         <v>2161</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>8895</v>
+        <v>8894</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>4891</v>
@@ -52008,7 +52008,7 @@
         <v>7</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>8896</v>
+        <v>8895</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>4894</v>
@@ -52068,7 +52068,7 @@
         <v>4445</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>8762</v>
+        <v>8761</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>4464</v>
@@ -52105,7 +52105,7 @@
         <v>7</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>8897</v>
+        <v>8896</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>4897</v>
@@ -52142,7 +52142,7 @@
         <v>7</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>8898</v>
+        <v>8897</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>4900</v>
@@ -52159,7 +52159,7 @@
         <v>7</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>8899</v>
+        <v>8898</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>4903</v>
@@ -52179,7 +52179,7 @@
         <v>871</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>9537</v>
+        <v>9535</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>914</v>
@@ -52199,7 +52199,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>9531</v>
+        <v>9529</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>155</v>
@@ -52279,7 +52279,7 @@
         <v>6062</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>9257</v>
+        <v>9256</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>6066</v>
@@ -52399,13 +52399,13 @@
         <v>6641</v>
       </c>
       <c r="D378" s="1" t="s">
+        <v>9264</v>
+      </c>
+      <c r="E378" s="1" t="s">
         <v>9265</v>
       </c>
-      <c r="E378" s="1" t="s">
+      <c r="F378" s="1" t="s">
         <v>9266</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>9267</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -52416,7 +52416,7 @@
         <v>7</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>8900</v>
+        <v>8899</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>4905</v>
@@ -52433,7 +52433,7 @@
         <v>7</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>8901</v>
+        <v>8900</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>4908</v>
@@ -52450,7 +52450,7 @@
         <v>7</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>8902</v>
+        <v>8901</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>4910</v>
@@ -52467,7 +52467,7 @@
         <v>87</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>8903</v>
+        <v>8902</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>4912</v>
@@ -52487,7 +52487,7 @@
         <v>6062</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>9256</v>
+        <v>9255</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>6063</v>
@@ -52547,7 +52547,7 @@
         <v>4445</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>8763</v>
+        <v>8762</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>4467</v>
@@ -52587,7 +52587,7 @@
         <v>3435</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>8637</v>
+        <v>8636</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>3436</v>
@@ -52607,7 +52607,7 @@
         <v>3435</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>8638</v>
+        <v>8637</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>3439</v>
@@ -52627,7 +52627,7 @@
         <v>3435</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>8639</v>
+        <v>8638</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>3442</v>
@@ -52904,7 +52904,7 @@
         <v>7</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>8904</v>
+        <v>8903</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>3293</v>
@@ -52964,7 +52964,7 @@
         <v>4123</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>8678</v>
+        <v>8677</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>963</v>
@@ -53004,7 +53004,7 @@
         <v>4123</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>8679</v>
+        <v>8678</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>4130</v>
@@ -53064,7 +53064,7 @@
         <v>4123</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>8680</v>
+        <v>8679</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>4134</v>
@@ -53084,7 +53084,7 @@
         <v>4123</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>8681</v>
+        <v>8680</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>4137</v>
@@ -53144,7 +53144,7 @@
         <v>4123</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>8682</v>
+        <v>8681</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>4144</v>
@@ -53164,7 +53164,7 @@
         <v>4123</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>8683</v>
+        <v>8682</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>4147</v>
@@ -53278,7 +53278,7 @@
         <v>7</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>8905</v>
+        <v>8904</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>4921</v>
@@ -53498,7 +53498,7 @@
         <v>2361</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>9476</v>
+        <v>9474</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>2362</v>
@@ -53555,7 +53555,7 @@
         <v>4445</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>8764</v>
+        <v>8763</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>4470</v>
@@ -53592,7 +53592,7 @@
         <v>7</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>8906</v>
+        <v>8905</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>1040</v>
@@ -53649,7 +53649,7 @@
         <v>7</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>8907</v>
+        <v>8906</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>4927</v>
@@ -53666,7 +53666,7 @@
         <v>7</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>8908</v>
+        <v>8907</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>4931</v>
@@ -53726,7 +53726,7 @@
         <v>4373</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>8749</v>
+        <v>8748</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>4415</v>
@@ -54302,7 +54302,7 @@
         <v>267</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>9372</v>
+        <v>9370</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>6951</v>
@@ -54319,7 +54319,7 @@
         <v>267</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>9375</v>
+        <v>9373</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>6960</v>
@@ -54336,7 +54336,7 @@
         <v>267</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>9373</v>
+        <v>9371</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>6954</v>
@@ -54370,7 +54370,7 @@
         <v>267</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>9374</v>
+        <v>9372</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>6957</v>
@@ -54387,7 +54387,7 @@
         <v>7</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>8909</v>
+        <v>8908</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>4932</v>
@@ -54404,7 +54404,7 @@
         <v>1069</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>9426</v>
+        <v>9424</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>7139</v>
@@ -54441,7 +54441,7 @@
         <v>4445</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>8765</v>
+        <v>8764</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>4473</v>
@@ -54458,7 +54458,7 @@
         <v>7</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>8910</v>
+        <v>8909</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>4937</v>
@@ -54495,7 +54495,7 @@
         <v>2889</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>8911</v>
+        <v>8910</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>4940</v>
@@ -54552,7 +54552,7 @@
         <v>7</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>8912</v>
+        <v>8911</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>4943</v>
@@ -54629,7 +54629,7 @@
         <v>1035</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>9376</v>
+        <v>9374</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>6965</v>
@@ -54646,7 +54646,7 @@
         <v>2161</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>8913</v>
+        <v>8912</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>4946</v>
@@ -54726,7 +54726,7 @@
         <v>4173</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>8691</v>
+        <v>8690</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>4174</v>
@@ -54760,7 +54760,7 @@
         <v>7</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>8914</v>
+        <v>8913</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>4952</v>
@@ -54797,7 +54797,7 @@
         <v>7</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>8915</v>
+        <v>8914</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>4955</v>
@@ -54868,7 +54868,7 @@
         <v>4326</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>8731</v>
+        <v>8730</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>4327</v>
@@ -54905,7 +54905,7 @@
         <v>7</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>8916</v>
+        <v>8915</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>4961</v>
@@ -54959,7 +54959,7 @@
         <v>7</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>8917</v>
+        <v>8916</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>4968</v>
@@ -54993,7 +54993,7 @@
         <v>7</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>8918</v>
+        <v>8917</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>4972</v>
@@ -55013,7 +55013,7 @@
         <v>4445</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>8766</v>
+        <v>8765</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>4479</v>
@@ -55030,7 +55030,7 @@
         <v>1950</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>9423</v>
+        <v>9421</v>
       </c>
       <c r="E516" s="4" t="s">
         <v>7130</v>
@@ -55107,7 +55107,7 @@
         <v>7</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>8919</v>
+        <v>8918</v>
       </c>
       <c r="E520" s="1" t="s">
         <v>4975</v>
@@ -55147,13 +55147,13 @@
         <v>2761</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>9480</v>
+        <v>9478</v>
       </c>
       <c r="E522" s="1" t="s">
+        <v>8627</v>
+      </c>
+      <c r="F522" s="1" t="s">
         <v>8628</v>
-      </c>
-      <c r="F522" s="1" t="s">
-        <v>8629</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -55167,7 +55167,7 @@
         <v>4445</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>8767</v>
+        <v>8766</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>4482</v>
@@ -55187,7 +55187,7 @@
         <v>4445</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>8768</v>
+        <v>8767</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>4485</v>
@@ -55204,7 +55204,7 @@
         <v>7</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>8920</v>
+        <v>8919</v>
       </c>
       <c r="E525" s="1" t="s">
         <v>4979</v>
@@ -55224,7 +55224,7 @@
         <v>4173</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>8692</v>
+        <v>8691</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>4177</v>
@@ -55361,7 +55361,7 @@
         <v>6991</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>9385</v>
+        <v>9383</v>
       </c>
       <c r="E533" s="1" t="s">
         <v>6992</v>
@@ -55378,7 +55378,7 @@
         <v>7</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>9481</v>
+        <v>9479</v>
       </c>
       <c r="E534" s="1" t="s">
         <v>4981</v>
@@ -55415,7 +55415,7 @@
         <v>217</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>9313</v>
+        <v>9311</v>
       </c>
       <c r="E536" s="1" t="s">
         <v>6779</v>
@@ -55452,7 +55452,7 @@
         <v>42</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>9482</v>
+        <v>9480</v>
       </c>
       <c r="E538" s="1" t="s">
         <v>6131</v>
@@ -55469,7 +55469,7 @@
         <v>7</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>8921</v>
+        <v>8920</v>
       </c>
       <c r="E539" s="1" t="s">
         <v>4984</v>
@@ -55486,7 +55486,7 @@
         <v>7</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>8922</v>
+        <v>8921</v>
       </c>
       <c r="E540" s="1" t="s">
         <v>4987</v>
@@ -55546,7 +55546,7 @@
         <v>710</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>9348</v>
+        <v>9346</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>6891</v>
@@ -55583,7 +55583,7 @@
         <v>3009</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>9406</v>
+        <v>9404</v>
       </c>
       <c r="E545" s="1" t="s">
         <v>7073</v>
@@ -55620,7 +55620,7 @@
         <v>7</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>8923</v>
+        <v>8922</v>
       </c>
       <c r="E547" s="1" t="s">
         <v>4990</v>
@@ -55637,7 +55637,7 @@
         <v>7</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>8924</v>
+        <v>8923</v>
       </c>
       <c r="E548" s="1" t="s">
         <v>4993</v>
@@ -55654,7 +55654,7 @@
         <v>5325</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="E549" s="4" t="s">
         <v>5326</v>
@@ -55691,7 +55691,7 @@
         <v>7</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>8926</v>
+        <v>8925</v>
       </c>
       <c r="E551" s="1" t="s">
         <v>4999</v>
@@ -55771,7 +55771,7 @@
         <v>1892</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>8739</v>
+        <v>8738</v>
       </c>
       <c r="E555" s="1" t="s">
         <v>4360</v>
@@ -55791,13 +55791,13 @@
         <v>1892</v>
       </c>
       <c r="D556" s="1" t="s">
+        <v>9546</v>
+      </c>
+      <c r="E556" s="1" t="s">
         <v>8618</v>
       </c>
-      <c r="E556" s="1" t="s">
+      <c r="F556" s="1" t="s">
         <v>8619</v>
-      </c>
-      <c r="F556" s="1" t="s">
-        <v>8620</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -55811,13 +55811,13 @@
         <v>1892</v>
       </c>
       <c r="D557" s="1" t="s">
+        <v>8620</v>
+      </c>
+      <c r="E557" s="1" t="s">
         <v>8621</v>
       </c>
-      <c r="E557" s="1" t="s">
+      <c r="F557" t="s">
         <v>8622</v>
-      </c>
-      <c r="F557" t="s">
-        <v>8623</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -55928,7 +55928,7 @@
         <v>7</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>8723</v>
+        <v>8722</v>
       </c>
       <c r="E563" s="1" t="s">
         <v>4292</v>
@@ -55965,7 +55965,7 @@
         <v>7</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>8927</v>
+        <v>8926</v>
       </c>
       <c r="E565" s="1" t="s">
         <v>5004</v>
@@ -56002,7 +56002,7 @@
         <v>7</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>8928</v>
+        <v>8927</v>
       </c>
       <c r="E567" s="1" t="s">
         <v>5006</v>
@@ -56496,7 +56496,7 @@
         <v>7</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>8929</v>
+        <v>8928</v>
       </c>
       <c r="E592" s="1" t="s">
         <v>5009</v>
@@ -56913,7 +56913,7 @@
         <v>7</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>8930</v>
+        <v>8929</v>
       </c>
       <c r="E613" s="1" t="s">
         <v>5013</v>
@@ -57210,7 +57210,7 @@
         <v>5018</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>8932</v>
+        <v>8931</v>
       </c>
       <c r="E628" s="1" t="s">
         <v>5019</v>
@@ -57487,7 +57487,7 @@
         <v>2197</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>9389</v>
+        <v>9387</v>
       </c>
       <c r="E642" s="1" t="s">
         <v>7005</v>
@@ -57504,7 +57504,7 @@
         <v>2197</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>9390</v>
+        <v>9388</v>
       </c>
       <c r="E643" s="1" t="s">
         <v>7008</v>
@@ -57621,7 +57621,7 @@
         <v>1933</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>9547</v>
+        <v>9545</v>
       </c>
       <c r="E649" s="1" t="s">
         <v>914</v>
@@ -57718,7 +57718,7 @@
         <v>7</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>8933</v>
+        <v>8932</v>
       </c>
       <c r="E654" s="1" t="s">
         <v>5023</v>
@@ -57735,7 +57735,7 @@
         <v>7</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>8934</v>
+        <v>8933</v>
       </c>
       <c r="E655" s="1" t="s">
         <v>5026</v>
@@ -57763,7 +57763,7 @@
         <v>7</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>8937</v>
+        <v>8936</v>
       </c>
       <c r="E657" s="1" t="s">
         <v>5036</v>
@@ -57800,7 +57800,7 @@
         <v>7</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>8938</v>
+        <v>8937</v>
       </c>
       <c r="E659" s="1" t="s">
         <v>5039</v>
@@ -57837,7 +57837,7 @@
         <v>7</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>8939</v>
+        <v>8938</v>
       </c>
       <c r="E661" s="1" t="s">
         <v>5042</v>
@@ -57894,7 +57894,7 @@
         <v>7</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>8940</v>
+        <v>8939</v>
       </c>
       <c r="E664" s="1" t="s">
         <v>5044</v>
@@ -57931,7 +57931,7 @@
         <v>7</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>8941</v>
+        <v>8940</v>
       </c>
       <c r="E666" s="1" t="s">
         <v>5047</v>
@@ -57948,7 +57948,7 @@
         <v>108</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>8942</v>
+        <v>8941</v>
       </c>
       <c r="E667" s="1" t="s">
         <v>5050</v>
@@ -58088,13 +58088,13 @@
         <v>6641</v>
       </c>
       <c r="D674" s="1" t="s">
+        <v>9547</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>9267</v>
+      </c>
+      <c r="F674" s="1" t="s">
         <v>9268</v>
-      </c>
-      <c r="E674" s="1" t="s">
-        <v>9269</v>
-      </c>
-      <c r="F674" s="1" t="s">
-        <v>9270</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -58196,7 +58196,7 @@
         <v>462</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>9409</v>
+        <v>9407</v>
       </c>
       <c r="E680" s="1" t="s">
         <v>7082</v>
@@ -58310,7 +58310,7 @@
         <v>7</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>8945</v>
+        <v>8944</v>
       </c>
       <c r="E686" s="1" t="s">
         <v>3531</v>
@@ -58830,7 +58830,7 @@
         <v>1946</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>8946</v>
+        <v>8945</v>
       </c>
       <c r="E712" s="1" t="s">
         <v>5066</v>
@@ -58890,7 +58890,7 @@
         <v>1946</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>8955</v>
+        <v>8954</v>
       </c>
       <c r="E715" s="1" t="s">
         <v>5093</v>
@@ -58910,7 +58910,7 @@
         <v>1946</v>
       </c>
       <c r="D716" s="4" t="s">
-        <v>8950</v>
+        <v>8949</v>
       </c>
       <c r="E716" s="4" t="s">
         <v>5078</v>
@@ -59190,7 +59190,7 @@
         <v>1946</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>8953</v>
+        <v>8952</v>
       </c>
       <c r="E730" s="1" t="s">
         <v>5087</v>
@@ -59210,7 +59210,7 @@
         <v>1946</v>
       </c>
       <c r="D731" s="4" t="s">
-        <v>8947</v>
+        <v>8946</v>
       </c>
       <c r="E731" s="4" t="s">
         <v>5069</v>
@@ -59230,7 +59230,7 @@
         <v>1946</v>
       </c>
       <c r="D732" s="4" t="s">
-        <v>8948</v>
+        <v>8947</v>
       </c>
       <c r="E732" s="4" t="s">
         <v>5072</v>
@@ -59250,7 +59250,7 @@
         <v>1946</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>8951</v>
+        <v>8950</v>
       </c>
       <c r="E733" s="1" t="s">
         <v>5081</v>
@@ -59270,7 +59270,7 @@
         <v>1946</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>8952</v>
+        <v>8951</v>
       </c>
       <c r="E734" s="1" t="s">
         <v>5084</v>
@@ -59290,7 +59290,7 @@
         <v>1946</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>8954</v>
+        <v>8953</v>
       </c>
       <c r="E735" s="1" t="s">
         <v>5090</v>
@@ -59447,7 +59447,7 @@
         <v>7</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>8957</v>
+        <v>8956</v>
       </c>
       <c r="E743" s="1" t="s">
         <v>5099</v>
@@ -59544,7 +59544,7 @@
         <v>7</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>8936</v>
+        <v>8935</v>
       </c>
       <c r="E748" s="1" t="s">
         <v>5032</v>
@@ -59658,7 +59658,7 @@
         <v>5018</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>9402</v>
+        <v>9400</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>7061</v>
@@ -59675,7 +59675,7 @@
         <v>5018</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>9403</v>
+        <v>9401</v>
       </c>
       <c r="E755" s="1" t="s">
         <v>7064</v>
@@ -59692,7 +59692,7 @@
         <v>445</v>
       </c>
       <c r="D756" s="4" t="s">
-        <v>9404</v>
+        <v>9402</v>
       </c>
       <c r="E756" s="4" t="s">
         <v>7067</v>
@@ -59709,7 +59709,7 @@
         <v>7</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>8959</v>
+        <v>8958</v>
       </c>
       <c r="E757" s="1" t="s">
         <v>5106</v>
@@ -59800,7 +59800,7 @@
         <v>7</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>8960</v>
+        <v>8959</v>
       </c>
       <c r="E762" s="1" t="s">
         <v>5110</v>
@@ -59857,7 +59857,7 @@
         <v>7150</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>9431</v>
+        <v>9429</v>
       </c>
       <c r="E765" s="1" t="s">
         <v>7154</v>
@@ -59908,7 +59908,7 @@
         <v>5114</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>8961</v>
+        <v>8960</v>
       </c>
       <c r="E768" s="1" t="s">
         <v>5115</v>
@@ -59925,7 +59925,7 @@
         <v>7</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>8962</v>
+        <v>8961</v>
       </c>
       <c r="E769" s="1" t="s">
         <v>3324</v>
@@ -59942,7 +59942,7 @@
         <v>7</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>8963</v>
+        <v>8962</v>
       </c>
       <c r="E770" s="1" t="s">
         <v>3278</v>
@@ -60016,7 +60016,7 @@
         <v>6038</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>9253</v>
+        <v>9252</v>
       </c>
       <c r="E774" s="1" t="s">
         <v>6053</v>
@@ -60036,7 +60036,7 @@
         <v>6038</v>
       </c>
       <c r="D775" s="4" t="s">
-        <v>9254</v>
+        <v>9253</v>
       </c>
       <c r="E775" s="4" t="s">
         <v>6056</v>
@@ -60056,7 +60056,7 @@
         <v>6038</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>9249</v>
+        <v>9248</v>
       </c>
       <c r="E776" s="1" t="s">
         <v>6041</v>
@@ -60076,7 +60076,7 @@
         <v>6038</v>
       </c>
       <c r="D777" s="4" t="s">
-        <v>9250</v>
+        <v>9249</v>
       </c>
       <c r="E777" s="4" t="s">
         <v>6044</v>
@@ -60096,7 +60096,7 @@
         <v>6038</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>9255</v>
+        <v>9254</v>
       </c>
       <c r="E778" s="1" t="s">
         <v>6059</v>
@@ -60116,7 +60116,7 @@
         <v>6038</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>9251</v>
+        <v>9250</v>
       </c>
       <c r="E779" s="1" t="s">
         <v>6047</v>
@@ -60136,7 +60136,7 @@
         <v>6038</v>
       </c>
       <c r="D780" s="4" t="s">
-        <v>9252</v>
+        <v>9251</v>
       </c>
       <c r="E780" s="4" t="s">
         <v>6050</v>
@@ -60153,7 +60153,7 @@
         <v>7</v>
       </c>
       <c r="D781" s="1" t="s">
-        <v>8964</v>
+        <v>8963</v>
       </c>
       <c r="E781" s="1" t="s">
         <v>5119</v>
@@ -60247,7 +60247,7 @@
         <v>1340</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>9450</v>
+        <v>9448</v>
       </c>
       <c r="E786" s="1" t="s">
         <v>7216</v>
@@ -60281,7 +60281,7 @@
         <v>7</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>8965</v>
+        <v>8964</v>
       </c>
       <c r="E788" s="1" t="s">
         <v>5122</v>
@@ -60298,7 +60298,7 @@
         <v>7</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>8966</v>
+        <v>8965</v>
       </c>
       <c r="E789" s="1" t="s">
         <v>5125</v>
@@ -60375,7 +60375,7 @@
         <v>4445</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>8769</v>
+        <v>8768</v>
       </c>
       <c r="E793" s="1" t="s">
         <v>4488</v>
@@ -60395,7 +60395,7 @@
         <v>4445</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>8770</v>
+        <v>8769</v>
       </c>
       <c r="E794" s="1" t="s">
         <v>4491</v>
@@ -60412,7 +60412,7 @@
         <v>7</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>8967</v>
+        <v>8966</v>
       </c>
       <c r="E795" s="1" t="s">
         <v>5128</v>
@@ -60506,7 +60506,7 @@
         <v>7</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>8968</v>
+        <v>8967</v>
       </c>
       <c r="E800" s="1" t="s">
         <v>5134</v>
@@ -60540,7 +60540,7 @@
         <v>7</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>8969</v>
+        <v>8968</v>
       </c>
       <c r="E802" s="1" t="s">
         <v>5137</v>
@@ -60617,7 +60617,7 @@
         <v>7</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>8970</v>
+        <v>8969</v>
       </c>
       <c r="E806" s="1" t="s">
         <v>5141</v>
@@ -60731,7 +60731,7 @@
         <v>7</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>8971</v>
+        <v>8970</v>
       </c>
       <c r="E812" s="1" t="s">
         <v>4342</v>
@@ -60948,7 +60948,7 @@
         <v>7</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>8972</v>
+        <v>8971</v>
       </c>
       <c r="E823" s="1" t="s">
         <v>5144</v>
@@ -61005,7 +61005,7 @@
         <v>7</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>8973</v>
+        <v>8972</v>
       </c>
       <c r="E826" s="1" t="s">
         <v>5147</v>
@@ -61022,7 +61022,7 @@
         <v>256</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>9428</v>
+        <v>9426</v>
       </c>
       <c r="E827" s="1" t="s">
         <v>7144</v>
@@ -61219,7 +61219,7 @@
         <v>132</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>9072</v>
+        <v>9071</v>
       </c>
       <c r="E837" s="1" t="s">
         <v>5479</v>
@@ -61236,7 +61236,7 @@
         <v>7</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>8974</v>
+        <v>8973</v>
       </c>
       <c r="E838" s="1" t="s">
         <v>5150</v>
@@ -61253,7 +61253,7 @@
         <v>7</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>9483</v>
+        <v>9481</v>
       </c>
       <c r="E839" s="1" t="s">
         <v>5154</v>
@@ -61273,13 +61273,13 @@
         <v>6641</v>
       </c>
       <c r="D840" s="1" t="s">
+        <v>9272</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>9273</v>
+      </c>
+      <c r="F840" s="1" t="s">
         <v>9274</v>
-      </c>
-      <c r="E840" s="1" t="s">
-        <v>9275</v>
-      </c>
-      <c r="F840" s="1" t="s">
-        <v>9276</v>
       </c>
     </row>
     <row r="841" spans="1:6">
@@ -61293,13 +61293,13 @@
         <v>6641</v>
       </c>
       <c r="D841" s="1" t="s">
+        <v>9269</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>9270</v>
+      </c>
+      <c r="F841" s="1" t="s">
         <v>9271</v>
-      </c>
-      <c r="E841" s="1" t="s">
-        <v>9272</v>
-      </c>
-      <c r="F841" s="1" t="s">
-        <v>9273</v>
       </c>
     </row>
     <row r="842" spans="1:6">
@@ -61310,7 +61310,7 @@
         <v>5204</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>9344</v>
+        <v>9342</v>
       </c>
       <c r="E842" s="1" t="s">
         <v>6879</v>
@@ -61327,7 +61327,7 @@
         <v>5204</v>
       </c>
       <c r="D843" s="4" t="s">
-        <v>9345</v>
+        <v>9343</v>
       </c>
       <c r="E843" s="4" t="s">
         <v>6882</v>
@@ -61344,7 +61344,7 @@
         <v>7</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>8975</v>
+        <v>8974</v>
       </c>
       <c r="E844" s="1" t="s">
         <v>5156</v>
@@ -61361,7 +61361,7 @@
         <v>7</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>8976</v>
+        <v>8975</v>
       </c>
       <c r="E845" s="1" t="s">
         <v>5159</v>
@@ -61415,7 +61415,7 @@
         <v>7</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>8977</v>
+        <v>8976</v>
       </c>
       <c r="E848" s="1" t="s">
         <v>5164</v>
@@ -61449,7 +61449,7 @@
         <v>7</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>8978</v>
+        <v>8977</v>
       </c>
       <c r="E850" s="1" t="s">
         <v>5169</v>
@@ -61466,7 +61466,7 @@
         <v>248</v>
       </c>
       <c r="D851" s="4" t="s">
-        <v>8980</v>
+        <v>8979</v>
       </c>
       <c r="E851" s="4" t="s">
         <v>5175</v>
@@ -61483,7 +61483,7 @@
         <v>93</v>
       </c>
       <c r="D852" s="4" t="s">
-        <v>8979</v>
+        <v>8978</v>
       </c>
       <c r="E852" s="4" t="s">
         <v>5172</v>
@@ -61500,7 +61500,7 @@
         <v>978</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>9369</v>
+        <v>9367</v>
       </c>
       <c r="E853" s="1" t="s">
         <v>6942</v>
@@ -61614,7 +61614,7 @@
         <v>7</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>8981</v>
+        <v>8980</v>
       </c>
       <c r="E859" s="1" t="s">
         <v>5180</v>
@@ -61631,7 +61631,7 @@
         <v>7</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>8982</v>
+        <v>8981</v>
       </c>
       <c r="E860" s="1" t="s">
         <v>5183</v>
@@ -61648,7 +61648,7 @@
         <v>7</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>8983</v>
+        <v>8982</v>
       </c>
       <c r="E861" s="1" t="s">
         <v>5186</v>
@@ -61665,7 +61665,7 @@
         <v>7</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>8984</v>
+        <v>8983</v>
       </c>
       <c r="E862" s="1" t="s">
         <v>5189</v>
@@ -61742,7 +61742,7 @@
         <v>7</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>8985</v>
+        <v>8984</v>
       </c>
       <c r="E866" s="1" t="s">
         <v>5192</v>
@@ -61839,7 +61839,7 @@
         <v>7</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>8986</v>
+        <v>8985</v>
       </c>
       <c r="E871" s="1" t="s">
         <v>5196</v>
@@ -61976,7 +61976,7 @@
         <v>93</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>9285</v>
+        <v>9283</v>
       </c>
       <c r="E878" s="1" t="s">
         <v>6688</v>
@@ -61993,7 +61993,7 @@
         <v>93</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>9284</v>
+        <v>9282</v>
       </c>
       <c r="E879" s="1" t="s">
         <v>6685</v>
@@ -62087,7 +62087,7 @@
         <v>93</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>9283</v>
+        <v>9281</v>
       </c>
       <c r="E884" s="1" t="s">
         <v>6679</v>
@@ -62104,7 +62104,7 @@
         <v>93</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>9286</v>
+        <v>9284</v>
       </c>
       <c r="E885" s="1" t="s">
         <v>6691</v>
@@ -62124,7 +62124,7 @@
         <v>4445</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>8771</v>
+        <v>8770</v>
       </c>
       <c r="E886" s="1" t="s">
         <v>4494</v>
@@ -62201,7 +62201,7 @@
         <v>7</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>8987</v>
+        <v>8986</v>
       </c>
       <c r="E890" s="1" t="s">
         <v>5198</v>
@@ -62221,7 +62221,7 @@
         <v>4445</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>8772</v>
+        <v>8771</v>
       </c>
       <c r="E891" s="1" t="s">
         <v>4500</v>
@@ -62258,7 +62258,7 @@
         <v>7</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>8988</v>
+        <v>8987</v>
       </c>
       <c r="E893" s="1" t="s">
         <v>5201</v>
@@ -62315,7 +62315,7 @@
         <v>5204</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>8989</v>
+        <v>8988</v>
       </c>
       <c r="E896" s="1" t="s">
         <v>5205</v>
@@ -62352,7 +62352,7 @@
         <v>7</v>
       </c>
       <c r="D898" s="1" t="s">
-        <v>8990</v>
+        <v>8989</v>
       </c>
       <c r="E898" s="1" t="s">
         <v>5208</v>
@@ -62369,7 +62369,7 @@
         <v>108</v>
       </c>
       <c r="D899" s="1" t="s">
-        <v>8991</v>
+        <v>8990</v>
       </c>
       <c r="E899" s="1" t="s">
         <v>5211</v>
@@ -62386,13 +62386,13 @@
         <v>6924</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>9484</v>
+        <v>9482</v>
       </c>
       <c r="E900" s="1" t="s">
-        <v>9360</v>
+        <v>9358</v>
       </c>
       <c r="F900" t="s">
-        <v>9361</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -62403,7 +62403,7 @@
         <v>217</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>9312</v>
+        <v>9310</v>
       </c>
       <c r="E901" s="1" t="s">
         <v>6776</v>
@@ -62420,13 +62420,13 @@
         <v>3380</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>9485</v>
+        <v>9483</v>
       </c>
       <c r="E902" s="1" t="s">
-        <v>9362</v>
+        <v>9360</v>
       </c>
       <c r="F902" t="s">
-        <v>9363</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="903" spans="1:6">
@@ -62437,7 +62437,7 @@
         <v>3380</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>9364</v>
+        <v>9362</v>
       </c>
       <c r="E903" s="1" t="s">
         <v>6927</v>
@@ -62454,7 +62454,7 @@
         <v>391</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>9392</v>
+        <v>9390</v>
       </c>
       <c r="E904" s="1" t="s">
         <v>7019</v>
@@ -62491,7 +62491,7 @@
         <v>1946</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>9486</v>
+        <v>9484</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>2065</v>
@@ -62508,7 +62508,7 @@
         <v>15</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>9436</v>
+        <v>9434</v>
       </c>
       <c r="E907" s="1" t="s">
         <v>7170</v>
@@ -62545,7 +62545,7 @@
         <v>7</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>8992</v>
+        <v>8991</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>5213</v>
@@ -62693,7 +62693,7 @@
         <v>7117</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>9419</v>
+        <v>9417</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>7118</v>
@@ -62710,7 +62710,7 @@
         <v>6868</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>9341</v>
+        <v>9339</v>
       </c>
       <c r="E918" s="1" t="s">
         <v>6869</v>
@@ -62730,7 +62730,7 @@
         <v>710</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>9349</v>
+        <v>9347</v>
       </c>
       <c r="E919" s="1" t="s">
         <v>6896</v>
@@ -62747,7 +62747,7 @@
         <v>445</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>9340</v>
+        <v>9338</v>
       </c>
       <c r="E920" s="1" t="s">
         <v>6865</v>
@@ -62784,7 +62784,7 @@
         <v>7</v>
       </c>
       <c r="D922" s="1" t="s">
-        <v>8993</v>
+        <v>8992</v>
       </c>
       <c r="E922" s="1" t="s">
         <v>5216</v>
@@ -62801,7 +62801,7 @@
         <v>12</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>8997</v>
+        <v>8996</v>
       </c>
       <c r="E923" s="1" t="s">
         <v>5228</v>
@@ -62818,7 +62818,7 @@
         <v>7</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>8994</v>
+        <v>8993</v>
       </c>
       <c r="E924" s="1" t="s">
         <v>5219</v>
@@ -62835,7 +62835,7 @@
         <v>7</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>8995</v>
+        <v>8994</v>
       </c>
       <c r="E925" s="1" t="s">
         <v>5222</v>
@@ -62852,7 +62852,7 @@
         <v>7</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>8996</v>
+        <v>8995</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>5225</v>
@@ -63529,7 +63529,7 @@
         <v>217</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>9315</v>
+        <v>9313</v>
       </c>
       <c r="E960" s="1" t="s">
         <v>6785</v>
@@ -63546,7 +63546,7 @@
         <v>5204</v>
       </c>
       <c r="D961" s="1" t="s">
-        <v>9316</v>
+        <v>9314</v>
       </c>
       <c r="E961" s="1" t="s">
         <v>6788</v>
@@ -63563,7 +63563,7 @@
         <v>15</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>9439</v>
+        <v>9437</v>
       </c>
       <c r="E962" s="1" t="s">
         <v>7179</v>
@@ -63580,7 +63580,7 @@
         <v>15</v>
       </c>
       <c r="D963" s="1" t="s">
-        <v>9440</v>
+        <v>9438</v>
       </c>
       <c r="E963" s="1" t="s">
         <v>7182</v>
@@ -63597,7 +63597,7 @@
         <v>15</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>9438</v>
+        <v>9436</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>7176</v>
@@ -63674,7 +63674,7 @@
         <v>1950</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>9427</v>
+        <v>9425</v>
       </c>
       <c r="E968" s="1" t="s">
         <v>7136</v>
@@ -63711,7 +63711,7 @@
         <v>7</v>
       </c>
       <c r="D970" s="1" t="s">
-        <v>8998</v>
+        <v>8997</v>
       </c>
       <c r="E970" s="1" t="s">
         <v>5231</v>
@@ -63728,7 +63728,7 @@
         <v>7</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>8999</v>
+        <v>8998</v>
       </c>
       <c r="E971" s="1" t="s">
         <v>5234</v>
@@ -63748,7 +63748,7 @@
         <v>6062</v>
       </c>
       <c r="D972" s="1" t="s">
-        <v>9260</v>
+        <v>9259</v>
       </c>
       <c r="E972" s="1" t="s">
         <v>6078</v>
@@ -63905,7 +63905,7 @@
         <v>248</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>9412</v>
+        <v>9410</v>
       </c>
       <c r="E980" s="1" t="s">
         <v>7091</v>
@@ -63922,7 +63922,7 @@
         <v>7</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>9000</v>
+        <v>8999</v>
       </c>
       <c r="E981" s="1" t="s">
         <v>5236</v>
@@ -63956,7 +63956,7 @@
         <v>7107</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>9416</v>
+        <v>9414</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>7108</v>
@@ -63973,7 +63973,7 @@
         <v>7107</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>9418</v>
+        <v>9416</v>
       </c>
       <c r="E984" s="1" t="s">
         <v>7114</v>
@@ -63990,7 +63990,7 @@
         <v>7107</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>9417</v>
+        <v>9415</v>
       </c>
       <c r="E985" s="1" t="s">
         <v>7111</v>
@@ -64007,7 +64007,7 @@
         <v>391</v>
       </c>
       <c r="D986" t="s">
-        <v>9393</v>
+        <v>9391</v>
       </c>
       <c r="E986" t="s">
         <v>7034</v>
@@ -64024,7 +64024,7 @@
         <v>6372</v>
       </c>
       <c r="D987" t="s">
-        <v>9487</v>
+        <v>9485</v>
       </c>
       <c r="E987" t="s">
         <v>7037</v>
@@ -64041,13 +64041,13 @@
         <v>391</v>
       </c>
       <c r="D988" s="1" t="s">
-        <v>9488</v>
+        <v>9486</v>
       </c>
       <c r="E988" s="1" t="s">
-        <v>9394</v>
+        <v>9392</v>
       </c>
       <c r="F988" t="s">
-        <v>9395</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -64078,7 +64078,7 @@
         <v>7</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="E990" s="1" t="s">
         <v>5239</v>
@@ -64212,7 +64212,7 @@
         <v>7</v>
       </c>
       <c r="D997" s="1" t="s">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="E997" s="1" t="s">
         <v>5242</v>
@@ -64306,7 +64306,7 @@
         <v>981</v>
       </c>
       <c r="D1002" s="1" t="s">
-        <v>9358</v>
+        <v>9356</v>
       </c>
       <c r="E1002" s="1" t="s">
         <v>6918</v>
@@ -64323,7 +64323,7 @@
         <v>271</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>9336</v>
+        <v>9334</v>
       </c>
       <c r="E1003" s="1" t="s">
         <v>6853</v>
@@ -64340,7 +64340,7 @@
         <v>271</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>9337</v>
+        <v>9335</v>
       </c>
       <c r="E1004" s="1" t="s">
         <v>6856</v>
@@ -64357,7 +64357,7 @@
         <v>1654</v>
       </c>
       <c r="D1005" s="1" t="s">
-        <v>9334</v>
+        <v>9332</v>
       </c>
       <c r="E1005" s="1" t="s">
         <v>6847</v>
@@ -64374,7 +64374,7 @@
         <v>1654</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>9335</v>
+        <v>9333</v>
       </c>
       <c r="E1006" s="1" t="s">
         <v>6850</v>
@@ -64391,7 +64391,7 @@
         <v>271</v>
       </c>
       <c r="D1007" s="1" t="s">
-        <v>9338</v>
+        <v>9336</v>
       </c>
       <c r="E1007" s="1" t="s">
         <v>6859</v>
@@ -64459,7 +64459,7 @@
         <v>4180</v>
       </c>
       <c r="D1011" s="1" t="s">
-        <v>8693</v>
+        <v>8692</v>
       </c>
       <c r="E1011" s="1" t="s">
         <v>4181</v>
@@ -64479,7 +64479,7 @@
         <v>4173</v>
       </c>
       <c r="D1012" s="1" t="s">
-        <v>8694</v>
+        <v>8693</v>
       </c>
       <c r="E1012" s="1" t="s">
         <v>4184</v>
@@ -64496,7 +64496,7 @@
         <v>93</v>
       </c>
       <c r="D1013" t="s">
-        <v>9300</v>
+        <v>9298</v>
       </c>
       <c r="E1013" t="s">
         <v>6733</v>
@@ -64513,7 +64513,7 @@
         <v>395</v>
       </c>
       <c r="D1014" t="s">
-        <v>9299</v>
+        <v>9297</v>
       </c>
       <c r="E1014" t="s">
         <v>6730</v>
@@ -64530,7 +64530,7 @@
         <v>93</v>
       </c>
       <c r="D1015" t="s">
-        <v>9291</v>
+        <v>9289</v>
       </c>
       <c r="E1015" t="s">
         <v>6706</v>
@@ -64547,7 +64547,7 @@
         <v>93</v>
       </c>
       <c r="D1016" t="s">
-        <v>9295</v>
+        <v>9293</v>
       </c>
       <c r="E1016" t="s">
         <v>6718</v>
@@ -64564,7 +64564,7 @@
         <v>93</v>
       </c>
       <c r="D1017" t="s">
-        <v>9287</v>
+        <v>9285</v>
       </c>
       <c r="E1017" t="s">
         <v>6694</v>
@@ -64581,7 +64581,7 @@
         <v>93</v>
       </c>
       <c r="D1018" t="s">
-        <v>9292</v>
+        <v>9290</v>
       </c>
       <c r="E1018" t="s">
         <v>6709</v>
@@ -64598,7 +64598,7 @@
         <v>2912</v>
       </c>
       <c r="D1019" t="s">
-        <v>9296</v>
+        <v>9294</v>
       </c>
       <c r="E1019" t="s">
         <v>6721</v>
@@ -64615,7 +64615,7 @@
         <v>93</v>
       </c>
       <c r="D1020" t="s">
-        <v>9288</v>
+        <v>9286</v>
       </c>
       <c r="E1020" t="s">
         <v>6697</v>
@@ -64632,7 +64632,7 @@
         <v>93</v>
       </c>
       <c r="D1021" t="s">
-        <v>9294</v>
+        <v>9292</v>
       </c>
       <c r="E1021" t="s">
         <v>6715</v>
@@ -64649,7 +64649,7 @@
         <v>93</v>
       </c>
       <c r="D1022" t="s">
-        <v>9298</v>
+        <v>9296</v>
       </c>
       <c r="E1022" t="s">
         <v>6727</v>
@@ -64666,7 +64666,7 @@
         <v>93</v>
       </c>
       <c r="D1023" t="s">
-        <v>9290</v>
+        <v>9288</v>
       </c>
       <c r="E1023" t="s">
         <v>6703</v>
@@ -64683,7 +64683,7 @@
         <v>93</v>
       </c>
       <c r="D1024" t="s">
-        <v>9293</v>
+        <v>9291</v>
       </c>
       <c r="E1024" t="s">
         <v>6712</v>
@@ -64700,7 +64700,7 @@
         <v>93</v>
       </c>
       <c r="D1025" t="s">
-        <v>9297</v>
+        <v>9295</v>
       </c>
       <c r="E1025" t="s">
         <v>6724</v>
@@ -64717,7 +64717,7 @@
         <v>93</v>
       </c>
       <c r="D1026" t="s">
-        <v>9289</v>
+        <v>9287</v>
       </c>
       <c r="E1026" t="s">
         <v>6700</v>
@@ -65097,7 +65097,7 @@
         <v>4173</v>
       </c>
       <c r="D1045" s="1" t="s">
-        <v>8695</v>
+        <v>8694</v>
       </c>
       <c r="E1045" s="1" t="s">
         <v>4186</v>
@@ -65177,7 +65177,7 @@
         <v>6062</v>
       </c>
       <c r="D1049" s="1" t="s">
-        <v>9259</v>
+        <v>9258</v>
       </c>
       <c r="E1049" s="1" t="s">
         <v>6075</v>
@@ -65234,7 +65234,7 @@
         <v>7</v>
       </c>
       <c r="D1052" s="1" t="s">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="E1052" s="1" t="s">
         <v>369</v>
@@ -65251,7 +65251,7 @@
         <v>7</v>
       </c>
       <c r="D1053" s="1" t="s">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="E1053" s="1" t="s">
         <v>5253</v>
@@ -65268,7 +65268,7 @@
         <v>248</v>
       </c>
       <c r="D1054" s="1" t="s">
-        <v>9391</v>
+        <v>9389</v>
       </c>
       <c r="E1054" s="1" t="s">
         <v>7014</v>
@@ -65402,7 +65402,7 @@
         <v>2973</v>
       </c>
       <c r="D1061" s="1" t="s">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="E1061" s="1" t="s">
         <v>5256</v>
@@ -65419,7 +65419,7 @@
         <v>263</v>
       </c>
       <c r="D1062" s="1" t="s">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="E1062" s="1" t="s">
         <v>5259</v>
@@ -65559,13 +65559,13 @@
         <v>2795</v>
       </c>
       <c r="D1069" s="1" t="s">
-        <v>9489</v>
+        <v>9487</v>
       </c>
       <c r="E1069" s="1" t="s">
+        <v>8629</v>
+      </c>
+      <c r="F1069" t="s">
         <v>8630</v>
-      </c>
-      <c r="F1069" t="s">
-        <v>8631</v>
       </c>
     </row>
     <row r="1070" spans="1:6">
@@ -65599,7 +65599,7 @@
         <v>2569</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>9490</v>
+        <v>9488</v>
       </c>
       <c r="E1071" s="1" t="s">
         <v>2612</v>
@@ -65639,7 +65639,7 @@
         <v>2807</v>
       </c>
       <c r="D1073" s="1" t="s">
-        <v>8659</v>
+        <v>8658</v>
       </c>
       <c r="E1073" s="1" t="s">
         <v>4063</v>
@@ -65659,7 +65659,7 @@
         <v>2807</v>
       </c>
       <c r="D1074" s="1" t="s">
-        <v>8660</v>
+        <v>8659</v>
       </c>
       <c r="E1074" s="1" t="s">
         <v>4066</v>
@@ -65753,7 +65753,7 @@
         <v>217</v>
       </c>
       <c r="D1079" s="4" t="s">
-        <v>9492</v>
+        <v>9490</v>
       </c>
       <c r="E1079" s="4" t="s">
         <v>6751</v>
@@ -65770,7 +65770,7 @@
         <v>93</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>9491</v>
+        <v>9489</v>
       </c>
       <c r="E1080" s="1" t="s">
         <v>6742</v>
@@ -65787,7 +65787,7 @@
         <v>217</v>
       </c>
       <c r="D1081" t="s">
-        <v>9305</v>
+        <v>9303</v>
       </c>
       <c r="E1081" t="s">
         <v>6754</v>
@@ -65804,7 +65804,7 @@
         <v>217</v>
       </c>
       <c r="D1082" s="3" t="s">
-        <v>9306</v>
+        <v>9304</v>
       </c>
       <c r="E1082" s="3" t="s">
         <v>6757</v>
@@ -65821,7 +65821,7 @@
         <v>217</v>
       </c>
       <c r="D1083" t="s">
-        <v>9307</v>
+        <v>9305</v>
       </c>
       <c r="E1083" t="s">
         <v>6760</v>
@@ -65838,7 +65838,7 @@
         <v>217</v>
       </c>
       <c r="D1084" t="s">
-        <v>9308</v>
+        <v>9306</v>
       </c>
       <c r="E1084" t="s">
         <v>6763</v>
@@ -65855,7 +65855,7 @@
         <v>217</v>
       </c>
       <c r="D1085" t="s">
-        <v>9309</v>
+        <v>9307</v>
       </c>
       <c r="E1085" t="s">
         <v>6766</v>
@@ -65880,7 +65880,7 @@
         <v>217</v>
       </c>
       <c r="D1087" t="s">
-        <v>9310</v>
+        <v>9308</v>
       </c>
       <c r="E1087" t="s">
         <v>6770</v>
@@ -65917,7 +65917,7 @@
         <v>871</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>9546</v>
+        <v>9544</v>
       </c>
       <c r="E1089" s="1" t="s">
         <v>972</v>
@@ -65934,7 +65934,7 @@
         <v>217</v>
       </c>
       <c r="D1090" s="1" t="s">
-        <v>9319</v>
+        <v>9317</v>
       </c>
       <c r="E1090" s="1" t="s">
         <v>6797</v>
@@ -66068,7 +66068,7 @@
         <v>7</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>5265</v>
@@ -66102,7 +66102,7 @@
         <v>1163</v>
       </c>
       <c r="D1099" s="1" t="s">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="E1099" s="1" t="s">
         <v>5268</v>
@@ -66159,7 +66159,7 @@
         <v>1035</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>9382</v>
+        <v>9380</v>
       </c>
       <c r="E1102" s="1" t="s">
         <v>6983</v>
@@ -66176,7 +66176,7 @@
         <v>1035</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>9377</v>
+        <v>9375</v>
       </c>
       <c r="E1103" s="1" t="s">
         <v>6968</v>
@@ -66193,7 +66193,7 @@
         <v>1035</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>9379</v>
+        <v>9377</v>
       </c>
       <c r="E1104" s="1" t="s">
         <v>6974</v>
@@ -66210,7 +66210,7 @@
         <v>1035</v>
       </c>
       <c r="D1105" s="1" t="s">
-        <v>9378</v>
+        <v>9376</v>
       </c>
       <c r="E1105" s="1" t="s">
         <v>6971</v>
@@ -66227,7 +66227,7 @@
         <v>1035</v>
       </c>
       <c r="D1106" s="1" t="s">
-        <v>9380</v>
+        <v>9378</v>
       </c>
       <c r="E1106" s="1" t="s">
         <v>6977</v>
@@ -66244,7 +66244,7 @@
         <v>1035</v>
       </c>
       <c r="D1107" s="1" t="s">
-        <v>9381</v>
+        <v>9379</v>
       </c>
       <c r="E1107" s="1" t="s">
         <v>6980</v>
@@ -66261,7 +66261,7 @@
         <v>1035</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>9383</v>
+        <v>9381</v>
       </c>
       <c r="E1108" s="1" t="s">
         <v>6986</v>
@@ -66278,7 +66278,7 @@
         <v>1035</v>
       </c>
       <c r="D1109" s="1" t="s">
-        <v>9384</v>
+        <v>9382</v>
       </c>
       <c r="E1109" s="1" t="s">
         <v>6988</v>
@@ -66352,7 +66352,7 @@
         <v>7</v>
       </c>
       <c r="D1113" s="1" t="s">
-        <v>9009</v>
+        <v>9008</v>
       </c>
       <c r="E1113" s="1" t="s">
         <v>5274</v>
@@ -66412,7 +66412,7 @@
         <v>2670</v>
       </c>
       <c r="D1116" t="s">
-        <v>9493</v>
+        <v>9491</v>
       </c>
       <c r="E1116" t="s">
         <v>2690</v>
@@ -66609,7 +66609,7 @@
         <v>7</v>
       </c>
       <c r="D1126" s="1" t="s">
-        <v>9010</v>
+        <v>9009</v>
       </c>
       <c r="E1126" s="1" t="s">
         <v>5277</v>
@@ -66626,7 +66626,7 @@
         <v>7</v>
       </c>
       <c r="D1127" s="1" t="s">
-        <v>9011</v>
+        <v>9010</v>
       </c>
       <c r="E1127" s="1" t="s">
         <v>5280</v>
@@ -66643,7 +66643,7 @@
         <v>7</v>
       </c>
       <c r="D1128" s="1" t="s">
-        <v>9012</v>
+        <v>9011</v>
       </c>
       <c r="E1128" s="1" t="s">
         <v>5283</v>
@@ -66680,7 +66680,7 @@
         <v>7</v>
       </c>
       <c r="D1130" s="1" t="s">
-        <v>9013</v>
+        <v>9012</v>
       </c>
       <c r="E1130" s="1" t="s">
         <v>5286</v>
@@ -66737,7 +66737,7 @@
         <v>7</v>
       </c>
       <c r="D1133" s="1" t="s">
-        <v>9014</v>
+        <v>9013</v>
       </c>
       <c r="E1133" s="1" t="s">
         <v>5289</v>
@@ -66931,7 +66931,7 @@
         <v>93</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>9302</v>
+        <v>9300</v>
       </c>
       <c r="E1143" s="1" t="s">
         <v>6739</v>
@@ -66951,7 +66951,7 @@
         <v>720</v>
       </c>
       <c r="D1144" s="1" t="s">
-        <v>9494</v>
+        <v>9492</v>
       </c>
       <c r="E1144" s="1" t="s">
         <v>825</v>
@@ -67048,7 +67048,7 @@
         <v>93</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>9301</v>
+        <v>9299</v>
       </c>
       <c r="E1149" s="1" t="s">
         <v>6736</v>
@@ -67128,13 +67128,13 @@
         <v>1537</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>9495</v>
+        <v>9493</v>
       </c>
       <c r="E1153" s="1" t="s">
+        <v>8631</v>
+      </c>
+      <c r="F1153" s="1" t="s">
         <v>8632</v>
-      </c>
-      <c r="F1153" s="1" t="s">
-        <v>8633</v>
       </c>
     </row>
     <row r="1154" spans="1:6">
@@ -67265,13 +67265,13 @@
         <v>7</v>
       </c>
       <c r="D1160" s="1" t="s">
+        <v>9014</v>
+      </c>
+      <c r="E1160" s="1" t="s">
         <v>9015</v>
       </c>
-      <c r="E1160" s="1" t="s">
+      <c r="F1160" t="s">
         <v>9016</v>
-      </c>
-      <c r="F1160" t="s">
-        <v>9017</v>
       </c>
     </row>
     <row r="1161" spans="1:6">
@@ -67322,7 +67322,7 @@
         <v>7</v>
       </c>
       <c r="D1163" s="1" t="s">
-        <v>9018</v>
+        <v>9017</v>
       </c>
       <c r="E1163" s="1" t="s">
         <v>5293</v>
@@ -67399,7 +67399,7 @@
         <v>7</v>
       </c>
       <c r="D1167" s="1" t="s">
-        <v>9019</v>
+        <v>9018</v>
       </c>
       <c r="E1167" s="1" t="s">
         <v>5297</v>
@@ -67416,7 +67416,7 @@
         <v>7</v>
       </c>
       <c r="D1168" s="1" t="s">
-        <v>9020</v>
+        <v>9019</v>
       </c>
       <c r="E1168" s="1" t="s">
         <v>5299</v>
@@ -67433,7 +67433,7 @@
         <v>7</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>9021</v>
+        <v>9020</v>
       </c>
       <c r="E1169" s="1" t="s">
         <v>5303</v>
@@ -67570,7 +67570,7 @@
         <v>7</v>
       </c>
       <c r="D1176" s="1" t="s">
-        <v>9022</v>
+        <v>9021</v>
       </c>
       <c r="E1176" s="1" t="s">
         <v>5305</v>
@@ -67587,7 +67587,7 @@
         <v>7</v>
       </c>
       <c r="D1177" s="1" t="s">
-        <v>9023</v>
+        <v>9022</v>
       </c>
       <c r="E1177" s="1" t="s">
         <v>5308</v>
@@ -67684,7 +67684,7 @@
         <v>4445</v>
       </c>
       <c r="D1182" s="1" t="s">
-        <v>8773</v>
+        <v>8772</v>
       </c>
       <c r="E1182" s="1" t="s">
         <v>4503</v>
@@ -67701,7 +67701,7 @@
         <v>7</v>
       </c>
       <c r="D1183" s="1" t="s">
-        <v>9024</v>
+        <v>9023</v>
       </c>
       <c r="E1183" s="1" t="s">
         <v>5313</v>
@@ -67761,7 +67761,7 @@
         <v>4445</v>
       </c>
       <c r="D1186" s="1" t="s">
-        <v>8804</v>
+        <v>8803</v>
       </c>
       <c r="E1186" s="1" t="s">
         <v>4599</v>
@@ -67778,7 +67778,7 @@
         <v>7</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>9025</v>
+        <v>9024</v>
       </c>
       <c r="E1187" s="1" t="s">
         <v>5316</v>
@@ -67795,7 +67795,7 @@
         <v>7</v>
       </c>
       <c r="D1188" s="1" t="s">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="E1188" s="1" t="s">
         <v>5319</v>
@@ -67812,7 +67812,7 @@
         <v>885</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>9367</v>
+        <v>9365</v>
       </c>
       <c r="E1189" s="1" t="s">
         <v>6936</v>
@@ -67829,7 +67829,7 @@
         <v>885</v>
       </c>
       <c r="D1190" s="1" t="s">
-        <v>9366</v>
+        <v>9364</v>
       </c>
       <c r="E1190" s="1" t="s">
         <v>6933</v>
@@ -67886,7 +67886,7 @@
         <v>2197</v>
       </c>
       <c r="D1193" s="1" t="s">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="E1193" s="1" t="s">
         <v>5322</v>
@@ -67903,7 +67903,7 @@
         <v>7</v>
       </c>
       <c r="D1194" s="1" t="s">
-        <v>9029</v>
+        <v>9028</v>
       </c>
       <c r="E1194" s="1" t="s">
         <v>5329</v>
@@ -67923,7 +67923,7 @@
         <v>4123</v>
       </c>
       <c r="D1195" s="1" t="s">
-        <v>8684</v>
+        <v>8683</v>
       </c>
       <c r="E1195" s="1" t="s">
         <v>4149</v>
@@ -68037,7 +68037,7 @@
         <v>7</v>
       </c>
       <c r="D1201" s="1" t="s">
-        <v>9030</v>
+        <v>9029</v>
       </c>
       <c r="E1201" s="1" t="s">
         <v>5332</v>
@@ -68111,7 +68111,7 @@
         <v>1892</v>
       </c>
       <c r="D1205" s="1" t="s">
-        <v>8741</v>
+        <v>8740</v>
       </c>
       <c r="E1205" s="1" t="s">
         <v>4367</v>
@@ -68185,7 +68185,7 @@
         <v>4173</v>
       </c>
       <c r="D1209" s="1" t="s">
-        <v>8696</v>
+        <v>8695</v>
       </c>
       <c r="E1209" s="1" t="s">
         <v>4189</v>
@@ -68319,7 +68319,7 @@
         <v>7</v>
       </c>
       <c r="D1216" s="1" t="s">
-        <v>9031</v>
+        <v>9030</v>
       </c>
       <c r="E1216" s="1" t="s">
         <v>5334</v>
@@ -68733,7 +68733,7 @@
         <v>7</v>
       </c>
       <c r="D1237" s="1" t="s">
-        <v>9032</v>
+        <v>9031</v>
       </c>
       <c r="E1237" s="1" t="s">
         <v>5337</v>
@@ -68913,7 +68913,7 @@
         <v>3283</v>
       </c>
       <c r="D1246" s="1" t="s">
-        <v>9496</v>
+        <v>9494</v>
       </c>
       <c r="E1246" s="1" t="s">
         <v>3329</v>
@@ -69221,7 +69221,7 @@
         <v>7</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>9033</v>
+        <v>9032</v>
       </c>
       <c r="E1262" s="1" t="s">
         <v>5343</v>
@@ -69658,7 +69658,7 @@
         <v>2957</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>9497</v>
+        <v>9495</v>
       </c>
       <c r="E1284" s="1" t="s">
         <v>3055</v>
@@ -69678,10 +69678,10 @@
         <v>2957</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>9498</v>
+        <v>9496</v>
       </c>
       <c r="E1285" s="1" t="s">
-        <v>8634</v>
+        <v>8633</v>
       </c>
       <c r="F1285" t="s">
         <v>3150</v>
@@ -69918,7 +69918,7 @@
         <v>2957</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>9499</v>
+        <v>9497</v>
       </c>
       <c r="E1297" s="1" t="s">
         <v>3086</v>
@@ -69935,7 +69935,7 @@
         <v>7</v>
       </c>
       <c r="D1298" s="1" t="s">
-        <v>9034</v>
+        <v>9033</v>
       </c>
       <c r="E1298" s="1" t="s">
         <v>5347</v>
@@ -70072,7 +70072,7 @@
         <v>7</v>
       </c>
       <c r="D1305" s="1" t="s">
-        <v>9035</v>
+        <v>9034</v>
       </c>
       <c r="E1305" s="1" t="s">
         <v>5351</v>
@@ -70092,7 +70092,7 @@
         <v>2957</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>9500</v>
+        <v>9498</v>
       </c>
       <c r="E1306" s="1" t="s">
         <v>3138</v>
@@ -70949,7 +70949,7 @@
         <v>7</v>
       </c>
       <c r="D1349" s="1" t="s">
-        <v>9036</v>
+        <v>9035</v>
       </c>
       <c r="E1349" s="1" t="s">
         <v>5353</v>
@@ -71123,7 +71123,7 @@
         <v>7</v>
       </c>
       <c r="D1358" s="1" t="s">
-        <v>9037</v>
+        <v>9036</v>
       </c>
       <c r="E1358" s="1" t="s">
         <v>5356</v>
@@ -71940,7 +71940,7 @@
         <v>7</v>
       </c>
       <c r="D1399" s="1" t="s">
-        <v>9038</v>
+        <v>9037</v>
       </c>
       <c r="E1399" s="1" t="s">
         <v>5359</v>
@@ -71957,7 +71957,7 @@
         <v>42</v>
       </c>
       <c r="D1400" s="1" t="s">
-        <v>9333</v>
+        <v>9331</v>
       </c>
       <c r="E1400" s="1" t="s">
         <v>6844</v>
@@ -71974,7 +71974,7 @@
         <v>6840</v>
       </c>
       <c r="D1401" s="1" t="s">
-        <v>9332</v>
+        <v>9330</v>
       </c>
       <c r="E1401" s="1" t="s">
         <v>6841</v>
@@ -72034,13 +72034,13 @@
         <v>1892</v>
       </c>
       <c r="D1404" s="1" t="s">
-        <v>9501</v>
+        <v>9499</v>
       </c>
       <c r="E1404" s="1" t="s">
+        <v>8623</v>
+      </c>
+      <c r="F1404" s="1" t="s">
         <v>8624</v>
-      </c>
-      <c r="F1404" s="1" t="s">
-        <v>8625</v>
       </c>
     </row>
     <row r="1405" spans="1:6">
@@ -72071,7 +72071,7 @@
         <v>217</v>
       </c>
       <c r="D1406" s="1" t="s">
-        <v>9311</v>
+        <v>9309</v>
       </c>
       <c r="E1406" s="1" t="s">
         <v>6773</v>
@@ -72088,7 +72088,7 @@
         <v>217</v>
       </c>
       <c r="D1407" s="1" t="s">
-        <v>9314</v>
+        <v>9312</v>
       </c>
       <c r="E1407" s="1" t="s">
         <v>6782</v>
@@ -72148,7 +72148,7 @@
         <v>3445</v>
       </c>
       <c r="D1410" s="1" t="s">
-        <v>9502</v>
+        <v>9500</v>
       </c>
       <c r="E1410" s="1" t="s">
         <v>3489</v>
@@ -72168,7 +72168,7 @@
         <v>3445</v>
       </c>
       <c r="D1411" s="1" t="s">
-        <v>9503</v>
+        <v>9501</v>
       </c>
       <c r="E1411" s="1" t="s">
         <v>3492</v>
@@ -72188,7 +72188,7 @@
         <v>3445</v>
       </c>
       <c r="D1412" s="1" t="s">
-        <v>9504</v>
+        <v>9502</v>
       </c>
       <c r="E1412" s="1" t="s">
         <v>3496</v>
@@ -72205,7 +72205,7 @@
         <v>7</v>
       </c>
       <c r="D1413" s="1" t="s">
-        <v>8685</v>
+        <v>8684</v>
       </c>
       <c r="E1413" s="1" t="s">
         <v>3867</v>
@@ -72305,7 +72305,7 @@
         <v>4283</v>
       </c>
       <c r="D1418" s="1" t="s">
-        <v>8723</v>
+        <v>8722</v>
       </c>
       <c r="E1418" s="1" t="s">
         <v>4292</v>
@@ -72322,7 +72322,7 @@
         <v>7</v>
       </c>
       <c r="D1419" s="1" t="s">
-        <v>9039</v>
+        <v>9038</v>
       </c>
       <c r="E1419" s="1" t="s">
         <v>5364</v>
@@ -72399,7 +72399,7 @@
         <v>7</v>
       </c>
       <c r="D1423" s="1" t="s">
-        <v>8921</v>
+        <v>8920</v>
       </c>
       <c r="E1423" s="1" t="s">
         <v>4984</v>
@@ -72479,7 +72479,7 @@
         <v>4283</v>
       </c>
       <c r="D1427" s="1" t="s">
-        <v>8726</v>
+        <v>8725</v>
       </c>
       <c r="E1427" s="1" t="s">
         <v>4309</v>
@@ -72539,7 +72539,7 @@
         <v>4283</v>
       </c>
       <c r="D1430" s="1" t="s">
-        <v>8725</v>
+        <v>8724</v>
       </c>
       <c r="E1430" s="1" t="s">
         <v>4304</v>
@@ -72559,7 +72559,7 @@
         <v>4283</v>
       </c>
       <c r="D1431" s="1" t="s">
-        <v>8703</v>
+        <v>8702</v>
       </c>
       <c r="E1431" s="1" t="s">
         <v>3519</v>
@@ -72579,7 +72579,7 @@
         <v>4283</v>
       </c>
       <c r="D1432" s="1" t="s">
-        <v>9505</v>
+        <v>9503</v>
       </c>
       <c r="E1432" s="1" t="s">
         <v>4295</v>
@@ -72599,7 +72599,7 @@
         <v>4283</v>
       </c>
       <c r="D1433" s="1" t="s">
-        <v>8728</v>
+        <v>8727</v>
       </c>
       <c r="E1433" s="1" t="s">
         <v>508</v>
@@ -72659,7 +72659,7 @@
         <v>4283</v>
       </c>
       <c r="D1436" s="1" t="s">
-        <v>8727</v>
+        <v>8726</v>
       </c>
       <c r="E1436" s="1" t="s">
         <v>4312</v>
@@ -72699,7 +72699,7 @@
         <v>4283</v>
       </c>
       <c r="D1438" s="1" t="s">
-        <v>8724</v>
+        <v>8723</v>
       </c>
       <c r="E1438" s="1" t="s">
         <v>4301</v>
@@ -72739,7 +72739,7 @@
         <v>4283</v>
       </c>
       <c r="D1440" s="1" t="s">
-        <v>8729</v>
+        <v>8728</v>
       </c>
       <c r="E1440" s="1" t="s">
         <v>4319</v>
@@ -72759,7 +72759,7 @@
         <v>4283</v>
       </c>
       <c r="D1441" s="1" t="s">
-        <v>8730</v>
+        <v>8729</v>
       </c>
       <c r="E1441" s="1" t="s">
         <v>4323</v>
@@ -72779,7 +72779,7 @@
         <v>4283</v>
       </c>
       <c r="D1442" s="1" t="s">
-        <v>8733</v>
+        <v>8732</v>
       </c>
       <c r="E1442" s="1" t="s">
         <v>4334</v>
@@ -72870,7 +72870,7 @@
         <v>7</v>
       </c>
       <c r="D1447" s="1" t="s">
-        <v>9040</v>
+        <v>9039</v>
       </c>
       <c r="E1447" s="1" t="s">
         <v>5371</v>
@@ -72887,7 +72887,7 @@
         <v>7</v>
       </c>
       <c r="D1448" s="1" t="s">
-        <v>8679</v>
+        <v>8678</v>
       </c>
       <c r="E1448" s="1" t="s">
         <v>4130</v>
@@ -72904,7 +72904,7 @@
         <v>7</v>
       </c>
       <c r="D1449" s="1" t="s">
-        <v>9041</v>
+        <v>9040</v>
       </c>
       <c r="E1449" s="1" t="s">
         <v>5375</v>
@@ -72921,7 +72921,7 @@
         <v>7</v>
       </c>
       <c r="D1450" s="1" t="s">
-        <v>9042</v>
+        <v>9041</v>
       </c>
       <c r="E1450" s="1" t="s">
         <v>5378</v>
@@ -72938,7 +72938,7 @@
         <v>7</v>
       </c>
       <c r="D1451" s="1" t="s">
-        <v>9043</v>
+        <v>9042</v>
       </c>
       <c r="E1451" s="1" t="s">
         <v>5381</v>
@@ -72972,7 +72972,7 @@
         <v>7</v>
       </c>
       <c r="D1453" s="1" t="s">
-        <v>9044</v>
+        <v>9043</v>
       </c>
       <c r="E1453" s="1" t="s">
         <v>5385</v>
@@ -73012,7 +73012,7 @@
         <v>4445</v>
       </c>
       <c r="D1455" s="1" t="s">
-        <v>8774</v>
+        <v>8773</v>
       </c>
       <c r="E1455" s="1" t="s">
         <v>4506</v>
@@ -73029,7 +73029,7 @@
         <v>7</v>
       </c>
       <c r="D1456" s="1" t="s">
-        <v>9506</v>
+        <v>9504</v>
       </c>
       <c r="E1456" s="1" t="s">
         <v>5388</v>
@@ -73066,7 +73066,7 @@
         <v>7</v>
       </c>
       <c r="D1458" s="1" t="s">
-        <v>9045</v>
+        <v>9044</v>
       </c>
       <c r="E1458" s="1" t="s">
         <v>5391</v>
@@ -73106,7 +73106,7 @@
         <v>4445</v>
       </c>
       <c r="D1460" s="1" t="s">
-        <v>8775</v>
+        <v>8774</v>
       </c>
       <c r="E1460" s="1" t="s">
         <v>4509</v>
@@ -73123,7 +73123,7 @@
         <v>7</v>
       </c>
       <c r="D1461" s="1" t="s">
-        <v>8718</v>
+        <v>8717</v>
       </c>
       <c r="E1461" s="1" t="s">
         <v>4267</v>
@@ -73180,7 +73180,7 @@
         <v>1964</v>
       </c>
       <c r="D1464" s="1" t="s">
-        <v>8943</v>
+        <v>8942</v>
       </c>
       <c r="E1464" s="1" t="s">
         <v>5053</v>
@@ -73200,7 +73200,7 @@
         <v>2569</v>
       </c>
       <c r="D1465" s="1" t="s">
-        <v>9507</v>
+        <v>9505</v>
       </c>
       <c r="E1465" s="1" t="s">
         <v>2627</v>
@@ -73237,7 +73237,7 @@
         <v>263</v>
       </c>
       <c r="D1467" s="1" t="s">
-        <v>9048</v>
+        <v>9047</v>
       </c>
       <c r="E1467" s="1" t="s">
         <v>5401</v>
@@ -73254,7 +73254,7 @@
         <v>7</v>
       </c>
       <c r="D1468" s="1" t="s">
-        <v>9046</v>
+        <v>9045</v>
       </c>
       <c r="E1468" s="1" t="s">
         <v>5395</v>
@@ -73274,7 +73274,7 @@
         <v>2569</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>9508</v>
+        <v>9506</v>
       </c>
       <c r="E1469" s="1" t="s">
         <v>2630</v>
@@ -73291,7 +73291,7 @@
         <v>7</v>
       </c>
       <c r="D1470" s="1" t="s">
-        <v>9047</v>
+        <v>9046</v>
       </c>
       <c r="E1470" s="1" t="s">
         <v>5398</v>
@@ -73311,7 +73311,7 @@
         <v>2569</v>
       </c>
       <c r="D1471" s="1" t="s">
-        <v>9509</v>
+        <v>9507</v>
       </c>
       <c r="E1471" s="1" t="s">
         <v>2633</v>
@@ -73371,7 +73371,7 @@
         <v>3840</v>
       </c>
       <c r="D1474" s="1" t="s">
-        <v>8845</v>
+        <v>8844</v>
       </c>
       <c r="E1474" s="1" t="s">
         <v>4739</v>
@@ -73388,7 +73388,7 @@
         <v>7</v>
       </c>
       <c r="D1475" s="1" t="s">
-        <v>9049</v>
+        <v>9048</v>
       </c>
       <c r="E1475" s="1" t="s">
         <v>5404</v>
@@ -73448,7 +73448,7 @@
         <v>3840</v>
       </c>
       <c r="D1478" s="1" t="s">
-        <v>8844</v>
+        <v>8843</v>
       </c>
       <c r="E1478" s="1" t="s">
         <v>4735</v>
@@ -73488,7 +73488,7 @@
         <v>4173</v>
       </c>
       <c r="D1480" s="1" t="s">
-        <v>8697</v>
+        <v>8696</v>
       </c>
       <c r="E1480" s="1" t="s">
         <v>4193</v>
@@ -73528,7 +73528,7 @@
         <v>4445</v>
       </c>
       <c r="D1482" s="1" t="s">
-        <v>8776</v>
+        <v>8775</v>
       </c>
       <c r="E1482" s="1" t="s">
         <v>4512</v>
@@ -73545,7 +73545,7 @@
         <v>2912</v>
       </c>
       <c r="D1483" s="1" t="s">
-        <v>9243</v>
+        <v>9242</v>
       </c>
       <c r="E1483" s="1" t="s">
         <v>6013</v>
@@ -73602,7 +73602,7 @@
         <v>7</v>
       </c>
       <c r="D1486" s="1" t="s">
-        <v>9050</v>
+        <v>9049</v>
       </c>
       <c r="E1486" s="1" t="s">
         <v>5407</v>
@@ -73622,7 +73622,7 @@
         <v>4173</v>
       </c>
       <c r="D1487" s="1" t="s">
-        <v>8698</v>
+        <v>8697</v>
       </c>
       <c r="E1487" s="1" t="s">
         <v>4195</v>
@@ -73679,7 +73679,7 @@
         <v>7</v>
       </c>
       <c r="D1490" s="1" t="s">
-        <v>9051</v>
+        <v>9050</v>
       </c>
       <c r="E1490" s="1" t="s">
         <v>5410</v>
@@ -73733,7 +73733,7 @@
         <v>7</v>
       </c>
       <c r="D1493" s="1" t="s">
-        <v>9052</v>
+        <v>9051</v>
       </c>
       <c r="E1493" s="1" t="s">
         <v>5413</v>
@@ -73801,7 +73801,7 @@
         <v>7</v>
       </c>
       <c r="D1497" s="1" t="s">
-        <v>9053</v>
+        <v>9052</v>
       </c>
       <c r="E1497" s="1" t="s">
         <v>5418</v>
@@ -73818,7 +73818,7 @@
         <v>7</v>
       </c>
       <c r="D1498" s="1" t="s">
-        <v>9054</v>
+        <v>9053</v>
       </c>
       <c r="E1498" s="1" t="s">
         <v>5421</v>
@@ -73835,7 +73835,7 @@
         <v>7</v>
       </c>
       <c r="D1499" s="1" t="s">
-        <v>9055</v>
+        <v>9054</v>
       </c>
       <c r="E1499" s="1" t="s">
         <v>5424</v>
@@ -73852,7 +73852,7 @@
         <v>7</v>
       </c>
       <c r="D1500" s="1" t="s">
-        <v>8679</v>
+        <v>8678</v>
       </c>
       <c r="E1500" s="1" t="s">
         <v>4130</v>
@@ -73989,7 +73989,7 @@
         <v>7</v>
       </c>
       <c r="D1507" s="1" t="s">
-        <v>9056</v>
+        <v>9055</v>
       </c>
       <c r="E1507" s="1" t="s">
         <v>5428</v>
@@ -74009,7 +74009,7 @@
         <v>3840</v>
       </c>
       <c r="D1508" s="1" t="s">
-        <v>8846</v>
+        <v>8845</v>
       </c>
       <c r="E1508" s="1" t="s">
         <v>4742</v>
@@ -74046,7 +74046,7 @@
         <v>7</v>
       </c>
       <c r="D1510" s="1" t="s">
-        <v>9057</v>
+        <v>9056</v>
       </c>
       <c r="E1510" s="1" t="s">
         <v>5431</v>
@@ -74103,7 +74103,7 @@
         <v>7</v>
       </c>
       <c r="D1513" s="1" t="s">
-        <v>9058</v>
+        <v>9057</v>
       </c>
       <c r="E1513" s="1" t="s">
         <v>5434</v>
@@ -74240,7 +74240,7 @@
         <v>681</v>
       </c>
       <c r="D1520" s="1" t="s">
-        <v>9422</v>
+        <v>9420</v>
       </c>
       <c r="E1520" s="1" t="s">
         <v>7127</v>
@@ -74257,7 +74257,7 @@
         <v>1351</v>
       </c>
       <c r="D1521" t="s">
-        <v>8735</v>
+        <v>8734</v>
       </c>
       <c r="E1521" t="s">
         <v>4346</v>
@@ -74334,7 +74334,7 @@
         <v>7</v>
       </c>
       <c r="D1525" s="1" t="s">
-        <v>9059</v>
+        <v>9058</v>
       </c>
       <c r="E1525" s="1" t="s">
         <v>5436</v>
@@ -74351,7 +74351,7 @@
         <v>7</v>
       </c>
       <c r="D1526" s="1" t="s">
-        <v>9060</v>
+        <v>9059</v>
       </c>
       <c r="E1526" s="1" t="s">
         <v>5439</v>
@@ -74388,7 +74388,7 @@
         <v>7</v>
       </c>
       <c r="D1528" s="1" t="s">
-        <v>9061</v>
+        <v>9060</v>
       </c>
       <c r="E1528" s="1" t="s">
         <v>5442</v>
@@ -74439,7 +74439,7 @@
         <v>7</v>
       </c>
       <c r="D1531" s="1" t="s">
-        <v>9062</v>
+        <v>9061</v>
       </c>
       <c r="E1531" s="1" t="s">
         <v>5448</v>
@@ -74473,7 +74473,7 @@
         <v>6998</v>
       </c>
       <c r="D1533" s="1" t="s">
-        <v>9388</v>
+        <v>9386</v>
       </c>
       <c r="E1533" s="1" t="s">
         <v>7002</v>
@@ -74510,7 +74510,7 @@
         <v>1407</v>
       </c>
       <c r="D1535" s="1" t="s">
-        <v>9405</v>
+        <v>9403</v>
       </c>
       <c r="E1535" s="1" t="s">
         <v>7070</v>
@@ -74527,7 +74527,7 @@
         <v>7</v>
       </c>
       <c r="D1536" s="1" t="s">
-        <v>9063</v>
+        <v>9062</v>
       </c>
       <c r="E1536" s="1" t="s">
         <v>5451</v>
@@ -74544,7 +74544,7 @@
         <v>7</v>
       </c>
       <c r="D1537" s="1" t="s">
-        <v>9064</v>
+        <v>9063</v>
       </c>
       <c r="E1537" s="1" t="s">
         <v>4208</v>
@@ -74561,7 +74561,7 @@
         <v>7</v>
       </c>
       <c r="D1538" s="1" t="s">
-        <v>9065</v>
+        <v>9064</v>
       </c>
       <c r="E1538" s="1" t="s">
         <v>5455</v>
@@ -74618,7 +74618,7 @@
         <v>7</v>
       </c>
       <c r="D1541" s="1" t="s">
-        <v>9066</v>
+        <v>9065</v>
       </c>
       <c r="E1541" s="1" t="s">
         <v>5457</v>
@@ -74715,13 +74715,13 @@
         <v>391</v>
       </c>
       <c r="D1546" s="1" t="s">
-        <v>9478</v>
+        <v>9476</v>
       </c>
       <c r="E1546" s="1" t="s">
         <v>7017</v>
       </c>
       <c r="F1546" s="1" t="s">
-        <v>9477</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -74792,7 +74792,7 @@
         <v>256</v>
       </c>
       <c r="D1550" s="1" t="s">
-        <v>9429</v>
+        <v>9427</v>
       </c>
       <c r="E1550" s="1" t="s">
         <v>7147</v>
@@ -74829,7 +74829,7 @@
         <v>4157</v>
       </c>
       <c r="D1552" s="1" t="s">
-        <v>9410</v>
+        <v>9408</v>
       </c>
       <c r="E1552" s="1" t="s">
         <v>7085</v>
@@ -75106,7 +75106,7 @@
         <v>7</v>
       </c>
       <c r="D1566" s="1" t="s">
-        <v>9067</v>
+        <v>9066</v>
       </c>
       <c r="E1566" s="1" t="s">
         <v>5460</v>
@@ -75194,7 +75194,7 @@
         <v>7</v>
       </c>
       <c r="D1571" s="1" t="s">
-        <v>9068</v>
+        <v>9067</v>
       </c>
       <c r="E1571" s="1" t="s">
         <v>5465</v>
@@ -75231,7 +75231,7 @@
         <v>7</v>
       </c>
       <c r="D1573" s="1" t="s">
-        <v>9069</v>
+        <v>9068</v>
       </c>
       <c r="E1573" s="1" t="s">
         <v>5468</v>
@@ -75251,7 +75251,7 @@
         <v>4445</v>
       </c>
       <c r="D1574" s="1" t="s">
-        <v>8777</v>
+        <v>8776</v>
       </c>
       <c r="E1574" s="1" t="s">
         <v>4515</v>
@@ -75288,7 +75288,7 @@
         <v>7</v>
       </c>
       <c r="D1576" s="1" t="s">
-        <v>9070</v>
+        <v>9069</v>
       </c>
       <c r="E1576" s="1" t="s">
         <v>5471</v>
@@ -75508,7 +75508,7 @@
         <v>4445</v>
       </c>
       <c r="D1587" s="1" t="s">
-        <v>8778</v>
+        <v>8777</v>
       </c>
       <c r="E1587" s="1" t="s">
         <v>4518</v>
@@ -75548,7 +75548,7 @@
         <v>3840</v>
       </c>
       <c r="D1589" s="1" t="s">
-        <v>8847</v>
+        <v>8846</v>
       </c>
       <c r="E1589" s="1" t="s">
         <v>4745</v>
@@ -75568,7 +75568,7 @@
         <v>3840</v>
       </c>
       <c r="D1590" s="1" t="s">
-        <v>8848</v>
+        <v>8847</v>
       </c>
       <c r="E1590" s="1" t="s">
         <v>4748</v>
@@ -75588,7 +75588,7 @@
         <v>4445</v>
       </c>
       <c r="D1591" s="1" t="s">
-        <v>8779</v>
+        <v>8778</v>
       </c>
       <c r="E1591" s="1" t="s">
         <v>4521</v>
@@ -75605,7 +75605,7 @@
         <v>7</v>
       </c>
       <c r="D1592" s="1" t="s">
-        <v>8941</v>
+        <v>8940</v>
       </c>
       <c r="E1592" s="1" t="s">
         <v>5047</v>
@@ -75622,7 +75622,7 @@
         <v>7</v>
       </c>
       <c r="D1593" s="1" t="s">
-        <v>9071</v>
+        <v>9070</v>
       </c>
       <c r="E1593" s="1" t="s">
         <v>5476</v>
@@ -75736,7 +75736,7 @@
         <v>7</v>
       </c>
       <c r="D1599" s="1" t="s">
-        <v>9073</v>
+        <v>9072</v>
       </c>
       <c r="E1599" s="1" t="s">
         <v>5483</v>
@@ -75973,7 +75973,7 @@
         <v>7</v>
       </c>
       <c r="D1611" s="1" t="s">
-        <v>9074</v>
+        <v>9073</v>
       </c>
       <c r="E1611" s="1" t="s">
         <v>5485</v>
@@ -76010,7 +76010,7 @@
         <v>7</v>
       </c>
       <c r="D1613" s="1" t="s">
-        <v>9075</v>
+        <v>9074</v>
       </c>
       <c r="E1613" s="1" t="s">
         <v>5488</v>
@@ -76027,7 +76027,7 @@
         <v>7</v>
       </c>
       <c r="D1614" s="1" t="s">
-        <v>9076</v>
+        <v>9075</v>
       </c>
       <c r="E1614" s="1" t="s">
         <v>5491</v>
@@ -76275,7 +76275,7 @@
         <v>7</v>
       </c>
       <c r="D1627" s="1" t="s">
-        <v>9077</v>
+        <v>9076</v>
       </c>
       <c r="E1627" s="1" t="s">
         <v>5493</v>
@@ -76312,7 +76312,7 @@
         <v>3068</v>
       </c>
       <c r="D1629" s="1" t="s">
-        <v>9330</v>
+        <v>9328</v>
       </c>
       <c r="E1629" s="1" t="s">
         <v>6834</v>
@@ -76329,7 +76329,7 @@
         <v>61</v>
       </c>
       <c r="D1630" s="1" t="s">
-        <v>9365</v>
+        <v>9363</v>
       </c>
       <c r="E1630" s="1" t="s">
         <v>6930</v>
@@ -76346,7 +76346,7 @@
         <v>7</v>
       </c>
       <c r="D1631" s="1" t="s">
-        <v>9078</v>
+        <v>9077</v>
       </c>
       <c r="E1631" s="1" t="s">
         <v>5495</v>
@@ -76400,7 +76400,7 @@
         <v>7</v>
       </c>
       <c r="D1634" s="1" t="s">
-        <v>9079</v>
+        <v>9078</v>
       </c>
       <c r="E1634" s="1" t="s">
         <v>5501</v>
@@ -76437,7 +76437,7 @@
         <v>2111</v>
       </c>
       <c r="D1636" s="1" t="s">
-        <v>8931</v>
+        <v>8930</v>
       </c>
       <c r="E1636" s="1" t="s">
         <v>5015</v>
@@ -76454,7 +76454,7 @@
         <v>7</v>
       </c>
       <c r="D1637" s="1" t="s">
-        <v>9080</v>
+        <v>9079</v>
       </c>
       <c r="E1637" s="1" t="s">
         <v>5504</v>
@@ -76471,7 +76471,7 @@
         <v>7</v>
       </c>
       <c r="D1638" s="1" t="s">
-        <v>9081</v>
+        <v>9080</v>
       </c>
       <c r="E1638" s="1" t="s">
         <v>5507</v>
@@ -76528,7 +76528,7 @@
         <v>7</v>
       </c>
       <c r="D1641" s="1" t="s">
-        <v>9083</v>
+        <v>9082</v>
       </c>
       <c r="E1641" s="1" t="s">
         <v>5513</v>
@@ -76545,7 +76545,7 @@
         <v>7</v>
       </c>
       <c r="D1642" s="1" t="s">
-        <v>9084</v>
+        <v>9083</v>
       </c>
       <c r="E1642" s="1" t="s">
         <v>5516</v>
@@ -76562,7 +76562,7 @@
         <v>7</v>
       </c>
       <c r="D1643" s="1" t="s">
-        <v>9085</v>
+        <v>9084</v>
       </c>
       <c r="E1643" s="1" t="s">
         <v>5519</v>
@@ -76656,7 +76656,7 @@
         <v>7</v>
       </c>
       <c r="D1648" s="1" t="s">
-        <v>9086</v>
+        <v>9085</v>
       </c>
       <c r="E1648" s="1" t="s">
         <v>5522</v>
@@ -76673,7 +76673,7 @@
         <v>7</v>
       </c>
       <c r="D1649" s="1" t="s">
-        <v>9087</v>
+        <v>9086</v>
       </c>
       <c r="E1649" s="1" t="s">
         <v>5525</v>
@@ -76710,7 +76710,7 @@
         <v>6998</v>
       </c>
       <c r="D1651" s="1" t="s">
-        <v>9387</v>
+        <v>9385</v>
       </c>
       <c r="E1651" s="1" t="s">
         <v>6999</v>
@@ -76727,7 +76727,7 @@
         <v>1986</v>
       </c>
       <c r="D1652" s="1" t="s">
-        <v>9339</v>
+        <v>9337</v>
       </c>
       <c r="E1652" s="1" t="s">
         <v>6862</v>
@@ -76764,7 +76764,7 @@
         <v>7</v>
       </c>
       <c r="D1654" s="1" t="s">
-        <v>9088</v>
+        <v>9087</v>
       </c>
       <c r="E1654" s="1" t="s">
         <v>5528</v>
@@ -76781,7 +76781,7 @@
         <v>42</v>
       </c>
       <c r="D1655" s="1" t="s">
-        <v>9347</v>
+        <v>9345</v>
       </c>
       <c r="E1655" s="1" t="s">
         <v>6888</v>
@@ -76881,7 +76881,7 @@
         <v>4173</v>
       </c>
       <c r="D1660" s="1" t="s">
-        <v>8700</v>
+        <v>8699</v>
       </c>
       <c r="E1660" s="1" t="s">
         <v>4201</v>
@@ -76935,7 +76935,7 @@
         <v>1960</v>
       </c>
       <c r="D1663" s="1" t="s">
-        <v>8871</v>
+        <v>8870</v>
       </c>
       <c r="E1663" s="1" t="s">
         <v>4821</v>
@@ -77223,7 +77223,7 @@
         <v>974</v>
       </c>
       <c r="D1678" s="1" t="s">
-        <v>9346</v>
+        <v>9344</v>
       </c>
       <c r="E1678" s="1" t="s">
         <v>6885</v>
@@ -77320,7 +77320,7 @@
         <v>968</v>
       </c>
       <c r="D1683" s="1" t="s">
-        <v>9433</v>
+        <v>9431</v>
       </c>
       <c r="E1683" s="1" t="s">
         <v>7161</v>
@@ -77417,7 +77417,7 @@
         <v>27</v>
       </c>
       <c r="D1688" s="1" t="s">
-        <v>9082</v>
+        <v>9081</v>
       </c>
       <c r="E1688" s="1" t="s">
         <v>5510</v>
@@ -77451,7 +77451,7 @@
         <v>1415</v>
       </c>
       <c r="D1690" s="1" t="s">
-        <v>9398</v>
+        <v>9396</v>
       </c>
       <c r="E1690" s="1" t="s">
         <v>7047</v>
@@ -77488,7 +77488,7 @@
         <v>7</v>
       </c>
       <c r="D1692" s="1" t="s">
-        <v>9089</v>
+        <v>9088</v>
       </c>
       <c r="E1692" s="1" t="s">
         <v>5536</v>
@@ -77525,7 +77525,7 @@
         <v>42</v>
       </c>
       <c r="D1694" s="1" t="s">
-        <v>9342</v>
+        <v>9340</v>
       </c>
       <c r="E1694" s="1" t="s">
         <v>6872</v>
@@ -77545,7 +77545,7 @@
         <v>4445</v>
       </c>
       <c r="D1695" s="1" t="s">
-        <v>8780</v>
+        <v>8779</v>
       </c>
       <c r="E1695" s="1" t="s">
         <v>4524</v>
@@ -77565,7 +77565,7 @@
         <v>4173</v>
       </c>
       <c r="D1696" s="1" t="s">
-        <v>8699</v>
+        <v>8698</v>
       </c>
       <c r="E1696" s="1" t="s">
         <v>4198</v>
@@ -77602,7 +77602,7 @@
         <v>7</v>
       </c>
       <c r="D1698" s="1" t="s">
-        <v>9090</v>
+        <v>9089</v>
       </c>
       <c r="E1698" s="1" t="s">
         <v>5539</v>
@@ -77653,7 +77653,7 @@
         <v>3009</v>
       </c>
       <c r="D1701" s="1" t="s">
-        <v>9407</v>
+        <v>9405</v>
       </c>
       <c r="E1701" s="1" t="s">
         <v>7076</v>
@@ -77670,7 +77670,7 @@
         <v>3068</v>
       </c>
       <c r="D1702" s="1" t="s">
-        <v>9331</v>
+        <v>9329</v>
       </c>
       <c r="E1702" s="1" t="s">
         <v>6838</v>
@@ -77707,7 +77707,7 @@
         <v>7</v>
       </c>
       <c r="D1704" s="1" t="s">
-        <v>9091</v>
+        <v>9090</v>
       </c>
       <c r="E1704" s="1" t="s">
         <v>5542</v>
@@ -77724,7 +77724,7 @@
         <v>7</v>
       </c>
       <c r="D1705" s="1" t="s">
-        <v>9092</v>
+        <v>9091</v>
       </c>
       <c r="E1705" s="1" t="s">
         <v>5545</v>
@@ -77741,7 +77741,7 @@
         <v>7</v>
       </c>
       <c r="D1706" s="1" t="s">
-        <v>9093</v>
+        <v>9092</v>
       </c>
       <c r="E1706" s="1" t="s">
         <v>5548</v>
@@ -77758,7 +77758,7 @@
         <v>271</v>
       </c>
       <c r="D1707" s="1" t="s">
-        <v>9094</v>
+        <v>9093</v>
       </c>
       <c r="E1707" s="1" t="s">
         <v>5551</v>
@@ -78515,7 +78515,7 @@
         <v>441</v>
       </c>
       <c r="D1745" s="1" t="s">
-        <v>9441</v>
+        <v>9439</v>
       </c>
       <c r="E1745" s="1" t="s">
         <v>7188</v>
@@ -78532,7 +78532,7 @@
         <v>462</v>
       </c>
       <c r="D1746" s="1" t="s">
-        <v>9408</v>
+        <v>9406</v>
       </c>
       <c r="E1746" s="1" t="s">
         <v>7079</v>
@@ -78549,7 +78549,7 @@
         <v>7</v>
       </c>
       <c r="D1747" s="1" t="s">
-        <v>9095</v>
+        <v>9094</v>
       </c>
       <c r="E1747" s="1" t="s">
         <v>5553</v>
@@ -78586,7 +78586,7 @@
         <v>1415</v>
       </c>
       <c r="D1749" s="1" t="s">
-        <v>9397</v>
+        <v>9395</v>
       </c>
       <c r="E1749" s="1" t="s">
         <v>7044</v>
@@ -78800,7 +78800,7 @@
         <v>7</v>
       </c>
       <c r="D1760" s="1" t="s">
-        <v>9096</v>
+        <v>9095</v>
       </c>
       <c r="E1760" s="1" t="s">
         <v>5556</v>
@@ -78834,7 +78834,7 @@
         <v>7</v>
       </c>
       <c r="D1762" s="1" t="s">
-        <v>9097</v>
+        <v>9096</v>
       </c>
       <c r="E1762" s="1" t="s">
         <v>5560</v>
@@ -78851,7 +78851,7 @@
         <v>7</v>
       </c>
       <c r="D1763" s="1" t="s">
-        <v>9098</v>
+        <v>9097</v>
       </c>
       <c r="E1763" s="1" t="s">
         <v>5564</v>
@@ -78871,7 +78871,7 @@
         <v>4173</v>
       </c>
       <c r="D1764" s="1" t="s">
-        <v>8701</v>
+        <v>8700</v>
       </c>
       <c r="E1764" s="1" t="s">
         <v>4203</v>
@@ -78908,7 +78908,7 @@
         <v>5131</v>
       </c>
       <c r="D1766" s="1" t="s">
-        <v>9000</v>
+        <v>8999</v>
       </c>
       <c r="E1766" s="1" t="s">
         <v>5236</v>
@@ -78925,7 +78925,7 @@
         <v>5131</v>
       </c>
       <c r="D1767" s="1" t="s">
-        <v>9432</v>
+        <v>9430</v>
       </c>
       <c r="E1767" s="1" t="s">
         <v>7158</v>
@@ -78965,7 +78965,7 @@
         <v>6062</v>
       </c>
       <c r="D1769" s="1" t="s">
-        <v>9534</v>
+        <v>9532</v>
       </c>
       <c r="E1769" s="1" t="s">
         <v>174</v>
@@ -78985,7 +78985,7 @@
         <v>6062</v>
       </c>
       <c r="D1770" s="1" t="s">
-        <v>9263</v>
+        <v>9262</v>
       </c>
       <c r="E1770" s="1" t="s">
         <v>6095</v>
@@ -79045,7 +79045,7 @@
         <v>6062</v>
       </c>
       <c r="D1773" s="1" t="s">
-        <v>9264</v>
+        <v>9263</v>
       </c>
       <c r="E1773" s="1" t="s">
         <v>6098</v>
@@ -79082,7 +79082,7 @@
         <v>1340</v>
       </c>
       <c r="D1775" s="1" t="s">
-        <v>9443</v>
+        <v>9441</v>
       </c>
       <c r="E1775" s="1" t="s">
         <v>7195</v>
@@ -79099,7 +79099,7 @@
         <v>6600</v>
       </c>
       <c r="D1776" s="1" t="s">
-        <v>9444</v>
+        <v>9442</v>
       </c>
       <c r="E1776" s="1" t="s">
         <v>7198</v>
@@ -79116,7 +79116,7 @@
         <v>6600</v>
       </c>
       <c r="D1777" s="1" t="s">
-        <v>9446</v>
+        <v>9444</v>
       </c>
       <c r="E1777" s="1" t="s">
         <v>7204</v>
@@ -79133,7 +79133,7 @@
         <v>6600</v>
       </c>
       <c r="D1778" s="1" t="s">
-        <v>9447</v>
+        <v>9445</v>
       </c>
       <c r="E1778" s="1" t="s">
         <v>7207</v>
@@ -79150,7 +79150,7 @@
         <v>1703</v>
       </c>
       <c r="D1779" s="1" t="s">
-        <v>9458</v>
+        <v>9456</v>
       </c>
       <c r="E1779" s="1" t="s">
         <v>7236</v>
@@ -79167,7 +79167,7 @@
         <v>1703</v>
       </c>
       <c r="D1780" s="4" t="s">
-        <v>9459</v>
+        <v>9457</v>
       </c>
       <c r="E1780" s="4" t="s">
         <v>7239</v>
@@ -79184,7 +79184,7 @@
         <v>6600</v>
       </c>
       <c r="D1781" s="1" t="s">
-        <v>9455</v>
+        <v>9453</v>
       </c>
       <c r="E1781" s="1" t="s">
         <v>7227</v>
@@ -79235,7 +79235,7 @@
         <v>6600</v>
       </c>
       <c r="D1784" s="1" t="s">
-        <v>9451</v>
+        <v>9449</v>
       </c>
       <c r="E1784" s="1" t="s">
         <v>7219</v>
@@ -79269,7 +79269,7 @@
         <v>6600</v>
       </c>
       <c r="D1786" s="1" t="s">
-        <v>9454</v>
+        <v>9452</v>
       </c>
       <c r="E1786" s="1" t="s">
         <v>7224</v>
@@ -79286,7 +79286,7 @@
         <v>6600</v>
       </c>
       <c r="D1787" s="1" t="s">
-        <v>9449</v>
+        <v>9447</v>
       </c>
       <c r="E1787" s="1" t="s">
         <v>7213</v>
@@ -79303,7 +79303,7 @@
         <v>6600</v>
       </c>
       <c r="D1788" s="1" t="s">
-        <v>9448</v>
+        <v>9446</v>
       </c>
       <c r="E1788" s="1" t="s">
         <v>7210</v>
@@ -79320,7 +79320,7 @@
         <v>6600</v>
       </c>
       <c r="D1789" s="1" t="s">
-        <v>9456</v>
+        <v>9454</v>
       </c>
       <c r="E1789" s="1" t="s">
         <v>7230</v>
@@ -79337,7 +79337,7 @@
         <v>1703</v>
       </c>
       <c r="D1790" s="1" t="s">
-        <v>9457</v>
+        <v>9455</v>
       </c>
       <c r="E1790" s="1" t="s">
         <v>7233</v>
@@ -79354,7 +79354,7 @@
         <v>6600</v>
       </c>
       <c r="D1791" s="1" t="s">
-        <v>9445</v>
+        <v>9443</v>
       </c>
       <c r="E1791" s="1" t="s">
         <v>7201</v>
@@ -79388,10 +79388,10 @@
         <v>6600</v>
       </c>
       <c r="D1793" s="1" t="s">
-        <v>9452</v>
+        <v>9450</v>
       </c>
       <c r="E1793" s="1" t="s">
-        <v>9453</v>
+        <v>9451</v>
       </c>
       <c r="F1793" t="s">
         <v>7222</v>
@@ -79456,7 +79456,7 @@
         <v>7</v>
       </c>
       <c r="D1797" s="1" t="s">
-        <v>9099</v>
+        <v>9098</v>
       </c>
       <c r="E1797" s="1" t="s">
         <v>5566</v>
@@ -79473,7 +79473,7 @@
         <v>7</v>
       </c>
       <c r="D1798" s="1" t="s">
-        <v>9100</v>
+        <v>9099</v>
       </c>
       <c r="E1798" s="1" t="s">
         <v>5569</v>
@@ -79587,7 +79587,7 @@
         <v>7</v>
       </c>
       <c r="D1804" s="1" t="s">
-        <v>9101</v>
+        <v>9100</v>
       </c>
       <c r="E1804" s="1" t="s">
         <v>5572</v>
@@ -79604,7 +79604,7 @@
         <v>391</v>
       </c>
       <c r="D1805" s="1" t="s">
-        <v>9206</v>
+        <v>9205</v>
       </c>
       <c r="E1805" s="1" t="s">
         <v>7028</v>
@@ -79624,7 +79624,7 @@
         <v>3829</v>
       </c>
       <c r="D1806" s="1" t="s">
-        <v>8643</v>
+        <v>8642</v>
       </c>
       <c r="E1806" s="1" t="s">
         <v>3997</v>
@@ -79644,7 +79644,7 @@
         <v>3829</v>
       </c>
       <c r="D1807" s="1" t="s">
-        <v>8650</v>
+        <v>8649</v>
       </c>
       <c r="E1807" s="1" t="s">
         <v>4029</v>
@@ -79664,7 +79664,7 @@
         <v>3829</v>
       </c>
       <c r="D1808" s="4" t="s">
-        <v>8646</v>
+        <v>8645</v>
       </c>
       <c r="E1808" s="4" t="s">
         <v>4006</v>
@@ -79684,7 +79684,7 @@
         <v>3829</v>
       </c>
       <c r="D1809" s="4" t="s">
-        <v>8645</v>
+        <v>8644</v>
       </c>
       <c r="E1809" s="4" t="s">
         <v>4003</v>
@@ -79704,7 +79704,7 @@
         <v>3829</v>
       </c>
       <c r="D1810" s="1" t="s">
-        <v>9460</v>
+        <v>9458</v>
       </c>
       <c r="E1810" s="1" t="s">
         <v>4009</v>
@@ -79724,7 +79724,7 @@
         <v>3829</v>
       </c>
       <c r="D1811" s="1" t="s">
-        <v>9461</v>
+        <v>9459</v>
       </c>
       <c r="E1811" s="1" t="s">
         <v>4032</v>
@@ -79744,7 +79744,7 @@
         <v>3829</v>
       </c>
       <c r="D1812" s="1" t="s">
-        <v>9462</v>
+        <v>9460</v>
       </c>
       <c r="E1812" s="1" t="s">
         <v>4012</v>
@@ -79764,7 +79764,7 @@
         <v>3829</v>
       </c>
       <c r="D1813" s="1" t="s">
-        <v>9463</v>
+        <v>9461</v>
       </c>
       <c r="E1813" s="1" t="s">
         <v>4015</v>
@@ -79784,13 +79784,13 @@
         <v>3829</v>
       </c>
       <c r="D1814" s="1" t="s">
-        <v>9464</v>
+        <v>9462</v>
       </c>
       <c r="E1814" s="1" t="s">
         <v>4018</v>
       </c>
       <c r="F1814" t="s">
-        <v>8647</v>
+        <v>8646</v>
       </c>
     </row>
     <row r="1815" spans="1:6">
@@ -79804,7 +79804,7 @@
         <v>3829</v>
       </c>
       <c r="D1815" s="1" t="s">
-        <v>9465</v>
+        <v>9463</v>
       </c>
       <c r="E1815" s="1" t="s">
         <v>4035</v>
@@ -79824,7 +79824,7 @@
         <v>3829</v>
       </c>
       <c r="D1816" s="1" t="s">
-        <v>9466</v>
+        <v>9464</v>
       </c>
       <c r="E1816" s="1" t="s">
         <v>4020</v>
@@ -79844,7 +79844,7 @@
         <v>3829</v>
       </c>
       <c r="D1817" s="1" t="s">
-        <v>8648</v>
+        <v>8647</v>
       </c>
       <c r="E1817" s="1" t="s">
         <v>4023</v>
@@ -79864,7 +79864,7 @@
         <v>3829</v>
       </c>
       <c r="D1818" s="4" t="s">
-        <v>8649</v>
+        <v>8648</v>
       </c>
       <c r="E1818" s="4" t="s">
         <v>4026</v>
@@ -79884,7 +79884,7 @@
         <v>3829</v>
       </c>
       <c r="D1819" s="1" t="s">
-        <v>8644</v>
+        <v>8643</v>
       </c>
       <c r="E1819" s="1" t="s">
         <v>4000</v>
@@ -79924,7 +79924,7 @@
         <v>6062</v>
       </c>
       <c r="D1821" s="1" t="s">
-        <v>9261</v>
+        <v>9260</v>
       </c>
       <c r="E1821" s="1" t="s">
         <v>6081</v>
@@ -80024,7 +80024,7 @@
         <v>3829</v>
       </c>
       <c r="D1826" s="1" t="s">
-        <v>8750</v>
+        <v>8749</v>
       </c>
       <c r="E1826" s="1" t="s">
         <v>4420</v>
@@ -80044,7 +80044,7 @@
         <v>3829</v>
       </c>
       <c r="D1827" s="1" t="s">
-        <v>8755</v>
+        <v>8754</v>
       </c>
       <c r="E1827" s="1" t="s">
         <v>4435</v>
@@ -80064,7 +80064,7 @@
         <v>3829</v>
       </c>
       <c r="D1828" s="1" t="s">
-        <v>8753</v>
+        <v>8752</v>
       </c>
       <c r="E1828" s="1" t="s">
         <v>4429</v>
@@ -80084,7 +80084,7 @@
         <v>3829</v>
       </c>
       <c r="D1829" s="1" t="s">
-        <v>8754</v>
+        <v>8753</v>
       </c>
       <c r="E1829" s="1" t="s">
         <v>4432</v>
@@ -80104,7 +80104,7 @@
         <v>3829</v>
       </c>
       <c r="D1830" s="1" t="s">
-        <v>8751</v>
+        <v>8750</v>
       </c>
       <c r="E1830" s="1" t="s">
         <v>4423</v>
@@ -80124,7 +80124,7 @@
         <v>3829</v>
       </c>
       <c r="D1831" s="1" t="s">
-        <v>8752</v>
+        <v>8751</v>
       </c>
       <c r="E1831" s="1" t="s">
         <v>4426</v>
@@ -80141,7 +80141,7 @@
         <v>7</v>
       </c>
       <c r="D1832" s="1" t="s">
-        <v>8679</v>
+        <v>8678</v>
       </c>
       <c r="E1832" s="1" t="s">
         <v>4130</v>
@@ -80158,7 +80158,7 @@
         <v>5595</v>
       </c>
       <c r="D1833" s="1" t="s">
-        <v>9386</v>
+        <v>9384</v>
       </c>
       <c r="E1833" s="1" t="s">
         <v>6995</v>
@@ -80198,7 +80198,7 @@
         <v>1892</v>
       </c>
       <c r="D1835" s="1" t="s">
-        <v>8740</v>
+        <v>8739</v>
       </c>
       <c r="E1835" s="1" t="s">
         <v>4364</v>
@@ -80378,7 +80378,7 @@
         <v>4241</v>
       </c>
       <c r="D1844" s="1" t="s">
-        <v>8713</v>
+        <v>8712</v>
       </c>
       <c r="E1844" s="1" t="s">
         <v>4242</v>
@@ -80415,7 +80415,7 @@
         <v>7</v>
       </c>
       <c r="D1846" t="s">
-        <v>9102</v>
+        <v>9101</v>
       </c>
       <c r="E1846" t="s">
         <v>5576</v>
@@ -80492,7 +80492,7 @@
         <v>4241</v>
       </c>
       <c r="D1850" s="1" t="s">
-        <v>9535</v>
+        <v>9533</v>
       </c>
       <c r="E1850" s="1" t="s">
         <v>174</v>
@@ -80509,7 +80509,7 @@
         <v>7</v>
       </c>
       <c r="D1851" s="1" t="s">
-        <v>9103</v>
+        <v>9102</v>
       </c>
       <c r="E1851" s="1" t="s">
         <v>5582</v>
@@ -80586,7 +80586,7 @@
         <v>2161</v>
       </c>
       <c r="D1855" s="1" t="s">
-        <v>9245</v>
+        <v>9244</v>
       </c>
       <c r="E1855" s="1" t="s">
         <v>6019</v>
@@ -80643,7 +80643,7 @@
         <v>4445</v>
       </c>
       <c r="D1858" s="1" t="s">
-        <v>8781</v>
+        <v>8780</v>
       </c>
       <c r="E1858" s="1" t="s">
         <v>4527</v>
@@ -80677,7 +80677,7 @@
         <v>7</v>
       </c>
       <c r="D1860" s="1" t="s">
-        <v>9105</v>
+        <v>9104</v>
       </c>
       <c r="E1860" s="1" t="s">
         <v>5593</v>
@@ -80723,7 +80723,7 @@
         <v>174</v>
       </c>
       <c r="F1862" s="1" t="s">
-        <v>9536</v>
+        <v>9534</v>
       </c>
     </row>
     <row r="1863" spans="1:6">
@@ -80737,7 +80737,7 @@
         <v>4038</v>
       </c>
       <c r="D1863" s="1" t="s">
-        <v>8651</v>
+        <v>8650</v>
       </c>
       <c r="E1863" s="1" t="s">
         <v>4039</v>
@@ -80757,7 +80757,7 @@
         <v>4038</v>
       </c>
       <c r="D1864" s="1" t="s">
-        <v>8652</v>
+        <v>8651</v>
       </c>
       <c r="E1864" s="1" t="s">
         <v>4042</v>
@@ -80777,7 +80777,7 @@
         <v>4038</v>
       </c>
       <c r="D1865" s="1" t="s">
-        <v>8653</v>
+        <v>8652</v>
       </c>
       <c r="E1865" s="1" t="s">
         <v>4045</v>
@@ -80797,7 +80797,7 @@
         <v>4038</v>
       </c>
       <c r="D1866" s="1" t="s">
-        <v>8654</v>
+        <v>8653</v>
       </c>
       <c r="E1866" s="1" t="s">
         <v>4048</v>
@@ -80814,7 +80814,7 @@
         <v>217</v>
       </c>
       <c r="D1867" s="1" t="s">
-        <v>9303</v>
+        <v>9301</v>
       </c>
       <c r="E1867" s="1" t="s">
         <v>6745</v>
@@ -80831,7 +80831,7 @@
         <v>217</v>
       </c>
       <c r="D1868" s="1" t="s">
-        <v>9304</v>
+        <v>9302</v>
       </c>
       <c r="E1868" s="1" t="s">
         <v>6748</v>
@@ -80851,7 +80851,7 @@
         <v>4038</v>
       </c>
       <c r="D1869" s="1" t="s">
-        <v>8655</v>
+        <v>8654</v>
       </c>
       <c r="E1869" s="1" t="s">
         <v>4051</v>
@@ -80871,7 +80871,7 @@
         <v>4038</v>
       </c>
       <c r="D1870" s="1" t="s">
-        <v>8656</v>
+        <v>8655</v>
       </c>
       <c r="E1870" s="1" t="s">
         <v>4054</v>
@@ -80891,7 +80891,7 @@
         <v>4038</v>
       </c>
       <c r="D1871" s="1" t="s">
-        <v>8657</v>
+        <v>8656</v>
       </c>
       <c r="E1871" s="1" t="s">
         <v>4057</v>
@@ -80911,7 +80911,7 @@
         <v>4038</v>
       </c>
       <c r="D1872" s="1" t="s">
-        <v>8658</v>
+        <v>8657</v>
       </c>
       <c r="E1872" s="1" t="s">
         <v>4060</v>
@@ -80951,7 +80951,7 @@
         <v>2807</v>
       </c>
       <c r="D1874" s="1" t="s">
-        <v>8675</v>
+        <v>8674</v>
       </c>
       <c r="E1874" s="1" t="s">
         <v>4114</v>
@@ -80971,7 +80971,7 @@
         <v>1946</v>
       </c>
       <c r="D1875" s="1" t="s">
-        <v>8949</v>
+        <v>8948</v>
       </c>
       <c r="E1875" s="1" t="s">
         <v>5075</v>
@@ -81008,7 +81008,7 @@
         <v>5595</v>
       </c>
       <c r="D1877" s="1" t="s">
-        <v>9106</v>
+        <v>9105</v>
       </c>
       <c r="E1877" s="1" t="s">
         <v>5596</v>
@@ -81025,7 +81025,7 @@
         <v>4326</v>
       </c>
       <c r="D1878" s="1" t="s">
-        <v>9107</v>
+        <v>9106</v>
       </c>
       <c r="E1878" s="1" t="s">
         <v>5600</v>
@@ -81162,7 +81162,7 @@
         <v>7</v>
       </c>
       <c r="D1885" s="1" t="s">
-        <v>9108</v>
+        <v>9107</v>
       </c>
       <c r="E1885" s="1" t="s">
         <v>5602</v>
@@ -81179,7 +81179,7 @@
         <v>7</v>
       </c>
       <c r="D1886" s="1" t="s">
-        <v>9109</v>
+        <v>9108</v>
       </c>
       <c r="E1886" s="1" t="s">
         <v>5604</v>
@@ -81199,7 +81199,7 @@
         <v>4445</v>
       </c>
       <c r="D1887" s="1" t="s">
-        <v>8782</v>
+        <v>8781</v>
       </c>
       <c r="E1887" s="1" t="s">
         <v>4530</v>
@@ -81216,7 +81216,7 @@
         <v>7</v>
       </c>
       <c r="D1888" s="1" t="s">
-        <v>9019</v>
+        <v>9018</v>
       </c>
       <c r="E1888" s="1" t="s">
         <v>5607</v>
@@ -81233,7 +81233,7 @@
         <v>7</v>
       </c>
       <c r="D1889" s="1" t="s">
-        <v>9110</v>
+        <v>9109</v>
       </c>
       <c r="E1889" s="1" t="s">
         <v>5609</v>
@@ -81270,7 +81270,7 @@
         <v>7</v>
       </c>
       <c r="D1891" s="1" t="s">
-        <v>9111</v>
+        <v>9110</v>
       </c>
       <c r="E1891" s="1" t="s">
         <v>5611</v>
@@ -81287,7 +81287,7 @@
         <v>7</v>
       </c>
       <c r="D1892" s="1" t="s">
-        <v>9112</v>
+        <v>9111</v>
       </c>
       <c r="E1892" s="1" t="s">
         <v>5613</v>
@@ -81404,7 +81404,7 @@
         <v>2807</v>
       </c>
       <c r="D1898" s="1" t="s">
-        <v>8666</v>
+        <v>8665</v>
       </c>
       <c r="E1898" s="1" t="s">
         <v>4084</v>
@@ -81444,7 +81444,7 @@
         <v>4173</v>
       </c>
       <c r="D1900" s="1" t="s">
-        <v>8702</v>
+        <v>8701</v>
       </c>
       <c r="E1900" s="1" t="s">
         <v>4207</v>
@@ -81481,7 +81481,7 @@
         <v>1247</v>
       </c>
       <c r="D1902" s="1" t="s">
-        <v>9399</v>
+        <v>9397</v>
       </c>
       <c r="E1902" s="1" t="s">
         <v>7052</v>
@@ -81501,7 +81501,7 @@
         <v>4445</v>
       </c>
       <c r="D1903" s="1" t="s">
-        <v>8783</v>
+        <v>8782</v>
       </c>
       <c r="E1903" s="1" t="s">
         <v>4533</v>
@@ -81578,7 +81578,7 @@
         <v>7</v>
       </c>
       <c r="D1907" s="1" t="s">
-        <v>9021</v>
+        <v>9020</v>
       </c>
       <c r="E1907" s="1" t="s">
         <v>5303</v>
@@ -81595,7 +81595,7 @@
         <v>7</v>
       </c>
       <c r="D1908" s="1" t="s">
-        <v>9113</v>
+        <v>9112</v>
       </c>
       <c r="E1908" s="1" t="s">
         <v>5619</v>
@@ -81692,7 +81692,7 @@
         <v>7</v>
       </c>
       <c r="D1913" s="1" t="s">
-        <v>9114</v>
+        <v>9113</v>
       </c>
       <c r="E1913" s="1" t="s">
         <v>5622</v>
@@ -81749,7 +81749,7 @@
         <v>7</v>
       </c>
       <c r="D1916" s="1" t="s">
-        <v>9115</v>
+        <v>9114</v>
       </c>
       <c r="E1916" s="1" t="s">
         <v>5625</v>
@@ -81769,7 +81769,7 @@
         <v>4339</v>
       </c>
       <c r="D1917" s="1" t="s">
-        <v>8736</v>
+        <v>8735</v>
       </c>
       <c r="E1917" s="1" t="s">
         <v>4351</v>
@@ -81789,7 +81789,7 @@
         <v>4339</v>
       </c>
       <c r="D1918" s="1" t="s">
-        <v>8737</v>
+        <v>8736</v>
       </c>
       <c r="E1918" s="1" t="s">
         <v>4354</v>
@@ -81809,7 +81809,7 @@
         <v>4339</v>
       </c>
       <c r="D1919" s="1" t="s">
-        <v>8738</v>
+        <v>8737</v>
       </c>
       <c r="E1919" s="1" t="s">
         <v>4357</v>
@@ -81866,7 +81866,7 @@
         <v>1703</v>
       </c>
       <c r="D1922" s="4" t="s">
-        <v>9117</v>
+        <v>9116</v>
       </c>
       <c r="E1922" s="4" t="s">
         <v>5631</v>
@@ -81883,7 +81883,7 @@
         <v>1703</v>
       </c>
       <c r="D1923" s="4" t="s">
-        <v>9116</v>
+        <v>9115</v>
       </c>
       <c r="E1923" s="4" t="s">
         <v>5628</v>
@@ -81920,7 +81920,7 @@
         <v>7</v>
       </c>
       <c r="D1925" s="4" t="s">
-        <v>9118</v>
+        <v>9117</v>
       </c>
       <c r="E1925" s="4" t="s">
         <v>5634</v>
@@ -81937,7 +81937,7 @@
         <v>7</v>
       </c>
       <c r="D1926" s="1" t="s">
-        <v>9119</v>
+        <v>9118</v>
       </c>
       <c r="E1926" s="1" t="s">
         <v>5637</v>
@@ -81954,7 +81954,7 @@
         <v>7</v>
       </c>
       <c r="D1927" s="1" t="s">
-        <v>9120</v>
+        <v>9119</v>
       </c>
       <c r="E1927" s="1" t="s">
         <v>5640</v>
@@ -82031,7 +82031,7 @@
         <v>7</v>
       </c>
       <c r="D1931" s="1" t="s">
-        <v>9120</v>
+        <v>9119</v>
       </c>
       <c r="E1931" s="1" t="s">
         <v>5640</v>
@@ -82071,7 +82071,7 @@
         <v>4173</v>
       </c>
       <c r="D1933" s="1" t="s">
-        <v>8703</v>
+        <v>8702</v>
       </c>
       <c r="E1933" s="1" t="s">
         <v>3519</v>
@@ -82088,7 +82088,7 @@
         <v>7</v>
       </c>
       <c r="D1934" s="1" t="s">
-        <v>9121</v>
+        <v>9120</v>
       </c>
       <c r="E1934" s="1" t="s">
         <v>5644</v>
@@ -82145,7 +82145,7 @@
         <v>7</v>
       </c>
       <c r="D1937" s="1" t="s">
-        <v>9122</v>
+        <v>9121</v>
       </c>
       <c r="E1937" s="1" t="s">
         <v>5647</v>
@@ -82182,7 +82182,7 @@
         <v>7</v>
       </c>
       <c r="D1939" s="1" t="s">
-        <v>9124</v>
+        <v>9123</v>
       </c>
       <c r="E1939" s="1" t="s">
         <v>5653</v>
@@ -82219,7 +82219,7 @@
         <v>7</v>
       </c>
       <c r="D1941" s="1" t="s">
-        <v>9125</v>
+        <v>9124</v>
       </c>
       <c r="E1941" s="1" t="s">
         <v>5656</v>
@@ -82236,7 +82236,7 @@
         <v>7</v>
       </c>
       <c r="D1942" s="1" t="s">
-        <v>9126</v>
+        <v>9125</v>
       </c>
       <c r="E1942" s="1" t="s">
         <v>5659</v>
@@ -82610,7 +82610,7 @@
         <v>2807</v>
       </c>
       <c r="D1961" s="1" t="s">
-        <v>8661</v>
+        <v>8660</v>
       </c>
       <c r="E1961" s="1" t="s">
         <v>4069</v>
@@ -82630,7 +82630,7 @@
         <v>2807</v>
       </c>
       <c r="D1962" s="1" t="s">
-        <v>8662</v>
+        <v>8661</v>
       </c>
       <c r="E1962" s="1" t="s">
         <v>4072</v>
@@ -82650,7 +82650,7 @@
         <v>2807</v>
       </c>
       <c r="D1963" s="1" t="s">
-        <v>8663</v>
+        <v>8662</v>
       </c>
       <c r="E1963" s="1" t="s">
         <v>4075</v>
@@ -82670,7 +82670,7 @@
         <v>2807</v>
       </c>
       <c r="D1964" s="1" t="s">
-        <v>8664</v>
+        <v>8663</v>
       </c>
       <c r="E1964" s="1" t="s">
         <v>4078</v>
@@ -82690,7 +82690,7 @@
         <v>2807</v>
       </c>
       <c r="D1965" s="1" t="s">
-        <v>8665</v>
+        <v>8664</v>
       </c>
       <c r="E1965" s="1" t="s">
         <v>4081</v>
@@ -82727,7 +82727,7 @@
         <v>7</v>
       </c>
       <c r="D1967" s="1" t="s">
-        <v>9127</v>
+        <v>9126</v>
       </c>
       <c r="E1967" s="1" t="s">
         <v>5662</v>
@@ -82744,7 +82744,7 @@
         <v>7</v>
       </c>
       <c r="D1968" s="1" t="s">
-        <v>9128</v>
+        <v>9127</v>
       </c>
       <c r="E1968" s="1" t="s">
         <v>5665</v>
@@ -82761,7 +82761,7 @@
         <v>7</v>
       </c>
       <c r="D1969" s="1" t="s">
-        <v>9129</v>
+        <v>9128</v>
       </c>
       <c r="E1969" s="1" t="s">
         <v>5668</v>
@@ -82778,7 +82778,7 @@
         <v>7</v>
       </c>
       <c r="D1970" s="1" t="s">
-        <v>9130</v>
+        <v>9129</v>
       </c>
       <c r="E1970" s="1" t="s">
         <v>5671</v>
@@ -82795,7 +82795,7 @@
         <v>7</v>
       </c>
       <c r="D1971" s="1" t="s">
-        <v>9131</v>
+        <v>9130</v>
       </c>
       <c r="E1971" s="1" t="s">
         <v>5674</v>
@@ -82812,7 +82812,7 @@
         <v>7</v>
       </c>
       <c r="D1972" s="1" t="s">
-        <v>9132</v>
+        <v>9131</v>
       </c>
       <c r="E1972" s="1" t="s">
         <v>5677</v>
@@ -82829,7 +82829,7 @@
         <v>7</v>
       </c>
       <c r="D1973" s="1" t="s">
-        <v>9133</v>
+        <v>9132</v>
       </c>
       <c r="E1973" s="1" t="s">
         <v>5680</v>
@@ -82846,7 +82846,7 @@
         <v>7</v>
       </c>
       <c r="D1974" s="1" t="s">
-        <v>9134</v>
+        <v>9133</v>
       </c>
       <c r="E1974" s="1" t="s">
         <v>5683</v>
@@ -82863,7 +82863,7 @@
         <v>7</v>
       </c>
       <c r="D1975" s="1" t="s">
-        <v>9135</v>
+        <v>9134</v>
       </c>
       <c r="E1975" s="1" t="s">
         <v>5686</v>
@@ -82897,7 +82897,7 @@
         <v>7</v>
       </c>
       <c r="D1977" s="1" t="s">
-        <v>9136</v>
+        <v>9135</v>
       </c>
       <c r="E1977" s="1" t="s">
         <v>5690</v>
@@ -82937,7 +82937,7 @@
         <v>4445</v>
       </c>
       <c r="D1979" s="1" t="s">
-        <v>8757</v>
+        <v>8756</v>
       </c>
       <c r="E1979" s="1" t="s">
         <v>4446</v>
@@ -82957,7 +82957,7 @@
         <v>4445</v>
       </c>
       <c r="D1980" s="1" t="s">
-        <v>8758</v>
+        <v>8757</v>
       </c>
       <c r="E1980" s="1" t="s">
         <v>4449</v>
@@ -82977,7 +82977,7 @@
         <v>4445</v>
       </c>
       <c r="D1981" s="1" t="s">
-        <v>8759</v>
+        <v>8758</v>
       </c>
       <c r="E1981" s="1" t="s">
         <v>4452</v>
@@ -82994,7 +82994,7 @@
         <v>7</v>
       </c>
       <c r="D1982" s="1" t="s">
-        <v>9137</v>
+        <v>9136</v>
       </c>
       <c r="E1982" s="1" t="s">
         <v>5692</v>
@@ -83011,7 +83011,7 @@
         <v>7</v>
       </c>
       <c r="D1983" s="1" t="s">
-        <v>9138</v>
+        <v>9137</v>
       </c>
       <c r="E1983" s="1" t="s">
         <v>5696</v>
@@ -83031,7 +83031,7 @@
         <v>2957</v>
       </c>
       <c r="D1984" s="1" t="s">
-        <v>8635</v>
+        <v>8634</v>
       </c>
       <c r="E1984" s="1" t="s">
         <v>3215</v>
@@ -83051,7 +83051,7 @@
         <v>2957</v>
       </c>
       <c r="D1985" s="1" t="s">
-        <v>8636</v>
+        <v>8635</v>
       </c>
       <c r="E1985" s="1" t="s">
         <v>3218</v>
@@ -83071,7 +83071,7 @@
         <v>2807</v>
       </c>
       <c r="D1986" s="1" t="s">
-        <v>8667</v>
+        <v>8666</v>
       </c>
       <c r="E1986" s="1" t="s">
         <v>4087</v>
@@ -83091,7 +83091,7 @@
         <v>2807</v>
       </c>
       <c r="D1987" s="1" t="s">
-        <v>8669</v>
+        <v>8668</v>
       </c>
       <c r="E1987" s="1" t="s">
         <v>4093</v>
@@ -83111,7 +83111,7 @@
         <v>2807</v>
       </c>
       <c r="D1988" s="1" t="s">
-        <v>8670</v>
+        <v>8669</v>
       </c>
       <c r="E1988" s="1" t="s">
         <v>4096</v>
@@ -83131,7 +83131,7 @@
         <v>2807</v>
       </c>
       <c r="D1989" s="1" t="s">
-        <v>8671</v>
+        <v>8670</v>
       </c>
       <c r="E1989" s="1" t="s">
         <v>4099</v>
@@ -83151,7 +83151,7 @@
         <v>2807</v>
       </c>
       <c r="D1990" s="1" t="s">
-        <v>8672</v>
+        <v>8671</v>
       </c>
       <c r="E1990" s="1" t="s">
         <v>4102</v>
@@ -83171,7 +83171,7 @@
         <v>2807</v>
       </c>
       <c r="D1991" s="1" t="s">
-        <v>8668</v>
+        <v>8667</v>
       </c>
       <c r="E1991" s="1" t="s">
         <v>4090</v>
@@ -83191,7 +83191,7 @@
         <v>2807</v>
       </c>
       <c r="D1992" s="1" t="s">
-        <v>8673</v>
+        <v>8672</v>
       </c>
       <c r="E1992" s="1" t="s">
         <v>4105</v>
@@ -83208,7 +83208,7 @@
         <v>7</v>
       </c>
       <c r="D1993" s="1" t="s">
-        <v>9139</v>
+        <v>9138</v>
       </c>
       <c r="E1993" s="1" t="s">
         <v>5698</v>
@@ -83228,7 +83228,7 @@
         <v>2807</v>
       </c>
       <c r="D1994" s="1" t="s">
-        <v>8674</v>
+        <v>8673</v>
       </c>
       <c r="E1994" s="1" t="s">
         <v>4108</v>
@@ -83248,7 +83248,7 @@
         <v>2807</v>
       </c>
       <c r="D1995" s="1" t="s">
-        <v>9467</v>
+        <v>9465</v>
       </c>
       <c r="E1995" s="1" t="s">
         <v>4111</v>
@@ -83265,7 +83265,7 @@
         <v>7</v>
       </c>
       <c r="D1996" s="1" t="s">
-        <v>9140</v>
+        <v>9139</v>
       </c>
       <c r="E1996" s="1" t="s">
         <v>5701</v>
@@ -83282,7 +83282,7 @@
         <v>7</v>
       </c>
       <c r="D1997" s="1" t="s">
-        <v>9141</v>
+        <v>9140</v>
       </c>
       <c r="E1997" s="1" t="s">
         <v>5704</v>
@@ -83299,7 +83299,7 @@
         <v>7</v>
       </c>
       <c r="D1998" s="1" t="s">
-        <v>9142</v>
+        <v>9141</v>
       </c>
       <c r="E1998" s="1" t="s">
         <v>5707</v>
@@ -83356,7 +83356,7 @@
         <v>7</v>
       </c>
       <c r="D2001" s="1" t="s">
-        <v>9143</v>
+        <v>9142</v>
       </c>
       <c r="E2001" s="1" t="s">
         <v>5710</v>
@@ -83376,7 +83376,7 @@
         <v>2807</v>
       </c>
       <c r="D2002" s="1" t="s">
-        <v>8676</v>
+        <v>8675</v>
       </c>
       <c r="E2002" s="1" t="s">
         <v>4117</v>
@@ -83433,7 +83433,7 @@
         <v>7</v>
       </c>
       <c r="D2005" s="1" t="s">
-        <v>9144</v>
+        <v>9143</v>
       </c>
       <c r="E2005" s="1" t="s">
         <v>5713</v>
@@ -83510,7 +83510,7 @@
         <v>7</v>
       </c>
       <c r="D2009" s="1" t="s">
-        <v>9145</v>
+        <v>9144</v>
       </c>
       <c r="E2009" s="1" t="s">
         <v>5716</v>
@@ -83590,7 +83590,7 @@
         <v>4445</v>
       </c>
       <c r="D2013" s="1" t="s">
-        <v>8784</v>
+        <v>8783</v>
       </c>
       <c r="E2013" s="1" t="s">
         <v>4536</v>
@@ -83670,7 +83670,7 @@
         <v>710</v>
       </c>
       <c r="D2017" s="1" t="s">
-        <v>9244</v>
+        <v>9243</v>
       </c>
       <c r="E2017" s="1" t="s">
         <v>6016</v>
@@ -83710,7 +83710,7 @@
         <v>6062</v>
       </c>
       <c r="D2019" s="1" t="s">
-        <v>9262</v>
+        <v>9261</v>
       </c>
       <c r="E2019" s="1" t="s">
         <v>6088</v>
@@ -83847,7 +83847,7 @@
         <v>137</v>
       </c>
       <c r="D2026" s="1" t="s">
-        <v>9468</v>
+        <v>9466</v>
       </c>
       <c r="E2026" s="1" t="s">
         <v>6486</v>
@@ -83884,7 +83884,7 @@
         <v>7</v>
       </c>
       <c r="D2028" s="1" t="s">
-        <v>9146</v>
+        <v>9145</v>
       </c>
       <c r="E2028" s="1" t="s">
         <v>5719</v>
@@ -83921,7 +83921,7 @@
         <v>7</v>
       </c>
       <c r="D2030" s="1" t="s">
-        <v>9147</v>
+        <v>9146</v>
       </c>
       <c r="E2030" s="1" t="s">
         <v>5722</v>
@@ -83989,7 +83989,7 @@
         <v>7</v>
       </c>
       <c r="D2034" s="1" t="s">
-        <v>9148</v>
+        <v>9147</v>
       </c>
       <c r="E2034" s="1" t="s">
         <v>5726</v>
@@ -84029,7 +84029,7 @@
         <v>4445</v>
       </c>
       <c r="D2036" s="1" t="s">
-        <v>8785</v>
+        <v>8784</v>
       </c>
       <c r="E2036" s="1" t="s">
         <v>4539</v>
@@ -84066,7 +84066,7 @@
         <v>7</v>
       </c>
       <c r="D2038" s="1" t="s">
-        <v>9149</v>
+        <v>9148</v>
       </c>
       <c r="E2038" s="1" t="s">
         <v>5728</v>
@@ -84083,7 +84083,7 @@
         <v>7</v>
       </c>
       <c r="D2039" s="1" t="s">
-        <v>9150</v>
+        <v>9149</v>
       </c>
       <c r="E2039" s="1" t="s">
         <v>5731</v>
@@ -84183,13 +84183,13 @@
         <v>6898</v>
       </c>
       <c r="D2044" s="1" t="s">
-        <v>9510</v>
+        <v>9508</v>
       </c>
       <c r="E2044" s="1" t="s">
-        <v>9357</v>
+        <v>9355</v>
       </c>
       <c r="F2044" s="1" t="s">
-        <v>9357</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="2045" spans="1:6">
@@ -84203,7 +84203,7 @@
         <v>6898</v>
       </c>
       <c r="D2045" s="1" t="s">
-        <v>9350</v>
+        <v>9348</v>
       </c>
       <c r="E2045" s="1" t="s">
         <v>6899</v>
@@ -84223,7 +84223,7 @@
         <v>6898</v>
       </c>
       <c r="D2046" s="1" t="s">
-        <v>9353</v>
+        <v>9351</v>
       </c>
       <c r="E2046" s="1" t="s">
         <v>6910</v>
@@ -84260,7 +84260,7 @@
         <v>6898</v>
       </c>
       <c r="D2048" s="1" t="s">
-        <v>9352</v>
+        <v>9350</v>
       </c>
       <c r="E2048" s="1" t="s">
         <v>6905</v>
@@ -84280,13 +84280,13 @@
         <v>6898</v>
       </c>
       <c r="D2049" s="1" t="s">
-        <v>9511</v>
+        <v>9509</v>
       </c>
       <c r="E2049" s="1" t="s">
-        <v>9355</v>
+        <v>9353</v>
       </c>
       <c r="F2049" t="s">
-        <v>9356</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="2050" spans="1:6">
@@ -84300,7 +84300,7 @@
         <v>6898</v>
       </c>
       <c r="D2050" s="1" t="s">
-        <v>8681</v>
+        <v>8680</v>
       </c>
       <c r="E2050" s="1" t="s">
         <v>4137</v>
@@ -84320,7 +84320,7 @@
         <v>6898</v>
       </c>
       <c r="D2051" s="1" t="s">
-        <v>9351</v>
+        <v>9349</v>
       </c>
       <c r="E2051" s="1" t="s">
         <v>6902</v>
@@ -84340,7 +84340,7 @@
         <v>6898</v>
       </c>
       <c r="D2052" s="1" t="s">
-        <v>9354</v>
+        <v>9352</v>
       </c>
       <c r="E2052" s="1" t="s">
         <v>6913</v>
@@ -84377,7 +84377,7 @@
         <v>15</v>
       </c>
       <c r="D2054" s="1" t="s">
-        <v>9434</v>
+        <v>9432</v>
       </c>
       <c r="E2054" s="1" t="s">
         <v>7164</v>
@@ -84394,7 +84394,7 @@
         <v>15</v>
       </c>
       <c r="D2055" s="1" t="s">
-        <v>9435</v>
+        <v>9433</v>
       </c>
       <c r="E2055" s="1" t="s">
         <v>7167</v>
@@ -84471,7 +84471,7 @@
         <v>7</v>
       </c>
       <c r="D2059" s="1" t="s">
-        <v>9151</v>
+        <v>9150</v>
       </c>
       <c r="E2059" s="1" t="s">
         <v>5734</v>
@@ -84491,7 +84491,7 @@
         <v>4445</v>
       </c>
       <c r="D2060" s="1" t="s">
-        <v>8787</v>
+        <v>8786</v>
       </c>
       <c r="E2060" s="1" t="s">
         <v>4544</v>
@@ -84571,7 +84571,7 @@
         <v>4445</v>
       </c>
       <c r="D2064" s="1" t="s">
-        <v>8788</v>
+        <v>8787</v>
       </c>
       <c r="E2064" s="1" t="s">
         <v>4547</v>
@@ -84651,7 +84651,7 @@
         <v>4445</v>
       </c>
       <c r="D2068" s="1" t="s">
-        <v>8789</v>
+        <v>8788</v>
       </c>
       <c r="E2068" s="1" t="s">
         <v>4550</v>
@@ -84668,7 +84668,7 @@
         <v>7</v>
       </c>
       <c r="D2069" s="1" t="s">
-        <v>9152</v>
+        <v>9151</v>
       </c>
       <c r="E2069" s="1" t="s">
         <v>5737</v>
@@ -84728,7 +84728,7 @@
         <v>4445</v>
       </c>
       <c r="D2072" s="1" t="s">
-        <v>8790</v>
+        <v>8789</v>
       </c>
       <c r="E2072" s="1" t="s">
         <v>4553</v>
@@ -84748,7 +84748,7 @@
         <v>4445</v>
       </c>
       <c r="D2073" s="1" t="s">
-        <v>8791</v>
+        <v>8790</v>
       </c>
       <c r="E2073" s="1" t="s">
         <v>4556</v>
@@ -84788,7 +84788,7 @@
         <v>4445</v>
       </c>
       <c r="D2075" s="1" t="s">
-        <v>8793</v>
+        <v>8792</v>
       </c>
       <c r="E2075" s="1" t="s">
         <v>4562</v>
@@ -84808,7 +84808,7 @@
         <v>4445</v>
       </c>
       <c r="D2076" s="1" t="s">
-        <v>8786</v>
+        <v>8785</v>
       </c>
       <c r="E2076" s="1" t="s">
         <v>4541</v>
@@ -84848,7 +84848,7 @@
         <v>4445</v>
       </c>
       <c r="D2078" s="1" t="s">
-        <v>8792</v>
+        <v>8791</v>
       </c>
       <c r="E2078" s="1" t="s">
         <v>4559</v>
@@ -84888,7 +84888,7 @@
         <v>4445</v>
       </c>
       <c r="D2080" s="1" t="s">
-        <v>8794</v>
+        <v>8793</v>
       </c>
       <c r="E2080" s="1" t="s">
         <v>4565</v>
@@ -84928,7 +84928,7 @@
         <v>4445</v>
       </c>
       <c r="D2082" s="1" t="s">
-        <v>8795</v>
+        <v>8794</v>
       </c>
       <c r="E2082" s="1" t="s">
         <v>4568</v>
@@ -84968,7 +84968,7 @@
         <v>4445</v>
       </c>
       <c r="D2084" s="1" t="s">
-        <v>8796</v>
+        <v>8795</v>
       </c>
       <c r="E2084" s="1" t="s">
         <v>4571</v>
@@ -85005,7 +85005,7 @@
         <v>6924</v>
       </c>
       <c r="D2086" s="1" t="s">
-        <v>9411</v>
+        <v>9409</v>
       </c>
       <c r="E2086" s="1" t="s">
         <v>7088</v>
@@ -85099,7 +85099,7 @@
         <v>93</v>
       </c>
       <c r="D2091" s="1" t="s">
-        <v>9282</v>
+        <v>9280</v>
       </c>
       <c r="E2091" s="1" t="s">
         <v>6676</v>
@@ -85116,7 +85116,7 @@
         <v>3171</v>
       </c>
       <c r="D2092" s="1" t="s">
-        <v>9280</v>
+        <v>9278</v>
       </c>
       <c r="E2092" s="1" t="s">
         <v>6671</v>
@@ -85133,10 +85133,10 @@
         <v>93</v>
       </c>
       <c r="D2093" s="1" t="s">
-        <v>9281</v>
+        <v>9279</v>
       </c>
       <c r="E2093" s="1" t="s">
-        <v>9512</v>
+        <v>9510</v>
       </c>
       <c r="F2093" t="s">
         <v>6674</v>
@@ -85150,7 +85150,7 @@
         <v>3171</v>
       </c>
       <c r="D2094" s="1" t="s">
-        <v>9279</v>
+        <v>9277</v>
       </c>
       <c r="E2094" s="1" t="s">
         <v>6668</v>
@@ -85167,7 +85167,7 @@
         <v>3171</v>
       </c>
       <c r="D2095" s="1" t="s">
-        <v>9277</v>
+        <v>9275</v>
       </c>
       <c r="E2095" s="1" t="s">
         <v>6662</v>
@@ -85184,7 +85184,7 @@
         <v>3171</v>
       </c>
       <c r="D2096" s="1" t="s">
-        <v>9278</v>
+        <v>9276</v>
       </c>
       <c r="E2096" s="1" t="s">
         <v>6665</v>
@@ -85224,7 +85224,7 @@
         <v>4445</v>
       </c>
       <c r="D2098" s="1" t="s">
-        <v>8797</v>
+        <v>8796</v>
       </c>
       <c r="E2098" s="1" t="s">
         <v>4574</v>
@@ -85241,7 +85241,7 @@
         <v>117</v>
       </c>
       <c r="D2099" s="1" t="s">
-        <v>9513</v>
+        <v>9511</v>
       </c>
       <c r="E2099" s="1" t="s">
         <v>6329</v>
@@ -85558,7 +85558,7 @@
         <v>4445</v>
       </c>
       <c r="D2115" s="1" t="s">
-        <v>8798</v>
+        <v>8797</v>
       </c>
       <c r="E2115" s="1" t="s">
         <v>4577</v>
@@ -85575,7 +85575,7 @@
         <v>7</v>
       </c>
       <c r="D2116" s="1" t="s">
-        <v>9153</v>
+        <v>9152</v>
       </c>
       <c r="E2116" s="1" t="s">
         <v>5741</v>
@@ -85592,7 +85592,7 @@
         <v>7</v>
       </c>
       <c r="D2117" s="1" t="s">
-        <v>9154</v>
+        <v>9153</v>
       </c>
       <c r="E2117" s="1" t="s">
         <v>5744</v>
@@ -85609,7 +85609,7 @@
         <v>7</v>
       </c>
       <c r="D2118" s="1" t="s">
-        <v>9155</v>
+        <v>9154</v>
       </c>
       <c r="E2118" s="1" t="s">
         <v>5747</v>
@@ -85626,7 +85626,7 @@
         <v>7</v>
       </c>
       <c r="D2119" s="1" t="s">
-        <v>9156</v>
+        <v>9155</v>
       </c>
       <c r="E2119" s="1" t="s">
         <v>5750</v>
@@ -85643,7 +85643,7 @@
         <v>7</v>
       </c>
       <c r="D2120" s="1" t="s">
-        <v>9157</v>
+        <v>9156</v>
       </c>
       <c r="E2120" s="1" t="s">
         <v>5753</v>
@@ -85660,7 +85660,7 @@
         <v>7</v>
       </c>
       <c r="D2121" s="1" t="s">
-        <v>9158</v>
+        <v>9157</v>
       </c>
       <c r="E2121" s="1" t="s">
         <v>5756</v>
@@ -85677,7 +85677,7 @@
         <v>7</v>
       </c>
       <c r="D2122" s="1" t="s">
-        <v>9159</v>
+        <v>9158</v>
       </c>
       <c r="E2122" s="1" t="s">
         <v>5759</v>
@@ -85697,7 +85697,7 @@
         <v>4445</v>
       </c>
       <c r="D2123" s="1" t="s">
-        <v>8799</v>
+        <v>8798</v>
       </c>
       <c r="E2123" s="1" t="s">
         <v>4580</v>
@@ -85794,7 +85794,7 @@
         <v>7</v>
       </c>
       <c r="D2128" s="1" t="s">
-        <v>9160</v>
+        <v>9159</v>
       </c>
       <c r="E2128" s="1" t="s">
         <v>5762</v>
@@ -85831,7 +85831,7 @@
         <v>7</v>
       </c>
       <c r="D2130" s="1" t="s">
-        <v>9161</v>
+        <v>9160</v>
       </c>
       <c r="E2130" s="1" t="s">
         <v>5765</v>
@@ -85848,7 +85848,7 @@
         <v>6610</v>
       </c>
       <c r="D2131" s="1" t="s">
-        <v>9514</v>
+        <v>9512</v>
       </c>
       <c r="E2131" s="1" t="s">
         <v>6614</v>
@@ -85905,7 +85905,7 @@
         <v>217</v>
       </c>
       <c r="D2134" s="1" t="s">
-        <v>9317</v>
+        <v>9315</v>
       </c>
       <c r="E2134" s="1" t="s">
         <v>6791</v>
@@ -86005,7 +86005,7 @@
         <v>4123</v>
       </c>
       <c r="D2139" s="1" t="s">
-        <v>8685</v>
+        <v>8684</v>
       </c>
       <c r="E2139" s="1" t="s">
         <v>4151</v>
@@ -86025,7 +86025,7 @@
         <v>4123</v>
       </c>
       <c r="D2140" s="1" t="s">
-        <v>8687</v>
+        <v>8686</v>
       </c>
       <c r="E2140" s="1" t="s">
         <v>4158</v>
@@ -86045,7 +86045,7 @@
         <v>4123</v>
       </c>
       <c r="D2141" s="1" t="s">
-        <v>8686</v>
+        <v>8685</v>
       </c>
       <c r="E2141" s="1" t="s">
         <v>4154</v>
@@ -86065,7 +86065,7 @@
         <v>4445</v>
       </c>
       <c r="D2142" s="1" t="s">
-        <v>8800</v>
+        <v>8799</v>
       </c>
       <c r="E2142" s="1" t="s">
         <v>4583</v>
@@ -86082,7 +86082,7 @@
         <v>7</v>
       </c>
       <c r="D2143" s="1" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="E2143" s="1" t="s">
         <v>5768</v>
@@ -86179,7 +86179,7 @@
         <v>7</v>
       </c>
       <c r="D2148" s="1" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="E2148" s="1" t="s">
         <v>5772</v>
@@ -86216,7 +86216,7 @@
         <v>7</v>
       </c>
       <c r="D2150" s="1" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="E2150" s="1" t="s">
         <v>5773</v>
@@ -86276,7 +86276,7 @@
         <v>4438</v>
       </c>
       <c r="D2153" s="1" t="s">
-        <v>8756</v>
+        <v>8755</v>
       </c>
       <c r="E2153" s="1" t="s">
         <v>4439</v>
@@ -86293,7 +86293,7 @@
         <v>7</v>
       </c>
       <c r="D2154" s="1" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="E2154" s="1" t="s">
         <v>5775</v>
@@ -86367,7 +86367,7 @@
         <v>7</v>
       </c>
       <c r="D2158" s="1" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="E2158" s="1" t="s">
         <v>5781</v>
@@ -86384,7 +86384,7 @@
         <v>6804</v>
       </c>
       <c r="D2159" s="1" t="s">
-        <v>9326</v>
+        <v>9324</v>
       </c>
       <c r="E2159" s="1" t="s">
         <v>6822</v>
@@ -86401,7 +86401,7 @@
         <v>6804</v>
       </c>
       <c r="D2160" s="1" t="s">
-        <v>9322</v>
+        <v>9320</v>
       </c>
       <c r="E2160" s="1" t="s">
         <v>6808</v>
@@ -86418,7 +86418,7 @@
         <v>6804</v>
       </c>
       <c r="D2161" s="1" t="s">
-        <v>9321</v>
+        <v>9319</v>
       </c>
       <c r="E2161" s="1" t="s">
         <v>6805</v>
@@ -86435,7 +86435,7 @@
         <v>6804</v>
       </c>
       <c r="D2162" s="1" t="s">
-        <v>9325</v>
+        <v>9323</v>
       </c>
       <c r="E2162" s="1" t="s">
         <v>6817</v>
@@ -86469,7 +86469,7 @@
         <v>6804</v>
       </c>
       <c r="D2164" s="1" t="s">
-        <v>9324</v>
+        <v>9322</v>
       </c>
       <c r="E2164" s="1" t="s">
         <v>6814</v>
@@ -86486,7 +86486,7 @@
         <v>6804</v>
       </c>
       <c r="D2165" s="1" t="s">
-        <v>9323</v>
+        <v>9321</v>
       </c>
       <c r="E2165" s="1" t="s">
         <v>6811</v>
@@ -86526,7 +86526,7 @@
         <v>4173</v>
       </c>
       <c r="D2167" s="1" t="s">
-        <v>8704</v>
+        <v>8703</v>
       </c>
       <c r="E2167" s="1" t="s">
         <v>4210</v>
@@ -86543,13 +86543,13 @@
         <v>7</v>
       </c>
       <c r="D2168" s="1" t="s">
-        <v>9515</v>
+        <v>9513</v>
       </c>
       <c r="E2168" s="1" t="s">
+        <v>9166</v>
+      </c>
+      <c r="F2168" t="s">
         <v>9167</v>
-      </c>
-      <c r="F2168" t="s">
-        <v>9168</v>
       </c>
     </row>
     <row r="2169" spans="1:6">
@@ -86560,13 +86560,13 @@
         <v>7</v>
       </c>
       <c r="D2169" s="1" t="s">
-        <v>9516</v>
+        <v>9514</v>
       </c>
       <c r="E2169" s="1" t="s">
+        <v>9168</v>
+      </c>
+      <c r="F2169" s="1" t="s">
         <v>9169</v>
-      </c>
-      <c r="F2169" s="1" t="s">
-        <v>9170</v>
       </c>
     </row>
     <row r="2170" spans="1:6">
@@ -86577,13 +86577,13 @@
         <v>7</v>
       </c>
       <c r="D2170" s="1" t="s">
-        <v>9517</v>
+        <v>9515</v>
       </c>
       <c r="E2170" s="1" t="s">
+        <v>9170</v>
+      </c>
+      <c r="F2170" s="1" t="s">
         <v>9171</v>
-      </c>
-      <c r="F2170" s="1" t="s">
-        <v>9172</v>
       </c>
     </row>
     <row r="2171" spans="1:6">
@@ -86594,13 +86594,13 @@
         <v>7</v>
       </c>
       <c r="D2171" s="1" t="s">
+        <v>9172</v>
+      </c>
+      <c r="E2171" s="1" t="s">
         <v>9173</v>
       </c>
-      <c r="E2171" s="1" t="s">
+      <c r="F2171" s="1" t="s">
         <v>9174</v>
-      </c>
-      <c r="F2171" s="1" t="s">
-        <v>9175</v>
       </c>
     </row>
     <row r="2172" spans="1:6">
@@ -86628,7 +86628,7 @@
         <v>7</v>
       </c>
       <c r="D2173" s="1" t="s">
-        <v>9179</v>
+        <v>9178</v>
       </c>
       <c r="E2173" s="1" t="s">
         <v>5802</v>
@@ -86645,7 +86645,7 @@
         <v>7</v>
       </c>
       <c r="D2174" s="1" t="s">
-        <v>9176</v>
+        <v>9175</v>
       </c>
       <c r="E2174" s="1" t="s">
         <v>5791</v>
@@ -86679,7 +86679,7 @@
         <v>7</v>
       </c>
       <c r="D2176" s="1" t="s">
-        <v>9177</v>
+        <v>9176</v>
       </c>
       <c r="E2176" s="1" t="s">
         <v>5796</v>
@@ -86696,7 +86696,7 @@
         <v>7</v>
       </c>
       <c r="D2177" s="1" t="s">
-        <v>9178</v>
+        <v>9177</v>
       </c>
       <c r="E2177" s="1" t="s">
         <v>5799</v>
@@ -86716,7 +86716,7 @@
         <v>4161</v>
       </c>
       <c r="D2178" s="1" t="s">
-        <v>8688</v>
+        <v>8687</v>
       </c>
       <c r="E2178" s="1" t="s">
         <v>4162</v>
@@ -86736,7 +86736,7 @@
         <v>4161</v>
       </c>
       <c r="D2179" s="1" t="s">
-        <v>8689</v>
+        <v>8688</v>
       </c>
       <c r="E2179" s="1" t="s">
         <v>4165</v>
@@ -86776,7 +86776,7 @@
         <v>4161</v>
       </c>
       <c r="D2181" s="1" t="s">
-        <v>8690</v>
+        <v>8689</v>
       </c>
       <c r="E2181" s="1" t="s">
         <v>4170</v>
@@ -86850,7 +86850,7 @@
         <v>7</v>
       </c>
       <c r="D2185" s="1" t="s">
-        <v>8859</v>
+        <v>8858</v>
       </c>
       <c r="E2185" s="1" t="s">
         <v>4780</v>
@@ -86867,7 +86867,7 @@
         <v>7</v>
       </c>
       <c r="D2186" s="1" t="s">
-        <v>9180</v>
+        <v>9179</v>
       </c>
       <c r="E2186" s="1" t="s">
         <v>5809</v>
@@ -87024,7 +87024,7 @@
         <v>7</v>
       </c>
       <c r="D2194" s="1" t="s">
-        <v>9181</v>
+        <v>9180</v>
       </c>
       <c r="E2194" s="1" t="s">
         <v>5812</v>
@@ -87041,7 +87041,7 @@
         <v>7</v>
       </c>
       <c r="D2195" s="1" t="s">
-        <v>9182</v>
+        <v>9181</v>
       </c>
       <c r="E2195" s="1" t="s">
         <v>5815</v>
@@ -87098,7 +87098,7 @@
         <v>3829</v>
       </c>
       <c r="D2198" s="1" t="s">
-        <v>8640</v>
+        <v>8639</v>
       </c>
       <c r="E2198" s="1" t="s">
         <v>3988</v>
@@ -87118,7 +87118,7 @@
         <v>3829</v>
       </c>
       <c r="D2199" s="1" t="s">
-        <v>8641</v>
+        <v>8640</v>
       </c>
       <c r="E2199" s="1" t="s">
         <v>3991</v>
@@ -87135,7 +87135,7 @@
         <v>7</v>
       </c>
       <c r="D2200" s="1" t="s">
-        <v>9183</v>
+        <v>9182</v>
       </c>
       <c r="E2200" s="1" t="s">
         <v>5818</v>
@@ -87192,7 +87192,7 @@
         <v>1163</v>
       </c>
       <c r="D2203" s="1" t="s">
-        <v>9225</v>
+        <v>9224</v>
       </c>
       <c r="E2203" s="1" t="s">
         <v>5949</v>
@@ -87409,7 +87409,7 @@
         <v>7</v>
       </c>
       <c r="D2214" s="1" t="s">
-        <v>9184</v>
+        <v>9183</v>
       </c>
       <c r="E2214" s="1" t="s">
         <v>5821</v>
@@ -87426,7 +87426,7 @@
         <v>7</v>
       </c>
       <c r="D2215" s="1" t="s">
-        <v>9185</v>
+        <v>9184</v>
       </c>
       <c r="E2215" s="1" t="s">
         <v>5824</v>
@@ -87497,7 +87497,7 @@
         <v>4218</v>
       </c>
       <c r="D2219" s="1" t="s">
-        <v>8706</v>
+        <v>8705</v>
       </c>
       <c r="E2219" s="1" t="s">
         <v>4220</v>
@@ -87517,7 +87517,7 @@
         <v>4218</v>
       </c>
       <c r="D2220" s="1" t="s">
-        <v>8707</v>
+        <v>8706</v>
       </c>
       <c r="E2220" s="1" t="s">
         <v>4222</v>
@@ -87537,7 +87537,7 @@
         <v>4218</v>
       </c>
       <c r="D2221" s="1" t="s">
-        <v>8708</v>
+        <v>8707</v>
       </c>
       <c r="E2221" s="1" t="s">
         <v>4225</v>
@@ -87557,7 +87557,7 @@
         <v>4218</v>
       </c>
       <c r="D2222" s="1" t="s">
-        <v>8709</v>
+        <v>8708</v>
       </c>
       <c r="E2222" s="1" t="s">
         <v>4229</v>
@@ -87577,7 +87577,7 @@
         <v>4218</v>
       </c>
       <c r="D2223" s="1" t="s">
-        <v>8710</v>
+        <v>8709</v>
       </c>
       <c r="E2223" s="1" t="s">
         <v>4231</v>
@@ -87617,7 +87617,7 @@
         <v>4218</v>
       </c>
       <c r="D2225" s="1" t="s">
-        <v>8711</v>
+        <v>8710</v>
       </c>
       <c r="E2225" s="1" t="s">
         <v>4236</v>
@@ -87637,7 +87637,7 @@
         <v>4218</v>
       </c>
       <c r="D2226" s="1" t="s">
-        <v>8712</v>
+        <v>8711</v>
       </c>
       <c r="E2226" s="1" t="s">
         <v>4238</v>
@@ -87714,7 +87714,7 @@
         <v>7</v>
       </c>
       <c r="D2230" s="1" t="s">
-        <v>9186</v>
+        <v>9185</v>
       </c>
       <c r="E2230" s="1" t="s">
         <v>5827</v>
@@ -87734,7 +87734,7 @@
         <v>3829</v>
       </c>
       <c r="D2231" s="1" t="s">
-        <v>8642</v>
+        <v>8641</v>
       </c>
       <c r="E2231" s="1" t="s">
         <v>3994</v>
@@ -88171,7 +88171,7 @@
         <v>6804</v>
       </c>
       <c r="D2253" s="1" t="s">
-        <v>9327</v>
+        <v>9325</v>
       </c>
       <c r="E2253" s="1" t="s">
         <v>6825</v>
@@ -88188,7 +88188,7 @@
         <v>6804</v>
       </c>
       <c r="D2254" s="1" t="s">
-        <v>9329</v>
+        <v>9327</v>
       </c>
       <c r="E2254" s="1" t="s">
         <v>6831</v>
@@ -88205,7 +88205,7 @@
         <v>6804</v>
       </c>
       <c r="D2255" s="1" t="s">
-        <v>9328</v>
+        <v>9326</v>
       </c>
       <c r="E2255" s="1" t="s">
         <v>6828</v>
@@ -88222,7 +88222,7 @@
         <v>7</v>
       </c>
       <c r="D2256" s="1" t="s">
-        <v>9187</v>
+        <v>9186</v>
       </c>
       <c r="E2256" s="1" t="s">
         <v>5830</v>
@@ -88239,7 +88239,7 @@
         <v>7</v>
       </c>
       <c r="D2257" s="1" t="s">
-        <v>9188</v>
+        <v>9187</v>
       </c>
       <c r="E2257" s="1" t="s">
         <v>5833</v>
@@ -88256,7 +88256,7 @@
         <v>7</v>
       </c>
       <c r="D2258" s="1" t="s">
-        <v>9189</v>
+        <v>9188</v>
       </c>
       <c r="E2258" s="1" t="s">
         <v>5836</v>
@@ -88296,7 +88296,7 @@
         <v>4246</v>
       </c>
       <c r="D2260" s="1" t="s">
-        <v>8714</v>
+        <v>8713</v>
       </c>
       <c r="E2260" s="1" t="s">
         <v>4248</v>
@@ -88316,7 +88316,7 @@
         <v>4246</v>
       </c>
       <c r="D2261" s="1" t="s">
-        <v>8714</v>
+        <v>8713</v>
       </c>
       <c r="E2261" s="1" t="s">
         <v>4248</v>
@@ -88356,7 +88356,7 @@
         <v>4246</v>
       </c>
       <c r="D2263" s="1" t="s">
-        <v>8715</v>
+        <v>8714</v>
       </c>
       <c r="E2263" s="1" t="s">
         <v>4252</v>
@@ -88393,7 +88393,7 @@
         <v>3085</v>
       </c>
       <c r="D2265" s="1" t="s">
-        <v>9420</v>
+        <v>9418</v>
       </c>
       <c r="E2265" s="1" t="s">
         <v>7121</v>
@@ -88410,7 +88410,7 @@
         <v>3085</v>
       </c>
       <c r="D2266" s="1" t="s">
-        <v>9421</v>
+        <v>9419</v>
       </c>
       <c r="E2266" s="1" t="s">
         <v>7124</v>
@@ -88464,7 +88464,7 @@
         <v>7</v>
       </c>
       <c r="D2269" s="1" t="s">
-        <v>9190</v>
+        <v>9189</v>
       </c>
       <c r="E2269" s="1" t="s">
         <v>5839</v>
@@ -88481,7 +88481,7 @@
         <v>7</v>
       </c>
       <c r="D2270" s="1" t="s">
-        <v>9191</v>
+        <v>9190</v>
       </c>
       <c r="E2270" s="1" t="s">
         <v>5841</v>
@@ -88498,7 +88498,7 @@
         <v>7</v>
       </c>
       <c r="D2271" s="1" t="s">
-        <v>9192</v>
+        <v>9191</v>
       </c>
       <c r="E2271" s="1" t="s">
         <v>5844</v>
@@ -88538,7 +88538,7 @@
         <v>4259</v>
       </c>
       <c r="D2273" s="1" t="s">
-        <v>8716</v>
+        <v>8715</v>
       </c>
       <c r="E2273" s="1" t="s">
         <v>4259</v>
@@ -88655,7 +88655,7 @@
         <v>2957</v>
       </c>
       <c r="D2279" s="1" t="s">
-        <v>9469</v>
+        <v>9467</v>
       </c>
       <c r="E2279" s="1" t="s">
         <v>3225</v>
@@ -88672,7 +88672,7 @@
         <v>281</v>
       </c>
       <c r="D2280" s="1" t="s">
-        <v>9193</v>
+        <v>9192</v>
       </c>
       <c r="E2280" s="1" t="s">
         <v>5848</v>
@@ -88746,7 +88746,7 @@
         <v>3445</v>
       </c>
       <c r="D2284" s="1" t="s">
-        <v>9545</v>
+        <v>9543</v>
       </c>
       <c r="E2284" s="1" t="s">
         <v>3571</v>
@@ -88783,7 +88783,7 @@
         <v>692</v>
       </c>
       <c r="D2286" s="1" t="s">
-        <v>9518</v>
+        <v>9516</v>
       </c>
       <c r="E2286" s="1" t="s">
         <v>693</v>
@@ -88803,7 +88803,7 @@
         <v>4445</v>
       </c>
       <c r="D2287" s="1" t="s">
-        <v>8801</v>
+        <v>8800</v>
       </c>
       <c r="E2287" s="1" t="s">
         <v>4587</v>
@@ -88823,7 +88823,7 @@
         <v>4261</v>
       </c>
       <c r="D2288" s="1" t="s">
-        <v>8717</v>
+        <v>8716</v>
       </c>
       <c r="E2288" s="1" t="s">
         <v>4264</v>
@@ -88840,7 +88840,7 @@
         <v>885</v>
       </c>
       <c r="D2289" s="1" t="s">
-        <v>9368</v>
+        <v>9366</v>
       </c>
       <c r="E2289" s="1" t="s">
         <v>6939</v>
@@ -88857,7 +88857,7 @@
         <v>7</v>
       </c>
       <c r="D2290" s="1" t="s">
-        <v>9194</v>
+        <v>9193</v>
       </c>
       <c r="E2290" s="1" t="s">
         <v>5854</v>
@@ -88874,7 +88874,7 @@
         <v>7</v>
       </c>
       <c r="D2291" s="1" t="s">
-        <v>9195</v>
+        <v>9194</v>
       </c>
       <c r="E2291" s="1" t="s">
         <v>5856</v>
@@ -88891,7 +88891,7 @@
         <v>7</v>
       </c>
       <c r="D2292" s="1" t="s">
-        <v>9196</v>
+        <v>9195</v>
       </c>
       <c r="E2292" s="1" t="s">
         <v>5859</v>
@@ -88988,7 +88988,7 @@
         <v>7</v>
       </c>
       <c r="D2297" s="1" t="s">
-        <v>9197</v>
+        <v>9196</v>
       </c>
       <c r="E2297" s="1" t="s">
         <v>5861</v>
@@ -89008,7 +89008,7 @@
         <v>4283</v>
       </c>
       <c r="D2298" s="1" t="s">
-        <v>8734</v>
+        <v>8733</v>
       </c>
       <c r="E2298" s="1" t="s">
         <v>4336</v>
@@ -89028,7 +89028,7 @@
         <v>4261</v>
       </c>
       <c r="D2299" s="1" t="s">
-        <v>8718</v>
+        <v>8717</v>
       </c>
       <c r="E2299" s="1" t="s">
         <v>4267</v>
@@ -89065,7 +89065,7 @@
         <v>1950</v>
       </c>
       <c r="D2301" s="1" t="s">
-        <v>9425</v>
+        <v>9423</v>
       </c>
       <c r="E2301" s="1" t="s">
         <v>7136</v>
@@ -89082,7 +89082,7 @@
         <v>7</v>
       </c>
       <c r="D2302" s="1" t="s">
-        <v>9198</v>
+        <v>9197</v>
       </c>
       <c r="E2302" s="1" t="s">
         <v>5864</v>
@@ -89159,7 +89159,7 @@
         <v>7</v>
       </c>
       <c r="D2306" s="1" t="s">
-        <v>9199</v>
+        <v>9198</v>
       </c>
       <c r="E2306" s="1" t="s">
         <v>5866</v>
@@ -89176,7 +89176,7 @@
         <v>7</v>
       </c>
       <c r="D2307" s="1" t="s">
-        <v>9204</v>
+        <v>9203</v>
       </c>
       <c r="E2307" s="1" t="s">
         <v>5882</v>
@@ -89213,7 +89213,7 @@
         <v>7</v>
       </c>
       <c r="D2309" s="1" t="s">
-        <v>9205</v>
+        <v>9204</v>
       </c>
       <c r="E2309" s="1" t="s">
         <v>5885</v>
@@ -89233,7 +89233,7 @@
         <v>4445</v>
       </c>
       <c r="D2310" s="1" t="s">
-        <v>8802</v>
+        <v>8801</v>
       </c>
       <c r="E2310" s="1" t="s">
         <v>4590</v>
@@ -89250,7 +89250,7 @@
         <v>1950</v>
       </c>
       <c r="D2311" s="1" t="s">
-        <v>9424</v>
+        <v>9422</v>
       </c>
       <c r="E2311" s="1" t="s">
         <v>7133</v>
@@ -89267,7 +89267,7 @@
         <v>7</v>
       </c>
       <c r="D2312" s="1" t="s">
-        <v>9206</v>
+        <v>9205</v>
       </c>
       <c r="E2312" s="1" t="s">
         <v>5888</v>
@@ -89304,7 +89304,7 @@
         <v>1335</v>
       </c>
       <c r="D2314" s="1" t="s">
-        <v>9201</v>
+        <v>9200</v>
       </c>
       <c r="E2314" s="1" t="s">
         <v>5872</v>
@@ -89321,7 +89321,7 @@
         <v>1182</v>
       </c>
       <c r="D2315" s="1" t="s">
-        <v>9200</v>
+        <v>9199</v>
       </c>
       <c r="E2315" s="1" t="s">
         <v>5869</v>
@@ -89338,7 +89338,7 @@
         <v>7</v>
       </c>
       <c r="D2316" s="1" t="s">
-        <v>9207</v>
+        <v>9206</v>
       </c>
       <c r="E2316" s="1" t="s">
         <v>5891</v>
@@ -89355,7 +89355,7 @@
         <v>7</v>
       </c>
       <c r="D2317" s="1" t="s">
-        <v>9208</v>
+        <v>9207</v>
       </c>
       <c r="E2317" s="1" t="s">
         <v>5894</v>
@@ -89372,7 +89372,7 @@
         <v>7</v>
       </c>
       <c r="D2318" s="1" t="s">
-        <v>9209</v>
+        <v>9208</v>
       </c>
       <c r="E2318" s="1" t="s">
         <v>5898</v>
@@ -89389,7 +89389,7 @@
         <v>5616</v>
       </c>
       <c r="D2319" s="1" t="s">
-        <v>9203</v>
+        <v>9202</v>
       </c>
       <c r="E2319" s="1" t="s">
         <v>5879</v>
@@ -89446,7 +89446,7 @@
         <v>7</v>
       </c>
       <c r="D2322" s="1" t="s">
-        <v>9210</v>
+        <v>9209</v>
       </c>
       <c r="E2322" s="1" t="s">
         <v>5900</v>
@@ -89520,7 +89520,7 @@
         <v>5875</v>
       </c>
       <c r="D2326" s="1" t="s">
-        <v>9202</v>
+        <v>9201</v>
       </c>
       <c r="E2326" s="1" t="s">
         <v>5876</v>
@@ -89557,7 +89557,7 @@
         <v>7</v>
       </c>
       <c r="D2328" s="1" t="s">
-        <v>9211</v>
+        <v>9210</v>
       </c>
       <c r="E2328" s="1" t="s">
         <v>5904</v>
@@ -89594,7 +89594,7 @@
         <v>7</v>
       </c>
       <c r="D2330" s="1" t="s">
-        <v>9212</v>
+        <v>9211</v>
       </c>
       <c r="E2330" s="1" t="s">
         <v>5907</v>
@@ -89611,7 +89611,7 @@
         <v>1047</v>
       </c>
       <c r="D2331" s="1" t="s">
-        <v>9370</v>
+        <v>9368</v>
       </c>
       <c r="E2331" s="1" t="s">
         <v>6945</v>
@@ -89631,7 +89631,7 @@
         <v>4445</v>
       </c>
       <c r="D2332" s="1" t="s">
-        <v>8803</v>
+        <v>8802</v>
       </c>
       <c r="E2332" s="1" t="s">
         <v>4593</v>
@@ -89708,7 +89708,7 @@
         <v>7</v>
       </c>
       <c r="D2336" s="1" t="s">
-        <v>9213</v>
+        <v>9212</v>
       </c>
       <c r="E2336" s="1" t="s">
         <v>5910</v>
@@ -89748,7 +89748,7 @@
         <v>4173</v>
       </c>
       <c r="D2338" s="1" t="s">
-        <v>8705</v>
+        <v>8704</v>
       </c>
       <c r="E2338" s="1" t="s">
         <v>4215</v>
@@ -89785,7 +89785,7 @@
         <v>7</v>
       </c>
       <c r="D2340" s="1" t="s">
-        <v>9214</v>
+        <v>9213</v>
       </c>
       <c r="E2340" s="1" t="s">
         <v>5913</v>
@@ -89822,7 +89822,7 @@
         <v>7</v>
       </c>
       <c r="D2342" s="1" t="s">
-        <v>9215</v>
+        <v>9214</v>
       </c>
       <c r="E2342" s="1" t="s">
         <v>5916</v>
@@ -89839,7 +89839,7 @@
         <v>7</v>
       </c>
       <c r="D2343" s="1" t="s">
-        <v>9216</v>
+        <v>9215</v>
       </c>
       <c r="E2343" s="1" t="s">
         <v>5918</v>
@@ -89896,7 +89896,7 @@
         <v>217</v>
       </c>
       <c r="D2346" s="1" t="s">
-        <v>9318</v>
+        <v>9316</v>
       </c>
       <c r="E2346" s="1" t="s">
         <v>6794</v>
@@ -89916,7 +89916,7 @@
         <v>4261</v>
       </c>
       <c r="D2347" s="1" t="s">
-        <v>8719</v>
+        <v>8718</v>
       </c>
       <c r="E2347" s="1" t="s">
         <v>4270</v>
@@ -89933,7 +89933,7 @@
         <v>7</v>
       </c>
       <c r="D2348" s="1" t="s">
-        <v>9217</v>
+        <v>9216</v>
       </c>
       <c r="E2348" s="1" t="s">
         <v>5920</v>
@@ -89953,7 +89953,7 @@
         <v>4445</v>
       </c>
       <c r="D2349" t="s">
-        <v>9401</v>
+        <v>9399</v>
       </c>
       <c r="E2349" t="s">
         <v>7059</v>
@@ -89973,7 +89973,7 @@
         <v>4445</v>
       </c>
       <c r="D2350" s="1" t="s">
-        <v>9400</v>
+        <v>9398</v>
       </c>
       <c r="E2350" s="1" t="s">
         <v>7056</v>
@@ -90027,7 +90027,7 @@
         <v>974</v>
       </c>
       <c r="D2353" s="1" t="s">
-        <v>9371</v>
+        <v>9369</v>
       </c>
       <c r="E2353" s="1" t="s">
         <v>6948</v>
@@ -90047,7 +90047,7 @@
         <v>1145</v>
       </c>
       <c r="D2354" s="1" t="s">
-        <v>8742</v>
+        <v>8741</v>
       </c>
       <c r="E2354" s="1" t="s">
         <v>4370</v>
@@ -90098,7 +90098,7 @@
         <v>7</v>
       </c>
       <c r="D2357" s="1" t="s">
-        <v>9218</v>
+        <v>9217</v>
       </c>
       <c r="E2357" s="1" t="s">
         <v>5926</v>
@@ -90138,7 +90138,7 @@
         <v>7808</v>
       </c>
       <c r="E2359" s="4" t="s">
-        <v>8626</v>
+        <v>8625</v>
       </c>
       <c r="F2359" s="3" t="s">
         <v>1931</v>
@@ -90155,7 +90155,7 @@
         <v>4261</v>
       </c>
       <c r="D2360" s="1" t="s">
-        <v>8720</v>
+        <v>8719</v>
       </c>
       <c r="E2360" s="1" t="s">
         <v>2431</v>
@@ -90212,7 +90212,7 @@
         <v>4261</v>
       </c>
       <c r="D2363" s="1" t="s">
-        <v>8721</v>
+        <v>8720</v>
       </c>
       <c r="E2363" s="1" t="s">
         <v>4275</v>
@@ -90232,7 +90232,7 @@
         <v>4261</v>
       </c>
       <c r="D2364" s="1" t="s">
-        <v>8722</v>
+        <v>8721</v>
       </c>
       <c r="E2364" s="1" t="s">
         <v>4278</v>
@@ -90292,7 +90292,7 @@
         <v>4373</v>
       </c>
       <c r="D2367" s="1" t="s">
-        <v>8748</v>
+        <v>8747</v>
       </c>
       <c r="E2367" s="1" t="s">
         <v>4409</v>
@@ -90332,7 +90332,7 @@
         <v>4373</v>
       </c>
       <c r="D2369" s="1" t="s">
-        <v>8746</v>
+        <v>8745</v>
       </c>
       <c r="E2369" s="1" t="s">
         <v>4403</v>
@@ -90352,7 +90352,7 @@
         <v>4373</v>
       </c>
       <c r="D2370" s="1" t="s">
-        <v>8747</v>
+        <v>8746</v>
       </c>
       <c r="E2370" s="1" t="s">
         <v>4406</v>
@@ -90392,7 +90392,7 @@
         <v>4373</v>
       </c>
       <c r="D2372" s="1" t="s">
-        <v>8745</v>
+        <v>8744</v>
       </c>
       <c r="E2372" s="1" t="s">
         <v>4392</v>
@@ -90452,7 +90452,7 @@
         <v>4373</v>
       </c>
       <c r="D2375" s="1" t="s">
-        <v>9095</v>
+        <v>9094</v>
       </c>
       <c r="E2375" s="1" t="s">
         <v>4385</v>
@@ -90472,7 +90472,7 @@
         <v>4373</v>
       </c>
       <c r="D2376" s="1" t="s">
-        <v>9095</v>
+        <v>9094</v>
       </c>
       <c r="E2376" s="1" t="s">
         <v>4385</v>
@@ -90492,7 +90492,7 @@
         <v>4373</v>
       </c>
       <c r="D2377" s="1" t="s">
-        <v>8743</v>
+        <v>8742</v>
       </c>
       <c r="E2377" s="1" t="s">
         <v>4374</v>
@@ -90512,7 +90512,7 @@
         <v>4373</v>
       </c>
       <c r="D2378" s="1" t="s">
-        <v>8744</v>
+        <v>8743</v>
       </c>
       <c r="E2378" s="1" t="s">
         <v>4377</v>
@@ -90552,7 +90552,7 @@
         <v>4373</v>
       </c>
       <c r="D2380" s="1" t="s">
-        <v>8745</v>
+        <v>8744</v>
       </c>
       <c r="E2380" s="1" t="s">
         <v>4392</v>
@@ -90572,7 +90572,7 @@
         <v>4373</v>
       </c>
       <c r="D2381" s="1" t="s">
-        <v>9519</v>
+        <v>9517</v>
       </c>
       <c r="E2381" s="1" t="s">
         <v>4388</v>
@@ -90689,7 +90689,7 @@
         <v>7150</v>
       </c>
       <c r="D2387" s="1" t="s">
-        <v>9430</v>
+        <v>9428</v>
       </c>
       <c r="E2387" s="1" t="s">
         <v>7151</v>
@@ -90706,7 +90706,7 @@
         <v>7</v>
       </c>
       <c r="D2388" s="1" t="s">
-        <v>9219</v>
+        <v>9218</v>
       </c>
       <c r="E2388" s="1" t="s">
         <v>5932</v>
@@ -90743,7 +90743,7 @@
         <v>7</v>
       </c>
       <c r="D2390" s="4" t="s">
-        <v>9220</v>
+        <v>9219</v>
       </c>
       <c r="E2390" s="4" t="s">
         <v>5935</v>
@@ -90800,7 +90800,7 @@
         <v>7</v>
       </c>
       <c r="D2393" s="1" t="s">
-        <v>9221</v>
+        <v>9220</v>
       </c>
       <c r="E2393" s="1" t="s">
         <v>5938</v>
@@ -90837,7 +90837,7 @@
         <v>7</v>
       </c>
       <c r="D2395" s="1" t="s">
-        <v>9222</v>
+        <v>9221</v>
       </c>
       <c r="E2395" s="1" t="s">
         <v>5941</v>
@@ -90874,7 +90874,7 @@
         <v>7</v>
       </c>
       <c r="D2397" s="1" t="s">
-        <v>9223</v>
+        <v>9222</v>
       </c>
       <c r="E2397" s="1" t="s">
         <v>5944</v>
@@ -90951,7 +90951,7 @@
         <v>7</v>
       </c>
       <c r="D2401" s="1" t="s">
-        <v>9224</v>
+        <v>9223</v>
       </c>
       <c r="E2401" s="1" t="s">
         <v>5947</v>
@@ -91008,7 +91008,7 @@
         <v>7</v>
       </c>
       <c r="D2404" s="1" t="s">
-        <v>9226</v>
+        <v>9225</v>
       </c>
       <c r="E2404" s="1" t="s">
         <v>5952</v>
@@ -91025,7 +91025,7 @@
         <v>3380</v>
       </c>
       <c r="D2405" s="1" t="s">
-        <v>9359</v>
+        <v>9357</v>
       </c>
       <c r="E2405" s="1" t="s">
         <v>6921</v>
@@ -91119,7 +91119,7 @@
         <v>3085</v>
       </c>
       <c r="D2410" s="1" t="s">
-        <v>8884</v>
+        <v>8883</v>
       </c>
       <c r="E2410" s="1" t="s">
         <v>4855</v>
@@ -91156,7 +91156,7 @@
         <v>7</v>
       </c>
       <c r="D2412" s="1" t="s">
-        <v>9227</v>
+        <v>9226</v>
       </c>
       <c r="E2412" s="1" t="s">
         <v>5960</v>
@@ -91173,7 +91173,7 @@
         <v>46</v>
       </c>
       <c r="D2413" s="1" t="s">
-        <v>9228</v>
+        <v>9227</v>
       </c>
       <c r="E2413" s="1" t="s">
         <v>3459</v>
@@ -91227,7 +91227,7 @@
         <v>7</v>
       </c>
       <c r="D2416" s="1" t="s">
-        <v>9229</v>
+        <v>9228</v>
       </c>
       <c r="E2416" s="1" t="s">
         <v>5965</v>
@@ -91321,7 +91321,7 @@
         <v>7</v>
       </c>
       <c r="D2421" s="1" t="s">
-        <v>9230</v>
+        <v>9229</v>
       </c>
       <c r="E2421" s="1" t="s">
         <v>5969</v>
@@ -91338,7 +91338,7 @@
         <v>7</v>
       </c>
       <c r="D2422" s="1" t="s">
-        <v>9231</v>
+        <v>9230</v>
       </c>
       <c r="E2422" s="1" t="s">
         <v>5972</v>
@@ -91355,7 +91355,7 @@
         <v>46</v>
       </c>
       <c r="D2423" s="1" t="s">
-        <v>8679</v>
+        <v>8678</v>
       </c>
       <c r="E2423" s="1" t="s">
         <v>4130</v>
@@ -91372,7 +91372,7 @@
         <v>7</v>
       </c>
       <c r="D2424" s="1" t="s">
-        <v>9232</v>
+        <v>9231</v>
       </c>
       <c r="E2424" s="1" t="s">
         <v>5975</v>
@@ -91389,7 +91389,7 @@
         <v>7</v>
       </c>
       <c r="D2425" s="1" t="s">
-        <v>9233</v>
+        <v>9232</v>
       </c>
       <c r="E2425" s="1" t="s">
         <v>5978</v>
@@ -91526,7 +91526,7 @@
         <v>46</v>
       </c>
       <c r="D2432" s="1" t="s">
-        <v>9234</v>
+        <v>9233</v>
       </c>
       <c r="E2432" s="1" t="s">
         <v>5985</v>
@@ -91543,7 +91543,7 @@
         <v>3234</v>
       </c>
       <c r="D2433" s="1" t="s">
-        <v>9235</v>
+        <v>9234</v>
       </c>
       <c r="E2433" s="1" t="s">
         <v>5987</v>
@@ -91560,7 +91560,7 @@
         <v>7</v>
       </c>
       <c r="D2434" s="1" t="s">
-        <v>9236</v>
+        <v>9235</v>
       </c>
       <c r="E2434" s="1" t="s">
         <v>5992</v>
@@ -91597,7 +91597,7 @@
         <v>2807</v>
       </c>
       <c r="D2436" s="1" t="s">
-        <v>8677</v>
+        <v>8676</v>
       </c>
       <c r="E2436" s="1" t="s">
         <v>4120</v>
@@ -91631,7 +91631,7 @@
         <v>7</v>
       </c>
       <c r="D2438" s="1" t="s">
-        <v>9237</v>
+        <v>9236</v>
       </c>
       <c r="E2438" s="1" t="s">
         <v>5995</v>
@@ -91648,7 +91648,7 @@
         <v>46</v>
       </c>
       <c r="D2439" s="1" t="s">
-        <v>9186</v>
+        <v>9185</v>
       </c>
       <c r="E2439" s="1" t="s">
         <v>5827</v>
@@ -91685,7 +91685,7 @@
         <v>710</v>
       </c>
       <c r="D2441" s="1" t="s">
-        <v>9520</v>
+        <v>9518</v>
       </c>
       <c r="E2441" s="1" t="s">
         <v>6638</v>
@@ -91705,7 +91705,7 @@
         <v>710</v>
       </c>
       <c r="D2442" s="1" t="s">
-        <v>9521</v>
+        <v>9519</v>
       </c>
       <c r="E2442" s="1" t="s">
         <v>6632</v>
@@ -91725,7 +91725,7 @@
         <v>710</v>
       </c>
       <c r="D2443" s="1" t="s">
-        <v>9522</v>
+        <v>9520</v>
       </c>
       <c r="E2443" s="1" t="s">
         <v>6635</v>
@@ -91742,7 +91742,7 @@
         <v>7</v>
       </c>
       <c r="D2444" s="1" t="s">
-        <v>9238</v>
+        <v>9237</v>
       </c>
       <c r="E2444" s="1" t="s">
         <v>5998</v>
@@ -91759,7 +91759,7 @@
         <v>7</v>
       </c>
       <c r="D2445" s="1" t="s">
-        <v>9239</v>
+        <v>9238</v>
       </c>
       <c r="E2445" s="1" t="s">
         <v>6001</v>
@@ -91776,7 +91776,7 @@
         <v>7</v>
       </c>
       <c r="D2446" s="1" t="s">
-        <v>9240</v>
+        <v>9239</v>
       </c>
       <c r="E2446" s="1" t="s">
         <v>6004</v>
@@ -91793,7 +91793,7 @@
         <v>7</v>
       </c>
       <c r="D2447" s="1" t="s">
-        <v>9241</v>
+        <v>9240</v>
       </c>
       <c r="E2447" s="1" t="s">
         <v>6007</v>
@@ -91856,7 +91856,7 @@
         <v>7855</v>
       </c>
       <c r="E2450" s="4" t="s">
-        <v>8627</v>
+        <v>8626</v>
       </c>
       <c r="F2450" s="4" t="s">
         <v>2085</v>
@@ -91990,7 +91990,7 @@
         <v>1378</v>
       </c>
       <c r="D2457" s="4" t="s">
-        <v>9442</v>
+        <v>9440</v>
       </c>
       <c r="E2457" s="4" t="s">
         <v>7191</v>
@@ -92127,7 +92127,7 @@
         <v>7</v>
       </c>
       <c r="D2464" s="1" t="s">
-        <v>9242</v>
+        <v>9241</v>
       </c>
       <c r="E2464" s="1" t="s">
         <v>6010</v>
@@ -92444,7 +92444,7 @@
         <v>4326</v>
       </c>
       <c r="D2480" s="1" t="s">
-        <v>8732</v>
+        <v>8731</v>
       </c>
       <c r="E2480" s="1" t="s">
         <v>4330</v>
@@ -92481,7 +92481,7 @@
         <v>4445</v>
       </c>
       <c r="D2482" s="1" t="s">
-        <v>8807</v>
+        <v>8806</v>
       </c>
       <c r="E2482" s="1" t="s">
         <v>4610</v>
@@ -92501,7 +92501,7 @@
         <v>4445</v>
       </c>
       <c r="D2483" s="1" t="s">
-        <v>8809</v>
+        <v>8808</v>
       </c>
       <c r="E2483" s="1" t="s">
         <v>4616</v>
@@ -92521,7 +92521,7 @@
         <v>4445</v>
       </c>
       <c r="D2484" s="1" t="s">
-        <v>8811</v>
+        <v>8810</v>
       </c>
       <c r="E2484" s="1" t="s">
         <v>4621</v>
@@ -92541,7 +92541,7 @@
         <v>4445</v>
       </c>
       <c r="D2485" s="1" t="s">
-        <v>8812</v>
+        <v>8811</v>
       </c>
       <c r="E2485" s="1" t="s">
         <v>4624</v>
@@ -92561,7 +92561,7 @@
         <v>4445</v>
       </c>
       <c r="D2486" s="1" t="s">
-        <v>8813</v>
+        <v>8812</v>
       </c>
       <c r="E2486" s="1" t="s">
         <v>4627</v>
@@ -92581,7 +92581,7 @@
         <v>4445</v>
       </c>
       <c r="D2487" s="1" t="s">
-        <v>8814</v>
+        <v>8813</v>
       </c>
       <c r="E2487" s="1" t="s">
         <v>4630</v>
@@ -92621,7 +92621,7 @@
         <v>4445</v>
       </c>
       <c r="D2489" s="1" t="s">
-        <v>8828</v>
+        <v>8827</v>
       </c>
       <c r="E2489" s="1" t="s">
         <v>4683</v>
@@ -92641,7 +92641,7 @@
         <v>4445</v>
       </c>
       <c r="D2490" s="1" t="s">
-        <v>8815</v>
+        <v>8814</v>
       </c>
       <c r="E2490" s="1" t="s">
         <v>4634</v>
@@ -92661,7 +92661,7 @@
         <v>4445</v>
       </c>
       <c r="D2491" s="1" t="s">
-        <v>8816</v>
+        <v>8815</v>
       </c>
       <c r="E2491" s="1" t="s">
         <v>392</v>
@@ -92681,7 +92681,7 @@
         <v>4445</v>
       </c>
       <c r="D2492" s="1" t="s">
-        <v>8818</v>
+        <v>8817</v>
       </c>
       <c r="E2492" s="1" t="s">
         <v>4642</v>
@@ -92761,7 +92761,7 @@
         <v>4445</v>
       </c>
       <c r="D2496" s="1" t="s">
-        <v>8819</v>
+        <v>8818</v>
       </c>
       <c r="E2496" s="1" t="s">
         <v>4649</v>
@@ -92841,7 +92841,7 @@
         <v>4445</v>
       </c>
       <c r="D2500" s="1" t="s">
-        <v>8820</v>
+        <v>8819</v>
       </c>
       <c r="E2500" s="1" t="s">
         <v>4659</v>
@@ -92861,7 +92861,7 @@
         <v>4445</v>
       </c>
       <c r="D2501" s="1" t="s">
-        <v>8821</v>
+        <v>8820</v>
       </c>
       <c r="E2501" s="1" t="s">
         <v>4662</v>
@@ -92881,7 +92881,7 @@
         <v>4445</v>
       </c>
       <c r="D2502" s="1" t="s">
-        <v>8822</v>
+        <v>8821</v>
       </c>
       <c r="E2502" s="1" t="s">
         <v>4665</v>
@@ -92901,7 +92901,7 @@
         <v>4445</v>
       </c>
       <c r="D2503" s="1" t="s">
-        <v>8823</v>
+        <v>8822</v>
       </c>
       <c r="E2503" s="1" t="s">
         <v>4668</v>
@@ -92921,7 +92921,7 @@
         <v>4445</v>
       </c>
       <c r="D2504" s="1" t="s">
-        <v>8824</v>
+        <v>8823</v>
       </c>
       <c r="E2504" s="1" t="s">
         <v>4671</v>
@@ -92941,7 +92941,7 @@
         <v>4445</v>
       </c>
       <c r="D2505" s="1" t="s">
-        <v>8700</v>
+        <v>8699</v>
       </c>
       <c r="E2505" s="1" t="s">
         <v>4201</v>
@@ -92961,7 +92961,7 @@
         <v>4445</v>
       </c>
       <c r="D2506" s="1" t="s">
-        <v>8806</v>
+        <v>8805</v>
       </c>
       <c r="E2506" s="1" t="s">
         <v>4607</v>
@@ -92981,7 +92981,7 @@
         <v>4445</v>
       </c>
       <c r="D2507" s="1" t="s">
-        <v>8825</v>
+        <v>8824</v>
       </c>
       <c r="E2507" s="1" t="s">
         <v>4674</v>
@@ -93001,7 +93001,7 @@
         <v>4445</v>
       </c>
       <c r="D2508" s="1" t="s">
-        <v>8826</v>
+        <v>8825</v>
       </c>
       <c r="E2508" s="1" t="s">
         <v>4677</v>
@@ -93021,7 +93021,7 @@
         <v>4445</v>
       </c>
       <c r="D2509" s="1" t="s">
-        <v>8827</v>
+        <v>8826</v>
       </c>
       <c r="E2509" s="1" t="s">
         <v>4680</v>
@@ -93041,7 +93041,7 @@
         <v>4445</v>
       </c>
       <c r="D2510" s="1" t="s">
-        <v>8829</v>
+        <v>8828</v>
       </c>
       <c r="E2510" s="1" t="s">
         <v>4686</v>
@@ -93061,7 +93061,7 @@
         <v>4445</v>
       </c>
       <c r="D2511" s="1" t="s">
-        <v>8830</v>
+        <v>8829</v>
       </c>
       <c r="E2511" s="1" t="s">
         <v>4689</v>
@@ -93081,7 +93081,7 @@
         <v>4445</v>
       </c>
       <c r="D2512" s="1" t="s">
-        <v>8831</v>
+        <v>8830</v>
       </c>
       <c r="E2512" s="1" t="s">
         <v>4692</v>
@@ -93101,7 +93101,7 @@
         <v>4445</v>
       </c>
       <c r="D2513" s="1" t="s">
-        <v>8832</v>
+        <v>8831</v>
       </c>
       <c r="E2513" s="1" t="s">
         <v>3714</v>
@@ -93121,7 +93121,7 @@
         <v>4445</v>
       </c>
       <c r="D2514" s="1" t="s">
-        <v>8833</v>
+        <v>8832</v>
       </c>
       <c r="E2514" s="1" t="s">
         <v>4697</v>
@@ -93141,7 +93141,7 @@
         <v>4445</v>
       </c>
       <c r="D2515" s="1" t="s">
-        <v>8834</v>
+        <v>8833</v>
       </c>
       <c r="E2515" s="1" t="s">
         <v>4701</v>
@@ -93161,7 +93161,7 @@
         <v>4445</v>
       </c>
       <c r="D2516" s="1" t="s">
-        <v>8805</v>
+        <v>8804</v>
       </c>
       <c r="E2516" s="1" t="s">
         <v>4602</v>
@@ -93181,7 +93181,7 @@
         <v>4445</v>
       </c>
       <c r="D2517" s="1" t="s">
-        <v>8817</v>
+        <v>8816</v>
       </c>
       <c r="E2517" s="1" t="s">
         <v>4639</v>
@@ -93221,7 +93221,7 @@
         <v>4445</v>
       </c>
       <c r="D2519" s="1" t="s">
-        <v>8835</v>
+        <v>8834</v>
       </c>
       <c r="E2519" s="1" t="s">
         <v>4703</v>
@@ -93241,7 +93241,7 @@
         <v>4445</v>
       </c>
       <c r="D2520" s="1" t="s">
-        <v>8810</v>
+        <v>8809</v>
       </c>
       <c r="E2520" s="1" t="s">
         <v>682</v>
@@ -93261,7 +93261,7 @@
         <v>4445</v>
       </c>
       <c r="D2521" s="1" t="s">
-        <v>8808</v>
+        <v>8807</v>
       </c>
       <c r="E2521" s="1" t="s">
         <v>4613</v>
@@ -93281,7 +93281,7 @@
         <v>4445</v>
       </c>
       <c r="D2522" s="1" t="s">
-        <v>8820</v>
+        <v>8819</v>
       </c>
       <c r="E2522" s="1" t="s">
         <v>4659</v>
@@ -93301,7 +93301,7 @@
         <v>4445</v>
       </c>
       <c r="D2523" s="1" t="s">
-        <v>8836</v>
+        <v>8835</v>
       </c>
       <c r="E2523" s="1" t="s">
         <v>4707</v>
@@ -93321,7 +93321,7 @@
         <v>4445</v>
       </c>
       <c r="D2524" s="1" t="s">
-        <v>8837</v>
+        <v>8836</v>
       </c>
       <c r="E2524" s="1" t="s">
         <v>4710</v>
@@ -93341,7 +93341,7 @@
         <v>4445</v>
       </c>
       <c r="D2525" s="1" t="s">
-        <v>8838</v>
+        <v>8837</v>
       </c>
       <c r="E2525" s="1" t="s">
         <v>4713</v>
@@ -93361,7 +93361,7 @@
         <v>4445</v>
       </c>
       <c r="D2526" s="1" t="s">
-        <v>8839</v>
+        <v>8838</v>
       </c>
       <c r="E2526" s="1" t="s">
         <v>4716</v>
@@ -93381,7 +93381,7 @@
         <v>4445</v>
       </c>
       <c r="D2527" s="1" t="s">
-        <v>8834</v>
+        <v>8833</v>
       </c>
       <c r="E2527" s="1" t="s">
         <v>4701</v>
@@ -93401,7 +93401,7 @@
         <v>4445</v>
       </c>
       <c r="D2528" s="1" t="s">
-        <v>8840</v>
+        <v>8839</v>
       </c>
       <c r="E2528" s="1" t="s">
         <v>4720</v>
@@ -93421,7 +93421,7 @@
         <v>4445</v>
       </c>
       <c r="D2529" s="1" t="s">
-        <v>8841</v>
+        <v>8840</v>
       </c>
       <c r="E2529" s="1" t="s">
         <v>4723</v>
@@ -93441,7 +93441,7 @@
         <v>4445</v>
       </c>
       <c r="D2530" s="1" t="s">
-        <v>8842</v>
+        <v>8841</v>
       </c>
       <c r="E2530" s="1" t="s">
         <v>4726</v>
@@ -93481,7 +93481,7 @@
         <v>4445</v>
       </c>
       <c r="D2532" s="1" t="s">
-        <v>8843</v>
+        <v>8842</v>
       </c>
       <c r="E2532" s="1" t="s">
         <v>4732</v>
@@ -93498,7 +93498,7 @@
         <v>7</v>
       </c>
       <c r="D2533" s="1" t="s">
-        <v>9244</v>
+        <v>9243</v>
       </c>
       <c r="E2533" s="1" t="s">
         <v>6016</v>
@@ -93575,7 +93575,7 @@
         <v>2795</v>
       </c>
       <c r="D2537" s="1" t="s">
-        <v>9523</v>
+        <v>9521</v>
       </c>
       <c r="E2537" s="1" t="s">
         <v>22</v>
@@ -93749,7 +93749,7 @@
         <v>7</v>
       </c>
       <c r="D2546" s="1" t="s">
-        <v>9246</v>
+        <v>9245</v>
       </c>
       <c r="E2546" s="1" t="s">
         <v>6023</v>
@@ -93806,7 +93806,7 @@
         <v>7</v>
       </c>
       <c r="D2549" s="1" t="s">
-        <v>9247</v>
+        <v>9246</v>
       </c>
       <c r="E2549" s="1" t="s">
         <v>6026</v>
@@ -93877,7 +93877,7 @@
         <v>252</v>
       </c>
       <c r="D2553" s="1" t="s">
-        <v>9413</v>
+        <v>9411</v>
       </c>
       <c r="E2553" s="1" t="s">
         <v>7096</v>
@@ -93948,7 +93948,7 @@
         <v>3840</v>
       </c>
       <c r="D2557" s="1" t="s">
-        <v>8733</v>
+        <v>8732</v>
       </c>
       <c r="E2557" s="1" t="s">
         <v>4334</v>
@@ -94008,7 +94008,7 @@
         <v>3780</v>
       </c>
       <c r="D2560" s="1" t="s">
-        <v>9524</v>
+        <v>9522</v>
       </c>
       <c r="E2560" s="1" t="s">
         <v>3790</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB822F5F-3055-4CBF-BB70-2117666B29F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D9409C-EDDA-47C6-A665-E91DA018E716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="3060" windowWidth="17790" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14576" uniqueCount="9548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14576" uniqueCount="9546">
   <si>
     <t>id</t>
   </si>
@@ -44957,16 +44957,10 @@
     <t>#2 #3 - x#1</t>
   </si>
   <si>
-    <t>#1 TT01 #2 TT02</t>
-  </si>
-  <si>
     <t>#2 TT03 "#1"</t>
   </si>
   <si>
     <t>#2 TT04 #1</t>
-  </si>
-  <si>
-    <t>#2 TT06 #1</t>
   </si>
   <si>
     <t xml:space="preserve">— Idade: #1 — </t>
@@ -45177,8 +45171,8 @@
   <dimension ref="A1:F2561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2067" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2079" sqref="D2079"/>
+      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -46130,7 +46124,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9540</v>
+        <v>9539</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>69</v>
@@ -46170,7 +46164,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9541</v>
+        <v>174</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>69</v>
@@ -46344,7 +46338,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>9538</v>
+        <v>3338</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>22</v>
@@ -46381,7 +46375,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>9539</v>
+        <v>9538</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>88</v>
@@ -49448,7 +49442,7 @@
         <v>7</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>9542</v>
+        <v>9540</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>4808</v>
@@ -55791,7 +55785,7 @@
         <v>1892</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>9546</v>
+        <v>9544</v>
       </c>
       <c r="E556" s="1" t="s">
         <v>8618</v>
@@ -57621,7 +57615,7 @@
         <v>1933</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>9545</v>
+        <v>9543</v>
       </c>
       <c r="E649" s="1" t="s">
         <v>914</v>
@@ -58088,7 +58082,7 @@
         <v>6641</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>9547</v>
+        <v>9545</v>
       </c>
       <c r="E674" s="1" t="s">
         <v>9267</v>
@@ -65917,7 +65911,7 @@
         <v>871</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>9544</v>
+        <v>9542</v>
       </c>
       <c r="E1089" s="1" t="s">
         <v>972</v>
@@ -88746,7 +88740,7 @@
         <v>3445</v>
       </c>
       <c r="D2284" s="1" t="s">
-        <v>9543</v>
+        <v>9541</v>
       </c>
       <c r="E2284" s="1" t="s">
         <v>3571</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D9409C-EDDA-47C6-A665-E91DA018E716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103DA889-BCCA-413B-9788-9C15C2A849D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="3060" windowWidth="17790" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="6420" windowWidth="17790" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -43470,9 +43470,6 @@
     <t>Sem Telhado</t>
   </si>
   <si>
-    <t>(+#1 outro(s) item(ns))</t>
-  </si>
-  <si>
     <t>Quarto de #1</t>
   </si>
   <si>
@@ -44979,6 +44976,9 @@
   </si>
   <si>
     <t>&lt;color=#FFFF88&gt;Onda de Inimigos #1 - Nv.#3&lt;/color&gt; (#2 abate#(s))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+#1 outro(s) item(ns))</t>
   </si>
 </sst>
 </file>
@@ -45171,8 +45171,8 @@
   <dimension ref="A1:F2561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="2" topLeftCell="A1680" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1692" sqref="D1692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -45214,7 +45214,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9536</v>
+        <v>9535</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -45234,7 +45234,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -45254,7 +45254,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -45274,7 +45274,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9526</v>
+        <v>9525</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -45625,7 +45625,7 @@
         <v>1335</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9471</v>
+        <v>9470</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8848</v>
@@ -45779,7 +45779,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9468</v>
+        <v>9467</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>54</v>
@@ -46013,7 +46013,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9527</v>
+        <v>9526</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>138</v>
@@ -46124,7 +46124,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9539</v>
+        <v>9538</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>69</v>
@@ -46144,7 +46144,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9469</v>
+        <v>9468</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -46244,7 +46244,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9525</v>
+        <v>9524</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>78</v>
@@ -46318,7 +46318,7 @@
         <v>981</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9528</v>
+        <v>9527</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>982</v>
@@ -46355,7 +46355,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>9472</v>
+        <v>9471</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>8854</v>
@@ -46375,7 +46375,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>9538</v>
+        <v>9537</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>88</v>
@@ -46503,7 +46503,7 @@
         <v>4753</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9473</v>
+        <v>9472</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4754</v>
@@ -46566,7 +46566,7 @@
         <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>9531</v>
+        <v>9530</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -46605,7 +46605,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>9524</v>
+        <v>9523</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>4776</v>
@@ -46625,7 +46625,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>9537</v>
+        <v>9536</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>90</v>
@@ -46671,7 +46671,7 @@
         <v>112</v>
       </c>
       <c r="F79" t="s">
-        <v>9530</v>
+        <v>9529</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -46702,7 +46702,7 @@
         <v>108</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9103</v>
+        <v>9102</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5585</v>
@@ -46776,7 +46776,7 @@
         <v>2973</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9394</v>
+        <v>9393</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>7041</v>
@@ -47878,7 +47878,7 @@
         <v>6800</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9318</v>
+        <v>9317</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>6801</v>
@@ -49129,7 +49129,7 @@
         <v>2626</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>9097</v>
+        <v>9096</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>5564</v>
@@ -49186,7 +49186,7 @@
         <v>2626</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>9412</v>
+        <v>9411</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>7101</v>
@@ -49334,7 +49334,7 @@
         <v>15</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>9435</v>
+        <v>9434</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>7173</v>
@@ -49351,7 +49351,7 @@
         <v>6875</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>9341</v>
+        <v>9340</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>6876</v>
@@ -49442,7 +49442,7 @@
         <v>7</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>9540</v>
+        <v>9539</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>4808</v>
@@ -49610,7 +49610,7 @@
         <v>3085</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>9122</v>
+        <v>9121</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>5650</v>
@@ -50560,7 +50560,7 @@
         <v>6062</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>9477</v>
+        <v>9476</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>6072</v>
@@ -50577,7 +50577,7 @@
         <v>2626</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>9413</v>
+        <v>9412</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>7104</v>
@@ -50977,7 +50977,7 @@
         <v>281</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>9470</v>
+        <v>9469</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>8878</v>
@@ -51171,7 +51171,7 @@
         <v>6038</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>9247</v>
+        <v>9246</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>3595</v>
@@ -51709,7 +51709,7 @@
         <v>6310</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>9469</v>
+        <v>9468</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>6314</v>
@@ -51823,7 +51823,7 @@
         <v>6062</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>9257</v>
+        <v>9256</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>6069</v>
@@ -52173,7 +52173,7 @@
         <v>871</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>9535</v>
+        <v>9534</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>914</v>
@@ -52193,7 +52193,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>9529</v>
+        <v>9528</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>155</v>
@@ -52273,7 +52273,7 @@
         <v>6062</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>9256</v>
+        <v>9255</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>6066</v>
@@ -52393,13 +52393,13 @@
         <v>6641</v>
       </c>
       <c r="D378" s="1" t="s">
+        <v>9263</v>
+      </c>
+      <c r="E378" s="1" t="s">
         <v>9264</v>
       </c>
-      <c r="E378" s="1" t="s">
+      <c r="F378" s="1" t="s">
         <v>9265</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>9266</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -52481,7 +52481,7 @@
         <v>6062</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>9255</v>
+        <v>9254</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>6063</v>
@@ -53492,7 +53492,7 @@
         <v>2361</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>9474</v>
+        <v>9473</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>2362</v>
@@ -54296,7 +54296,7 @@
         <v>267</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>9370</v>
+        <v>9369</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>6951</v>
@@ -54313,7 +54313,7 @@
         <v>267</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>9373</v>
+        <v>9372</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>6960</v>
@@ -54330,7 +54330,7 @@
         <v>267</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>9371</v>
+        <v>9370</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>6954</v>
@@ -54364,7 +54364,7 @@
         <v>267</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>9372</v>
+        <v>9371</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>6957</v>
@@ -54398,7 +54398,7 @@
         <v>1069</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>9424</v>
+        <v>9423</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>7139</v>
@@ -54623,7 +54623,7 @@
         <v>1035</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>9374</v>
+        <v>9373</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>6965</v>
@@ -55024,7 +55024,7 @@
         <v>1950</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>9421</v>
+        <v>9420</v>
       </c>
       <c r="E516" s="4" t="s">
         <v>7130</v>
@@ -55141,7 +55141,7 @@
         <v>2761</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>9478</v>
+        <v>9477</v>
       </c>
       <c r="E522" s="1" t="s">
         <v>8627</v>
@@ -55355,7 +55355,7 @@
         <v>6991</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>9383</v>
+        <v>9382</v>
       </c>
       <c r="E533" s="1" t="s">
         <v>6992</v>
@@ -55372,7 +55372,7 @@
         <v>7</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>9479</v>
+        <v>9478</v>
       </c>
       <c r="E534" s="1" t="s">
         <v>4981</v>
@@ -55409,7 +55409,7 @@
         <v>217</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>9311</v>
+        <v>9310</v>
       </c>
       <c r="E536" s="1" t="s">
         <v>6779</v>
@@ -55446,7 +55446,7 @@
         <v>42</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>9480</v>
+        <v>9479</v>
       </c>
       <c r="E538" s="1" t="s">
         <v>6131</v>
@@ -55540,7 +55540,7 @@
         <v>710</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>9346</v>
+        <v>9345</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>6891</v>
@@ -55577,7 +55577,7 @@
         <v>3009</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>9404</v>
+        <v>9403</v>
       </c>
       <c r="E545" s="1" t="s">
         <v>7073</v>
@@ -55785,7 +55785,7 @@
         <v>1892</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>9544</v>
+        <v>9543</v>
       </c>
       <c r="E556" s="1" t="s">
         <v>8618</v>
@@ -57481,7 +57481,7 @@
         <v>2197</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>9387</v>
+        <v>9386</v>
       </c>
       <c r="E642" s="1" t="s">
         <v>7005</v>
@@ -57498,7 +57498,7 @@
         <v>2197</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>9388</v>
+        <v>9387</v>
       </c>
       <c r="E643" s="1" t="s">
         <v>7008</v>
@@ -57615,7 +57615,7 @@
         <v>1933</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>9543</v>
+        <v>9542</v>
       </c>
       <c r="E649" s="1" t="s">
         <v>914</v>
@@ -58082,13 +58082,13 @@
         <v>6641</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>9545</v>
+        <v>9544</v>
       </c>
       <c r="E674" s="1" t="s">
+        <v>9266</v>
+      </c>
+      <c r="F674" s="1" t="s">
         <v>9267</v>
-      </c>
-      <c r="F674" s="1" t="s">
-        <v>9268</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -58190,7 +58190,7 @@
         <v>462</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>9407</v>
+        <v>9406</v>
       </c>
       <c r="E680" s="1" t="s">
         <v>7082</v>
@@ -59652,7 +59652,7 @@
         <v>5018</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>9400</v>
+        <v>9399</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>7061</v>
@@ -59669,7 +59669,7 @@
         <v>5018</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>9401</v>
+        <v>9400</v>
       </c>
       <c r="E755" s="1" t="s">
         <v>7064</v>
@@ -59686,7 +59686,7 @@
         <v>445</v>
       </c>
       <c r="D756" s="4" t="s">
-        <v>9402</v>
+        <v>9401</v>
       </c>
       <c r="E756" s="4" t="s">
         <v>7067</v>
@@ -59851,7 +59851,7 @@
         <v>7150</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>9429</v>
+        <v>9428</v>
       </c>
       <c r="E765" s="1" t="s">
         <v>7154</v>
@@ -60010,7 +60010,7 @@
         <v>6038</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>9252</v>
+        <v>9251</v>
       </c>
       <c r="E774" s="1" t="s">
         <v>6053</v>
@@ -60030,7 +60030,7 @@
         <v>6038</v>
       </c>
       <c r="D775" s="4" t="s">
-        <v>9253</v>
+        <v>9252</v>
       </c>
       <c r="E775" s="4" t="s">
         <v>6056</v>
@@ -60050,7 +60050,7 @@
         <v>6038</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>9248</v>
+        <v>9247</v>
       </c>
       <c r="E776" s="1" t="s">
         <v>6041</v>
@@ -60070,7 +60070,7 @@
         <v>6038</v>
       </c>
       <c r="D777" s="4" t="s">
-        <v>9249</v>
+        <v>9248</v>
       </c>
       <c r="E777" s="4" t="s">
         <v>6044</v>
@@ -60090,7 +60090,7 @@
         <v>6038</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>9254</v>
+        <v>9253</v>
       </c>
       <c r="E778" s="1" t="s">
         <v>6059</v>
@@ -60110,7 +60110,7 @@
         <v>6038</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>9250</v>
+        <v>9249</v>
       </c>
       <c r="E779" s="1" t="s">
         <v>6047</v>
@@ -60130,7 +60130,7 @@
         <v>6038</v>
       </c>
       <c r="D780" s="4" t="s">
-        <v>9251</v>
+        <v>9250</v>
       </c>
       <c r="E780" s="4" t="s">
         <v>6050</v>
@@ -60241,7 +60241,7 @@
         <v>1340</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>9448</v>
+        <v>9447</v>
       </c>
       <c r="E786" s="1" t="s">
         <v>7216</v>
@@ -61016,7 +61016,7 @@
         <v>256</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>9426</v>
+        <v>9425</v>
       </c>
       <c r="E827" s="1" t="s">
         <v>7144</v>
@@ -61247,7 +61247,7 @@
         <v>7</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>9481</v>
+        <v>9480</v>
       </c>
       <c r="E839" s="1" t="s">
         <v>5154</v>
@@ -61267,13 +61267,13 @@
         <v>6641</v>
       </c>
       <c r="D840" s="1" t="s">
+        <v>9271</v>
+      </c>
+      <c r="E840" s="1" t="s">
         <v>9272</v>
       </c>
-      <c r="E840" s="1" t="s">
+      <c r="F840" s="1" t="s">
         <v>9273</v>
-      </c>
-      <c r="F840" s="1" t="s">
-        <v>9274</v>
       </c>
     </row>
     <row r="841" spans="1:6">
@@ -61287,13 +61287,13 @@
         <v>6641</v>
       </c>
       <c r="D841" s="1" t="s">
+        <v>9268</v>
+      </c>
+      <c r="E841" s="1" t="s">
         <v>9269</v>
       </c>
-      <c r="E841" s="1" t="s">
+      <c r="F841" s="1" t="s">
         <v>9270</v>
-      </c>
-      <c r="F841" s="1" t="s">
-        <v>9271</v>
       </c>
     </row>
     <row r="842" spans="1:6">
@@ -61304,7 +61304,7 @@
         <v>5204</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>9342</v>
+        <v>9341</v>
       </c>
       <c r="E842" s="1" t="s">
         <v>6879</v>
@@ -61321,7 +61321,7 @@
         <v>5204</v>
       </c>
       <c r="D843" s="4" t="s">
-        <v>9343</v>
+        <v>9342</v>
       </c>
       <c r="E843" s="4" t="s">
         <v>6882</v>
@@ -61494,7 +61494,7 @@
         <v>978</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>9367</v>
+        <v>9366</v>
       </c>
       <c r="E853" s="1" t="s">
         <v>6942</v>
@@ -61970,7 +61970,7 @@
         <v>93</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>9283</v>
+        <v>9282</v>
       </c>
       <c r="E878" s="1" t="s">
         <v>6688</v>
@@ -61987,7 +61987,7 @@
         <v>93</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>9282</v>
+        <v>9281</v>
       </c>
       <c r="E879" s="1" t="s">
         <v>6685</v>
@@ -62081,7 +62081,7 @@
         <v>93</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>9281</v>
+        <v>9280</v>
       </c>
       <c r="E884" s="1" t="s">
         <v>6679</v>
@@ -62098,7 +62098,7 @@
         <v>93</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>9284</v>
+        <v>9283</v>
       </c>
       <c r="E885" s="1" t="s">
         <v>6691</v>
@@ -62380,13 +62380,13 @@
         <v>6924</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>9482</v>
+        <v>9481</v>
       </c>
       <c r="E900" s="1" t="s">
+        <v>9357</v>
+      </c>
+      <c r="F900" t="s">
         <v>9358</v>
-      </c>
-      <c r="F900" t="s">
-        <v>9359</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -62397,7 +62397,7 @@
         <v>217</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>9310</v>
+        <v>9309</v>
       </c>
       <c r="E901" s="1" t="s">
         <v>6776</v>
@@ -62414,13 +62414,13 @@
         <v>3380</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>9483</v>
+        <v>9482</v>
       </c>
       <c r="E902" s="1" t="s">
+        <v>9359</v>
+      </c>
+      <c r="F902" t="s">
         <v>9360</v>
-      </c>
-      <c r="F902" t="s">
-        <v>9361</v>
       </c>
     </row>
     <row r="903" spans="1:6">
@@ -62431,7 +62431,7 @@
         <v>3380</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>9362</v>
+        <v>9361</v>
       </c>
       <c r="E903" s="1" t="s">
         <v>6927</v>
@@ -62448,7 +62448,7 @@
         <v>391</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>9390</v>
+        <v>9389</v>
       </c>
       <c r="E904" s="1" t="s">
         <v>7019</v>
@@ -62485,7 +62485,7 @@
         <v>1946</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>9484</v>
+        <v>9483</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>2065</v>
@@ -62502,7 +62502,7 @@
         <v>15</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>9434</v>
+        <v>9433</v>
       </c>
       <c r="E907" s="1" t="s">
         <v>7170</v>
@@ -62687,7 +62687,7 @@
         <v>7117</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>9417</v>
+        <v>9416</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>7118</v>
@@ -62704,7 +62704,7 @@
         <v>6868</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>9339</v>
+        <v>9338</v>
       </c>
       <c r="E918" s="1" t="s">
         <v>6869</v>
@@ -62724,7 +62724,7 @@
         <v>710</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>9347</v>
+        <v>9346</v>
       </c>
       <c r="E919" s="1" t="s">
         <v>6896</v>
@@ -62741,7 +62741,7 @@
         <v>445</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>9338</v>
+        <v>9337</v>
       </c>
       <c r="E920" s="1" t="s">
         <v>6865</v>
@@ -63523,7 +63523,7 @@
         <v>217</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>9313</v>
+        <v>9312</v>
       </c>
       <c r="E960" s="1" t="s">
         <v>6785</v>
@@ -63540,7 +63540,7 @@
         <v>5204</v>
       </c>
       <c r="D961" s="1" t="s">
-        <v>9314</v>
+        <v>9313</v>
       </c>
       <c r="E961" s="1" t="s">
         <v>6788</v>
@@ -63557,7 +63557,7 @@
         <v>15</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>9437</v>
+        <v>9436</v>
       </c>
       <c r="E962" s="1" t="s">
         <v>7179</v>
@@ -63574,7 +63574,7 @@
         <v>15</v>
       </c>
       <c r="D963" s="1" t="s">
-        <v>9438</v>
+        <v>9437</v>
       </c>
       <c r="E963" s="1" t="s">
         <v>7182</v>
@@ -63591,7 +63591,7 @@
         <v>15</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>9436</v>
+        <v>9435</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>7176</v>
@@ -63668,7 +63668,7 @@
         <v>1950</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>9425</v>
+        <v>9424</v>
       </c>
       <c r="E968" s="1" t="s">
         <v>7136</v>
@@ -63742,7 +63742,7 @@
         <v>6062</v>
       </c>
       <c r="D972" s="1" t="s">
-        <v>9259</v>
+        <v>9258</v>
       </c>
       <c r="E972" s="1" t="s">
         <v>6078</v>
@@ -63899,7 +63899,7 @@
         <v>248</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>9410</v>
+        <v>9409</v>
       </c>
       <c r="E980" s="1" t="s">
         <v>7091</v>
@@ -63950,7 +63950,7 @@
         <v>7107</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>9414</v>
+        <v>9413</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>7108</v>
@@ -63967,7 +63967,7 @@
         <v>7107</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>9416</v>
+        <v>9415</v>
       </c>
       <c r="E984" s="1" t="s">
         <v>7114</v>
@@ -63984,7 +63984,7 @@
         <v>7107</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>9415</v>
+        <v>9414</v>
       </c>
       <c r="E985" s="1" t="s">
         <v>7111</v>
@@ -64001,7 +64001,7 @@
         <v>391</v>
       </c>
       <c r="D986" t="s">
-        <v>9391</v>
+        <v>9390</v>
       </c>
       <c r="E986" t="s">
         <v>7034</v>
@@ -64018,7 +64018,7 @@
         <v>6372</v>
       </c>
       <c r="D987" t="s">
-        <v>9485</v>
+        <v>9484</v>
       </c>
       <c r="E987" t="s">
         <v>7037</v>
@@ -64035,13 +64035,13 @@
         <v>391</v>
       </c>
       <c r="D988" s="1" t="s">
-        <v>9486</v>
+        <v>9485</v>
       </c>
       <c r="E988" s="1" t="s">
+        <v>9391</v>
+      </c>
+      <c r="F988" t="s">
         <v>9392</v>
-      </c>
-      <c r="F988" t="s">
-        <v>9393</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -64300,7 +64300,7 @@
         <v>981</v>
       </c>
       <c r="D1002" s="1" t="s">
-        <v>9356</v>
+        <v>9355</v>
       </c>
       <c r="E1002" s="1" t="s">
         <v>6918</v>
@@ -64317,7 +64317,7 @@
         <v>271</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>9334</v>
+        <v>9333</v>
       </c>
       <c r="E1003" s="1" t="s">
         <v>6853</v>
@@ -64334,7 +64334,7 @@
         <v>271</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>9335</v>
+        <v>9334</v>
       </c>
       <c r="E1004" s="1" t="s">
         <v>6856</v>
@@ -64351,7 +64351,7 @@
         <v>1654</v>
       </c>
       <c r="D1005" s="1" t="s">
-        <v>9332</v>
+        <v>9331</v>
       </c>
       <c r="E1005" s="1" t="s">
         <v>6847</v>
@@ -64368,7 +64368,7 @@
         <v>1654</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>9333</v>
+        <v>9332</v>
       </c>
       <c r="E1006" s="1" t="s">
         <v>6850</v>
@@ -64385,7 +64385,7 @@
         <v>271</v>
       </c>
       <c r="D1007" s="1" t="s">
-        <v>9336</v>
+        <v>9335</v>
       </c>
       <c r="E1007" s="1" t="s">
         <v>6859</v>
@@ -64490,7 +64490,7 @@
         <v>93</v>
       </c>
       <c r="D1013" t="s">
-        <v>9298</v>
+        <v>9297</v>
       </c>
       <c r="E1013" t="s">
         <v>6733</v>
@@ -64507,7 +64507,7 @@
         <v>395</v>
       </c>
       <c r="D1014" t="s">
-        <v>9297</v>
+        <v>9296</v>
       </c>
       <c r="E1014" t="s">
         <v>6730</v>
@@ -64524,7 +64524,7 @@
         <v>93</v>
       </c>
       <c r="D1015" t="s">
-        <v>9289</v>
+        <v>9288</v>
       </c>
       <c r="E1015" t="s">
         <v>6706</v>
@@ -64541,7 +64541,7 @@
         <v>93</v>
       </c>
       <c r="D1016" t="s">
-        <v>9293</v>
+        <v>9292</v>
       </c>
       <c r="E1016" t="s">
         <v>6718</v>
@@ -64558,7 +64558,7 @@
         <v>93</v>
       </c>
       <c r="D1017" t="s">
-        <v>9285</v>
+        <v>9284</v>
       </c>
       <c r="E1017" t="s">
         <v>6694</v>
@@ -64575,7 +64575,7 @@
         <v>93</v>
       </c>
       <c r="D1018" t="s">
-        <v>9290</v>
+        <v>9289</v>
       </c>
       <c r="E1018" t="s">
         <v>6709</v>
@@ -64592,7 +64592,7 @@
         <v>2912</v>
       </c>
       <c r="D1019" t="s">
-        <v>9294</v>
+        <v>9293</v>
       </c>
       <c r="E1019" t="s">
         <v>6721</v>
@@ -64609,7 +64609,7 @@
         <v>93</v>
       </c>
       <c r="D1020" t="s">
-        <v>9286</v>
+        <v>9285</v>
       </c>
       <c r="E1020" t="s">
         <v>6697</v>
@@ -64626,7 +64626,7 @@
         <v>93</v>
       </c>
       <c r="D1021" t="s">
-        <v>9292</v>
+        <v>9291</v>
       </c>
       <c r="E1021" t="s">
         <v>6715</v>
@@ -64643,7 +64643,7 @@
         <v>93</v>
       </c>
       <c r="D1022" t="s">
-        <v>9296</v>
+        <v>9295</v>
       </c>
       <c r="E1022" t="s">
         <v>6727</v>
@@ -64660,7 +64660,7 @@
         <v>93</v>
       </c>
       <c r="D1023" t="s">
-        <v>9288</v>
+        <v>9287</v>
       </c>
       <c r="E1023" t="s">
         <v>6703</v>
@@ -64677,7 +64677,7 @@
         <v>93</v>
       </c>
       <c r="D1024" t="s">
-        <v>9291</v>
+        <v>9290</v>
       </c>
       <c r="E1024" t="s">
         <v>6712</v>
@@ -64694,7 +64694,7 @@
         <v>93</v>
       </c>
       <c r="D1025" t="s">
-        <v>9295</v>
+        <v>9294</v>
       </c>
       <c r="E1025" t="s">
         <v>6724</v>
@@ -64711,7 +64711,7 @@
         <v>93</v>
       </c>
       <c r="D1026" t="s">
-        <v>9287</v>
+        <v>9286</v>
       </c>
       <c r="E1026" t="s">
         <v>6700</v>
@@ -65171,7 +65171,7 @@
         <v>6062</v>
       </c>
       <c r="D1049" s="1" t="s">
-        <v>9258</v>
+        <v>9257</v>
       </c>
       <c r="E1049" s="1" t="s">
         <v>6075</v>
@@ -65262,7 +65262,7 @@
         <v>248</v>
       </c>
       <c r="D1054" s="1" t="s">
-        <v>9389</v>
+        <v>9388</v>
       </c>
       <c r="E1054" s="1" t="s">
         <v>7014</v>
@@ -65553,7 +65553,7 @@
         <v>2795</v>
       </c>
       <c r="D1069" s="1" t="s">
-        <v>9487</v>
+        <v>9486</v>
       </c>
       <c r="E1069" s="1" t="s">
         <v>8629</v>
@@ -65593,7 +65593,7 @@
         <v>2569</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>9488</v>
+        <v>9487</v>
       </c>
       <c r="E1071" s="1" t="s">
         <v>2612</v>
@@ -65747,7 +65747,7 @@
         <v>217</v>
       </c>
       <c r="D1079" s="4" t="s">
-        <v>9490</v>
+        <v>9489</v>
       </c>
       <c r="E1079" s="4" t="s">
         <v>6751</v>
@@ -65764,7 +65764,7 @@
         <v>93</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>9489</v>
+        <v>9488</v>
       </c>
       <c r="E1080" s="1" t="s">
         <v>6742</v>
@@ -65781,7 +65781,7 @@
         <v>217</v>
       </c>
       <c r="D1081" t="s">
-        <v>9303</v>
+        <v>9302</v>
       </c>
       <c r="E1081" t="s">
         <v>6754</v>
@@ -65798,7 +65798,7 @@
         <v>217</v>
       </c>
       <c r="D1082" s="3" t="s">
-        <v>9304</v>
+        <v>9303</v>
       </c>
       <c r="E1082" s="3" t="s">
         <v>6757</v>
@@ -65815,7 +65815,7 @@
         <v>217</v>
       </c>
       <c r="D1083" t="s">
-        <v>9305</v>
+        <v>9304</v>
       </c>
       <c r="E1083" t="s">
         <v>6760</v>
@@ -65832,7 +65832,7 @@
         <v>217</v>
       </c>
       <c r="D1084" t="s">
-        <v>9306</v>
+        <v>9305</v>
       </c>
       <c r="E1084" t="s">
         <v>6763</v>
@@ -65849,7 +65849,7 @@
         <v>217</v>
       </c>
       <c r="D1085" t="s">
-        <v>9307</v>
+        <v>9306</v>
       </c>
       <c r="E1085" t="s">
         <v>6766</v>
@@ -65874,7 +65874,7 @@
         <v>217</v>
       </c>
       <c r="D1087" t="s">
-        <v>9308</v>
+        <v>9307</v>
       </c>
       <c r="E1087" t="s">
         <v>6770</v>
@@ -65911,7 +65911,7 @@
         <v>871</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>9542</v>
+        <v>9541</v>
       </c>
       <c r="E1089" s="1" t="s">
         <v>972</v>
@@ -65928,7 +65928,7 @@
         <v>217</v>
       </c>
       <c r="D1090" s="1" t="s">
-        <v>9317</v>
+        <v>9316</v>
       </c>
       <c r="E1090" s="1" t="s">
         <v>6797</v>
@@ -66153,7 +66153,7 @@
         <v>1035</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>9380</v>
+        <v>9379</v>
       </c>
       <c r="E1102" s="1" t="s">
         <v>6983</v>
@@ -66170,7 +66170,7 @@
         <v>1035</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>9375</v>
+        <v>9374</v>
       </c>
       <c r="E1103" s="1" t="s">
         <v>6968</v>
@@ -66187,7 +66187,7 @@
         <v>1035</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>9377</v>
+        <v>9376</v>
       </c>
       <c r="E1104" s="1" t="s">
         <v>6974</v>
@@ -66204,7 +66204,7 @@
         <v>1035</v>
       </c>
       <c r="D1105" s="1" t="s">
-        <v>9376</v>
+        <v>9375</v>
       </c>
       <c r="E1105" s="1" t="s">
         <v>6971</v>
@@ -66221,7 +66221,7 @@
         <v>1035</v>
       </c>
       <c r="D1106" s="1" t="s">
-        <v>9378</v>
+        <v>9377</v>
       </c>
       <c r="E1106" s="1" t="s">
         <v>6977</v>
@@ -66238,7 +66238,7 @@
         <v>1035</v>
       </c>
       <c r="D1107" s="1" t="s">
-        <v>9379</v>
+        <v>9378</v>
       </c>
       <c r="E1107" s="1" t="s">
         <v>6980</v>
@@ -66255,7 +66255,7 @@
         <v>1035</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>9381</v>
+        <v>9380</v>
       </c>
       <c r="E1108" s="1" t="s">
         <v>6986</v>
@@ -66272,7 +66272,7 @@
         <v>1035</v>
       </c>
       <c r="D1109" s="1" t="s">
-        <v>9382</v>
+        <v>9381</v>
       </c>
       <c r="E1109" s="1" t="s">
         <v>6988</v>
@@ -66406,7 +66406,7 @@
         <v>2670</v>
       </c>
       <c r="D1116" t="s">
-        <v>9491</v>
+        <v>9490</v>
       </c>
       <c r="E1116" t="s">
         <v>2690</v>
@@ -66925,7 +66925,7 @@
         <v>93</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>9300</v>
+        <v>9299</v>
       </c>
       <c r="E1143" s="1" t="s">
         <v>6739</v>
@@ -66945,7 +66945,7 @@
         <v>720</v>
       </c>
       <c r="D1144" s="1" t="s">
-        <v>9492</v>
+        <v>9491</v>
       </c>
       <c r="E1144" s="1" t="s">
         <v>825</v>
@@ -67042,7 +67042,7 @@
         <v>93</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>9299</v>
+        <v>9298</v>
       </c>
       <c r="E1149" s="1" t="s">
         <v>6736</v>
@@ -67122,7 +67122,7 @@
         <v>1537</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>9493</v>
+        <v>9492</v>
       </c>
       <c r="E1153" s="1" t="s">
         <v>8631</v>
@@ -67806,7 +67806,7 @@
         <v>885</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>9365</v>
+        <v>9364</v>
       </c>
       <c r="E1189" s="1" t="s">
         <v>6936</v>
@@ -67823,7 +67823,7 @@
         <v>885</v>
       </c>
       <c r="D1190" s="1" t="s">
-        <v>9364</v>
+        <v>9363</v>
       </c>
       <c r="E1190" s="1" t="s">
         <v>6933</v>
@@ -68907,7 +68907,7 @@
         <v>3283</v>
       </c>
       <c r="D1246" s="1" t="s">
-        <v>9494</v>
+        <v>9493</v>
       </c>
       <c r="E1246" s="1" t="s">
         <v>3329</v>
@@ -69652,7 +69652,7 @@
         <v>2957</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>9495</v>
+        <v>9494</v>
       </c>
       <c r="E1284" s="1" t="s">
         <v>3055</v>
@@ -69672,7 +69672,7 @@
         <v>2957</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>9496</v>
+        <v>9495</v>
       </c>
       <c r="E1285" s="1" t="s">
         <v>8633</v>
@@ -69912,7 +69912,7 @@
         <v>2957</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>9497</v>
+        <v>9496</v>
       </c>
       <c r="E1297" s="1" t="s">
         <v>3086</v>
@@ -70086,7 +70086,7 @@
         <v>2957</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>9498</v>
+        <v>9497</v>
       </c>
       <c r="E1306" s="1" t="s">
         <v>3138</v>
@@ -71951,7 +71951,7 @@
         <v>42</v>
       </c>
       <c r="D1400" s="1" t="s">
-        <v>9331</v>
+        <v>9330</v>
       </c>
       <c r="E1400" s="1" t="s">
         <v>6844</v>
@@ -71968,7 +71968,7 @@
         <v>6840</v>
       </c>
       <c r="D1401" s="1" t="s">
-        <v>9330</v>
+        <v>9329</v>
       </c>
       <c r="E1401" s="1" t="s">
         <v>6841</v>
@@ -72028,7 +72028,7 @@
         <v>1892</v>
       </c>
       <c r="D1404" s="1" t="s">
-        <v>9499</v>
+        <v>9498</v>
       </c>
       <c r="E1404" s="1" t="s">
         <v>8623</v>
@@ -72065,7 +72065,7 @@
         <v>217</v>
       </c>
       <c r="D1406" s="1" t="s">
-        <v>9309</v>
+        <v>9308</v>
       </c>
       <c r="E1406" s="1" t="s">
         <v>6773</v>
@@ -72082,7 +72082,7 @@
         <v>217</v>
       </c>
       <c r="D1407" s="1" t="s">
-        <v>9312</v>
+        <v>9311</v>
       </c>
       <c r="E1407" s="1" t="s">
         <v>6782</v>
@@ -72142,7 +72142,7 @@
         <v>3445</v>
       </c>
       <c r="D1410" s="1" t="s">
-        <v>9500</v>
+        <v>9499</v>
       </c>
       <c r="E1410" s="1" t="s">
         <v>3489</v>
@@ -72162,7 +72162,7 @@
         <v>3445</v>
       </c>
       <c r="D1411" s="1" t="s">
-        <v>9501</v>
+        <v>9500</v>
       </c>
       <c r="E1411" s="1" t="s">
         <v>3492</v>
@@ -72182,7 +72182,7 @@
         <v>3445</v>
       </c>
       <c r="D1412" s="1" t="s">
-        <v>9502</v>
+        <v>9501</v>
       </c>
       <c r="E1412" s="1" t="s">
         <v>3496</v>
@@ -72573,7 +72573,7 @@
         <v>4283</v>
       </c>
       <c r="D1432" s="1" t="s">
-        <v>9503</v>
+        <v>9502</v>
       </c>
       <c r="E1432" s="1" t="s">
         <v>4295</v>
@@ -73023,7 +73023,7 @@
         <v>7</v>
       </c>
       <c r="D1456" s="1" t="s">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="E1456" s="1" t="s">
         <v>5388</v>
@@ -73194,7 +73194,7 @@
         <v>2569</v>
       </c>
       <c r="D1465" s="1" t="s">
-        <v>9505</v>
+        <v>9504</v>
       </c>
       <c r="E1465" s="1" t="s">
         <v>2627</v>
@@ -73268,7 +73268,7 @@
         <v>2569</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>9506</v>
+        <v>9505</v>
       </c>
       <c r="E1469" s="1" t="s">
         <v>2630</v>
@@ -73305,7 +73305,7 @@
         <v>2569</v>
       </c>
       <c r="D1471" s="1" t="s">
-        <v>9507</v>
+        <v>9506</v>
       </c>
       <c r="E1471" s="1" t="s">
         <v>2633</v>
@@ -73539,7 +73539,7 @@
         <v>2912</v>
       </c>
       <c r="D1483" s="1" t="s">
-        <v>9242</v>
+        <v>9241</v>
       </c>
       <c r="E1483" s="1" t="s">
         <v>6013</v>
@@ -74234,7 +74234,7 @@
         <v>681</v>
       </c>
       <c r="D1520" s="1" t="s">
-        <v>9420</v>
+        <v>9419</v>
       </c>
       <c r="E1520" s="1" t="s">
         <v>7127</v>
@@ -74467,7 +74467,7 @@
         <v>6998</v>
       </c>
       <c r="D1533" s="1" t="s">
-        <v>9386</v>
+        <v>9385</v>
       </c>
       <c r="E1533" s="1" t="s">
         <v>7002</v>
@@ -74504,7 +74504,7 @@
         <v>1407</v>
       </c>
       <c r="D1535" s="1" t="s">
-        <v>9403</v>
+        <v>9402</v>
       </c>
       <c r="E1535" s="1" t="s">
         <v>7070</v>
@@ -74709,13 +74709,13 @@
         <v>391</v>
       </c>
       <c r="D1546" s="1" t="s">
-        <v>9476</v>
+        <v>9475</v>
       </c>
       <c r="E1546" s="1" t="s">
         <v>7017</v>
       </c>
       <c r="F1546" s="1" t="s">
-        <v>9475</v>
+        <v>9474</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -74786,7 +74786,7 @@
         <v>256</v>
       </c>
       <c r="D1550" s="1" t="s">
-        <v>9427</v>
+        <v>9426</v>
       </c>
       <c r="E1550" s="1" t="s">
         <v>7147</v>
@@ -74823,7 +74823,7 @@
         <v>4157</v>
       </c>
       <c r="D1552" s="1" t="s">
-        <v>9408</v>
+        <v>9407</v>
       </c>
       <c r="E1552" s="1" t="s">
         <v>7085</v>
@@ -76306,7 +76306,7 @@
         <v>3068</v>
       </c>
       <c r="D1629" s="1" t="s">
-        <v>9328</v>
+        <v>9327</v>
       </c>
       <c r="E1629" s="1" t="s">
         <v>6834</v>
@@ -76323,7 +76323,7 @@
         <v>61</v>
       </c>
       <c r="D1630" s="1" t="s">
-        <v>9363</v>
+        <v>9362</v>
       </c>
       <c r="E1630" s="1" t="s">
         <v>6930</v>
@@ -76704,7 +76704,7 @@
         <v>6998</v>
       </c>
       <c r="D1651" s="1" t="s">
-        <v>9385</v>
+        <v>9384</v>
       </c>
       <c r="E1651" s="1" t="s">
         <v>6999</v>
@@ -76721,7 +76721,7 @@
         <v>1986</v>
       </c>
       <c r="D1652" s="1" t="s">
-        <v>9337</v>
+        <v>9336</v>
       </c>
       <c r="E1652" s="1" t="s">
         <v>6862</v>
@@ -76775,7 +76775,7 @@
         <v>42</v>
       </c>
       <c r="D1655" s="1" t="s">
-        <v>9345</v>
+        <v>9344</v>
       </c>
       <c r="E1655" s="1" t="s">
         <v>6888</v>
@@ -77217,7 +77217,7 @@
         <v>974</v>
       </c>
       <c r="D1678" s="1" t="s">
-        <v>9344</v>
+        <v>9343</v>
       </c>
       <c r="E1678" s="1" t="s">
         <v>6885</v>
@@ -77314,7 +77314,7 @@
         <v>968</v>
       </c>
       <c r="D1683" s="1" t="s">
-        <v>9431</v>
+        <v>9430</v>
       </c>
       <c r="E1683" s="1" t="s">
         <v>7161</v>
@@ -77445,7 +77445,7 @@
         <v>1415</v>
       </c>
       <c r="D1690" s="1" t="s">
-        <v>9396</v>
+        <v>9395</v>
       </c>
       <c r="E1690" s="1" t="s">
         <v>7047</v>
@@ -77482,7 +77482,7 @@
         <v>7</v>
       </c>
       <c r="D1692" s="1" t="s">
-        <v>9088</v>
+        <v>9545</v>
       </c>
       <c r="E1692" s="1" t="s">
         <v>5536</v>
@@ -77519,7 +77519,7 @@
         <v>42</v>
       </c>
       <c r="D1694" s="1" t="s">
-        <v>9340</v>
+        <v>9339</v>
       </c>
       <c r="E1694" s="1" t="s">
         <v>6872</v>
@@ -77596,7 +77596,7 @@
         <v>7</v>
       </c>
       <c r="D1698" s="1" t="s">
-        <v>9089</v>
+        <v>9088</v>
       </c>
       <c r="E1698" s="1" t="s">
         <v>5539</v>
@@ -77647,7 +77647,7 @@
         <v>3009</v>
       </c>
       <c r="D1701" s="1" t="s">
-        <v>9405</v>
+        <v>9404</v>
       </c>
       <c r="E1701" s="1" t="s">
         <v>7076</v>
@@ -77664,7 +77664,7 @@
         <v>3068</v>
       </c>
       <c r="D1702" s="1" t="s">
-        <v>9329</v>
+        <v>9328</v>
       </c>
       <c r="E1702" s="1" t="s">
         <v>6838</v>
@@ -77701,7 +77701,7 @@
         <v>7</v>
       </c>
       <c r="D1704" s="1" t="s">
-        <v>9090</v>
+        <v>9089</v>
       </c>
       <c r="E1704" s="1" t="s">
         <v>5542</v>
@@ -77718,7 +77718,7 @@
         <v>7</v>
       </c>
       <c r="D1705" s="1" t="s">
-        <v>9091</v>
+        <v>9090</v>
       </c>
       <c r="E1705" s="1" t="s">
         <v>5545</v>
@@ -77735,7 +77735,7 @@
         <v>7</v>
       </c>
       <c r="D1706" s="1" t="s">
-        <v>9092</v>
+        <v>9091</v>
       </c>
       <c r="E1706" s="1" t="s">
         <v>5548</v>
@@ -77752,7 +77752,7 @@
         <v>271</v>
       </c>
       <c r="D1707" s="1" t="s">
-        <v>9093</v>
+        <v>9092</v>
       </c>
       <c r="E1707" s="1" t="s">
         <v>5551</v>
@@ -78509,7 +78509,7 @@
         <v>441</v>
       </c>
       <c r="D1745" s="1" t="s">
-        <v>9439</v>
+        <v>9438</v>
       </c>
       <c r="E1745" s="1" t="s">
         <v>7188</v>
@@ -78526,7 +78526,7 @@
         <v>462</v>
       </c>
       <c r="D1746" s="1" t="s">
-        <v>9406</v>
+        <v>9405</v>
       </c>
       <c r="E1746" s="1" t="s">
         <v>7079</v>
@@ -78543,7 +78543,7 @@
         <v>7</v>
       </c>
       <c r="D1747" s="1" t="s">
-        <v>9094</v>
+        <v>9093</v>
       </c>
       <c r="E1747" s="1" t="s">
         <v>5553</v>
@@ -78580,7 +78580,7 @@
         <v>1415</v>
       </c>
       <c r="D1749" s="1" t="s">
-        <v>9395</v>
+        <v>9394</v>
       </c>
       <c r="E1749" s="1" t="s">
         <v>7044</v>
@@ -78794,7 +78794,7 @@
         <v>7</v>
       </c>
       <c r="D1760" s="1" t="s">
-        <v>9095</v>
+        <v>9094</v>
       </c>
       <c r="E1760" s="1" t="s">
         <v>5556</v>
@@ -78828,7 +78828,7 @@
         <v>7</v>
       </c>
       <c r="D1762" s="1" t="s">
-        <v>9096</v>
+        <v>9095</v>
       </c>
       <c r="E1762" s="1" t="s">
         <v>5560</v>
@@ -78845,7 +78845,7 @@
         <v>7</v>
       </c>
       <c r="D1763" s="1" t="s">
-        <v>9097</v>
+        <v>9096</v>
       </c>
       <c r="E1763" s="1" t="s">
         <v>5564</v>
@@ -78919,7 +78919,7 @@
         <v>5131</v>
       </c>
       <c r="D1767" s="1" t="s">
-        <v>9430</v>
+        <v>9429</v>
       </c>
       <c r="E1767" s="1" t="s">
         <v>7158</v>
@@ -78959,7 +78959,7 @@
         <v>6062</v>
       </c>
       <c r="D1769" s="1" t="s">
-        <v>9532</v>
+        <v>9531</v>
       </c>
       <c r="E1769" s="1" t="s">
         <v>174</v>
@@ -78979,7 +78979,7 @@
         <v>6062</v>
       </c>
       <c r="D1770" s="1" t="s">
-        <v>9262</v>
+        <v>9261</v>
       </c>
       <c r="E1770" s="1" t="s">
         <v>6095</v>
@@ -79039,7 +79039,7 @@
         <v>6062</v>
       </c>
       <c r="D1773" s="1" t="s">
-        <v>9263</v>
+        <v>9262</v>
       </c>
       <c r="E1773" s="1" t="s">
         <v>6098</v>
@@ -79076,7 +79076,7 @@
         <v>1340</v>
       </c>
       <c r="D1775" s="1" t="s">
-        <v>9441</v>
+        <v>9440</v>
       </c>
       <c r="E1775" s="1" t="s">
         <v>7195</v>
@@ -79093,7 +79093,7 @@
         <v>6600</v>
       </c>
       <c r="D1776" s="1" t="s">
-        <v>9442</v>
+        <v>9441</v>
       </c>
       <c r="E1776" s="1" t="s">
         <v>7198</v>
@@ -79110,7 +79110,7 @@
         <v>6600</v>
       </c>
       <c r="D1777" s="1" t="s">
-        <v>9444</v>
+        <v>9443</v>
       </c>
       <c r="E1777" s="1" t="s">
         <v>7204</v>
@@ -79127,7 +79127,7 @@
         <v>6600</v>
       </c>
       <c r="D1778" s="1" t="s">
-        <v>9445</v>
+        <v>9444</v>
       </c>
       <c r="E1778" s="1" t="s">
         <v>7207</v>
@@ -79144,7 +79144,7 @@
         <v>1703</v>
       </c>
       <c r="D1779" s="1" t="s">
-        <v>9456</v>
+        <v>9455</v>
       </c>
       <c r="E1779" s="1" t="s">
         <v>7236</v>
@@ -79161,7 +79161,7 @@
         <v>1703</v>
       </c>
       <c r="D1780" s="4" t="s">
-        <v>9457</v>
+        <v>9456</v>
       </c>
       <c r="E1780" s="4" t="s">
         <v>7239</v>
@@ -79178,7 +79178,7 @@
         <v>6600</v>
       </c>
       <c r="D1781" s="1" t="s">
-        <v>9453</v>
+        <v>9452</v>
       </c>
       <c r="E1781" s="1" t="s">
         <v>7227</v>
@@ -79229,7 +79229,7 @@
         <v>6600</v>
       </c>
       <c r="D1784" s="1" t="s">
-        <v>9449</v>
+        <v>9448</v>
       </c>
       <c r="E1784" s="1" t="s">
         <v>7219</v>
@@ -79263,7 +79263,7 @@
         <v>6600</v>
       </c>
       <c r="D1786" s="1" t="s">
-        <v>9452</v>
+        <v>9451</v>
       </c>
       <c r="E1786" s="1" t="s">
         <v>7224</v>
@@ -79280,7 +79280,7 @@
         <v>6600</v>
       </c>
       <c r="D1787" s="1" t="s">
-        <v>9447</v>
+        <v>9446</v>
       </c>
       <c r="E1787" s="1" t="s">
         <v>7213</v>
@@ -79297,7 +79297,7 @@
         <v>6600</v>
       </c>
       <c r="D1788" s="1" t="s">
-        <v>9446</v>
+        <v>9445</v>
       </c>
       <c r="E1788" s="1" t="s">
         <v>7210</v>
@@ -79314,7 +79314,7 @@
         <v>6600</v>
       </c>
       <c r="D1789" s="1" t="s">
-        <v>9454</v>
+        <v>9453</v>
       </c>
       <c r="E1789" s="1" t="s">
         <v>7230</v>
@@ -79331,7 +79331,7 @@
         <v>1703</v>
       </c>
       <c r="D1790" s="1" t="s">
-        <v>9455</v>
+        <v>9454</v>
       </c>
       <c r="E1790" s="1" t="s">
         <v>7233</v>
@@ -79348,7 +79348,7 @@
         <v>6600</v>
       </c>
       <c r="D1791" s="1" t="s">
-        <v>9443</v>
+        <v>9442</v>
       </c>
       <c r="E1791" s="1" t="s">
         <v>7201</v>
@@ -79382,10 +79382,10 @@
         <v>6600</v>
       </c>
       <c r="D1793" s="1" t="s">
+        <v>9449</v>
+      </c>
+      <c r="E1793" s="1" t="s">
         <v>9450</v>
-      </c>
-      <c r="E1793" s="1" t="s">
-        <v>9451</v>
       </c>
       <c r="F1793" t="s">
         <v>7222</v>
@@ -79450,7 +79450,7 @@
         <v>7</v>
       </c>
       <c r="D1797" s="1" t="s">
-        <v>9098</v>
+        <v>9097</v>
       </c>
       <c r="E1797" s="1" t="s">
         <v>5566</v>
@@ -79467,7 +79467,7 @@
         <v>7</v>
       </c>
       <c r="D1798" s="1" t="s">
-        <v>9099</v>
+        <v>9098</v>
       </c>
       <c r="E1798" s="1" t="s">
         <v>5569</v>
@@ -79581,7 +79581,7 @@
         <v>7</v>
       </c>
       <c r="D1804" s="1" t="s">
-        <v>9100</v>
+        <v>9099</v>
       </c>
       <c r="E1804" s="1" t="s">
         <v>5572</v>
@@ -79598,7 +79598,7 @@
         <v>391</v>
       </c>
       <c r="D1805" s="1" t="s">
-        <v>9205</v>
+        <v>9204</v>
       </c>
       <c r="E1805" s="1" t="s">
         <v>7028</v>
@@ -79698,7 +79698,7 @@
         <v>3829</v>
       </c>
       <c r="D1810" s="1" t="s">
-        <v>9458</v>
+        <v>9457</v>
       </c>
       <c r="E1810" s="1" t="s">
         <v>4009</v>
@@ -79718,7 +79718,7 @@
         <v>3829</v>
       </c>
       <c r="D1811" s="1" t="s">
-        <v>9459</v>
+        <v>9458</v>
       </c>
       <c r="E1811" s="1" t="s">
         <v>4032</v>
@@ -79738,7 +79738,7 @@
         <v>3829</v>
       </c>
       <c r="D1812" s="1" t="s">
-        <v>9460</v>
+        <v>9459</v>
       </c>
       <c r="E1812" s="1" t="s">
         <v>4012</v>
@@ -79758,7 +79758,7 @@
         <v>3829</v>
       </c>
       <c r="D1813" s="1" t="s">
-        <v>9461</v>
+        <v>9460</v>
       </c>
       <c r="E1813" s="1" t="s">
         <v>4015</v>
@@ -79778,7 +79778,7 @@
         <v>3829</v>
       </c>
       <c r="D1814" s="1" t="s">
-        <v>9462</v>
+        <v>9461</v>
       </c>
       <c r="E1814" s="1" t="s">
         <v>4018</v>
@@ -79798,7 +79798,7 @@
         <v>3829</v>
       </c>
       <c r="D1815" s="1" t="s">
-        <v>9463</v>
+        <v>9462</v>
       </c>
       <c r="E1815" s="1" t="s">
         <v>4035</v>
@@ -79818,7 +79818,7 @@
         <v>3829</v>
       </c>
       <c r="D1816" s="1" t="s">
-        <v>9464</v>
+        <v>9463</v>
       </c>
       <c r="E1816" s="1" t="s">
         <v>4020</v>
@@ -79918,7 +79918,7 @@
         <v>6062</v>
       </c>
       <c r="D1821" s="1" t="s">
-        <v>9260</v>
+        <v>9259</v>
       </c>
       <c r="E1821" s="1" t="s">
         <v>6081</v>
@@ -80152,7 +80152,7 @@
         <v>5595</v>
       </c>
       <c r="D1833" s="1" t="s">
-        <v>9384</v>
+        <v>9383</v>
       </c>
       <c r="E1833" s="1" t="s">
         <v>6995</v>
@@ -80409,7 +80409,7 @@
         <v>7</v>
       </c>
       <c r="D1846" t="s">
-        <v>9101</v>
+        <v>9100</v>
       </c>
       <c r="E1846" t="s">
         <v>5576</v>
@@ -80486,7 +80486,7 @@
         <v>4241</v>
       </c>
       <c r="D1850" s="1" t="s">
-        <v>9533</v>
+        <v>9532</v>
       </c>
       <c r="E1850" s="1" t="s">
         <v>174</v>
@@ -80503,7 +80503,7 @@
         <v>7</v>
       </c>
       <c r="D1851" s="1" t="s">
-        <v>9102</v>
+        <v>9101</v>
       </c>
       <c r="E1851" s="1" t="s">
         <v>5582</v>
@@ -80580,7 +80580,7 @@
         <v>2161</v>
       </c>
       <c r="D1855" s="1" t="s">
-        <v>9244</v>
+        <v>9243</v>
       </c>
       <c r="E1855" s="1" t="s">
         <v>6019</v>
@@ -80671,7 +80671,7 @@
         <v>7</v>
       </c>
       <c r="D1860" s="1" t="s">
-        <v>9104</v>
+        <v>9103</v>
       </c>
       <c r="E1860" s="1" t="s">
         <v>5593</v>
@@ -80717,7 +80717,7 @@
         <v>174</v>
       </c>
       <c r="F1862" s="1" t="s">
-        <v>9534</v>
+        <v>9533</v>
       </c>
     </row>
     <row r="1863" spans="1:6">
@@ -80808,7 +80808,7 @@
         <v>217</v>
       </c>
       <c r="D1867" s="1" t="s">
-        <v>9301</v>
+        <v>9300</v>
       </c>
       <c r="E1867" s="1" t="s">
         <v>6745</v>
@@ -80825,7 +80825,7 @@
         <v>217</v>
       </c>
       <c r="D1868" s="1" t="s">
-        <v>9302</v>
+        <v>9301</v>
       </c>
       <c r="E1868" s="1" t="s">
         <v>6748</v>
@@ -81002,7 +81002,7 @@
         <v>5595</v>
       </c>
       <c r="D1877" s="1" t="s">
-        <v>9105</v>
+        <v>9104</v>
       </c>
       <c r="E1877" s="1" t="s">
         <v>5596</v>
@@ -81019,7 +81019,7 @@
         <v>4326</v>
       </c>
       <c r="D1878" s="1" t="s">
-        <v>9106</v>
+        <v>9105</v>
       </c>
       <c r="E1878" s="1" t="s">
         <v>5600</v>
@@ -81156,7 +81156,7 @@
         <v>7</v>
       </c>
       <c r="D1885" s="1" t="s">
-        <v>9107</v>
+        <v>9106</v>
       </c>
       <c r="E1885" s="1" t="s">
         <v>5602</v>
@@ -81173,7 +81173,7 @@
         <v>7</v>
       </c>
       <c r="D1886" s="1" t="s">
-        <v>9108</v>
+        <v>9107</v>
       </c>
       <c r="E1886" s="1" t="s">
         <v>5604</v>
@@ -81227,7 +81227,7 @@
         <v>7</v>
       </c>
       <c r="D1889" s="1" t="s">
-        <v>9109</v>
+        <v>9108</v>
       </c>
       <c r="E1889" s="1" t="s">
         <v>5609</v>
@@ -81264,7 +81264,7 @@
         <v>7</v>
       </c>
       <c r="D1891" s="1" t="s">
-        <v>9110</v>
+        <v>9109</v>
       </c>
       <c r="E1891" s="1" t="s">
         <v>5611</v>
@@ -81281,7 +81281,7 @@
         <v>7</v>
       </c>
       <c r="D1892" s="1" t="s">
-        <v>9111</v>
+        <v>9110</v>
       </c>
       <c r="E1892" s="1" t="s">
         <v>5613</v>
@@ -81475,7 +81475,7 @@
         <v>1247</v>
       </c>
       <c r="D1902" s="1" t="s">
-        <v>9397</v>
+        <v>9396</v>
       </c>
       <c r="E1902" s="1" t="s">
         <v>7052</v>
@@ -81589,7 +81589,7 @@
         <v>7</v>
       </c>
       <c r="D1908" s="1" t="s">
-        <v>9112</v>
+        <v>9111</v>
       </c>
       <c r="E1908" s="1" t="s">
         <v>5619</v>
@@ -81686,7 +81686,7 @@
         <v>7</v>
       </c>
       <c r="D1913" s="1" t="s">
-        <v>9113</v>
+        <v>9112</v>
       </c>
       <c r="E1913" s="1" t="s">
         <v>5622</v>
@@ -81743,7 +81743,7 @@
         <v>7</v>
       </c>
       <c r="D1916" s="1" t="s">
-        <v>9114</v>
+        <v>9113</v>
       </c>
       <c r="E1916" s="1" t="s">
         <v>5625</v>
@@ -81860,7 +81860,7 @@
         <v>1703</v>
       </c>
       <c r="D1922" s="4" t="s">
-        <v>9116</v>
+        <v>9115</v>
       </c>
       <c r="E1922" s="4" t="s">
         <v>5631</v>
@@ -81877,7 +81877,7 @@
         <v>1703</v>
       </c>
       <c r="D1923" s="4" t="s">
-        <v>9115</v>
+        <v>9114</v>
       </c>
       <c r="E1923" s="4" t="s">
         <v>5628</v>
@@ -81914,7 +81914,7 @@
         <v>7</v>
       </c>
       <c r="D1925" s="4" t="s">
-        <v>9117</v>
+        <v>9116</v>
       </c>
       <c r="E1925" s="4" t="s">
         <v>5634</v>
@@ -81931,7 +81931,7 @@
         <v>7</v>
       </c>
       <c r="D1926" s="1" t="s">
-        <v>9118</v>
+        <v>9117</v>
       </c>
       <c r="E1926" s="1" t="s">
         <v>5637</v>
@@ -81948,7 +81948,7 @@
         <v>7</v>
       </c>
       <c r="D1927" s="1" t="s">
-        <v>9119</v>
+        <v>9118</v>
       </c>
       <c r="E1927" s="1" t="s">
         <v>5640</v>
@@ -82025,7 +82025,7 @@
         <v>7</v>
       </c>
       <c r="D1931" s="1" t="s">
-        <v>9119</v>
+        <v>9118</v>
       </c>
       <c r="E1931" s="1" t="s">
         <v>5640</v>
@@ -82082,7 +82082,7 @@
         <v>7</v>
       </c>
       <c r="D1934" s="1" t="s">
-        <v>9120</v>
+        <v>9119</v>
       </c>
       <c r="E1934" s="1" t="s">
         <v>5644</v>
@@ -82139,7 +82139,7 @@
         <v>7</v>
       </c>
       <c r="D1937" s="1" t="s">
-        <v>9121</v>
+        <v>9120</v>
       </c>
       <c r="E1937" s="1" t="s">
         <v>5647</v>
@@ -82176,7 +82176,7 @@
         <v>7</v>
       </c>
       <c r="D1939" s="1" t="s">
-        <v>9123</v>
+        <v>9122</v>
       </c>
       <c r="E1939" s="1" t="s">
         <v>5653</v>
@@ -82213,7 +82213,7 @@
         <v>7</v>
       </c>
       <c r="D1941" s="1" t="s">
-        <v>9124</v>
+        <v>9123</v>
       </c>
       <c r="E1941" s="1" t="s">
         <v>5656</v>
@@ -82230,7 +82230,7 @@
         <v>7</v>
       </c>
       <c r="D1942" s="1" t="s">
-        <v>9125</v>
+        <v>9124</v>
       </c>
       <c r="E1942" s="1" t="s">
         <v>5659</v>
@@ -82721,7 +82721,7 @@
         <v>7</v>
       </c>
       <c r="D1967" s="1" t="s">
-        <v>9126</v>
+        <v>9125</v>
       </c>
       <c r="E1967" s="1" t="s">
         <v>5662</v>
@@ -82738,7 +82738,7 @@
         <v>7</v>
       </c>
       <c r="D1968" s="1" t="s">
-        <v>9127</v>
+        <v>9126</v>
       </c>
       <c r="E1968" s="1" t="s">
         <v>5665</v>
@@ -82755,7 +82755,7 @@
         <v>7</v>
       </c>
       <c r="D1969" s="1" t="s">
-        <v>9128</v>
+        <v>9127</v>
       </c>
       <c r="E1969" s="1" t="s">
         <v>5668</v>
@@ -82772,7 +82772,7 @@
         <v>7</v>
       </c>
       <c r="D1970" s="1" t="s">
-        <v>9129</v>
+        <v>9128</v>
       </c>
       <c r="E1970" s="1" t="s">
         <v>5671</v>
@@ -82789,7 +82789,7 @@
         <v>7</v>
       </c>
       <c r="D1971" s="1" t="s">
-        <v>9130</v>
+        <v>9129</v>
       </c>
       <c r="E1971" s="1" t="s">
         <v>5674</v>
@@ -82806,7 +82806,7 @@
         <v>7</v>
       </c>
       <c r="D1972" s="1" t="s">
-        <v>9131</v>
+        <v>9130</v>
       </c>
       <c r="E1972" s="1" t="s">
         <v>5677</v>
@@ -82823,7 +82823,7 @@
         <v>7</v>
       </c>
       <c r="D1973" s="1" t="s">
-        <v>9132</v>
+        <v>9131</v>
       </c>
       <c r="E1973" s="1" t="s">
         <v>5680</v>
@@ -82840,7 +82840,7 @@
         <v>7</v>
       </c>
       <c r="D1974" s="1" t="s">
-        <v>9133</v>
+        <v>9132</v>
       </c>
       <c r="E1974" s="1" t="s">
         <v>5683</v>
@@ -82857,7 +82857,7 @@
         <v>7</v>
       </c>
       <c r="D1975" s="1" t="s">
-        <v>9134</v>
+        <v>9133</v>
       </c>
       <c r="E1975" s="1" t="s">
         <v>5686</v>
@@ -82891,7 +82891,7 @@
         <v>7</v>
       </c>
       <c r="D1977" s="1" t="s">
-        <v>9135</v>
+        <v>9134</v>
       </c>
       <c r="E1977" s="1" t="s">
         <v>5690</v>
@@ -82988,7 +82988,7 @@
         <v>7</v>
       </c>
       <c r="D1982" s="1" t="s">
-        <v>9136</v>
+        <v>9135</v>
       </c>
       <c r="E1982" s="1" t="s">
         <v>5692</v>
@@ -83005,7 +83005,7 @@
         <v>7</v>
       </c>
       <c r="D1983" s="1" t="s">
-        <v>9137</v>
+        <v>9136</v>
       </c>
       <c r="E1983" s="1" t="s">
         <v>5696</v>
@@ -83202,7 +83202,7 @@
         <v>7</v>
       </c>
       <c r="D1993" s="1" t="s">
-        <v>9138</v>
+        <v>9137</v>
       </c>
       <c r="E1993" s="1" t="s">
         <v>5698</v>
@@ -83242,7 +83242,7 @@
         <v>2807</v>
       </c>
       <c r="D1995" s="1" t="s">
-        <v>9465</v>
+        <v>9464</v>
       </c>
       <c r="E1995" s="1" t="s">
         <v>4111</v>
@@ -83259,7 +83259,7 @@
         <v>7</v>
       </c>
       <c r="D1996" s="1" t="s">
-        <v>9139</v>
+        <v>9138</v>
       </c>
       <c r="E1996" s="1" t="s">
         <v>5701</v>
@@ -83276,7 +83276,7 @@
         <v>7</v>
       </c>
       <c r="D1997" s="1" t="s">
-        <v>9140</v>
+        <v>9139</v>
       </c>
       <c r="E1997" s="1" t="s">
         <v>5704</v>
@@ -83293,7 +83293,7 @@
         <v>7</v>
       </c>
       <c r="D1998" s="1" t="s">
-        <v>9141</v>
+        <v>9140</v>
       </c>
       <c r="E1998" s="1" t="s">
         <v>5707</v>
@@ -83350,7 +83350,7 @@
         <v>7</v>
       </c>
       <c r="D2001" s="1" t="s">
-        <v>9142</v>
+        <v>9141</v>
       </c>
       <c r="E2001" s="1" t="s">
         <v>5710</v>
@@ -83427,7 +83427,7 @@
         <v>7</v>
       </c>
       <c r="D2005" s="1" t="s">
-        <v>9143</v>
+        <v>9142</v>
       </c>
       <c r="E2005" s="1" t="s">
         <v>5713</v>
@@ -83504,7 +83504,7 @@
         <v>7</v>
       </c>
       <c r="D2009" s="1" t="s">
-        <v>9144</v>
+        <v>9143</v>
       </c>
       <c r="E2009" s="1" t="s">
         <v>5716</v>
@@ -83664,7 +83664,7 @@
         <v>710</v>
       </c>
       <c r="D2017" s="1" t="s">
-        <v>9243</v>
+        <v>9242</v>
       </c>
       <c r="E2017" s="1" t="s">
         <v>6016</v>
@@ -83704,7 +83704,7 @@
         <v>6062</v>
       </c>
       <c r="D2019" s="1" t="s">
-        <v>9261</v>
+        <v>9260</v>
       </c>
       <c r="E2019" s="1" t="s">
         <v>6088</v>
@@ -83841,7 +83841,7 @@
         <v>137</v>
       </c>
       <c r="D2026" s="1" t="s">
-        <v>9466</v>
+        <v>9465</v>
       </c>
       <c r="E2026" s="1" t="s">
         <v>6486</v>
@@ -83878,7 +83878,7 @@
         <v>7</v>
       </c>
       <c r="D2028" s="1" t="s">
-        <v>9145</v>
+        <v>9144</v>
       </c>
       <c r="E2028" s="1" t="s">
         <v>5719</v>
@@ -83915,7 +83915,7 @@
         <v>7</v>
       </c>
       <c r="D2030" s="1" t="s">
-        <v>9146</v>
+        <v>9145</v>
       </c>
       <c r="E2030" s="1" t="s">
         <v>5722</v>
@@ -83983,7 +83983,7 @@
         <v>7</v>
       </c>
       <c r="D2034" s="1" t="s">
-        <v>9147</v>
+        <v>9146</v>
       </c>
       <c r="E2034" s="1" t="s">
         <v>5726</v>
@@ -84060,7 +84060,7 @@
         <v>7</v>
       </c>
       <c r="D2038" s="1" t="s">
-        <v>9148</v>
+        <v>9147</v>
       </c>
       <c r="E2038" s="1" t="s">
         <v>5728</v>
@@ -84077,7 +84077,7 @@
         <v>7</v>
       </c>
       <c r="D2039" s="1" t="s">
-        <v>9149</v>
+        <v>9148</v>
       </c>
       <c r="E2039" s="1" t="s">
         <v>5731</v>
@@ -84177,13 +84177,13 @@
         <v>6898</v>
       </c>
       <c r="D2044" s="1" t="s">
-        <v>9508</v>
+        <v>9507</v>
       </c>
       <c r="E2044" s="1" t="s">
-        <v>9355</v>
+        <v>9354</v>
       </c>
       <c r="F2044" s="1" t="s">
-        <v>9355</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="2045" spans="1:6">
@@ -84197,7 +84197,7 @@
         <v>6898</v>
       </c>
       <c r="D2045" s="1" t="s">
-        <v>9348</v>
+        <v>9347</v>
       </c>
       <c r="E2045" s="1" t="s">
         <v>6899</v>
@@ -84217,7 +84217,7 @@
         <v>6898</v>
       </c>
       <c r="D2046" s="1" t="s">
-        <v>9351</v>
+        <v>9350</v>
       </c>
       <c r="E2046" s="1" t="s">
         <v>6910</v>
@@ -84254,7 +84254,7 @@
         <v>6898</v>
       </c>
       <c r="D2048" s="1" t="s">
-        <v>9350</v>
+        <v>9349</v>
       </c>
       <c r="E2048" s="1" t="s">
         <v>6905</v>
@@ -84274,13 +84274,13 @@
         <v>6898</v>
       </c>
       <c r="D2049" s="1" t="s">
-        <v>9509</v>
+        <v>9508</v>
       </c>
       <c r="E2049" s="1" t="s">
+        <v>9352</v>
+      </c>
+      <c r="F2049" t="s">
         <v>9353</v>
-      </c>
-      <c r="F2049" t="s">
-        <v>9354</v>
       </c>
     </row>
     <row r="2050" spans="1:6">
@@ -84314,7 +84314,7 @@
         <v>6898</v>
       </c>
       <c r="D2051" s="1" t="s">
-        <v>9349</v>
+        <v>9348</v>
       </c>
       <c r="E2051" s="1" t="s">
         <v>6902</v>
@@ -84334,7 +84334,7 @@
         <v>6898</v>
       </c>
       <c r="D2052" s="1" t="s">
-        <v>9352</v>
+        <v>9351</v>
       </c>
       <c r="E2052" s="1" t="s">
         <v>6913</v>
@@ -84371,7 +84371,7 @@
         <v>15</v>
       </c>
       <c r="D2054" s="1" t="s">
-        <v>9432</v>
+        <v>9431</v>
       </c>
       <c r="E2054" s="1" t="s">
         <v>7164</v>
@@ -84388,7 +84388,7 @@
         <v>15</v>
       </c>
       <c r="D2055" s="1" t="s">
-        <v>9433</v>
+        <v>9432</v>
       </c>
       <c r="E2055" s="1" t="s">
         <v>7167</v>
@@ -84465,7 +84465,7 @@
         <v>7</v>
       </c>
       <c r="D2059" s="1" t="s">
-        <v>9150</v>
+        <v>9149</v>
       </c>
       <c r="E2059" s="1" t="s">
         <v>5734</v>
@@ -84662,7 +84662,7 @@
         <v>7</v>
       </c>
       <c r="D2069" s="1" t="s">
-        <v>9151</v>
+        <v>9150</v>
       </c>
       <c r="E2069" s="1" t="s">
         <v>5737</v>
@@ -84999,7 +84999,7 @@
         <v>6924</v>
       </c>
       <c r="D2086" s="1" t="s">
-        <v>9409</v>
+        <v>9408</v>
       </c>
       <c r="E2086" s="1" t="s">
         <v>7088</v>
@@ -85093,7 +85093,7 @@
         <v>93</v>
       </c>
       <c r="D2091" s="1" t="s">
-        <v>9280</v>
+        <v>9279</v>
       </c>
       <c r="E2091" s="1" t="s">
         <v>6676</v>
@@ -85110,7 +85110,7 @@
         <v>3171</v>
       </c>
       <c r="D2092" s="1" t="s">
-        <v>9278</v>
+        <v>9277</v>
       </c>
       <c r="E2092" s="1" t="s">
         <v>6671</v>
@@ -85127,10 +85127,10 @@
         <v>93</v>
       </c>
       <c r="D2093" s="1" t="s">
-        <v>9279</v>
+        <v>9278</v>
       </c>
       <c r="E2093" s="1" t="s">
-        <v>9510</v>
+        <v>9509</v>
       </c>
       <c r="F2093" t="s">
         <v>6674</v>
@@ -85144,7 +85144,7 @@
         <v>3171</v>
       </c>
       <c r="D2094" s="1" t="s">
-        <v>9277</v>
+        <v>9276</v>
       </c>
       <c r="E2094" s="1" t="s">
         <v>6668</v>
@@ -85161,7 +85161,7 @@
         <v>3171</v>
       </c>
       <c r="D2095" s="1" t="s">
-        <v>9275</v>
+        <v>9274</v>
       </c>
       <c r="E2095" s="1" t="s">
         <v>6662</v>
@@ -85178,7 +85178,7 @@
         <v>3171</v>
       </c>
       <c r="D2096" s="1" t="s">
-        <v>9276</v>
+        <v>9275</v>
       </c>
       <c r="E2096" s="1" t="s">
         <v>6665</v>
@@ -85235,7 +85235,7 @@
         <v>117</v>
       </c>
       <c r="D2099" s="1" t="s">
-        <v>9511</v>
+        <v>9510</v>
       </c>
       <c r="E2099" s="1" t="s">
         <v>6329</v>
@@ -85569,7 +85569,7 @@
         <v>7</v>
       </c>
       <c r="D2116" s="1" t="s">
-        <v>9152</v>
+        <v>9151</v>
       </c>
       <c r="E2116" s="1" t="s">
         <v>5741</v>
@@ -85586,7 +85586,7 @@
         <v>7</v>
       </c>
       <c r="D2117" s="1" t="s">
-        <v>9153</v>
+        <v>9152</v>
       </c>
       <c r="E2117" s="1" t="s">
         <v>5744</v>
@@ -85603,7 +85603,7 @@
         <v>7</v>
       </c>
       <c r="D2118" s="1" t="s">
-        <v>9154</v>
+        <v>9153</v>
       </c>
       <c r="E2118" s="1" t="s">
         <v>5747</v>
@@ -85620,7 +85620,7 @@
         <v>7</v>
       </c>
       <c r="D2119" s="1" t="s">
-        <v>9155</v>
+        <v>9154</v>
       </c>
       <c r="E2119" s="1" t="s">
         <v>5750</v>
@@ -85637,7 +85637,7 @@
         <v>7</v>
       </c>
       <c r="D2120" s="1" t="s">
-        <v>9156</v>
+        <v>9155</v>
       </c>
       <c r="E2120" s="1" t="s">
         <v>5753</v>
@@ -85654,7 +85654,7 @@
         <v>7</v>
       </c>
       <c r="D2121" s="1" t="s">
-        <v>9157</v>
+        <v>9156</v>
       </c>
       <c r="E2121" s="1" t="s">
         <v>5756</v>
@@ -85671,7 +85671,7 @@
         <v>7</v>
       </c>
       <c r="D2122" s="1" t="s">
-        <v>9158</v>
+        <v>9157</v>
       </c>
       <c r="E2122" s="1" t="s">
         <v>5759</v>
@@ -85788,7 +85788,7 @@
         <v>7</v>
       </c>
       <c r="D2128" s="1" t="s">
-        <v>9159</v>
+        <v>9158</v>
       </c>
       <c r="E2128" s="1" t="s">
         <v>5762</v>
@@ -85825,7 +85825,7 @@
         <v>7</v>
       </c>
       <c r="D2130" s="1" t="s">
-        <v>9160</v>
+        <v>9159</v>
       </c>
       <c r="E2130" s="1" t="s">
         <v>5765</v>
@@ -85842,7 +85842,7 @@
         <v>6610</v>
       </c>
       <c r="D2131" s="1" t="s">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="E2131" s="1" t="s">
         <v>6614</v>
@@ -85899,7 +85899,7 @@
         <v>217</v>
       </c>
       <c r="D2134" s="1" t="s">
-        <v>9315</v>
+        <v>9314</v>
       </c>
       <c r="E2134" s="1" t="s">
         <v>6791</v>
@@ -86076,7 +86076,7 @@
         <v>7</v>
       </c>
       <c r="D2143" s="1" t="s">
-        <v>9161</v>
+        <v>9160</v>
       </c>
       <c r="E2143" s="1" t="s">
         <v>5768</v>
@@ -86173,7 +86173,7 @@
         <v>7</v>
       </c>
       <c r="D2148" s="1" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="E2148" s="1" t="s">
         <v>5772</v>
@@ -86210,7 +86210,7 @@
         <v>7</v>
       </c>
       <c r="D2150" s="1" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="E2150" s="1" t="s">
         <v>5773</v>
@@ -86287,7 +86287,7 @@
         <v>7</v>
       </c>
       <c r="D2154" s="1" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="E2154" s="1" t="s">
         <v>5775</v>
@@ -86361,7 +86361,7 @@
         <v>7</v>
       </c>
       <c r="D2158" s="1" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="E2158" s="1" t="s">
         <v>5781</v>
@@ -86378,7 +86378,7 @@
         <v>6804</v>
       </c>
       <c r="D2159" s="1" t="s">
-        <v>9324</v>
+        <v>9323</v>
       </c>
       <c r="E2159" s="1" t="s">
         <v>6822</v>
@@ -86395,7 +86395,7 @@
         <v>6804</v>
       </c>
       <c r="D2160" s="1" t="s">
-        <v>9320</v>
+        <v>9319</v>
       </c>
       <c r="E2160" s="1" t="s">
         <v>6808</v>
@@ -86412,7 +86412,7 @@
         <v>6804</v>
       </c>
       <c r="D2161" s="1" t="s">
-        <v>9319</v>
+        <v>9318</v>
       </c>
       <c r="E2161" s="1" t="s">
         <v>6805</v>
@@ -86429,7 +86429,7 @@
         <v>6804</v>
       </c>
       <c r="D2162" s="1" t="s">
-        <v>9323</v>
+        <v>9322</v>
       </c>
       <c r="E2162" s="1" t="s">
         <v>6817</v>
@@ -86463,7 +86463,7 @@
         <v>6804</v>
       </c>
       <c r="D2164" s="1" t="s">
-        <v>9322</v>
+        <v>9321</v>
       </c>
       <c r="E2164" s="1" t="s">
         <v>6814</v>
@@ -86480,7 +86480,7 @@
         <v>6804</v>
       </c>
       <c r="D2165" s="1" t="s">
-        <v>9321</v>
+        <v>9320</v>
       </c>
       <c r="E2165" s="1" t="s">
         <v>6811</v>
@@ -86537,13 +86537,13 @@
         <v>7</v>
       </c>
       <c r="D2168" s="1" t="s">
-        <v>9513</v>
+        <v>9512</v>
       </c>
       <c r="E2168" s="1" t="s">
+        <v>9165</v>
+      </c>
+      <c r="F2168" t="s">
         <v>9166</v>
-      </c>
-      <c r="F2168" t="s">
-        <v>9167</v>
       </c>
     </row>
     <row r="2169" spans="1:6">
@@ -86554,13 +86554,13 @@
         <v>7</v>
       </c>
       <c r="D2169" s="1" t="s">
-        <v>9514</v>
+        <v>9513</v>
       </c>
       <c r="E2169" s="1" t="s">
+        <v>9167</v>
+      </c>
+      <c r="F2169" s="1" t="s">
         <v>9168</v>
-      </c>
-      <c r="F2169" s="1" t="s">
-        <v>9169</v>
       </c>
     </row>
     <row r="2170" spans="1:6">
@@ -86571,13 +86571,13 @@
         <v>7</v>
       </c>
       <c r="D2170" s="1" t="s">
-        <v>9515</v>
+        <v>9514</v>
       </c>
       <c r="E2170" s="1" t="s">
+        <v>9169</v>
+      </c>
+      <c r="F2170" s="1" t="s">
         <v>9170</v>
-      </c>
-      <c r="F2170" s="1" t="s">
-        <v>9171</v>
       </c>
     </row>
     <row r="2171" spans="1:6">
@@ -86588,13 +86588,13 @@
         <v>7</v>
       </c>
       <c r="D2171" s="1" t="s">
+        <v>9171</v>
+      </c>
+      <c r="E2171" s="1" t="s">
         <v>9172</v>
       </c>
-      <c r="E2171" s="1" t="s">
+      <c r="F2171" s="1" t="s">
         <v>9173</v>
-      </c>
-      <c r="F2171" s="1" t="s">
-        <v>9174</v>
       </c>
     </row>
     <row r="2172" spans="1:6">
@@ -86622,7 +86622,7 @@
         <v>7</v>
       </c>
       <c r="D2173" s="1" t="s">
-        <v>9178</v>
+        <v>9177</v>
       </c>
       <c r="E2173" s="1" t="s">
         <v>5802</v>
@@ -86639,7 +86639,7 @@
         <v>7</v>
       </c>
       <c r="D2174" s="1" t="s">
-        <v>9175</v>
+        <v>9174</v>
       </c>
       <c r="E2174" s="1" t="s">
         <v>5791</v>
@@ -86673,7 +86673,7 @@
         <v>7</v>
       </c>
       <c r="D2176" s="1" t="s">
-        <v>9176</v>
+        <v>9175</v>
       </c>
       <c r="E2176" s="1" t="s">
         <v>5796</v>
@@ -86690,7 +86690,7 @@
         <v>7</v>
       </c>
       <c r="D2177" s="1" t="s">
-        <v>9177</v>
+        <v>9176</v>
       </c>
       <c r="E2177" s="1" t="s">
         <v>5799</v>
@@ -86861,7 +86861,7 @@
         <v>7</v>
       </c>
       <c r="D2186" s="1" t="s">
-        <v>9179</v>
+        <v>9178</v>
       </c>
       <c r="E2186" s="1" t="s">
         <v>5809</v>
@@ -87018,7 +87018,7 @@
         <v>7</v>
       </c>
       <c r="D2194" s="1" t="s">
-        <v>9180</v>
+        <v>9179</v>
       </c>
       <c r="E2194" s="1" t="s">
         <v>5812</v>
@@ -87035,7 +87035,7 @@
         <v>7</v>
       </c>
       <c r="D2195" s="1" t="s">
-        <v>9181</v>
+        <v>9180</v>
       </c>
       <c r="E2195" s="1" t="s">
         <v>5815</v>
@@ -87129,7 +87129,7 @@
         <v>7</v>
       </c>
       <c r="D2200" s="1" t="s">
-        <v>9182</v>
+        <v>9181</v>
       </c>
       <c r="E2200" s="1" t="s">
         <v>5818</v>
@@ -87186,7 +87186,7 @@
         <v>1163</v>
       </c>
       <c r="D2203" s="1" t="s">
-        <v>9224</v>
+        <v>9223</v>
       </c>
       <c r="E2203" s="1" t="s">
         <v>5949</v>
@@ -87403,7 +87403,7 @@
         <v>7</v>
       </c>
       <c r="D2214" s="1" t="s">
-        <v>9183</v>
+        <v>9182</v>
       </c>
       <c r="E2214" s="1" t="s">
         <v>5821</v>
@@ -87420,7 +87420,7 @@
         <v>7</v>
       </c>
       <c r="D2215" s="1" t="s">
-        <v>9184</v>
+        <v>9183</v>
       </c>
       <c r="E2215" s="1" t="s">
         <v>5824</v>
@@ -87708,7 +87708,7 @@
         <v>7</v>
       </c>
       <c r="D2230" s="1" t="s">
-        <v>9185</v>
+        <v>9184</v>
       </c>
       <c r="E2230" s="1" t="s">
         <v>5827</v>
@@ -88165,7 +88165,7 @@
         <v>6804</v>
       </c>
       <c r="D2253" s="1" t="s">
-        <v>9325</v>
+        <v>9324</v>
       </c>
       <c r="E2253" s="1" t="s">
         <v>6825</v>
@@ -88182,7 +88182,7 @@
         <v>6804</v>
       </c>
       <c r="D2254" s="1" t="s">
-        <v>9327</v>
+        <v>9326</v>
       </c>
       <c r="E2254" s="1" t="s">
         <v>6831</v>
@@ -88199,7 +88199,7 @@
         <v>6804</v>
       </c>
       <c r="D2255" s="1" t="s">
-        <v>9326</v>
+        <v>9325</v>
       </c>
       <c r="E2255" s="1" t="s">
         <v>6828</v>
@@ -88216,7 +88216,7 @@
         <v>7</v>
       </c>
       <c r="D2256" s="1" t="s">
-        <v>9186</v>
+        <v>9185</v>
       </c>
       <c r="E2256" s="1" t="s">
         <v>5830</v>
@@ -88233,7 +88233,7 @@
         <v>7</v>
       </c>
       <c r="D2257" s="1" t="s">
-        <v>9187</v>
+        <v>9186</v>
       </c>
       <c r="E2257" s="1" t="s">
         <v>5833</v>
@@ -88250,7 +88250,7 @@
         <v>7</v>
       </c>
       <c r="D2258" s="1" t="s">
-        <v>9188</v>
+        <v>9187</v>
       </c>
       <c r="E2258" s="1" t="s">
         <v>5836</v>
@@ -88387,7 +88387,7 @@
         <v>3085</v>
       </c>
       <c r="D2265" s="1" t="s">
-        <v>9418</v>
+        <v>9417</v>
       </c>
       <c r="E2265" s="1" t="s">
         <v>7121</v>
@@ -88404,7 +88404,7 @@
         <v>3085</v>
       </c>
       <c r="D2266" s="1" t="s">
-        <v>9419</v>
+        <v>9418</v>
       </c>
       <c r="E2266" s="1" t="s">
         <v>7124</v>
@@ -88458,7 +88458,7 @@
         <v>7</v>
       </c>
       <c r="D2269" s="1" t="s">
-        <v>9189</v>
+        <v>9188</v>
       </c>
       <c r="E2269" s="1" t="s">
         <v>5839</v>
@@ -88475,7 +88475,7 @@
         <v>7</v>
       </c>
       <c r="D2270" s="1" t="s">
-        <v>9190</v>
+        <v>9189</v>
       </c>
       <c r="E2270" s="1" t="s">
         <v>5841</v>
@@ -88492,7 +88492,7 @@
         <v>7</v>
       </c>
       <c r="D2271" s="1" t="s">
-        <v>9191</v>
+        <v>9190</v>
       </c>
       <c r="E2271" s="1" t="s">
         <v>5844</v>
@@ -88649,7 +88649,7 @@
         <v>2957</v>
       </c>
       <c r="D2279" s="1" t="s">
-        <v>9467</v>
+        <v>9466</v>
       </c>
       <c r="E2279" s="1" t="s">
         <v>3225</v>
@@ -88666,7 +88666,7 @@
         <v>281</v>
       </c>
       <c r="D2280" s="1" t="s">
-        <v>9192</v>
+        <v>9191</v>
       </c>
       <c r="E2280" s="1" t="s">
         <v>5848</v>
@@ -88740,7 +88740,7 @@
         <v>3445</v>
       </c>
       <c r="D2284" s="1" t="s">
-        <v>9541</v>
+        <v>9540</v>
       </c>
       <c r="E2284" s="1" t="s">
         <v>3571</v>
@@ -88777,7 +88777,7 @@
         <v>692</v>
       </c>
       <c r="D2286" s="1" t="s">
-        <v>9516</v>
+        <v>9515</v>
       </c>
       <c r="E2286" s="1" t="s">
         <v>693</v>
@@ -88834,7 +88834,7 @@
         <v>885</v>
       </c>
       <c r="D2289" s="1" t="s">
-        <v>9366</v>
+        <v>9365</v>
       </c>
       <c r="E2289" s="1" t="s">
         <v>6939</v>
@@ -88851,7 +88851,7 @@
         <v>7</v>
       </c>
       <c r="D2290" s="1" t="s">
-        <v>9193</v>
+        <v>9192</v>
       </c>
       <c r="E2290" s="1" t="s">
         <v>5854</v>
@@ -88868,7 +88868,7 @@
         <v>7</v>
       </c>
       <c r="D2291" s="1" t="s">
-        <v>9194</v>
+        <v>9193</v>
       </c>
       <c r="E2291" s="1" t="s">
         <v>5856</v>
@@ -88885,7 +88885,7 @@
         <v>7</v>
       </c>
       <c r="D2292" s="1" t="s">
-        <v>9195</v>
+        <v>9194</v>
       </c>
       <c r="E2292" s="1" t="s">
         <v>5859</v>
@@ -88982,7 +88982,7 @@
         <v>7</v>
       </c>
       <c r="D2297" s="1" t="s">
-        <v>9196</v>
+        <v>9195</v>
       </c>
       <c r="E2297" s="1" t="s">
         <v>5861</v>
@@ -89059,7 +89059,7 @@
         <v>1950</v>
       </c>
       <c r="D2301" s="1" t="s">
-        <v>9423</v>
+        <v>9422</v>
       </c>
       <c r="E2301" s="1" t="s">
         <v>7136</v>
@@ -89076,7 +89076,7 @@
         <v>7</v>
       </c>
       <c r="D2302" s="1" t="s">
-        <v>9197</v>
+        <v>9196</v>
       </c>
       <c r="E2302" s="1" t="s">
         <v>5864</v>
@@ -89153,7 +89153,7 @@
         <v>7</v>
       </c>
       <c r="D2306" s="1" t="s">
-        <v>9198</v>
+        <v>9197</v>
       </c>
       <c r="E2306" s="1" t="s">
         <v>5866</v>
@@ -89170,7 +89170,7 @@
         <v>7</v>
       </c>
       <c r="D2307" s="1" t="s">
-        <v>9203</v>
+        <v>9202</v>
       </c>
       <c r="E2307" s="1" t="s">
         <v>5882</v>
@@ -89207,7 +89207,7 @@
         <v>7</v>
       </c>
       <c r="D2309" s="1" t="s">
-        <v>9204</v>
+        <v>9203</v>
       </c>
       <c r="E2309" s="1" t="s">
         <v>5885</v>
@@ -89244,7 +89244,7 @@
         <v>1950</v>
       </c>
       <c r="D2311" s="1" t="s">
-        <v>9422</v>
+        <v>9421</v>
       </c>
       <c r="E2311" s="1" t="s">
         <v>7133</v>
@@ -89261,7 +89261,7 @@
         <v>7</v>
       </c>
       <c r="D2312" s="1" t="s">
-        <v>9205</v>
+        <v>9204</v>
       </c>
       <c r="E2312" s="1" t="s">
         <v>5888</v>
@@ -89298,7 +89298,7 @@
         <v>1335</v>
       </c>
       <c r="D2314" s="1" t="s">
-        <v>9200</v>
+        <v>9199</v>
       </c>
       <c r="E2314" s="1" t="s">
         <v>5872</v>
@@ -89315,7 +89315,7 @@
         <v>1182</v>
       </c>
       <c r="D2315" s="1" t="s">
-        <v>9199</v>
+        <v>9198</v>
       </c>
       <c r="E2315" s="1" t="s">
         <v>5869</v>
@@ -89332,7 +89332,7 @@
         <v>7</v>
       </c>
       <c r="D2316" s="1" t="s">
-        <v>9206</v>
+        <v>9205</v>
       </c>
       <c r="E2316" s="1" t="s">
         <v>5891</v>
@@ -89349,7 +89349,7 @@
         <v>7</v>
       </c>
       <c r="D2317" s="1" t="s">
-        <v>9207</v>
+        <v>9206</v>
       </c>
       <c r="E2317" s="1" t="s">
         <v>5894</v>
@@ -89366,7 +89366,7 @@
         <v>7</v>
       </c>
       <c r="D2318" s="1" t="s">
-        <v>9208</v>
+        <v>9207</v>
       </c>
       <c r="E2318" s="1" t="s">
         <v>5898</v>
@@ -89383,7 +89383,7 @@
         <v>5616</v>
       </c>
       <c r="D2319" s="1" t="s">
-        <v>9202</v>
+        <v>9201</v>
       </c>
       <c r="E2319" s="1" t="s">
         <v>5879</v>
@@ -89440,7 +89440,7 @@
         <v>7</v>
       </c>
       <c r="D2322" s="1" t="s">
-        <v>9209</v>
+        <v>9208</v>
       </c>
       <c r="E2322" s="1" t="s">
         <v>5900</v>
@@ -89514,7 +89514,7 @@
         <v>5875</v>
       </c>
       <c r="D2326" s="1" t="s">
-        <v>9201</v>
+        <v>9200</v>
       </c>
       <c r="E2326" s="1" t="s">
         <v>5876</v>
@@ -89551,7 +89551,7 @@
         <v>7</v>
       </c>
       <c r="D2328" s="1" t="s">
-        <v>9210</v>
+        <v>9209</v>
       </c>
       <c r="E2328" s="1" t="s">
         <v>5904</v>
@@ -89588,7 +89588,7 @@
         <v>7</v>
       </c>
       <c r="D2330" s="1" t="s">
-        <v>9211</v>
+        <v>9210</v>
       </c>
       <c r="E2330" s="1" t="s">
         <v>5907</v>
@@ -89605,7 +89605,7 @@
         <v>1047</v>
       </c>
       <c r="D2331" s="1" t="s">
-        <v>9368</v>
+        <v>9367</v>
       </c>
       <c r="E2331" s="1" t="s">
         <v>6945</v>
@@ -89702,7 +89702,7 @@
         <v>7</v>
       </c>
       <c r="D2336" s="1" t="s">
-        <v>9212</v>
+        <v>9211</v>
       </c>
       <c r="E2336" s="1" t="s">
         <v>5910</v>
@@ -89779,7 +89779,7 @@
         <v>7</v>
       </c>
       <c r="D2340" s="1" t="s">
-        <v>9213</v>
+        <v>9212</v>
       </c>
       <c r="E2340" s="1" t="s">
         <v>5913</v>
@@ -89816,7 +89816,7 @@
         <v>7</v>
       </c>
       <c r="D2342" s="1" t="s">
-        <v>9214</v>
+        <v>9213</v>
       </c>
       <c r="E2342" s="1" t="s">
         <v>5916</v>
@@ -89833,7 +89833,7 @@
         <v>7</v>
       </c>
       <c r="D2343" s="1" t="s">
-        <v>9215</v>
+        <v>9214</v>
       </c>
       <c r="E2343" s="1" t="s">
         <v>5918</v>
@@ -89890,7 +89890,7 @@
         <v>217</v>
       </c>
       <c r="D2346" s="1" t="s">
-        <v>9316</v>
+        <v>9315</v>
       </c>
       <c r="E2346" s="1" t="s">
         <v>6794</v>
@@ -89927,7 +89927,7 @@
         <v>7</v>
       </c>
       <c r="D2348" s="1" t="s">
-        <v>9216</v>
+        <v>9215</v>
       </c>
       <c r="E2348" s="1" t="s">
         <v>5920</v>
@@ -89947,7 +89947,7 @@
         <v>4445</v>
       </c>
       <c r="D2349" t="s">
-        <v>9399</v>
+        <v>9398</v>
       </c>
       <c r="E2349" t="s">
         <v>7059</v>
@@ -89967,7 +89967,7 @@
         <v>4445</v>
       </c>
       <c r="D2350" s="1" t="s">
-        <v>9398</v>
+        <v>9397</v>
       </c>
       <c r="E2350" s="1" t="s">
         <v>7056</v>
@@ -90021,7 +90021,7 @@
         <v>974</v>
       </c>
       <c r="D2353" s="1" t="s">
-        <v>9369</v>
+        <v>9368</v>
       </c>
       <c r="E2353" s="1" t="s">
         <v>6948</v>
@@ -90092,7 +90092,7 @@
         <v>7</v>
       </c>
       <c r="D2357" s="1" t="s">
-        <v>9217</v>
+        <v>9216</v>
       </c>
       <c r="E2357" s="1" t="s">
         <v>5926</v>
@@ -90446,7 +90446,7 @@
         <v>4373</v>
       </c>
       <c r="D2375" s="1" t="s">
-        <v>9094</v>
+        <v>9093</v>
       </c>
       <c r="E2375" s="1" t="s">
         <v>4385</v>
@@ -90466,7 +90466,7 @@
         <v>4373</v>
       </c>
       <c r="D2376" s="1" t="s">
-        <v>9094</v>
+        <v>9093</v>
       </c>
       <c r="E2376" s="1" t="s">
         <v>4385</v>
@@ -90566,7 +90566,7 @@
         <v>4373</v>
       </c>
       <c r="D2381" s="1" t="s">
-        <v>9517</v>
+        <v>9516</v>
       </c>
       <c r="E2381" s="1" t="s">
         <v>4388</v>
@@ -90683,7 +90683,7 @@
         <v>7150</v>
       </c>
       <c r="D2387" s="1" t="s">
-        <v>9428</v>
+        <v>9427</v>
       </c>
       <c r="E2387" s="1" t="s">
         <v>7151</v>
@@ -90700,7 +90700,7 @@
         <v>7</v>
       </c>
       <c r="D2388" s="1" t="s">
-        <v>9218</v>
+        <v>9217</v>
       </c>
       <c r="E2388" s="1" t="s">
         <v>5932</v>
@@ -90737,7 +90737,7 @@
         <v>7</v>
       </c>
       <c r="D2390" s="4" t="s">
-        <v>9219</v>
+        <v>9218</v>
       </c>
       <c r="E2390" s="4" t="s">
         <v>5935</v>
@@ -90794,7 +90794,7 @@
         <v>7</v>
       </c>
       <c r="D2393" s="1" t="s">
-        <v>9220</v>
+        <v>9219</v>
       </c>
       <c r="E2393" s="1" t="s">
         <v>5938</v>
@@ -90831,7 +90831,7 @@
         <v>7</v>
       </c>
       <c r="D2395" s="1" t="s">
-        <v>9221</v>
+        <v>9220</v>
       </c>
       <c r="E2395" s="1" t="s">
         <v>5941</v>
@@ -90868,7 +90868,7 @@
         <v>7</v>
       </c>
       <c r="D2397" s="1" t="s">
-        <v>9222</v>
+        <v>9221</v>
       </c>
       <c r="E2397" s="1" t="s">
         <v>5944</v>
@@ -90945,7 +90945,7 @@
         <v>7</v>
       </c>
       <c r="D2401" s="1" t="s">
-        <v>9223</v>
+        <v>9222</v>
       </c>
       <c r="E2401" s="1" t="s">
         <v>5947</v>
@@ -91002,7 +91002,7 @@
         <v>7</v>
       </c>
       <c r="D2404" s="1" t="s">
-        <v>9225</v>
+        <v>9224</v>
       </c>
       <c r="E2404" s="1" t="s">
         <v>5952</v>
@@ -91019,7 +91019,7 @@
         <v>3380</v>
       </c>
       <c r="D2405" s="1" t="s">
-        <v>9357</v>
+        <v>9356</v>
       </c>
       <c r="E2405" s="1" t="s">
         <v>6921</v>
@@ -91150,7 +91150,7 @@
         <v>7</v>
       </c>
       <c r="D2412" s="1" t="s">
-        <v>9226</v>
+        <v>9225</v>
       </c>
       <c r="E2412" s="1" t="s">
         <v>5960</v>
@@ -91167,7 +91167,7 @@
         <v>46</v>
       </c>
       <c r="D2413" s="1" t="s">
-        <v>9227</v>
+        <v>9226</v>
       </c>
       <c r="E2413" s="1" t="s">
         <v>3459</v>
@@ -91221,7 +91221,7 @@
         <v>7</v>
       </c>
       <c r="D2416" s="1" t="s">
-        <v>9228</v>
+        <v>9227</v>
       </c>
       <c r="E2416" s="1" t="s">
         <v>5965</v>
@@ -91315,7 +91315,7 @@
         <v>7</v>
       </c>
       <c r="D2421" s="1" t="s">
-        <v>9229</v>
+        <v>9228</v>
       </c>
       <c r="E2421" s="1" t="s">
         <v>5969</v>
@@ -91332,7 +91332,7 @@
         <v>7</v>
       </c>
       <c r="D2422" s="1" t="s">
-        <v>9230</v>
+        <v>9229</v>
       </c>
       <c r="E2422" s="1" t="s">
         <v>5972</v>
@@ -91366,7 +91366,7 @@
         <v>7</v>
       </c>
       <c r="D2424" s="1" t="s">
-        <v>9231</v>
+        <v>9230</v>
       </c>
       <c r="E2424" s="1" t="s">
         <v>5975</v>
@@ -91383,7 +91383,7 @@
         <v>7</v>
       </c>
       <c r="D2425" s="1" t="s">
-        <v>9232</v>
+        <v>9231</v>
       </c>
       <c r="E2425" s="1" t="s">
         <v>5978</v>
@@ -91520,7 +91520,7 @@
         <v>46</v>
       </c>
       <c r="D2432" s="1" t="s">
-        <v>9233</v>
+        <v>9232</v>
       </c>
       <c r="E2432" s="1" t="s">
         <v>5985</v>
@@ -91537,7 +91537,7 @@
         <v>3234</v>
       </c>
       <c r="D2433" s="1" t="s">
-        <v>9234</v>
+        <v>9233</v>
       </c>
       <c r="E2433" s="1" t="s">
         <v>5987</v>
@@ -91554,7 +91554,7 @@
         <v>7</v>
       </c>
       <c r="D2434" s="1" t="s">
-        <v>9235</v>
+        <v>9234</v>
       </c>
       <c r="E2434" s="1" t="s">
         <v>5992</v>
@@ -91625,7 +91625,7 @@
         <v>7</v>
       </c>
       <c r="D2438" s="1" t="s">
-        <v>9236</v>
+        <v>9235</v>
       </c>
       <c r="E2438" s="1" t="s">
         <v>5995</v>
@@ -91642,7 +91642,7 @@
         <v>46</v>
       </c>
       <c r="D2439" s="1" t="s">
-        <v>9185</v>
+        <v>9184</v>
       </c>
       <c r="E2439" s="1" t="s">
         <v>5827</v>
@@ -91679,7 +91679,7 @@
         <v>710</v>
       </c>
       <c r="D2441" s="1" t="s">
-        <v>9518</v>
+        <v>9517</v>
       </c>
       <c r="E2441" s="1" t="s">
         <v>6638</v>
@@ -91699,7 +91699,7 @@
         <v>710</v>
       </c>
       <c r="D2442" s="1" t="s">
-        <v>9519</v>
+        <v>9518</v>
       </c>
       <c r="E2442" s="1" t="s">
         <v>6632</v>
@@ -91719,7 +91719,7 @@
         <v>710</v>
       </c>
       <c r="D2443" s="1" t="s">
-        <v>9520</v>
+        <v>9519</v>
       </c>
       <c r="E2443" s="1" t="s">
         <v>6635</v>
@@ -91736,7 +91736,7 @@
         <v>7</v>
       </c>
       <c r="D2444" s="1" t="s">
-        <v>9237</v>
+        <v>9236</v>
       </c>
       <c r="E2444" s="1" t="s">
         <v>5998</v>
@@ -91753,7 +91753,7 @@
         <v>7</v>
       </c>
       <c r="D2445" s="1" t="s">
-        <v>9238</v>
+        <v>9237</v>
       </c>
       <c r="E2445" s="1" t="s">
         <v>6001</v>
@@ -91770,7 +91770,7 @@
         <v>7</v>
       </c>
       <c r="D2446" s="1" t="s">
-        <v>9239</v>
+        <v>9238</v>
       </c>
       <c r="E2446" s="1" t="s">
         <v>6004</v>
@@ -91787,7 +91787,7 @@
         <v>7</v>
       </c>
       <c r="D2447" s="1" t="s">
-        <v>9240</v>
+        <v>9239</v>
       </c>
       <c r="E2447" s="1" t="s">
         <v>6007</v>
@@ -91984,7 +91984,7 @@
         <v>1378</v>
       </c>
       <c r="D2457" s="4" t="s">
-        <v>9440</v>
+        <v>9439</v>
       </c>
       <c r="E2457" s="4" t="s">
         <v>7191</v>
@@ -92121,7 +92121,7 @@
         <v>7</v>
       </c>
       <c r="D2464" s="1" t="s">
-        <v>9241</v>
+        <v>9240</v>
       </c>
       <c r="E2464" s="1" t="s">
         <v>6010</v>
@@ -93492,7 +93492,7 @@
         <v>7</v>
       </c>
       <c r="D2533" s="1" t="s">
-        <v>9243</v>
+        <v>9242</v>
       </c>
       <c r="E2533" s="1" t="s">
         <v>6016</v>
@@ -93569,7 +93569,7 @@
         <v>2795</v>
       </c>
       <c r="D2537" s="1" t="s">
-        <v>9521</v>
+        <v>9520</v>
       </c>
       <c r="E2537" s="1" t="s">
         <v>22</v>
@@ -93743,7 +93743,7 @@
         <v>7</v>
       </c>
       <c r="D2546" s="1" t="s">
-        <v>9245</v>
+        <v>9244</v>
       </c>
       <c r="E2546" s="1" t="s">
         <v>6023</v>
@@ -93800,7 +93800,7 @@
         <v>7</v>
       </c>
       <c r="D2549" s="1" t="s">
-        <v>9246</v>
+        <v>9245</v>
       </c>
       <c r="E2549" s="1" t="s">
         <v>6026</v>
@@ -93871,7 +93871,7 @@
         <v>252</v>
       </c>
       <c r="D2553" s="1" t="s">
-        <v>9411</v>
+        <v>9410</v>
       </c>
       <c r="E2553" s="1" t="s">
         <v>7096</v>
@@ -94002,7 +94002,7 @@
         <v>3780</v>
       </c>
       <c r="D2560" s="1" t="s">
-        <v>9522</v>
+        <v>9521</v>
       </c>
       <c r="E2560" s="1" t="s">
         <v>3790</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103DA889-BCCA-413B-9788-9C15C2A849D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4736E3C3-5868-498D-B195-76ACBC2CA024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="6420" windowWidth="17790" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -44413,9 +44413,6 @@
     <t>Receita de #1 (#2)</t>
   </si>
   <si>
-    <t>〇</t>
-  </si>
-  <si>
     <t>Filtro de Palavras</t>
   </si>
   <si>
@@ -44979,6 +44976,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (+#1 outro(s) item(ns))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ </t>
   </si>
 </sst>
 </file>
@@ -45171,8 +45171,8 @@
   <dimension ref="A1:F2561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1680" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1692" sqref="D1692"/>
+      <pane ySplit="2" topLeftCell="A2169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2181" sqref="D2181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -45214,7 +45214,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9535</v>
+        <v>9534</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -45234,7 +45234,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9522</v>
+        <v>9521</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -45254,7 +45254,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9522</v>
+        <v>9521</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -45274,7 +45274,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9525</v>
+        <v>9524</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -45625,7 +45625,7 @@
         <v>1335</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9470</v>
+        <v>9469</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8848</v>
@@ -45779,7 +45779,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9467</v>
+        <v>9466</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>54</v>
@@ -46013,7 +46013,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9526</v>
+        <v>9525</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>138</v>
@@ -46124,7 +46124,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9538</v>
+        <v>9537</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>69</v>
@@ -46144,7 +46144,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9468</v>
+        <v>9467</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -46244,7 +46244,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9524</v>
+        <v>9523</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>78</v>
@@ -46318,7 +46318,7 @@
         <v>981</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9527</v>
+        <v>9526</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>982</v>
@@ -46355,7 +46355,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>9471</v>
+        <v>9470</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>8854</v>
@@ -46375,7 +46375,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>9537</v>
+        <v>9536</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>88</v>
@@ -46503,7 +46503,7 @@
         <v>4753</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9472</v>
+        <v>9471</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4754</v>
@@ -46566,7 +46566,7 @@
         <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>9530</v>
+        <v>9529</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -46605,7 +46605,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>4776</v>
@@ -46625,7 +46625,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>9536</v>
+        <v>9535</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>90</v>
@@ -46671,7 +46671,7 @@
         <v>112</v>
       </c>
       <c r="F79" t="s">
-        <v>9529</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -49186,7 +49186,7 @@
         <v>2626</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>9411</v>
+        <v>9410</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>7101</v>
@@ -49334,7 +49334,7 @@
         <v>15</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>9434</v>
+        <v>9433</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>7173</v>
@@ -49442,7 +49442,7 @@
         <v>7</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>9539</v>
+        <v>9538</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>4808</v>
@@ -50560,7 +50560,7 @@
         <v>6062</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>9476</v>
+        <v>9475</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>6072</v>
@@ -50577,7 +50577,7 @@
         <v>2626</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>9412</v>
+        <v>9411</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>7104</v>
@@ -50977,7 +50977,7 @@
         <v>281</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>9469</v>
+        <v>9468</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>8878</v>
@@ -51709,7 +51709,7 @@
         <v>6310</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>9468</v>
+        <v>9467</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>6314</v>
@@ -52173,7 +52173,7 @@
         <v>871</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>9534</v>
+        <v>9533</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>914</v>
@@ -52193,7 +52193,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>9528</v>
+        <v>9527</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>155</v>
@@ -53492,7 +53492,7 @@
         <v>2361</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>9473</v>
+        <v>9472</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>2362</v>
@@ -54398,7 +54398,7 @@
         <v>1069</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>9423</v>
+        <v>9422</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>7139</v>
@@ -55024,7 +55024,7 @@
         <v>1950</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>9420</v>
+        <v>9419</v>
       </c>
       <c r="E516" s="4" t="s">
         <v>7130</v>
@@ -55141,7 +55141,7 @@
         <v>2761</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>9477</v>
+        <v>9476</v>
       </c>
       <c r="E522" s="1" t="s">
         <v>8627</v>
@@ -55372,7 +55372,7 @@
         <v>7</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>9478</v>
+        <v>9477</v>
       </c>
       <c r="E534" s="1" t="s">
         <v>4981</v>
@@ -55446,7 +55446,7 @@
         <v>42</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>9479</v>
+        <v>9478</v>
       </c>
       <c r="E538" s="1" t="s">
         <v>6131</v>
@@ -55577,7 +55577,7 @@
         <v>3009</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>9403</v>
+        <v>9402</v>
       </c>
       <c r="E545" s="1" t="s">
         <v>7073</v>
@@ -55785,7 +55785,7 @@
         <v>1892</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>9543</v>
+        <v>9542</v>
       </c>
       <c r="E556" s="1" t="s">
         <v>8618</v>
@@ -57615,7 +57615,7 @@
         <v>1933</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>9542</v>
+        <v>9541</v>
       </c>
       <c r="E649" s="1" t="s">
         <v>914</v>
@@ -58082,7 +58082,7 @@
         <v>6641</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>9544</v>
+        <v>9543</v>
       </c>
       <c r="E674" s="1" t="s">
         <v>9266</v>
@@ -58190,7 +58190,7 @@
         <v>462</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>9406</v>
+        <v>9405</v>
       </c>
       <c r="E680" s="1" t="s">
         <v>7082</v>
@@ -59652,7 +59652,7 @@
         <v>5018</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>9399</v>
+        <v>9398</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>7061</v>
@@ -59669,7 +59669,7 @@
         <v>5018</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>9400</v>
+        <v>9399</v>
       </c>
       <c r="E755" s="1" t="s">
         <v>7064</v>
@@ -59686,7 +59686,7 @@
         <v>445</v>
       </c>
       <c r="D756" s="4" t="s">
-        <v>9401</v>
+        <v>9400</v>
       </c>
       <c r="E756" s="4" t="s">
         <v>7067</v>
@@ -59851,7 +59851,7 @@
         <v>7150</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>9428</v>
+        <v>9427</v>
       </c>
       <c r="E765" s="1" t="s">
         <v>7154</v>
@@ -60241,7 +60241,7 @@
         <v>1340</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>9447</v>
+        <v>9446</v>
       </c>
       <c r="E786" s="1" t="s">
         <v>7216</v>
@@ -61016,7 +61016,7 @@
         <v>256</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>9425</v>
+        <v>9424</v>
       </c>
       <c r="E827" s="1" t="s">
         <v>7144</v>
@@ -61247,7 +61247,7 @@
         <v>7</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>9480</v>
+        <v>9479</v>
       </c>
       <c r="E839" s="1" t="s">
         <v>5154</v>
@@ -62380,7 +62380,7 @@
         <v>6924</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>9481</v>
+        <v>9480</v>
       </c>
       <c r="E900" s="1" t="s">
         <v>9357</v>
@@ -62414,7 +62414,7 @@
         <v>3380</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>9482</v>
+        <v>9481</v>
       </c>
       <c r="E902" s="1" t="s">
         <v>9359</v>
@@ -62485,7 +62485,7 @@
         <v>1946</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>9483</v>
+        <v>9482</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>2065</v>
@@ -62502,7 +62502,7 @@
         <v>15</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>9433</v>
+        <v>9432</v>
       </c>
       <c r="E907" s="1" t="s">
         <v>7170</v>
@@ -62687,7 +62687,7 @@
         <v>7117</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>9416</v>
+        <v>9415</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>7118</v>
@@ -63557,7 +63557,7 @@
         <v>15</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>9436</v>
+        <v>9435</v>
       </c>
       <c r="E962" s="1" t="s">
         <v>7179</v>
@@ -63574,7 +63574,7 @@
         <v>15</v>
       </c>
       <c r="D963" s="1" t="s">
-        <v>9437</v>
+        <v>9436</v>
       </c>
       <c r="E963" s="1" t="s">
         <v>7182</v>
@@ -63591,7 +63591,7 @@
         <v>15</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>9435</v>
+        <v>9434</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>7176</v>
@@ -63668,7 +63668,7 @@
         <v>1950</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>9424</v>
+        <v>9423</v>
       </c>
       <c r="E968" s="1" t="s">
         <v>7136</v>
@@ -63899,7 +63899,7 @@
         <v>248</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>9409</v>
+        <v>9408</v>
       </c>
       <c r="E980" s="1" t="s">
         <v>7091</v>
@@ -63950,7 +63950,7 @@
         <v>7107</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>9413</v>
+        <v>9412</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>7108</v>
@@ -63967,7 +63967,7 @@
         <v>7107</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>9415</v>
+        <v>9414</v>
       </c>
       <c r="E984" s="1" t="s">
         <v>7114</v>
@@ -63984,7 +63984,7 @@
         <v>7107</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>9414</v>
+        <v>9413</v>
       </c>
       <c r="E985" s="1" t="s">
         <v>7111</v>
@@ -64018,7 +64018,7 @@
         <v>6372</v>
       </c>
       <c r="D987" t="s">
-        <v>9484</v>
+        <v>9483</v>
       </c>
       <c r="E987" t="s">
         <v>7037</v>
@@ -64035,7 +64035,7 @@
         <v>391</v>
       </c>
       <c r="D988" s="1" t="s">
-        <v>9485</v>
+        <v>9484</v>
       </c>
       <c r="E988" s="1" t="s">
         <v>9391</v>
@@ -65553,7 +65553,7 @@
         <v>2795</v>
       </c>
       <c r="D1069" s="1" t="s">
-        <v>9486</v>
+        <v>9485</v>
       </c>
       <c r="E1069" s="1" t="s">
         <v>8629</v>
@@ -65593,7 +65593,7 @@
         <v>2569</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>9487</v>
+        <v>9486</v>
       </c>
       <c r="E1071" s="1" t="s">
         <v>2612</v>
@@ -65747,7 +65747,7 @@
         <v>217</v>
       </c>
       <c r="D1079" s="4" t="s">
-        <v>9489</v>
+        <v>9488</v>
       </c>
       <c r="E1079" s="4" t="s">
         <v>6751</v>
@@ -65764,7 +65764,7 @@
         <v>93</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>9488</v>
+        <v>9487</v>
       </c>
       <c r="E1080" s="1" t="s">
         <v>6742</v>
@@ -65911,7 +65911,7 @@
         <v>871</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>9541</v>
+        <v>9540</v>
       </c>
       <c r="E1089" s="1" t="s">
         <v>972</v>
@@ -66406,7 +66406,7 @@
         <v>2670</v>
       </c>
       <c r="D1116" t="s">
-        <v>9490</v>
+        <v>9489</v>
       </c>
       <c r="E1116" t="s">
         <v>2690</v>
@@ -66945,7 +66945,7 @@
         <v>720</v>
       </c>
       <c r="D1144" s="1" t="s">
-        <v>9491</v>
+        <v>9490</v>
       </c>
       <c r="E1144" s="1" t="s">
         <v>825</v>
@@ -67122,7 +67122,7 @@
         <v>1537</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>9492</v>
+        <v>9491</v>
       </c>
       <c r="E1153" s="1" t="s">
         <v>8631</v>
@@ -68907,7 +68907,7 @@
         <v>3283</v>
       </c>
       <c r="D1246" s="1" t="s">
-        <v>9493</v>
+        <v>9492</v>
       </c>
       <c r="E1246" s="1" t="s">
         <v>3329</v>
@@ -69652,7 +69652,7 @@
         <v>2957</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>9494</v>
+        <v>9493</v>
       </c>
       <c r="E1284" s="1" t="s">
         <v>3055</v>
@@ -69672,7 +69672,7 @@
         <v>2957</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>9495</v>
+        <v>9494</v>
       </c>
       <c r="E1285" s="1" t="s">
         <v>8633</v>
@@ -69912,7 +69912,7 @@
         <v>2957</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>9496</v>
+        <v>9495</v>
       </c>
       <c r="E1297" s="1" t="s">
         <v>3086</v>
@@ -70086,7 +70086,7 @@
         <v>2957</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>9497</v>
+        <v>9496</v>
       </c>
       <c r="E1306" s="1" t="s">
         <v>3138</v>
@@ -72028,7 +72028,7 @@
         <v>1892</v>
       </c>
       <c r="D1404" s="1" t="s">
-        <v>9498</v>
+        <v>9497</v>
       </c>
       <c r="E1404" s="1" t="s">
         <v>8623</v>
@@ -72142,7 +72142,7 @@
         <v>3445</v>
       </c>
       <c r="D1410" s="1" t="s">
-        <v>9499</v>
+        <v>9498</v>
       </c>
       <c r="E1410" s="1" t="s">
         <v>3489</v>
@@ -72162,7 +72162,7 @@
         <v>3445</v>
       </c>
       <c r="D1411" s="1" t="s">
-        <v>9500</v>
+        <v>9499</v>
       </c>
       <c r="E1411" s="1" t="s">
         <v>3492</v>
@@ -72182,7 +72182,7 @@
         <v>3445</v>
       </c>
       <c r="D1412" s="1" t="s">
-        <v>9501</v>
+        <v>9500</v>
       </c>
       <c r="E1412" s="1" t="s">
         <v>3496</v>
@@ -72573,7 +72573,7 @@
         <v>4283</v>
       </c>
       <c r="D1432" s="1" t="s">
-        <v>9502</v>
+        <v>9501</v>
       </c>
       <c r="E1432" s="1" t="s">
         <v>4295</v>
@@ -73023,7 +73023,7 @@
         <v>7</v>
       </c>
       <c r="D1456" s="1" t="s">
-        <v>9503</v>
+        <v>9502</v>
       </c>
       <c r="E1456" s="1" t="s">
         <v>5388</v>
@@ -73194,7 +73194,7 @@
         <v>2569</v>
       </c>
       <c r="D1465" s="1" t="s">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="E1465" s="1" t="s">
         <v>2627</v>
@@ -73268,7 +73268,7 @@
         <v>2569</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>9505</v>
+        <v>9504</v>
       </c>
       <c r="E1469" s="1" t="s">
         <v>2630</v>
@@ -73305,7 +73305,7 @@
         <v>2569</v>
       </c>
       <c r="D1471" s="1" t="s">
-        <v>9506</v>
+        <v>9505</v>
       </c>
       <c r="E1471" s="1" t="s">
         <v>2633</v>
@@ -74234,7 +74234,7 @@
         <v>681</v>
       </c>
       <c r="D1520" s="1" t="s">
-        <v>9419</v>
+        <v>9418</v>
       </c>
       <c r="E1520" s="1" t="s">
         <v>7127</v>
@@ -74504,7 +74504,7 @@
         <v>1407</v>
       </c>
       <c r="D1535" s="1" t="s">
-        <v>9402</v>
+        <v>9401</v>
       </c>
       <c r="E1535" s="1" t="s">
         <v>7070</v>
@@ -74709,13 +74709,13 @@
         <v>391</v>
       </c>
       <c r="D1546" s="1" t="s">
-        <v>9475</v>
+        <v>9474</v>
       </c>
       <c r="E1546" s="1" t="s">
         <v>7017</v>
       </c>
       <c r="F1546" s="1" t="s">
-        <v>9474</v>
+        <v>9473</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -74786,7 +74786,7 @@
         <v>256</v>
       </c>
       <c r="D1550" s="1" t="s">
-        <v>9426</v>
+        <v>9425</v>
       </c>
       <c r="E1550" s="1" t="s">
         <v>7147</v>
@@ -74823,7 +74823,7 @@
         <v>4157</v>
       </c>
       <c r="D1552" s="1" t="s">
-        <v>9407</v>
+        <v>9406</v>
       </c>
       <c r="E1552" s="1" t="s">
         <v>7085</v>
@@ -77314,7 +77314,7 @@
         <v>968</v>
       </c>
       <c r="D1683" s="1" t="s">
-        <v>9430</v>
+        <v>9429</v>
       </c>
       <c r="E1683" s="1" t="s">
         <v>7161</v>
@@ -77482,7 +77482,7 @@
         <v>7</v>
       </c>
       <c r="D1692" s="1" t="s">
-        <v>9545</v>
+        <v>9544</v>
       </c>
       <c r="E1692" s="1" t="s">
         <v>5536</v>
@@ -77647,7 +77647,7 @@
         <v>3009</v>
       </c>
       <c r="D1701" s="1" t="s">
-        <v>9404</v>
+        <v>9403</v>
       </c>
       <c r="E1701" s="1" t="s">
         <v>7076</v>
@@ -78509,7 +78509,7 @@
         <v>441</v>
       </c>
       <c r="D1745" s="1" t="s">
-        <v>9438</v>
+        <v>9437</v>
       </c>
       <c r="E1745" s="1" t="s">
         <v>7188</v>
@@ -78526,7 +78526,7 @@
         <v>462</v>
       </c>
       <c r="D1746" s="1" t="s">
-        <v>9405</v>
+        <v>9404</v>
       </c>
       <c r="E1746" s="1" t="s">
         <v>7079</v>
@@ -78919,7 +78919,7 @@
         <v>5131</v>
       </c>
       <c r="D1767" s="1" t="s">
-        <v>9429</v>
+        <v>9428</v>
       </c>
       <c r="E1767" s="1" t="s">
         <v>7158</v>
@@ -78959,7 +78959,7 @@
         <v>6062</v>
       </c>
       <c r="D1769" s="1" t="s">
-        <v>9531</v>
+        <v>9530</v>
       </c>
       <c r="E1769" s="1" t="s">
         <v>174</v>
@@ -79076,7 +79076,7 @@
         <v>1340</v>
       </c>
       <c r="D1775" s="1" t="s">
-        <v>9440</v>
+        <v>9439</v>
       </c>
       <c r="E1775" s="1" t="s">
         <v>7195</v>
@@ -79093,7 +79093,7 @@
         <v>6600</v>
       </c>
       <c r="D1776" s="1" t="s">
-        <v>9441</v>
+        <v>9440</v>
       </c>
       <c r="E1776" s="1" t="s">
         <v>7198</v>
@@ -79110,7 +79110,7 @@
         <v>6600</v>
       </c>
       <c r="D1777" s="1" t="s">
-        <v>9443</v>
+        <v>9442</v>
       </c>
       <c r="E1777" s="1" t="s">
         <v>7204</v>
@@ -79127,7 +79127,7 @@
         <v>6600</v>
       </c>
       <c r="D1778" s="1" t="s">
-        <v>9444</v>
+        <v>9443</v>
       </c>
       <c r="E1778" s="1" t="s">
         <v>7207</v>
@@ -79144,7 +79144,7 @@
         <v>1703</v>
       </c>
       <c r="D1779" s="1" t="s">
-        <v>9455</v>
+        <v>9454</v>
       </c>
       <c r="E1779" s="1" t="s">
         <v>7236</v>
@@ -79161,7 +79161,7 @@
         <v>1703</v>
       </c>
       <c r="D1780" s="4" t="s">
-        <v>9456</v>
+        <v>9455</v>
       </c>
       <c r="E1780" s="4" t="s">
         <v>7239</v>
@@ -79178,7 +79178,7 @@
         <v>6600</v>
       </c>
       <c r="D1781" s="1" t="s">
-        <v>9452</v>
+        <v>9451</v>
       </c>
       <c r="E1781" s="1" t="s">
         <v>7227</v>
@@ -79229,7 +79229,7 @@
         <v>6600</v>
       </c>
       <c r="D1784" s="1" t="s">
-        <v>9448</v>
+        <v>9447</v>
       </c>
       <c r="E1784" s="1" t="s">
         <v>7219</v>
@@ -79263,7 +79263,7 @@
         <v>6600</v>
       </c>
       <c r="D1786" s="1" t="s">
-        <v>9451</v>
+        <v>9450</v>
       </c>
       <c r="E1786" s="1" t="s">
         <v>7224</v>
@@ -79280,7 +79280,7 @@
         <v>6600</v>
       </c>
       <c r="D1787" s="1" t="s">
-        <v>9446</v>
+        <v>9445</v>
       </c>
       <c r="E1787" s="1" t="s">
         <v>7213</v>
@@ -79297,7 +79297,7 @@
         <v>6600</v>
       </c>
       <c r="D1788" s="1" t="s">
-        <v>9445</v>
+        <v>9444</v>
       </c>
       <c r="E1788" s="1" t="s">
         <v>7210</v>
@@ -79314,7 +79314,7 @@
         <v>6600</v>
       </c>
       <c r="D1789" s="1" t="s">
-        <v>9453</v>
+        <v>9452</v>
       </c>
       <c r="E1789" s="1" t="s">
         <v>7230</v>
@@ -79331,7 +79331,7 @@
         <v>1703</v>
       </c>
       <c r="D1790" s="1" t="s">
-        <v>9454</v>
+        <v>9453</v>
       </c>
       <c r="E1790" s="1" t="s">
         <v>7233</v>
@@ -79348,7 +79348,7 @@
         <v>6600</v>
       </c>
       <c r="D1791" s="1" t="s">
-        <v>9442</v>
+        <v>9441</v>
       </c>
       <c r="E1791" s="1" t="s">
         <v>7201</v>
@@ -79382,10 +79382,10 @@
         <v>6600</v>
       </c>
       <c r="D1793" s="1" t="s">
+        <v>9448</v>
+      </c>
+      <c r="E1793" s="1" t="s">
         <v>9449</v>
-      </c>
-      <c r="E1793" s="1" t="s">
-        <v>9450</v>
       </c>
       <c r="F1793" t="s">
         <v>7222</v>
@@ -79698,7 +79698,7 @@
         <v>3829</v>
       </c>
       <c r="D1810" s="1" t="s">
-        <v>9457</v>
+        <v>9456</v>
       </c>
       <c r="E1810" s="1" t="s">
         <v>4009</v>
@@ -79718,7 +79718,7 @@
         <v>3829</v>
       </c>
       <c r="D1811" s="1" t="s">
-        <v>9458</v>
+        <v>9457</v>
       </c>
       <c r="E1811" s="1" t="s">
         <v>4032</v>
@@ -79738,7 +79738,7 @@
         <v>3829</v>
       </c>
       <c r="D1812" s="1" t="s">
-        <v>9459</v>
+        <v>9458</v>
       </c>
       <c r="E1812" s="1" t="s">
         <v>4012</v>
@@ -79758,7 +79758,7 @@
         <v>3829</v>
       </c>
       <c r="D1813" s="1" t="s">
-        <v>9460</v>
+        <v>9459</v>
       </c>
       <c r="E1813" s="1" t="s">
         <v>4015</v>
@@ -79778,7 +79778,7 @@
         <v>3829</v>
       </c>
       <c r="D1814" s="1" t="s">
-        <v>9461</v>
+        <v>9460</v>
       </c>
       <c r="E1814" s="1" t="s">
         <v>4018</v>
@@ -79798,7 +79798,7 @@
         <v>3829</v>
       </c>
       <c r="D1815" s="1" t="s">
-        <v>9462</v>
+        <v>9461</v>
       </c>
       <c r="E1815" s="1" t="s">
         <v>4035</v>
@@ -79818,7 +79818,7 @@
         <v>3829</v>
       </c>
       <c r="D1816" s="1" t="s">
-        <v>9463</v>
+        <v>9462</v>
       </c>
       <c r="E1816" s="1" t="s">
         <v>4020</v>
@@ -80486,7 +80486,7 @@
         <v>4241</v>
       </c>
       <c r="D1850" s="1" t="s">
-        <v>9532</v>
+        <v>9531</v>
       </c>
       <c r="E1850" s="1" t="s">
         <v>174</v>
@@ -80717,7 +80717,7 @@
         <v>174</v>
       </c>
       <c r="F1862" s="1" t="s">
-        <v>9533</v>
+        <v>9532</v>
       </c>
     </row>
     <row r="1863" spans="1:6">
@@ -83242,7 +83242,7 @@
         <v>2807</v>
       </c>
       <c r="D1995" s="1" t="s">
-        <v>9464</v>
+        <v>9463</v>
       </c>
       <c r="E1995" s="1" t="s">
         <v>4111</v>
@@ -83841,7 +83841,7 @@
         <v>137</v>
       </c>
       <c r="D2026" s="1" t="s">
-        <v>9465</v>
+        <v>9464</v>
       </c>
       <c r="E2026" s="1" t="s">
         <v>6486</v>
@@ -84177,7 +84177,7 @@
         <v>6898</v>
       </c>
       <c r="D2044" s="1" t="s">
-        <v>9507</v>
+        <v>9506</v>
       </c>
       <c r="E2044" s="1" t="s">
         <v>9354</v>
@@ -84274,7 +84274,7 @@
         <v>6898</v>
       </c>
       <c r="D2049" s="1" t="s">
-        <v>9508</v>
+        <v>9507</v>
       </c>
       <c r="E2049" s="1" t="s">
         <v>9352</v>
@@ -84371,7 +84371,7 @@
         <v>15</v>
       </c>
       <c r="D2054" s="1" t="s">
-        <v>9431</v>
+        <v>9430</v>
       </c>
       <c r="E2054" s="1" t="s">
         <v>7164</v>
@@ -84388,7 +84388,7 @@
         <v>15</v>
       </c>
       <c r="D2055" s="1" t="s">
-        <v>9432</v>
+        <v>9431</v>
       </c>
       <c r="E2055" s="1" t="s">
         <v>7167</v>
@@ -84999,7 +84999,7 @@
         <v>6924</v>
       </c>
       <c r="D2086" s="1" t="s">
-        <v>9408</v>
+        <v>9407</v>
       </c>
       <c r="E2086" s="1" t="s">
         <v>7088</v>
@@ -85130,7 +85130,7 @@
         <v>9278</v>
       </c>
       <c r="E2093" s="1" t="s">
-        <v>9509</v>
+        <v>9508</v>
       </c>
       <c r="F2093" t="s">
         <v>6674</v>
@@ -85235,7 +85235,7 @@
         <v>117</v>
       </c>
       <c r="D2099" s="1" t="s">
-        <v>9510</v>
+        <v>9509</v>
       </c>
       <c r="E2099" s="1" t="s">
         <v>6329</v>
@@ -85842,7 +85842,7 @@
         <v>6610</v>
       </c>
       <c r="D2131" s="1" t="s">
-        <v>9511</v>
+        <v>9510</v>
       </c>
       <c r="E2131" s="1" t="s">
         <v>6614</v>
@@ -86537,7 +86537,7 @@
         <v>7</v>
       </c>
       <c r="D2168" s="1" t="s">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="E2168" s="1" t="s">
         <v>9165</v>
@@ -86554,7 +86554,7 @@
         <v>7</v>
       </c>
       <c r="D2169" s="1" t="s">
-        <v>9513</v>
+        <v>9512</v>
       </c>
       <c r="E2169" s="1" t="s">
         <v>9167</v>
@@ -86571,7 +86571,7 @@
         <v>7</v>
       </c>
       <c r="D2170" s="1" t="s">
-        <v>9514</v>
+        <v>9513</v>
       </c>
       <c r="E2170" s="1" t="s">
         <v>9169</v>
@@ -88387,7 +88387,7 @@
         <v>3085</v>
       </c>
       <c r="D2265" s="1" t="s">
-        <v>9417</v>
+        <v>9416</v>
       </c>
       <c r="E2265" s="1" t="s">
         <v>7121</v>
@@ -88404,7 +88404,7 @@
         <v>3085</v>
       </c>
       <c r="D2266" s="1" t="s">
-        <v>9418</v>
+        <v>9417</v>
       </c>
       <c r="E2266" s="1" t="s">
         <v>7124</v>
@@ -88649,7 +88649,7 @@
         <v>2957</v>
       </c>
       <c r="D2279" s="1" t="s">
-        <v>9466</v>
+        <v>9465</v>
       </c>
       <c r="E2279" s="1" t="s">
         <v>3225</v>
@@ -88740,7 +88740,7 @@
         <v>3445</v>
       </c>
       <c r="D2284" s="1" t="s">
-        <v>9540</v>
+        <v>9539</v>
       </c>
       <c r="E2284" s="1" t="s">
         <v>3571</v>
@@ -88777,7 +88777,7 @@
         <v>692</v>
       </c>
       <c r="D2286" s="1" t="s">
-        <v>9515</v>
+        <v>9514</v>
       </c>
       <c r="E2286" s="1" t="s">
         <v>693</v>
@@ -89059,7 +89059,7 @@
         <v>1950</v>
       </c>
       <c r="D2301" s="1" t="s">
-        <v>9422</v>
+        <v>9421</v>
       </c>
       <c r="E2301" s="1" t="s">
         <v>7136</v>
@@ -89244,7 +89244,7 @@
         <v>1950</v>
       </c>
       <c r="D2311" s="1" t="s">
-        <v>9421</v>
+        <v>9420</v>
       </c>
       <c r="E2311" s="1" t="s">
         <v>7133</v>
@@ -89947,7 +89947,7 @@
         <v>4445</v>
       </c>
       <c r="D2349" t="s">
-        <v>9398</v>
+        <v>9545</v>
       </c>
       <c r="E2349" t="s">
         <v>7059</v>
@@ -90566,7 +90566,7 @@
         <v>4373</v>
       </c>
       <c r="D2381" s="1" t="s">
-        <v>9516</v>
+        <v>9515</v>
       </c>
       <c r="E2381" s="1" t="s">
         <v>4388</v>
@@ -90683,7 +90683,7 @@
         <v>7150</v>
       </c>
       <c r="D2387" s="1" t="s">
-        <v>9427</v>
+        <v>9426</v>
       </c>
       <c r="E2387" s="1" t="s">
         <v>7151</v>
@@ -91679,7 +91679,7 @@
         <v>710</v>
       </c>
       <c r="D2441" s="1" t="s">
-        <v>9517</v>
+        <v>9516</v>
       </c>
       <c r="E2441" s="1" t="s">
         <v>6638</v>
@@ -91699,7 +91699,7 @@
         <v>710</v>
       </c>
       <c r="D2442" s="1" t="s">
-        <v>9518</v>
+        <v>9517</v>
       </c>
       <c r="E2442" s="1" t="s">
         <v>6632</v>
@@ -91719,7 +91719,7 @@
         <v>710</v>
       </c>
       <c r="D2443" s="1" t="s">
-        <v>9519</v>
+        <v>9518</v>
       </c>
       <c r="E2443" s="1" t="s">
         <v>6635</v>
@@ -91984,7 +91984,7 @@
         <v>1378</v>
       </c>
       <c r="D2457" s="4" t="s">
-        <v>9439</v>
+        <v>9438</v>
       </c>
       <c r="E2457" s="4" t="s">
         <v>7191</v>
@@ -93569,7 +93569,7 @@
         <v>2795</v>
       </c>
       <c r="D2537" s="1" t="s">
-        <v>9520</v>
+        <v>9519</v>
       </c>
       <c r="E2537" s="1" t="s">
         <v>22</v>
@@ -93871,7 +93871,7 @@
         <v>252</v>
       </c>
       <c r="D2553" s="1" t="s">
-        <v>9410</v>
+        <v>9409</v>
       </c>
       <c r="E2553" s="1" t="s">
         <v>7096</v>
@@ -94002,7 +94002,7 @@
         <v>3780</v>
       </c>
       <c r="D2560" s="1" t="s">
-        <v>9521</v>
+        <v>9520</v>
       </c>
       <c r="E2560" s="1" t="s">
         <v>3790</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB60D157-811A-4CCA-85F5-37CDED51976A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A01127-5A1E-407A-861A-4FB1DC464C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23925" windowHeight="13755" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14576" uniqueCount="9546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14576" uniqueCount="9545">
   <si>
     <t>id</t>
   </si>
@@ -44899,12 +44899,6 @@
     <t>D#3/M#2, A#1</t>
   </si>
   <si>
-    <t>#2 TT03 "#1"</t>
-  </si>
-  <si>
-    <t>#2 TT04 #1</t>
-  </si>
-  <si>
     <t xml:space="preserve">— Idade: #1 — </t>
   </si>
   <si>
@@ -44960,9 +44954,6 @@
     <t xml:space="preserve"> — (+#1 outro(s) item(ns))</t>
   </si>
   <si>
-    <t>#2 #3— x#1</t>
-  </si>
-  <si>
     <t>Remover Posse</t>
   </si>
   <si>
@@ -44979,6 +44970,12 @@
   </si>
   <si>
     <t>Redefinir Configurações de #1</t>
+  </si>
+  <si>
+    <t>#3 #2 — x#1</t>
+  </si>
+  <si>
+    <t>#2 de "#1"</t>
   </si>
 </sst>
 </file>
@@ -45171,8 +45168,8 @@
   <dimension ref="A1:F2561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2089" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2100" sqref="D2100"/>
+      <pane ySplit="2" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -45282,7 +45279,7 @@
         <v>2161</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9537</v>
+        <v>9535</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4946</v>
@@ -45299,7 +45296,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9538</v>
+        <v>9536</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5536</v>
@@ -45336,7 +45333,7 @@
         <v>871</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9523</v>
+        <v>9521</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>972</v>
@@ -45785,7 +45782,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9521</v>
+        <v>9519</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>4808</v>
@@ -46358,7 +46355,7 @@
         <v>1892</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>9525</v>
+        <v>9523</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>8609</v>
@@ -46654,7 +46651,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9530</v>
+        <v>9528</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>80</v>
@@ -46674,7 +46671,7 @@
         <v>1856</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>9544</v>
+        <v>9541</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>1857</v>
@@ -46734,7 +46731,7 @@
         <v>3445</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9522</v>
+        <v>9520</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>3571</v>
@@ -48123,7 +48120,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>9539</v>
+        <v>9543</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>90</v>
@@ -48343,7 +48340,7 @@
         <v>8</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>9542</v>
+        <v>9539</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>23</v>
@@ -48403,7 +48400,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>9519</v>
+        <v>9544</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>88</v>
@@ -48423,7 +48420,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>9520</v>
+        <v>9453</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>69</v>
@@ -48537,7 +48534,7 @@
         <v>1933</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>9524</v>
+        <v>9522</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>914</v>
@@ -49334,7 +49331,7 @@
         <v>6610</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>9534</v>
+        <v>9532</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>6614</v>
@@ -50459,7 +50456,7 @@
         <v>6641</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>9526</v>
+        <v>9524</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>9253</v>
@@ -50567,7 +50564,7 @@
         <v>8</v>
       </c>
       <c r="D287" t="s">
-        <v>9533</v>
+        <v>9531</v>
       </c>
       <c r="E287" t="s">
         <v>16</v>
@@ -51004,7 +51001,7 @@
         <v>46</v>
       </c>
       <c r="D312" t="s">
-        <v>9532</v>
+        <v>9530</v>
       </c>
       <c r="E312" t="s">
         <v>6129</v>
@@ -51024,7 +51021,7 @@
         <v>4445</v>
       </c>
       <c r="D313" t="s">
-        <v>9527</v>
+        <v>9525</v>
       </c>
       <c r="E313" t="s">
         <v>7059</v>
@@ -53021,7 +53018,7 @@
         <v>218</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>9528</v>
+        <v>9526</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>427</v>
@@ -58424,7 +58421,7 @@
         <v>3009</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>9543</v>
+        <v>9540</v>
       </c>
       <c r="E701" s="1" t="s">
         <v>7076</v>
@@ -59014,7 +59011,7 @@
         <v>7</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>9531</v>
+        <v>9529</v>
       </c>
       <c r="E732" s="1" t="s">
         <v>5809</v>
@@ -64166,7 +64163,7 @@
         <v>2957</v>
       </c>
       <c r="D1001" s="1" t="s">
-        <v>9536</v>
+        <v>9534</v>
       </c>
       <c r="E1001" s="1" t="s">
         <v>3221</v>
@@ -66693,7 +66690,7 @@
         <v>710</v>
       </c>
       <c r="D1132" s="4" t="s">
-        <v>9529</v>
+        <v>9527</v>
       </c>
       <c r="E1132" s="4" t="s">
         <v>1748</v>
@@ -84960,7 +84957,7 @@
         <v>218</v>
       </c>
       <c r="D2086" t="s">
-        <v>9535</v>
+        <v>9533</v>
       </c>
       <c r="E2086" s="1" t="s">
         <v>278</v>
@@ -85231,7 +85228,7 @@
         <v>696</v>
       </c>
       <c r="D2100" s="1" t="s">
-        <v>9545</v>
+        <v>9542</v>
       </c>
       <c r="E2100" s="1" t="s">
         <v>703</v>
@@ -86149,7 +86146,7 @@
         <v>7</v>
       </c>
       <c r="D2148" s="1" t="s">
-        <v>9540</v>
+        <v>9537</v>
       </c>
       <c r="E2148" s="1" t="s">
         <v>5932</v>
@@ -88574,7 +88571,7 @@
         <v>8</v>
       </c>
       <c r="D2276" s="1" t="s">
-        <v>9541</v>
+        <v>9538</v>
       </c>
       <c r="E2276" s="1" t="s">
         <v>193</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C2F2DB-A62C-4408-9FA9-8A7371153797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F0C5C5-2BBC-4198-8978-2A2B21E00970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42223,12 +42223,6 @@
     <t>Qualidade</t>
   </si>
   <si>
-    <t>Habilidade Usada</t>
-  </si>
-  <si>
-    <t>Habilidade Usada: #1 #2 (Atualmente #3)</t>
-  </si>
-  <si>
     <t>Combustível: #1%</t>
   </si>
   <si>
@@ -44982,6 +44976,12 @@
   </si>
   <si>
     <t>Restante</t>
+  </si>
+  <si>
+    <t>Habilidade Necessária</t>
+  </si>
+  <si>
+    <t>Habilidade Necessária: #1 Nv. #2 (Atualmente Nv. #3)</t>
   </si>
 </sst>
 </file>
@@ -45174,8 +45174,8 @@
   <dimension ref="A1:F2561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2560" sqref="D2560"/>
+      <pane ySplit="2" topLeftCell="A1262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1278" sqref="D1278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -45285,7 +45285,7 @@
         <v>2160</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9470</v>
+        <v>9468</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4945</v>
@@ -45302,7 +45302,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9471</v>
+        <v>9469</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5535</v>
@@ -45319,13 +45319,13 @@
         <v>390</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9397</v>
+        <v>9395</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7016</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9396</v>
+        <v>9394</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -45339,7 +45339,7 @@
         <v>870</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9456</v>
+        <v>9454</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>971</v>
@@ -45433,7 +45433,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8875</v>
+        <v>8873</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5005</v>
@@ -45467,7 +45467,7 @@
         <v>5594</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9310</v>
+        <v>9308</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6994</v>
@@ -45484,7 +45484,7 @@
         <v>5017</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9489</v>
+        <v>9487</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5018</v>
@@ -45501,7 +45501,7 @@
         <v>247</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9315</v>
+        <v>9313</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7013</v>
@@ -45518,7 +45518,7 @@
         <v>2110</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8878</v>
+        <v>8876</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>5014</v>
@@ -45535,7 +45535,7 @@
         <v>216</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9243</v>
+        <v>9241</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6790</v>
@@ -45552,7 +45552,7 @@
         <v>5203</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9242</v>
+        <v>9240</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6787</v>
@@ -45569,7 +45569,7 @@
         <v>216</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9241</v>
+        <v>9239</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6784</v>
@@ -45586,7 +45586,7 @@
         <v>6990</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9309</v>
+        <v>9307</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6991</v>
@@ -45603,7 +45603,7 @@
         <v>884</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9292</v>
+        <v>9290</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6938</v>
@@ -45788,7 +45788,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9454</v>
+        <v>9452</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>4807</v>
@@ -45845,7 +45845,7 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>8839</v>
+        <v>8837</v>
       </c>
       <c r="E38" t="s">
         <v>4869</v>
@@ -45971,7 +45971,7 @@
         <v>173</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>9452</v>
+        <v>9450</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -46079,7 +46079,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9442</v>
+        <v>9440</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>22</v>
@@ -46099,7 +46099,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9442</v>
+        <v>9440</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -46119,7 +46119,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9490</v>
+        <v>9488</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>137</v>
@@ -46213,13 +46213,13 @@
         <v>280</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9494</v>
+        <v>9492</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8830</v>
+        <v>8828</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>8831</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -46304,7 +46304,7 @@
         <v>1653</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>9260</v>
+        <v>9258</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6849</v>
@@ -46324,7 +46324,7 @@
         <v>1891</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>8693</v>
+        <v>8691</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>4366</v>
@@ -46341,7 +46341,7 @@
         <v>270</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>9261</v>
+        <v>9259</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6852</v>
@@ -46361,7 +46361,7 @@
         <v>1891</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>9419</v>
+        <v>9417</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>8580</v>
@@ -46381,7 +46381,7 @@
         <v>1891</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>9458</v>
+        <v>9456</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>8575</v>
@@ -46398,7 +46398,7 @@
         <v>270</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9262</v>
+        <v>9260</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>6855</v>
@@ -46415,7 +46415,7 @@
         <v>270</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9493</v>
+        <v>9491</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>6858</v>
@@ -46435,7 +46435,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>9390</v>
+        <v>9388</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>54</v>
@@ -46455,7 +46455,7 @@
         <v>2760</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9398</v>
+        <v>9396</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8584</v>
@@ -46472,7 +46472,7 @@
         <v>1653</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9259</v>
+        <v>9257</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>6846</v>
@@ -46492,7 +46492,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>9474</v>
+        <v>9472</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>23</v>
@@ -46546,7 +46546,7 @@
         <v>61</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>9289</v>
+        <v>9287</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>6929</v>
@@ -46563,7 +46563,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>9120</v>
+        <v>9118</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>5814</v>
@@ -46617,7 +46617,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>8836</v>
+        <v>8834</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4857</v>
@@ -46657,7 +46657,7 @@
         <v>4372</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>8697</v>
+        <v>8695</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>4391</v>
@@ -46677,7 +46677,7 @@
         <v>4372</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>8697</v>
+        <v>8695</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>4391</v>
@@ -46697,7 +46697,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>9463</v>
+        <v>9461</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>80</v>
@@ -46757,7 +46757,7 @@
         <v>3444</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>9455</v>
+        <v>9453</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>3570</v>
@@ -46794,7 +46794,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>8974</v>
+        <v>8972</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>5331</v>
@@ -46811,7 +46811,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>8805</v>
+        <v>8803</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>4765</v>
@@ -46831,7 +46831,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>9445</v>
+        <v>9443</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>29</v>
@@ -46871,7 +46871,7 @@
         <v>2794</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>9440</v>
+        <v>9438</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>22</v>
@@ -46931,7 +46931,7 @@
         <v>6061</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>9193</v>
+        <v>9191</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6068</v>
@@ -47008,7 +47008,7 @@
         <v>136</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>9388</v>
+        <v>9386</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>6485</v>
@@ -47028,7 +47028,7 @@
         <v>4372</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>8695</v>
+        <v>8693</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>4373</v>
@@ -47048,7 +47048,7 @@
         <v>4372</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>8700</v>
+        <v>8698</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>4408</v>
@@ -47088,7 +47088,7 @@
         <v>6061</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>9195</v>
+        <v>9193</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>6077</v>
@@ -47142,7 +47142,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>8913</v>
+        <v>8911</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>5136</v>
@@ -47162,7 +47162,7 @@
         <v>4372</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>8698</v>
+        <v>8696</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>4402</v>
@@ -47222,7 +47222,7 @@
         <v>4240</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>9451</v>
+        <v>9449</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>173</v>
@@ -47239,7 +47239,7 @@
         <v>7</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>5438</v>
@@ -47256,13 +47256,13 @@
         <v>7</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>9434</v>
+        <v>9432</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>9110</v>
+        <v>9108</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>9111</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -47273,7 +47273,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>9012</v>
+        <v>9010</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>5470</v>
@@ -47293,7 +47293,7 @@
         <v>4372</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>8699</v>
+        <v>8697</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>4405</v>
@@ -47313,7 +47313,7 @@
         <v>4372</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>8696</v>
+        <v>8694</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>4376</v>
@@ -47333,7 +47333,7 @@
         <v>4372</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>9436</v>
+        <v>9434</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>4387</v>
@@ -47433,7 +47433,7 @@
         <v>3828</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>8705</v>
+        <v>8703</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>4428</v>
@@ -47453,7 +47453,7 @@
         <v>3828</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>8702</v>
+        <v>8700</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>4419</v>
@@ -47473,7 +47473,7 @@
         <v>3828</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>8706</v>
+        <v>8704</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>4431</v>
@@ -47493,7 +47493,7 @@
         <v>3828</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>8703</v>
+        <v>8701</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>4422</v>
@@ -47513,7 +47513,7 @@
         <v>3828</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>8704</v>
+        <v>8702</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>4425</v>
@@ -47533,7 +47533,7 @@
         <v>3828</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>8707</v>
+        <v>8705</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>4434</v>
@@ -47550,7 +47550,7 @@
         <v>216</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>9230</v>
+        <v>9228</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>6747</v>
@@ -47690,7 +47690,7 @@
         <v>6061</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>9192</v>
+        <v>9190</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>6065</v>
@@ -47710,7 +47710,7 @@
         <v>6061</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>9191</v>
+        <v>9189</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>6062</v>
@@ -47727,7 +47727,7 @@
         <v>7</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>8948</v>
+        <v>8946</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>5252</v>
@@ -47764,13 +47764,13 @@
         <v>7</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>9110</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>9111</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>9112</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>9113</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>9114</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -47784,7 +47784,7 @@
         <v>6061</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>9194</v>
+        <v>9192</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>6074</v>
@@ -47824,7 +47824,7 @@
         <v>691</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9435</v>
+        <v>9433</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>692</v>
@@ -47878,7 +47878,7 @@
         <v>216</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>9238</v>
+        <v>9236</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>6775</v>
@@ -47938,7 +47938,7 @@
         <v>8</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>9482</v>
+        <v>9480</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>117</v>
@@ -48126,7 +48126,7 @@
         <v>7</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>9009</v>
+        <v>9007</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>5459</v>
@@ -48146,7 +48146,7 @@
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>9447</v>
+        <v>9445</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>154</v>
@@ -48186,7 +48186,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>9479</v>
+        <v>9477</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>88</v>
@@ -48206,7 +48206,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>9391</v>
+        <v>9389</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>65</v>
@@ -48226,7 +48226,7 @@
         <v>8</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>9391</v>
+        <v>9389</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>69</v>
@@ -48246,7 +48246,7 @@
         <v>8</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>9391</v>
+        <v>9389</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>22</v>
@@ -48266,7 +48266,7 @@
         <v>6309</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>9391</v>
+        <v>9389</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>6313</v>
@@ -48292,7 +48292,7 @@
         <v>106</v>
       </c>
       <c r="F165" t="s">
-        <v>9449</v>
+        <v>9447</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -48372,7 +48372,7 @@
         <v>112</v>
       </c>
       <c r="F169" t="s">
-        <v>9448</v>
+        <v>9446</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -48440,7 +48440,7 @@
         <v>4752</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>9394</v>
+        <v>9392</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>4753</v>
@@ -48480,7 +48480,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>9478</v>
+        <v>9476</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>90</v>
@@ -48500,7 +48500,7 @@
         <v>1932</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>9457</v>
+        <v>9455</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>913</v>
@@ -48517,7 +48517,7 @@
         <v>7</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>8980</v>
+        <v>8978</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>5352</v>
@@ -48534,7 +48534,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>9017</v>
+        <v>9015</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>5487</v>
@@ -48551,7 +48551,7 @@
         <v>973</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>9295</v>
+        <v>9293</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>6947</v>
@@ -48568,7 +48568,7 @@
         <v>15</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>9358</v>
+        <v>9356</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>7172</v>
@@ -48602,7 +48602,7 @@
         <v>7</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>9399</v>
+        <v>9397</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>4980</v>
@@ -48636,7 +48636,7 @@
         <v>2649</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>8821</v>
+        <v>8819</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>4817</v>
@@ -48653,7 +48653,7 @@
         <v>6799</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>9246</v>
+        <v>9244</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>6800</v>
@@ -48670,7 +48670,7 @@
         <v>7</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>9041</v>
+        <v>9039</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>5568</v>
@@ -48690,7 +48690,7 @@
         <v>4444</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>8794</v>
+        <v>8792</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>4731</v>
@@ -48710,7 +48710,7 @@
         <v>4444</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>8781</v>
+        <v>8779</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>4688</v>
@@ -48730,7 +48730,7 @@
         <v>4444</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>8782</v>
+        <v>8780</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>4691</v>
@@ -48787,7 +48787,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>9156</v>
+        <v>9154</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>5925</v>
@@ -48804,7 +48804,7 @@
         <v>461</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>9331</v>
+        <v>9329</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>7081</v>
@@ -48838,7 +48838,7 @@
         <v>7</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>8873</v>
+        <v>8871</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>4998</v>
@@ -48858,7 +48858,7 @@
         <v>4444</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>8765</v>
+        <v>8763</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>4629</v>
@@ -48878,7 +48878,7 @@
         <v>4444</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>8758</v>
+        <v>8756</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>4609</v>
@@ -48898,7 +48898,7 @@
         <v>4444</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>8773</v>
+        <v>8771</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>4664</v>
@@ -48918,7 +48918,7 @@
         <v>4444</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>8780</v>
+        <v>8778</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>4685</v>
@@ -48952,7 +48952,7 @@
         <v>7</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>8932</v>
+        <v>8930</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>5200</v>
@@ -48989,7 +48989,7 @@
         <v>216</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>9410</v>
+        <v>9408</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>6750</v>
@@ -49166,7 +49166,7 @@
         <v>15</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>9360</v>
+        <v>9358</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>7178</v>
@@ -49297,7 +49297,7 @@
         <v>6609</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>9467</v>
+        <v>9465</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>6613</v>
@@ -49334,7 +49334,7 @@
         <v>7</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>9071</v>
+        <v>9069</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>5676</v>
@@ -49371,7 +49371,7 @@
         <v>7</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>9022</v>
+        <v>9020</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>5503</v>
@@ -49388,7 +49388,7 @@
         <v>1959</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>8822</v>
+        <v>8820</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>4820</v>
@@ -49425,7 +49425,7 @@
         <v>216</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>9240</v>
+        <v>9238</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>6781</v>
@@ -49516,7 +49516,7 @@
         <v>1406</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>9328</v>
+        <v>9326</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>7069</v>
@@ -49556,7 +49556,7 @@
         <v>870</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>9491</v>
+        <v>9489</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>891</v>
@@ -49573,7 +49573,7 @@
         <v>7</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>8866</v>
+        <v>8864</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>4971</v>
@@ -49590,7 +49590,7 @@
         <v>251</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>9335</v>
+        <v>9333</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>7095</v>
@@ -49607,7 +49607,7 @@
         <v>5594</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>9047</v>
+        <v>9045</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>5595</v>
@@ -49624,7 +49624,7 @@
         <v>977</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>9293</v>
+        <v>9291</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>6941</v>
@@ -49644,7 +49644,7 @@
         <v>719</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>9412</v>
+        <v>9410</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>824</v>
@@ -49681,7 +49681,7 @@
         <v>6997</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>9312</v>
+        <v>9310</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>7001</v>
@@ -49735,7 +49735,7 @@
         <v>4325</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>9048</v>
+        <v>9046</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>5599</v>
@@ -49752,7 +49752,7 @@
         <v>7116</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>9341</v>
+        <v>9339</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>7117</v>
@@ -49769,7 +49769,7 @@
         <v>7</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>8914</v>
+        <v>8912</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>5140</v>
@@ -49903,7 +49903,7 @@
         <v>6599</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>9369</v>
+        <v>9367</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>7209</v>
@@ -49983,7 +49983,7 @@
         <v>8</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>9444</v>
+        <v>9442</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>78</v>
@@ -50000,7 +50000,7 @@
         <v>7</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>8877</v>
+        <v>8875</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>5012</v>
@@ -50054,7 +50054,7 @@
         <v>1536</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>9413</v>
+        <v>9411</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>8588</v>
@@ -50071,7 +50071,7 @@
         <v>390</v>
       </c>
       <c r="D261" t="s">
-        <v>9317</v>
+        <v>9315</v>
       </c>
       <c r="E261" t="s">
         <v>7033</v>
@@ -50088,7 +50088,7 @@
         <v>6371</v>
       </c>
       <c r="D262" t="s">
-        <v>9405</v>
+        <v>9403</v>
       </c>
       <c r="E262" t="s">
         <v>7036</v>
@@ -50148,13 +50148,13 @@
         <v>8</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>9481</v>
+        <v>9479</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F265" t="s">
-        <v>9480</v>
+        <v>9478</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -50168,7 +50168,7 @@
         <v>3444</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>9485</v>
+        <v>9483</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>3532</v>
@@ -50185,7 +50185,7 @@
         <v>6839</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>9488</v>
+        <v>9486</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>6840</v>
@@ -50205,7 +50205,7 @@
         <v>3538</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>9484</v>
+        <v>9482</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>3542</v>
@@ -50225,7 +50225,7 @@
         <v>4282</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>9483</v>
+        <v>9481</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>3806</v>
@@ -50245,7 +50245,7 @@
         <v>3282</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>9487</v>
+        <v>9485</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>3387</v>
@@ -50322,7 +50322,7 @@
         <v>7</v>
       </c>
       <c r="D274" t="s">
-        <v>9043</v>
+        <v>9041</v>
       </c>
       <c r="E274" t="s">
         <v>5575</v>
@@ -50479,13 +50479,13 @@
         <v>6640</v>
       </c>
       <c r="D282" s="1" t="s">
+        <v>9204</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>9205</v>
+      </c>
+      <c r="F282" s="1" t="s">
         <v>9206</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>9207</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>9208</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -50499,13 +50499,13 @@
         <v>6640</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>9201</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>9202</v>
+      </c>
+      <c r="F283" s="1" t="s">
         <v>9203</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>9204</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>9205</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -50519,13 +50519,13 @@
         <v>6640</v>
       </c>
       <c r="D284" s="1" t="s">
+        <v>9196</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>9197</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>9198</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>9199</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>9200</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -50539,13 +50539,13 @@
         <v>6640</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>9459</v>
+        <v>9457</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>9201</v>
+        <v>9199</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>9202</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -50556,7 +50556,7 @@
         <v>42</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>9400</v>
+        <v>9398</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>6130</v>
@@ -50573,7 +50573,7 @@
         <v>5017</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>9326</v>
+        <v>9324</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>7063</v>
@@ -50647,7 +50647,7 @@
         <v>8</v>
       </c>
       <c r="D291" t="s">
-        <v>9466</v>
+        <v>9464</v>
       </c>
       <c r="E291" t="s">
         <v>16</v>
@@ -50667,7 +50667,7 @@
         <v>2669</v>
       </c>
       <c r="D292" t="s">
-        <v>9411</v>
+        <v>9409</v>
       </c>
       <c r="E292" t="s">
         <v>2689</v>
@@ -50744,7 +50744,7 @@
         <v>93</v>
       </c>
       <c r="D296" t="s">
-        <v>9226</v>
+        <v>9224</v>
       </c>
       <c r="E296" t="s">
         <v>6732</v>
@@ -50761,7 +50761,7 @@
         <v>216</v>
       </c>
       <c r="D297" t="s">
-        <v>9235</v>
+        <v>9233</v>
       </c>
       <c r="E297" t="s">
         <v>6765</v>
@@ -50778,7 +50778,7 @@
         <v>216</v>
       </c>
       <c r="D298" t="s">
-        <v>9234</v>
+        <v>9232</v>
       </c>
       <c r="E298" t="s">
         <v>6762</v>
@@ -50795,7 +50795,7 @@
         <v>216</v>
       </c>
       <c r="D299" t="s">
-        <v>9236</v>
+        <v>9234</v>
       </c>
       <c r="E299" t="s">
         <v>6769</v>
@@ -50812,7 +50812,7 @@
         <v>93</v>
       </c>
       <c r="D300" t="s">
-        <v>9224</v>
+        <v>9222</v>
       </c>
       <c r="E300" t="s">
         <v>6726</v>
@@ -50829,7 +50829,7 @@
         <v>93</v>
       </c>
       <c r="D301" t="s">
-        <v>9223</v>
+        <v>9221</v>
       </c>
       <c r="E301" t="s">
         <v>6723</v>
@@ -50846,7 +50846,7 @@
         <v>93</v>
       </c>
       <c r="D302" t="s">
-        <v>9219</v>
+        <v>9217</v>
       </c>
       <c r="E302" t="s">
         <v>6711</v>
@@ -50863,7 +50863,7 @@
         <v>93</v>
       </c>
       <c r="D303" t="s">
-        <v>9213</v>
+        <v>9211</v>
       </c>
       <c r="E303" t="s">
         <v>6693</v>
@@ -50880,7 +50880,7 @@
         <v>93</v>
       </c>
       <c r="D304" t="s">
-        <v>9214</v>
+        <v>9212</v>
       </c>
       <c r="E304" t="s">
         <v>6696</v>
@@ -50897,7 +50897,7 @@
         <v>394</v>
       </c>
       <c r="D305" t="s">
-        <v>9225</v>
+        <v>9223</v>
       </c>
       <c r="E305" t="s">
         <v>6729</v>
@@ -50914,7 +50914,7 @@
         <v>93</v>
       </c>
       <c r="D306" t="s">
-        <v>9218</v>
+        <v>9216</v>
       </c>
       <c r="E306" t="s">
         <v>6708</v>
@@ -50931,7 +50931,7 @@
         <v>93</v>
       </c>
       <c r="D307" t="s">
-        <v>9217</v>
+        <v>9215</v>
       </c>
       <c r="E307" t="s">
         <v>6705</v>
@@ -50948,7 +50948,7 @@
         <v>93</v>
       </c>
       <c r="D308" t="s">
-        <v>9216</v>
+        <v>9214</v>
       </c>
       <c r="E308" t="s">
         <v>6702</v>
@@ -50965,7 +50965,7 @@
         <v>216</v>
       </c>
       <c r="D309" t="s">
-        <v>9231</v>
+        <v>9229</v>
       </c>
       <c r="E309" t="s">
         <v>6753</v>
@@ -50982,7 +50982,7 @@
         <v>216</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>9232</v>
+        <v>9230</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>6756</v>
@@ -50999,7 +50999,7 @@
         <v>216</v>
       </c>
       <c r="D311" t="s">
-        <v>9233</v>
+        <v>9231</v>
       </c>
       <c r="E311" t="s">
         <v>6759</v>
@@ -51016,7 +51016,7 @@
         <v>93</v>
       </c>
       <c r="D312" t="s">
-        <v>9221</v>
+        <v>9219</v>
       </c>
       <c r="E312" t="s">
         <v>6717</v>
@@ -51033,7 +51033,7 @@
         <v>93</v>
       </c>
       <c r="D313" t="s">
-        <v>9220</v>
+        <v>9218</v>
       </c>
       <c r="E313" t="s">
         <v>6714</v>
@@ -51050,7 +51050,7 @@
         <v>2911</v>
       </c>
       <c r="D314" t="s">
-        <v>9222</v>
+        <v>9220</v>
       </c>
       <c r="E314" t="s">
         <v>6720</v>
@@ -51067,7 +51067,7 @@
         <v>93</v>
       </c>
       <c r="D315" t="s">
-        <v>9215</v>
+        <v>9213</v>
       </c>
       <c r="E315" t="s">
         <v>6699</v>
@@ -51084,7 +51084,7 @@
         <v>46</v>
       </c>
       <c r="D316" t="s">
-        <v>9465</v>
+        <v>9463</v>
       </c>
       <c r="E316" t="s">
         <v>6128</v>
@@ -51104,7 +51104,7 @@
         <v>4444</v>
       </c>
       <c r="D317" t="s">
-        <v>9460</v>
+        <v>9458</v>
       </c>
       <c r="E317" t="s">
         <v>7058</v>
@@ -51161,7 +51161,7 @@
         <v>709</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>9510</v>
+        <v>9508</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>1259</v>
@@ -51181,7 +51181,7 @@
         <v>709</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>9511</v>
+        <v>9509</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>1262</v>
@@ -51201,7 +51201,7 @@
         <v>709</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>9512</v>
+        <v>9510</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>1265</v>
@@ -51221,7 +51221,7 @@
         <v>709</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>9513</v>
+        <v>9511</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>1268</v>
@@ -51241,7 +51241,7 @@
         <v>709</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>9514</v>
+        <v>9512</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>1271</v>
@@ -51398,7 +51398,7 @@
         <v>108</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>9045</v>
+        <v>9043</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>5584</v>
@@ -51755,7 +51755,7 @@
         <v>967</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>9354</v>
+        <v>9352</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>7160</v>
@@ -51792,7 +51792,7 @@
         <v>461</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>9330</v>
+        <v>9328</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>7078</v>
@@ -51972,7 +51972,7 @@
         <v>3828</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>9384</v>
+        <v>9382</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>4017</v>
@@ -52029,7 +52029,7 @@
         <v>2625</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>9039</v>
+        <v>9037</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>5563</v>
@@ -52046,7 +52046,7 @@
         <v>7</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>9039</v>
+        <v>9037</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>5563</v>
@@ -52063,7 +52063,7 @@
         <v>7</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>9053</v>
+        <v>9051</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>5612</v>
@@ -52103,7 +52103,7 @@
         <v>4444</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>8712</v>
+        <v>8710</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>4454</v>
@@ -52120,7 +52120,7 @@
         <v>7</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>9088</v>
+        <v>9086</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>5727</v>
@@ -52157,7 +52157,7 @@
         <v>7</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>8829</v>
+        <v>8827</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>4284</v>
@@ -52197,7 +52197,7 @@
         <v>1945</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>9404</v>
+        <v>9402</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>2064</v>
@@ -52234,7 +52234,7 @@
         <v>7</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>8818</v>
+        <v>8816</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>4804</v>
@@ -52431,7 +52431,7 @@
         <v>7</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>8886</v>
+        <v>8884</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>5043</v>
@@ -52448,7 +52448,7 @@
         <v>7</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>9175</v>
+        <v>9173</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>5997</v>
@@ -52502,7 +52502,7 @@
         <v>7</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>8815</v>
+        <v>8813</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>4794</v>
@@ -52519,7 +52519,7 @@
         <v>7</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>8953</v>
+        <v>8951</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>5273</v>
@@ -52596,7 +52596,7 @@
         <v>7</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>8850</v>
+        <v>8848</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>4902</v>
@@ -52633,7 +52633,7 @@
         <v>7</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>8963</v>
+        <v>8961</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>5296</v>
@@ -52650,7 +52650,7 @@
         <v>7</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>8963</v>
+        <v>8961</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>5606</v>
@@ -52670,7 +52670,7 @@
         <v>4444</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>8767</v>
+        <v>8765</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>391</v>
@@ -52707,7 +52707,7 @@
         <v>3084</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>9062</v>
+        <v>9060</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>5649</v>
@@ -52887,7 +52887,7 @@
         <v>4444</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>8721</v>
+        <v>8719</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>4487</v>
@@ -52964,7 +52964,7 @@
         <v>7</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>8859</v>
+        <v>8857</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>4936</v>
@@ -53081,7 +53081,7 @@
         <v>2888</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>8860</v>
+        <v>8858</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>4939</v>
@@ -53101,7 +53101,7 @@
         <v>217</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>9461</v>
+        <v>9459</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>426</v>
@@ -53138,7 +53138,7 @@
         <v>93</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>9227</v>
+        <v>9225</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>6735</v>
@@ -53155,7 +53155,7 @@
         <v>93</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>9228</v>
+        <v>9226</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>6738</v>
@@ -53269,7 +53269,7 @@
         <v>7</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>8861</v>
+        <v>8859</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>4942</v>
@@ -53306,7 +53306,7 @@
         <v>7</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>9136</v>
+        <v>9134</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>5863</v>
@@ -53343,7 +53343,7 @@
         <v>7</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>9150</v>
+        <v>9148</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>5906</v>
@@ -53360,7 +53360,7 @@
         <v>7</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>9143</v>
+        <v>9141</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>5884</v>
@@ -53377,7 +53377,7 @@
         <v>7</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>8901</v>
+        <v>8899</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>5098</v>
@@ -53414,7 +53414,7 @@
         <v>1046</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>9294</v>
+        <v>9292</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>6944</v>
@@ -53431,7 +53431,7 @@
         <v>1949</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>9345</v>
+        <v>9343</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>7132</v>
@@ -53488,7 +53488,7 @@
         <v>7</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>9148</v>
+        <v>9146</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>5899</v>
@@ -53505,7 +53505,7 @@
         <v>7</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>8940</v>
+        <v>8938</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>5224</v>
@@ -53525,7 +53525,7 @@
         <v>4444</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>8754</v>
+        <v>8752</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>4592</v>
@@ -53622,7 +53622,7 @@
         <v>7</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>9083</v>
+        <v>9081</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>5712</v>
@@ -53713,7 +53713,7 @@
         <v>7</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>8958</v>
+        <v>8956</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>5288</v>
@@ -53770,7 +53770,7 @@
         <v>7</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>9124</v>
+        <v>9122</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>5826</v>
@@ -53787,7 +53787,7 @@
         <v>46</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>9124</v>
+        <v>9122</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>5826</v>
@@ -53884,7 +53884,7 @@
         <v>7</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>8817</v>
+        <v>8815</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>4801</v>
@@ -53984,7 +53984,7 @@
         <v>3444</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>9422</v>
+        <v>9420</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>3495</v>
@@ -54001,7 +54001,7 @@
         <v>7</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>8908</v>
+        <v>8906</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>5118</v>
@@ -54018,7 +54018,7 @@
         <v>7</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>9040</v>
+        <v>9038</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>5565</v>
@@ -54055,7 +54055,7 @@
         <v>7</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>8826</v>
+        <v>8824</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>4832</v>
@@ -54072,7 +54072,7 @@
         <v>262</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>8950</v>
+        <v>8948</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>5258</v>
@@ -54206,7 +54206,7 @@
         <v>7</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>8820</v>
+        <v>8818</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>4813</v>
@@ -54223,7 +54223,7 @@
         <v>973</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>9270</v>
+        <v>9268</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>6884</v>
@@ -54240,7 +54240,7 @@
         <v>1406</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>8811</v>
+        <v>8809</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>4782</v>
@@ -54257,7 +54257,7 @@
         <v>2160</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>9182</v>
+        <v>9180</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>6018</v>
@@ -54294,7 +54294,7 @@
         <v>7</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>8828</v>
+        <v>8826</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>4838</v>
@@ -54311,7 +54311,7 @@
         <v>7</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>8996</v>
+        <v>8994</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>5412</v>
@@ -54365,7 +54365,7 @@
         <v>3379</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>9283</v>
+        <v>9281</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>6920</v>
@@ -54499,7 +54499,7 @@
         <v>7</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>8837</v>
+        <v>8835</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>4863</v>
@@ -54516,7 +54516,7 @@
         <v>7</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>9122</v>
+        <v>9120</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>5820</v>
@@ -54553,7 +54553,7 @@
         <v>7</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>9401</v>
+        <v>9399</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>5153</v>
@@ -54630,7 +54630,7 @@
         <v>7</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>8918</v>
+        <v>8916</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>5149</v>
@@ -54727,7 +54727,7 @@
         <v>116</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>9431</v>
+        <v>9429</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>6328</v>
@@ -55118,7 +55118,7 @@
         <v>2625</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>9337</v>
+        <v>9335</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>7103</v>
@@ -55192,7 +55192,7 @@
         <v>7</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>9137</v>
+        <v>9135</v>
       </c>
       <c r="E531" s="1" t="s">
         <v>5865</v>
@@ -55209,7 +55209,7 @@
         <v>46</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>9165</v>
+        <v>9163</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>3458</v>
@@ -55286,7 +55286,7 @@
         <v>1702</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>9486</v>
+        <v>9484</v>
       </c>
       <c r="E536" s="4" t="s">
         <v>5630</v>
@@ -55474,7 +55474,7 @@
         <v>53</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>8900</v>
+        <v>8898</v>
       </c>
       <c r="E546" s="1" t="s">
         <v>5095</v>
@@ -55511,7 +55511,7 @@
         <v>7</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>9159</v>
+        <v>9157</v>
       </c>
       <c r="E548" s="1" t="s">
         <v>5940</v>
@@ -55585,7 +55585,7 @@
         <v>7</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>8872</v>
+        <v>8870</v>
       </c>
       <c r="E552" s="1" t="s">
         <v>4992</v>
@@ -55693,7 +55693,7 @@
         <v>1206</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>8890</v>
+        <v>8888</v>
       </c>
       <c r="E558" s="1" t="s">
         <v>5057</v>
@@ -55710,7 +55710,7 @@
         <v>7149</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>9352</v>
+        <v>9350</v>
       </c>
       <c r="E559" s="1" t="s">
         <v>7153</v>
@@ -55830,7 +55830,7 @@
         <v>4444</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>8788</v>
+        <v>8786</v>
       </c>
       <c r="E565" s="1" t="s">
         <v>4709</v>
@@ -55850,7 +55850,7 @@
         <v>4444</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>8789</v>
+        <v>8787</v>
       </c>
       <c r="E566" s="1" t="s">
         <v>4712</v>
@@ -55870,7 +55870,7 @@
         <v>4444</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>8790</v>
+        <v>8788</v>
       </c>
       <c r="E567" s="1" t="s">
         <v>4715</v>
@@ -55887,7 +55887,7 @@
         <v>7</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>9011</v>
+        <v>9009</v>
       </c>
       <c r="E568" s="1" t="s">
         <v>5467</v>
@@ -55907,7 +55907,7 @@
         <v>4444</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>8771</v>
+        <v>8769</v>
       </c>
       <c r="E569" s="1" t="s">
         <v>4658</v>
@@ -55927,7 +55927,7 @@
         <v>4444</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>8771</v>
+        <v>8769</v>
       </c>
       <c r="E570" s="1" t="s">
         <v>4658</v>
@@ -55947,7 +55947,7 @@
         <v>4444</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>8769</v>
+        <v>8767</v>
       </c>
       <c r="E571" s="1" t="s">
         <v>4641</v>
@@ -55967,7 +55967,7 @@
         <v>4444</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>8760</v>
+        <v>8758</v>
       </c>
       <c r="E572" s="1" t="s">
         <v>4615</v>
@@ -55987,7 +55987,7 @@
         <v>4444</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>8770</v>
+        <v>8768</v>
       </c>
       <c r="E573" s="1" t="s">
         <v>4648</v>
@@ -56007,7 +56007,7 @@
         <v>4444</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>8713</v>
+        <v>8711</v>
       </c>
       <c r="E574" s="1" t="s">
         <v>4460</v>
@@ -56124,7 +56124,7 @@
         <v>255</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>9349</v>
+        <v>9347</v>
       </c>
       <c r="E580" s="1" t="s">
         <v>7143</v>
@@ -56141,7 +56141,7 @@
         <v>93</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>9211</v>
+        <v>9209</v>
       </c>
       <c r="E581" s="1" t="s">
         <v>6687</v>
@@ -56198,7 +56198,7 @@
         <v>7</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>9070</v>
+        <v>9068</v>
       </c>
       <c r="E584" s="1" t="s">
         <v>5673</v>
@@ -56215,7 +56215,7 @@
         <v>7</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>8994</v>
+        <v>8992</v>
       </c>
       <c r="E585" s="1" t="s">
         <v>5406</v>
@@ -56292,7 +56292,7 @@
         <v>7</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>9058</v>
+        <v>9056</v>
       </c>
       <c r="E589" s="1" t="s">
         <v>5636</v>
@@ -56349,7 +56349,7 @@
         <v>7</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>8942</v>
+        <v>8940</v>
       </c>
       <c r="E592" s="1" t="s">
         <v>5230</v>
@@ -56366,7 +56366,7 @@
         <v>7</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>8943</v>
+        <v>8941</v>
       </c>
       <c r="E593" s="1" t="s">
         <v>5233</v>
@@ -56386,7 +56386,7 @@
         <v>4444</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>8750</v>
+        <v>8748</v>
       </c>
       <c r="E594" s="1" t="s">
         <v>4579</v>
@@ -56443,7 +56443,7 @@
         <v>7</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>8998</v>
+        <v>8996</v>
       </c>
       <c r="E597" s="1" t="s">
         <v>5420</v>
@@ -56660,7 +56660,7 @@
         <v>7</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>8920</v>
+        <v>8918</v>
       </c>
       <c r="E608" s="1" t="s">
         <v>5158</v>
@@ -56700,7 +56700,7 @@
         <v>3828</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>9382</v>
+        <v>9380</v>
       </c>
       <c r="E610" s="1" t="s">
         <v>4011</v>
@@ -56720,7 +56720,7 @@
         <v>3828</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>9383</v>
+        <v>9381</v>
       </c>
       <c r="E611" s="1" t="s">
         <v>4014</v>
@@ -56820,7 +56820,7 @@
         <v>4444</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>8748</v>
+        <v>8746</v>
       </c>
       <c r="E616" s="1" t="s">
         <v>4573</v>
@@ -56837,7 +56837,7 @@
         <v>7</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>8910</v>
+        <v>8908</v>
       </c>
       <c r="E617" s="1" t="s">
         <v>5124</v>
@@ -57170,7 +57170,7 @@
         <v>7</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>8856</v>
+        <v>8854</v>
       </c>
       <c r="E635" s="1" t="s">
         <v>4920</v>
@@ -57284,7 +57284,7 @@
         <v>7</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>9006</v>
+        <v>9004</v>
       </c>
       <c r="E641" s="1" t="s">
         <v>5447</v>
@@ -57301,7 +57301,7 @@
         <v>216</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>9237</v>
+        <v>9235</v>
       </c>
       <c r="E642" s="1" t="s">
         <v>6772</v>
@@ -57318,7 +57318,7 @@
         <v>2625</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>9336</v>
+        <v>9334</v>
       </c>
       <c r="E643" s="1" t="s">
         <v>7100</v>
@@ -57435,7 +57435,7 @@
         <v>5203</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>8933</v>
+        <v>8931</v>
       </c>
       <c r="E649" s="1" t="s">
         <v>5204</v>
@@ -57495,7 +57495,7 @@
         <v>4444</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>8727</v>
+        <v>8725</v>
       </c>
       <c r="E652" s="1" t="s">
         <v>4511</v>
@@ -57512,7 +57512,7 @@
         <v>2911</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>9180</v>
+        <v>9178</v>
       </c>
       <c r="E653" s="1" t="s">
         <v>6012</v>
@@ -57529,7 +57529,7 @@
         <v>7</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>8984</v>
+        <v>8982</v>
       </c>
       <c r="E654" s="1" t="s">
         <v>5370</v>
@@ -57620,7 +57620,7 @@
         <v>7</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>8990</v>
+        <v>8988</v>
       </c>
       <c r="E659" s="1" t="s">
         <v>5394</v>
@@ -57677,7 +57677,7 @@
         <v>266</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>9299</v>
+        <v>9297</v>
       </c>
       <c r="E662" s="1" t="s">
         <v>6959</v>
@@ -57694,7 +57694,7 @@
         <v>266</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>9297</v>
+        <v>9295</v>
       </c>
       <c r="E663" s="1" t="s">
         <v>6953</v>
@@ -57731,7 +57731,7 @@
         <v>7</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>8858</v>
+        <v>8856</v>
       </c>
       <c r="E665" s="1" t="s">
         <v>4931</v>
@@ -57748,7 +57748,7 @@
         <v>7</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>8851</v>
+        <v>8849</v>
       </c>
       <c r="E666" s="1" t="s">
         <v>4904</v>
@@ -58019,7 +58019,7 @@
         <v>6599</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>9372</v>
+        <v>9370</v>
       </c>
       <c r="E680" s="1" t="s">
         <v>7218</v>
@@ -58113,7 +58113,7 @@
         <v>7</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>8864</v>
+        <v>8862</v>
       </c>
       <c r="E685" s="1" t="s">
         <v>4960</v>
@@ -58167,7 +58167,7 @@
         <v>7</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>9097</v>
+        <v>9095</v>
       </c>
       <c r="E688" s="1" t="s">
         <v>5755</v>
@@ -58464,7 +58464,7 @@
         <v>7</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>8871</v>
+        <v>8869</v>
       </c>
       <c r="E703" s="1" t="s">
         <v>4989</v>
@@ -58521,7 +58521,7 @@
         <v>3008</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>9475</v>
+        <v>9473</v>
       </c>
       <c r="E706" s="1" t="s">
         <v>7075</v>
@@ -58538,7 +58538,7 @@
         <v>7</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>8867</v>
+        <v>8865</v>
       </c>
       <c r="E707" s="1" t="s">
         <v>4974</v>
@@ -58555,7 +58555,7 @@
         <v>2979</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>8902</v>
+        <v>8900</v>
       </c>
       <c r="E708" s="1" t="s">
         <v>5102</v>
@@ -58692,7 +58692,7 @@
         <v>7</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="E715" s="1" t="s">
         <v>5435</v>
@@ -58729,7 +58729,7 @@
         <v>7</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>8947</v>
+        <v>8945</v>
       </c>
       <c r="E717" s="1" t="s">
         <v>368</v>
@@ -58829,7 +58829,7 @@
         <v>6037</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>9187</v>
+        <v>9185</v>
       </c>
       <c r="E722" s="1" t="s">
         <v>6046</v>
@@ -58849,7 +58849,7 @@
         <v>6037</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>9188</v>
+        <v>9186</v>
       </c>
       <c r="E723" s="1" t="s">
         <v>6052</v>
@@ -58906,7 +58906,7 @@
         <v>7</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>8868</v>
+        <v>8866</v>
       </c>
       <c r="E726" s="1" t="s">
         <v>4978</v>
@@ -58980,7 +58980,7 @@
         <v>42</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>9258</v>
+        <v>9256</v>
       </c>
       <c r="E730" s="1" t="s">
         <v>6843</v>
@@ -59000,7 +59000,7 @@
         <v>1891</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>8691</v>
+        <v>8689</v>
       </c>
       <c r="E731" s="1" t="s">
         <v>4359</v>
@@ -59074,7 +59074,7 @@
         <v>5615</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>9141</v>
+        <v>9139</v>
       </c>
       <c r="E735" s="1" t="s">
         <v>5878</v>
@@ -59091,7 +59091,7 @@
         <v>7</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>9464</v>
+        <v>9462</v>
       </c>
       <c r="E736" s="1" t="s">
         <v>5808</v>
@@ -59145,7 +59145,7 @@
         <v>7</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>8855</v>
+        <v>8853</v>
       </c>
       <c r="E739" s="1" t="s">
         <v>3292</v>
@@ -59262,7 +59262,7 @@
         <v>390</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>9144</v>
+        <v>9142</v>
       </c>
       <c r="E745" s="1" t="s">
         <v>7027</v>
@@ -59279,7 +59279,7 @@
         <v>7</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>9144</v>
+        <v>9142</v>
       </c>
       <c r="E746" s="1" t="s">
         <v>5887</v>
@@ -59316,7 +59316,7 @@
         <v>7</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>8881</v>
+        <v>8879</v>
       </c>
       <c r="E748" s="1" t="s">
         <v>5028</v>
@@ -59370,7 +59370,7 @@
         <v>7</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>9115</v>
+        <v>9113</v>
       </c>
       <c r="E751" s="1" t="s">
         <v>5790</v>
@@ -59430,7 +59430,7 @@
         <v>1855</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>9476</v>
+        <v>9474</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>1856</v>
@@ -59507,7 +59507,7 @@
         <v>1339</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>9364</v>
+        <v>9362</v>
       </c>
       <c r="E758" s="1" t="s">
         <v>7194</v>
@@ -59527,7 +59527,7 @@
         <v>4444</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>8736</v>
+        <v>8734</v>
       </c>
       <c r="E759" s="1" t="s">
         <v>4538</v>
@@ -59584,7 +59584,7 @@
         <v>7</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>8982</v>
+        <v>8980</v>
       </c>
       <c r="E762" s="1" t="s">
         <v>5358</v>
@@ -59861,7 +59861,7 @@
         <v>7</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>8869</v>
+        <v>8867</v>
       </c>
       <c r="E776" s="1" t="s">
         <v>4983</v>
@@ -59878,7 +59878,7 @@
         <v>7</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>8869</v>
+        <v>8867</v>
       </c>
       <c r="E777" s="1" t="s">
         <v>4983</v>
@@ -59895,7 +59895,7 @@
         <v>7</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>8870</v>
+        <v>8868</v>
       </c>
       <c r="E778" s="1" t="s">
         <v>4986</v>
@@ -59972,7 +59972,7 @@
         <v>7</v>
       </c>
       <c r="D782" s="1" t="s">
-        <v>8999</v>
+        <v>8997</v>
       </c>
       <c r="E782" s="1" t="s">
         <v>5423</v>
@@ -60009,7 +60009,7 @@
         <v>93</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>9210</v>
+        <v>9208</v>
       </c>
       <c r="E784" s="1" t="s">
         <v>6684</v>
@@ -60046,7 +60046,7 @@
         <v>709</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>9272</v>
+        <v>9270</v>
       </c>
       <c r="E786" s="1" t="s">
         <v>6890</v>
@@ -60200,7 +60200,7 @@
         <v>3008</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>9329</v>
+        <v>9327</v>
       </c>
       <c r="E794" s="1" t="s">
         <v>7072</v>
@@ -60237,7 +60237,7 @@
         <v>7</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>8989</v>
+        <v>8987</v>
       </c>
       <c r="E796" s="1" t="s">
         <v>5390</v>
@@ -60254,7 +60254,7 @@
         <v>7</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>9178</v>
+        <v>9176</v>
       </c>
       <c r="E797" s="1" t="s">
         <v>6006</v>
@@ -60271,7 +60271,7 @@
         <v>7</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>9073</v>
+        <v>9071</v>
       </c>
       <c r="E798" s="1" t="s">
         <v>5682</v>
@@ -60288,7 +60288,7 @@
         <v>7</v>
       </c>
       <c r="D799" s="1" t="s">
-        <v>9072</v>
+        <v>9070</v>
       </c>
       <c r="E799" s="1" t="s">
         <v>5679</v>
@@ -60308,7 +60308,7 @@
         <v>4444</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>8728</v>
+        <v>8726</v>
       </c>
       <c r="E800" s="1" t="s">
         <v>4514</v>
@@ -60445,7 +60445,7 @@
         <v>7</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>8988</v>
+        <v>8986</v>
       </c>
       <c r="E807" s="1" t="s">
         <v>5384</v>
@@ -60559,7 +60559,7 @@
         <v>980</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>9282</v>
+        <v>9280</v>
       </c>
       <c r="E813" s="1" t="s">
         <v>6917</v>
@@ -60636,7 +60636,7 @@
         <v>7</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>9001</v>
+        <v>8999</v>
       </c>
       <c r="E817" s="1" t="s">
         <v>5430</v>
@@ -60773,7 +60773,7 @@
         <v>7</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>9016</v>
+        <v>9014</v>
       </c>
       <c r="E824" s="1" t="s">
         <v>5484</v>
@@ -60850,7 +60850,7 @@
         <v>7</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>8874</v>
+        <v>8872</v>
       </c>
       <c r="E828" s="1" t="s">
         <v>5003</v>
@@ -60867,7 +60867,7 @@
         <v>1414</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>9322</v>
+        <v>9320</v>
       </c>
       <c r="E829" s="1" t="s">
         <v>7046</v>
@@ -60944,7 +60944,7 @@
         <v>7106</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>9338</v>
+        <v>9336</v>
       </c>
       <c r="E833" s="1" t="s">
         <v>7107</v>
@@ -60961,7 +60961,7 @@
         <v>7</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>9082</v>
+        <v>9080</v>
       </c>
       <c r="E834" s="1" t="s">
         <v>5709</v>
@@ -60981,7 +60981,7 @@
         <v>870</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>9453</v>
+        <v>9451</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>913</v>
@@ -61038,7 +61038,7 @@
         <v>2196</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>9313</v>
+        <v>9311</v>
       </c>
       <c r="E838" s="1" t="s">
         <v>7004</v>
@@ -61078,7 +61078,7 @@
         <v>4444</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>8764</v>
+        <v>8762</v>
       </c>
       <c r="E840" s="1" t="s">
         <v>4626</v>
@@ -61095,7 +61095,7 @@
         <v>2196</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>9314</v>
+        <v>9312</v>
       </c>
       <c r="E841" s="1" t="s">
         <v>7007</v>
@@ -61212,7 +61212,7 @@
         <v>7</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>9177</v>
+        <v>9175</v>
       </c>
       <c r="E847" s="1" t="s">
         <v>6003</v>
@@ -61229,7 +61229,7 @@
         <v>7</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>9176</v>
+        <v>9174</v>
       </c>
       <c r="E848" s="1" t="s">
         <v>6000</v>
@@ -61326,7 +61326,7 @@
         <v>4444</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>8720</v>
+        <v>8718</v>
       </c>
       <c r="E853" s="1" t="s">
         <v>4484</v>
@@ -61346,7 +61346,7 @@
         <v>4444</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>8719</v>
+        <v>8717</v>
       </c>
       <c r="E854" s="1" t="s">
         <v>4481</v>
@@ -61403,7 +61403,7 @@
         <v>7</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>8966</v>
+        <v>8964</v>
       </c>
       <c r="E857" s="1" t="s">
         <v>5304</v>
@@ -61600,7 +61600,7 @@
         <v>7</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>8885</v>
+        <v>8883</v>
       </c>
       <c r="E867" s="1" t="s">
         <v>5041</v>
@@ -61817,7 +61817,7 @@
         <v>7</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>9160</v>
+        <v>9158</v>
       </c>
       <c r="E878" s="1" t="s">
         <v>5943</v>
@@ -62231,7 +62231,7 @@
         <v>7</v>
       </c>
       <c r="D899" s="4" t="s">
-        <v>9157</v>
+        <v>9155</v>
       </c>
       <c r="E899" s="4" t="s">
         <v>5934</v>
@@ -62288,7 +62288,7 @@
         <v>884</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>9291</v>
+        <v>9289</v>
       </c>
       <c r="E902" s="1" t="s">
         <v>6935</v>
@@ -62342,7 +62342,7 @@
         <v>7</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>9087</v>
+        <v>9085</v>
       </c>
       <c r="E905" s="1" t="s">
         <v>5725</v>
@@ -62362,7 +62362,7 @@
         <v>6037</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>9185</v>
+        <v>9183</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>3594</v>
@@ -62379,7 +62379,7 @@
         <v>1246</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>9323</v>
+        <v>9321</v>
       </c>
       <c r="E907" s="1" t="s">
         <v>7051</v>
@@ -62396,7 +62396,7 @@
         <v>7</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>9161</v>
+        <v>9159</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>5946</v>
@@ -62413,7 +62413,7 @@
         <v>1162</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>8952</v>
+        <v>8950</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>5267</v>
@@ -62430,7 +62430,7 @@
         <v>7</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>8808</v>
+        <v>8806</v>
       </c>
       <c r="E910" s="1" t="s">
         <v>4769</v>
@@ -62470,7 +62470,7 @@
         <v>4444</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>8723</v>
+        <v>8721</v>
       </c>
       <c r="E912" s="1" t="s">
         <v>4499</v>
@@ -62507,7 +62507,7 @@
         <v>7</v>
       </c>
       <c r="D914" s="1" t="s">
-        <v>8891</v>
+        <v>8889</v>
       </c>
       <c r="E914" s="1" t="s">
         <v>3530</v>
@@ -62704,7 +62704,7 @@
         <v>7</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>8880</v>
+        <v>8878</v>
       </c>
       <c r="E924" s="1" t="s">
         <v>5025</v>
@@ -62721,7 +62721,7 @@
         <v>7</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>9093</v>
+        <v>9091</v>
       </c>
       <c r="E925" s="1" t="s">
         <v>5743</v>
@@ -62738,7 +62738,7 @@
         <v>7</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>8883</v>
+        <v>8881</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>5035</v>
@@ -62932,7 +62932,7 @@
         <v>7</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>9128</v>
+        <v>9126</v>
       </c>
       <c r="E936" s="1" t="s">
         <v>5838</v>
@@ -62986,7 +62986,7 @@
         <v>7</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>8853</v>
+        <v>8851</v>
       </c>
       <c r="E939" s="1" t="s">
         <v>4909</v>
@@ -63003,7 +63003,7 @@
         <v>7</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>8882</v>
+        <v>8880</v>
       </c>
       <c r="E940" s="1" t="s">
         <v>5031</v>
@@ -63020,7 +63020,7 @@
         <v>7</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>9147</v>
+        <v>9145</v>
       </c>
       <c r="E941" s="1" t="s">
         <v>5897</v>
@@ -63057,7 +63057,7 @@
         <v>7</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>8903</v>
+        <v>8901</v>
       </c>
       <c r="E943" s="1" t="s">
         <v>5105</v>
@@ -63074,7 +63074,7 @@
         <v>6874</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>9267</v>
+        <v>9265</v>
       </c>
       <c r="E944" s="1" t="s">
         <v>6875</v>
@@ -63094,7 +63094,7 @@
         <v>3828</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>9380</v>
+        <v>9378</v>
       </c>
       <c r="E945" s="1" t="s">
         <v>4008</v>
@@ -63151,7 +63151,7 @@
         <v>131</v>
       </c>
       <c r="D948" s="1" t="s">
-        <v>9014</v>
+        <v>9012</v>
       </c>
       <c r="E948" s="1" t="s">
         <v>5478</v>
@@ -63168,7 +63168,7 @@
         <v>7</v>
       </c>
       <c r="D949" s="1" t="s">
-        <v>8904</v>
+        <v>8902</v>
       </c>
       <c r="E949" s="1" t="s">
         <v>5109</v>
@@ -63302,13 +63302,13 @@
         <v>1334</v>
       </c>
       <c r="D956" s="1" t="s">
-        <v>9392</v>
+        <v>9390</v>
       </c>
       <c r="E956" s="1" t="s">
-        <v>8800</v>
+        <v>8798</v>
       </c>
       <c r="F956" s="1" t="s">
-        <v>8801</v>
+        <v>8799</v>
       </c>
     </row>
     <row r="957" spans="1:6">
@@ -63339,7 +63339,7 @@
         <v>2956</v>
       </c>
       <c r="D958" s="1" t="s">
-        <v>9389</v>
+        <v>9387</v>
       </c>
       <c r="E958" s="1" t="s">
         <v>3224</v>
@@ -63359,7 +63359,7 @@
         <v>2956</v>
       </c>
       <c r="D959" s="1" t="s">
-        <v>9415</v>
+        <v>9413</v>
       </c>
       <c r="E959" s="1" t="s">
         <v>3054</v>
@@ -63379,7 +63379,7 @@
         <v>2956</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>9418</v>
+        <v>9416</v>
       </c>
       <c r="E960" s="1" t="s">
         <v>3137</v>
@@ -63633,7 +63633,7 @@
         <v>1339</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>9371</v>
+        <v>9369</v>
       </c>
       <c r="E973" s="1" t="s">
         <v>7215</v>
@@ -63667,7 +63667,7 @@
         <v>7</v>
       </c>
       <c r="D975" s="1" t="s">
-        <v>8909</v>
+        <v>8907</v>
       </c>
       <c r="E975" s="1" t="s">
         <v>5121</v>
@@ -63687,7 +63687,7 @@
         <v>4282</v>
       </c>
       <c r="D976" s="1" t="s">
-        <v>9423</v>
+        <v>9421</v>
       </c>
       <c r="E976" s="1" t="s">
         <v>4294</v>
@@ -63818,7 +63818,7 @@
         <v>7</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>8983</v>
+        <v>8981</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>5363</v>
@@ -63855,7 +63855,7 @@
         <v>7</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>8937</v>
+        <v>8935</v>
       </c>
       <c r="E985" s="1" t="s">
         <v>5215</v>
@@ -63875,7 +63875,7 @@
         <v>4444</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>8722</v>
+        <v>8720</v>
       </c>
       <c r="E986" s="1" t="s">
         <v>4490</v>
@@ -63912,7 +63912,7 @@
         <v>7</v>
       </c>
       <c r="D988" s="1" t="s">
-        <v>8911</v>
+        <v>8909</v>
       </c>
       <c r="E988" s="1" t="s">
         <v>5127</v>
@@ -63932,7 +63932,7 @@
         <v>2360</v>
       </c>
       <c r="D989" s="1" t="s">
-        <v>9395</v>
+        <v>9393</v>
       </c>
       <c r="E989" s="1" t="s">
         <v>2361</v>
@@ -63989,7 +63989,7 @@
         <v>7</v>
       </c>
       <c r="D992" s="1" t="s">
-        <v>9443</v>
+        <v>9441</v>
       </c>
       <c r="E992" s="1" t="s">
         <v>4775</v>
@@ -64006,7 +64006,7 @@
         <v>7</v>
       </c>
       <c r="D993" s="1" t="s">
-        <v>8912</v>
+        <v>8910</v>
       </c>
       <c r="E993" s="1" t="s">
         <v>5133</v>
@@ -64263,7 +64263,7 @@
         <v>2956</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>9469</v>
+        <v>9467</v>
       </c>
       <c r="E1006" s="1" t="s">
         <v>3220</v>
@@ -64360,7 +64360,7 @@
         <v>7</v>
       </c>
       <c r="D1011" s="1" t="s">
-        <v>9130</v>
+        <v>9128</v>
       </c>
       <c r="E1011" s="1" t="s">
         <v>5843</v>
@@ -64437,7 +64437,7 @@
         <v>6037</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>9186</v>
+        <v>9184</v>
       </c>
       <c r="E1015" s="1" t="s">
         <v>6040</v>
@@ -64454,7 +64454,7 @@
         <v>7</v>
       </c>
       <c r="D1016" s="1" t="s">
-        <v>9000</v>
+        <v>8998</v>
       </c>
       <c r="E1016" s="1" t="s">
         <v>5427</v>
@@ -64491,7 +64491,7 @@
         <v>7</v>
       </c>
       <c r="D1018" s="1" t="s">
-        <v>9099</v>
+        <v>9097</v>
       </c>
       <c r="E1018" s="1" t="s">
         <v>5761</v>
@@ -64508,7 +64508,7 @@
         <v>7</v>
       </c>
       <c r="D1019" s="1" t="s">
-        <v>8916</v>
+        <v>8914</v>
       </c>
       <c r="E1019" s="1" t="s">
         <v>5143</v>
@@ -64662,7 +64662,7 @@
         <v>7</v>
       </c>
       <c r="D1027" s="1" t="s">
-        <v>9033</v>
+        <v>9031</v>
       </c>
       <c r="E1027" s="1" t="s">
         <v>5544</v>
@@ -64859,7 +64859,7 @@
         <v>3828</v>
       </c>
       <c r="D1037" s="1" t="s">
-        <v>9381</v>
+        <v>9379</v>
       </c>
       <c r="E1037" s="1" t="s">
         <v>4031</v>
@@ -64896,7 +64896,7 @@
         <v>7</v>
       </c>
       <c r="D1039" s="1" t="s">
-        <v>9134</v>
+        <v>9132</v>
       </c>
       <c r="E1039" s="1" t="s">
         <v>5858</v>
@@ -64953,7 +64953,7 @@
         <v>6897</v>
       </c>
       <c r="D1042" s="1" t="s">
-        <v>9274</v>
+        <v>9272</v>
       </c>
       <c r="E1042" s="1" t="s">
         <v>6898</v>
@@ -65264,7 +65264,7 @@
         <v>7</v>
       </c>
       <c r="D1058" s="1" t="s">
-        <v>9081</v>
+        <v>9079</v>
       </c>
       <c r="E1058" s="1" t="s">
         <v>5706</v>
@@ -65281,7 +65281,7 @@
         <v>7</v>
       </c>
       <c r="D1059" s="1" t="s">
-        <v>8833</v>
+        <v>8831</v>
       </c>
       <c r="E1059" s="1" t="s">
         <v>4848</v>
@@ -65378,7 +65378,7 @@
         <v>7</v>
       </c>
       <c r="D1064" s="1" t="s">
-        <v>8955</v>
+        <v>8953</v>
       </c>
       <c r="E1064" s="1" t="s">
         <v>5279</v>
@@ -65535,7 +65535,7 @@
         <v>7</v>
       </c>
       <c r="D1072" s="1" t="s">
-        <v>9101</v>
+        <v>9099</v>
       </c>
       <c r="E1072" s="1" t="s">
         <v>5767</v>
@@ -65672,7 +65672,7 @@
         <v>5113</v>
       </c>
       <c r="D1079" s="1" t="s">
-        <v>8905</v>
+        <v>8903</v>
       </c>
       <c r="E1079" s="1" t="s">
         <v>5114</v>
@@ -65726,7 +65726,7 @@
         <v>7</v>
       </c>
       <c r="D1082" s="1" t="s">
-        <v>8852</v>
+        <v>8850</v>
       </c>
       <c r="E1082" s="1" t="s">
         <v>4907</v>
@@ -65743,7 +65743,7 @@
         <v>2196</v>
       </c>
       <c r="D1083" s="1" t="s">
-        <v>8971</v>
+        <v>8969</v>
       </c>
       <c r="E1083" s="1" t="s">
         <v>5321</v>
@@ -65983,7 +65983,7 @@
         <v>2956</v>
       </c>
       <c r="D1095" s="1" t="s">
-        <v>9416</v>
+        <v>9414</v>
       </c>
       <c r="E1095" s="1" t="s">
         <v>8590</v>
@@ -66003,7 +66003,7 @@
         <v>4437</v>
       </c>
       <c r="D1096" s="1" t="s">
-        <v>8708</v>
+        <v>8706</v>
       </c>
       <c r="E1096" s="1" t="s">
         <v>4438</v>
@@ -66020,7 +66020,7 @@
         <v>7</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>9104</v>
+        <v>9102</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>5774</v>
@@ -66037,7 +66037,7 @@
         <v>7</v>
       </c>
       <c r="D1098" s="1" t="s">
-        <v>8936</v>
+        <v>8934</v>
       </c>
       <c r="E1098" s="1" t="s">
         <v>5212</v>
@@ -66074,7 +66074,7 @@
         <v>7</v>
       </c>
       <c r="D1100" s="1" t="s">
-        <v>8956</v>
+        <v>8954</v>
       </c>
       <c r="E1100" s="1" t="s">
         <v>5282</v>
@@ -66114,7 +66114,7 @@
         <v>4444</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>8752</v>
+        <v>8750</v>
       </c>
       <c r="E1102" s="1" t="s">
         <v>4586</v>
@@ -66251,7 +66251,7 @@
         <v>7</v>
       </c>
       <c r="D1109" s="1" t="s">
-        <v>8987</v>
+        <v>8985</v>
       </c>
       <c r="E1109" s="1" t="s">
         <v>5380</v>
@@ -66268,7 +66268,7 @@
         <v>7</v>
       </c>
       <c r="D1110" s="1" t="s">
-        <v>9075</v>
+        <v>9073</v>
       </c>
       <c r="E1110" s="1" t="s">
         <v>5689</v>
@@ -66653,7 +66653,7 @@
         <v>1334</v>
       </c>
       <c r="D1130" s="1" t="s">
-        <v>9139</v>
+        <v>9137</v>
       </c>
       <c r="E1130" s="1" t="s">
         <v>5871</v>
@@ -66770,7 +66770,7 @@
         <v>440</v>
       </c>
       <c r="D1136" s="1" t="s">
-        <v>9362</v>
+        <v>9360</v>
       </c>
       <c r="E1136" s="1" t="s">
         <v>7187</v>
@@ -66790,7 +66790,7 @@
         <v>709</v>
       </c>
       <c r="D1137" s="4" t="s">
-        <v>9462</v>
+        <v>9460</v>
       </c>
       <c r="E1137" s="4" t="s">
         <v>1747</v>
@@ -66827,7 +66827,7 @@
         <v>15</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>9356</v>
+        <v>9354</v>
       </c>
       <c r="E1139" s="1" t="s">
         <v>7166</v>
@@ -66881,7 +66881,7 @@
         <v>4444</v>
       </c>
       <c r="D1142" s="1" t="s">
-        <v>8779</v>
+        <v>8777</v>
       </c>
       <c r="E1142" s="1" t="s">
         <v>4682</v>
@@ -66938,7 +66938,7 @@
         <v>93</v>
       </c>
       <c r="D1145" s="1" t="s">
-        <v>9409</v>
+        <v>9407</v>
       </c>
       <c r="E1145" s="1" t="s">
         <v>6741</v>
@@ -66995,7 +66995,7 @@
         <v>7</v>
       </c>
       <c r="D1148" s="1" t="s">
-        <v>8919</v>
+        <v>8917</v>
       </c>
       <c r="E1148" s="1" t="s">
         <v>5155</v>
@@ -67012,7 +67012,7 @@
         <v>7</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>8925</v>
+        <v>8923</v>
       </c>
       <c r="E1149" s="1" t="s">
         <v>5179</v>
@@ -67032,7 +67032,7 @@
         <v>4444</v>
       </c>
       <c r="D1150" s="1" t="s">
-        <v>8766</v>
+        <v>8764</v>
       </c>
       <c r="E1150" s="1" t="s">
         <v>4633</v>
@@ -67049,7 +67049,7 @@
         <v>7</v>
       </c>
       <c r="D1151" s="1" t="s">
-        <v>8979</v>
+        <v>8977</v>
       </c>
       <c r="E1151" s="1" t="s">
         <v>5350</v>
@@ -67066,7 +67066,7 @@
         <v>7</v>
       </c>
       <c r="D1152" s="1" t="s">
-        <v>8926</v>
+        <v>8924</v>
       </c>
       <c r="E1152" s="1" t="s">
         <v>5182</v>
@@ -67083,7 +67083,7 @@
         <v>7</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>8927</v>
+        <v>8925</v>
       </c>
       <c r="E1153" s="1" t="s">
         <v>5185</v>
@@ -67240,7 +67240,7 @@
         <v>7</v>
       </c>
       <c r="D1161" s="1" t="s">
-        <v>8930</v>
+        <v>8928</v>
       </c>
       <c r="E1161" s="1" t="s">
         <v>5195</v>
@@ -67320,7 +67320,7 @@
         <v>3839</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>8797</v>
+        <v>8795</v>
       </c>
       <c r="E1165" s="1" t="s">
         <v>4741</v>
@@ -67494,7 +67494,7 @@
         <v>108</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>8935</v>
+        <v>8933</v>
       </c>
       <c r="E1174" s="1" t="s">
         <v>5210</v>
@@ -67511,7 +67511,7 @@
         <v>7</v>
       </c>
       <c r="D1175" s="1" t="s">
-        <v>8934</v>
+        <v>8932</v>
       </c>
       <c r="E1175" s="1" t="s">
         <v>5207</v>
@@ -67628,7 +67628,7 @@
         <v>4444</v>
       </c>
       <c r="D1181" s="1" t="s">
-        <v>8718</v>
+        <v>8716</v>
       </c>
       <c r="E1181" s="1" t="s">
         <v>4478</v>
@@ -67665,7 +67665,7 @@
         <v>7</v>
       </c>
       <c r="D1183" s="1" t="s">
-        <v>9102</v>
+        <v>9100</v>
       </c>
       <c r="E1183" s="1" t="s">
         <v>5771</v>
@@ -68044,7 +68044,7 @@
         <v>7</v>
       </c>
       <c r="D1203" s="1" t="s">
-        <v>8857</v>
+        <v>8855</v>
       </c>
       <c r="E1203" s="1" t="s">
         <v>4926</v>
@@ -68104,7 +68104,7 @@
         <v>4372</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>8701</v>
+        <v>8699</v>
       </c>
       <c r="E1206" s="1" t="s">
         <v>4414</v>
@@ -68181,7 +68181,7 @@
         <v>5017</v>
       </c>
       <c r="D1210" s="1" t="s">
-        <v>9325</v>
+        <v>9323</v>
       </c>
       <c r="E1210" s="1" t="s">
         <v>7060</v>
@@ -68218,7 +68218,7 @@
         <v>7</v>
       </c>
       <c r="D1212" s="1" t="s">
-        <v>8917</v>
+        <v>8915</v>
       </c>
       <c r="E1212" s="1" t="s">
         <v>5146</v>
@@ -68255,7 +68255,7 @@
         <v>7</v>
       </c>
       <c r="D1214" s="1" t="s">
-        <v>8938</v>
+        <v>8936</v>
       </c>
       <c r="E1214" s="1" t="s">
         <v>5218</v>
@@ -68472,7 +68472,7 @@
         <v>7</v>
       </c>
       <c r="D1225" s="1" t="s">
-        <v>8931</v>
+        <v>8929</v>
       </c>
       <c r="E1225" s="1" t="s">
         <v>5197</v>
@@ -68529,7 +68529,7 @@
         <v>7</v>
       </c>
       <c r="D1228" s="1" t="s">
-        <v>9132</v>
+        <v>9130</v>
       </c>
       <c r="E1228" s="1" t="s">
         <v>5853</v>
@@ -68549,7 +68549,7 @@
         <v>3839</v>
       </c>
       <c r="D1229" s="1" t="s">
-        <v>8795</v>
+        <v>8793</v>
       </c>
       <c r="E1229" s="1" t="s">
         <v>4734</v>
@@ -68603,7 +68603,7 @@
         <v>3084</v>
       </c>
       <c r="D1232" s="1" t="s">
-        <v>9343</v>
+        <v>9341</v>
       </c>
       <c r="E1232" s="1" t="s">
         <v>7123</v>
@@ -68620,7 +68620,7 @@
         <v>7</v>
       </c>
       <c r="D1233" s="1" t="s">
-        <v>8865</v>
+        <v>8863</v>
       </c>
       <c r="E1233" s="1" t="s">
         <v>4967</v>
@@ -68811,7 +68811,7 @@
         <v>7</v>
       </c>
       <c r="D1243" s="1" t="s">
-        <v>9166</v>
+        <v>9164</v>
       </c>
       <c r="E1243" s="1" t="s">
         <v>5964</v>
@@ -68851,7 +68851,7 @@
         <v>2551</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>9515</v>
+        <v>9513</v>
       </c>
       <c r="E1245" s="1" t="s">
         <v>2559</v>
@@ -68888,13 +68888,13 @@
         <v>6923</v>
       </c>
       <c r="D1247" s="1" t="s">
-        <v>9402</v>
+        <v>9400</v>
       </c>
       <c r="E1247" s="1" t="s">
-        <v>9284</v>
+        <v>9282</v>
       </c>
       <c r="F1247" t="s">
-        <v>9285</v>
+        <v>9283</v>
       </c>
     </row>
     <row r="1248" spans="1:6">
@@ -68905,13 +68905,13 @@
         <v>390</v>
       </c>
       <c r="D1248" s="1" t="s">
-        <v>9406</v>
+        <v>9404</v>
       </c>
       <c r="E1248" s="1" t="s">
-        <v>9318</v>
+        <v>9316</v>
       </c>
       <c r="F1248" t="s">
-        <v>9319</v>
+        <v>9317</v>
       </c>
     </row>
     <row r="1249" spans="1:6">
@@ -68922,7 +68922,7 @@
         <v>7</v>
       </c>
       <c r="D1249" s="1" t="s">
-        <v>8944</v>
+        <v>8942</v>
       </c>
       <c r="E1249" s="1" t="s">
         <v>5235</v>
@@ -68939,7 +68939,7 @@
         <v>5130</v>
       </c>
       <c r="D1250" s="1" t="s">
-        <v>8944</v>
+        <v>8942</v>
       </c>
       <c r="E1250" s="1" t="s">
         <v>5235</v>
@@ -68959,7 +68959,7 @@
         <v>2956</v>
       </c>
       <c r="D1251" s="1" t="s">
-        <v>9516</v>
+        <v>9514</v>
       </c>
       <c r="E1251" s="1" t="s">
         <v>2989</v>
@@ -69059,7 +69059,7 @@
         <v>4444</v>
       </c>
       <c r="D1256" s="1" t="s">
-        <v>8716</v>
+        <v>8714</v>
       </c>
       <c r="E1256" s="1" t="s">
         <v>4469</v>
@@ -69076,7 +69076,7 @@
         <v>7</v>
       </c>
       <c r="D1257" s="1" t="s">
-        <v>9076</v>
+        <v>9074</v>
       </c>
       <c r="E1257" s="1" t="s">
         <v>5691</v>
@@ -69093,7 +69093,7 @@
         <v>280</v>
       </c>
       <c r="D1258" s="1" t="s">
-        <v>9131</v>
+        <v>9129</v>
       </c>
       <c r="E1258" s="1" t="s">
         <v>5847</v>
@@ -69170,7 +69170,7 @@
         <v>7</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>9517</v>
+        <v>9515</v>
       </c>
       <c r="E1262" s="1" t="s">
         <v>4930</v>
@@ -69270,7 +69270,7 @@
         <v>4444</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>8778</v>
+        <v>8776</v>
       </c>
       <c r="E1267" s="1" t="s">
         <v>4679</v>
@@ -69504,7 +69504,7 @@
         <v>4338</v>
       </c>
       <c r="D1279" s="1" t="s">
-        <v>8689</v>
+        <v>9547</v>
       </c>
       <c r="E1279" s="1" t="s">
         <v>4353</v>
@@ -69524,7 +69524,7 @@
         <v>4338</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>8690</v>
+        <v>9548</v>
       </c>
       <c r="E1280" s="1" t="s">
         <v>4356</v>
@@ -69601,7 +69601,7 @@
         <v>7</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>8915</v>
+        <v>8913</v>
       </c>
       <c r="E1284" s="1" t="s">
         <v>4341</v>
@@ -69678,7 +69678,7 @@
         <v>7</v>
       </c>
       <c r="D1288" s="1" t="s">
-        <v>8995</v>
+        <v>8993</v>
       </c>
       <c r="E1288" s="1" t="s">
         <v>5409</v>
@@ -69735,7 +69735,7 @@
         <v>7</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>9096</v>
+        <v>9094</v>
       </c>
       <c r="E1291" s="1" t="s">
         <v>5752</v>
@@ -69752,7 +69752,7 @@
         <v>6803</v>
       </c>
       <c r="D1292" s="1" t="s">
-        <v>9248</v>
+        <v>9246</v>
       </c>
       <c r="E1292" s="1" t="s">
         <v>6807</v>
@@ -69769,7 +69769,7 @@
         <v>7</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>8964</v>
+        <v>8962</v>
       </c>
       <c r="E1293" s="1" t="s">
         <v>5298</v>
@@ -69846,7 +69846,7 @@
         <v>7</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>8819</v>
+        <v>8817</v>
       </c>
       <c r="E1297" s="1" t="s">
         <v>4810</v>
@@ -69963,7 +69963,7 @@
         <v>108</v>
       </c>
       <c r="D1303" s="1" t="s">
-        <v>8888</v>
+        <v>8886</v>
       </c>
       <c r="E1303" s="1" t="s">
         <v>5049</v>
@@ -70023,7 +70023,7 @@
         <v>4444</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>8755</v>
+        <v>8753</v>
       </c>
       <c r="E1306" s="1" t="s">
         <v>4598</v>
@@ -70040,7 +70040,7 @@
         <v>1702</v>
       </c>
       <c r="D1307" s="4" t="s">
-        <v>9518</v>
+        <v>9516</v>
       </c>
       <c r="E1307" s="4" t="s">
         <v>7238</v>
@@ -70057,7 +70057,7 @@
         <v>7</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>8969</v>
+        <v>8967</v>
       </c>
       <c r="E1308" s="1" t="s">
         <v>5315</v>
@@ -70074,7 +70074,7 @@
         <v>7</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>8970</v>
+        <v>8968</v>
       </c>
       <c r="E1309" s="1" t="s">
         <v>5318</v>
@@ -70128,7 +70128,7 @@
         <v>6803</v>
       </c>
       <c r="D1312" s="1" t="s">
-        <v>9253</v>
+        <v>9251</v>
       </c>
       <c r="E1312" s="1" t="s">
         <v>6824</v>
@@ -70165,7 +70165,7 @@
         <v>6803</v>
       </c>
       <c r="D1314" s="1" t="s">
-        <v>9254</v>
+        <v>9252</v>
       </c>
       <c r="E1314" s="1" t="s">
         <v>6827</v>
@@ -70182,7 +70182,7 @@
         <v>6803</v>
       </c>
       <c r="D1315" s="1" t="s">
-        <v>9255</v>
+        <v>9253</v>
       </c>
       <c r="E1315" s="1" t="s">
         <v>6830</v>
@@ -70199,7 +70199,7 @@
         <v>3084</v>
       </c>
       <c r="D1316" s="1" t="s">
-        <v>9342</v>
+        <v>9340</v>
       </c>
       <c r="E1316" s="1" t="s">
         <v>7120</v>
@@ -70279,7 +70279,7 @@
         <v>4444</v>
       </c>
       <c r="D1320" s="1" t="s">
-        <v>8792</v>
+        <v>8790</v>
       </c>
       <c r="E1320" s="1" t="s">
         <v>4722</v>
@@ -70296,7 +70296,7 @@
         <v>7</v>
       </c>
       <c r="D1321" s="1" t="s">
-        <v>9054</v>
+        <v>9052</v>
       </c>
       <c r="E1321" s="1" t="s">
         <v>5618</v>
@@ -70370,7 +70370,7 @@
         <v>7</v>
       </c>
       <c r="D1325" s="1" t="s">
-        <v>8973</v>
+        <v>8971</v>
       </c>
       <c r="E1325" s="1" t="s">
         <v>5328</v>
@@ -70450,7 +70450,7 @@
         <v>4444</v>
       </c>
       <c r="D1329" s="1" t="s">
-        <v>8783</v>
+        <v>8781</v>
       </c>
       <c r="E1329" s="1" t="s">
         <v>3713</v>
@@ -70470,7 +70470,7 @@
         <v>4444</v>
       </c>
       <c r="D1330" s="1" t="s">
-        <v>8787</v>
+        <v>8785</v>
       </c>
       <c r="E1330" s="1" t="s">
         <v>4706</v>
@@ -70490,7 +70490,7 @@
         <v>4444</v>
       </c>
       <c r="D1331" s="1" t="s">
-        <v>8768</v>
+        <v>8766</v>
       </c>
       <c r="E1331" s="1" t="s">
         <v>4638</v>
@@ -70530,7 +70530,7 @@
         <v>6061</v>
       </c>
       <c r="D1333" s="1" t="s">
-        <v>9197</v>
+        <v>9195</v>
       </c>
       <c r="E1333" s="1" t="s">
         <v>6094</v>
@@ -70587,7 +70587,7 @@
         <v>7</v>
       </c>
       <c r="D1336" s="1" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="E1336" s="1" t="s">
         <v>5721</v>
@@ -70604,7 +70604,7 @@
         <v>7</v>
       </c>
       <c r="D1337" s="1" t="s">
-        <v>9049</v>
+        <v>9047</v>
       </c>
       <c r="E1337" s="1" t="s">
         <v>5601</v>
@@ -70621,7 +70621,7 @@
         <v>1702</v>
       </c>
       <c r="D1338" s="1" t="s">
-        <v>9379</v>
+        <v>9377</v>
       </c>
       <c r="E1338" s="1" t="s">
         <v>7235</v>
@@ -70815,7 +70815,7 @@
         <v>7</v>
       </c>
       <c r="D1348" s="1" t="s">
-        <v>8975</v>
+        <v>8973</v>
       </c>
       <c r="E1348" s="1" t="s">
         <v>5333</v>
@@ -70892,7 +70892,7 @@
         <v>3379</v>
       </c>
       <c r="D1352" s="1" t="s">
-        <v>9288</v>
+        <v>9286</v>
       </c>
       <c r="E1352" s="1" t="s">
         <v>6926</v>
@@ -71049,7 +71049,7 @@
         <v>7</v>
       </c>
       <c r="D1360" s="1" t="s">
-        <v>9105</v>
+        <v>9103</v>
       </c>
       <c r="E1360" s="1" t="s">
         <v>5780</v>
@@ -71066,7 +71066,7 @@
         <v>7</v>
       </c>
       <c r="D1361" s="1" t="s">
-        <v>9063</v>
+        <v>9061</v>
       </c>
       <c r="E1361" s="1" t="s">
         <v>5652</v>
@@ -71123,7 +71123,7 @@
         <v>7</v>
       </c>
       <c r="D1364" s="1" t="s">
-        <v>9064</v>
+        <v>9062</v>
       </c>
       <c r="E1364" s="1" t="s">
         <v>5655</v>
@@ -71160,7 +71160,7 @@
         <v>7</v>
       </c>
       <c r="D1366" s="1" t="s">
-        <v>8976</v>
+        <v>8974</v>
       </c>
       <c r="E1366" s="1" t="s">
         <v>5336</v>
@@ -71180,7 +71180,7 @@
         <v>8</v>
       </c>
       <c r="D1367" s="1" t="s">
-        <v>9509</v>
+        <v>9507</v>
       </c>
       <c r="E1367" s="1" t="s">
         <v>167</v>
@@ -71200,7 +71200,7 @@
         <v>8</v>
       </c>
       <c r="D1368" s="1" t="s">
-        <v>9508</v>
+        <v>9506</v>
       </c>
       <c r="E1368" s="1" t="s">
         <v>171</v>
@@ -71237,7 +71237,7 @@
         <v>4444</v>
       </c>
       <c r="D1370" s="1" t="s">
-        <v>8763</v>
+        <v>8761</v>
       </c>
       <c r="E1370" s="1" t="s">
         <v>4623</v>
@@ -71274,7 +71274,7 @@
         <v>444</v>
       </c>
       <c r="D1372" s="4" t="s">
-        <v>9327</v>
+        <v>9325</v>
       </c>
       <c r="E1372" s="4" t="s">
         <v>7066</v>
@@ -71334,7 +71334,7 @@
         <v>3839</v>
       </c>
       <c r="D1375" s="1" t="s">
-        <v>8799</v>
+        <v>8797</v>
       </c>
       <c r="E1375" s="1" t="s">
         <v>4747</v>
@@ -71451,7 +71451,7 @@
         <v>6599</v>
       </c>
       <c r="D1381" s="1" t="s">
-        <v>9375</v>
+        <v>9373</v>
       </c>
       <c r="E1381" s="1" t="s">
         <v>7223</v>
@@ -71662,7 +71662,7 @@
         <v>709</v>
       </c>
       <c r="D1392" s="1" t="s">
-        <v>9181</v>
+        <v>9179</v>
       </c>
       <c r="E1392" s="1" t="s">
         <v>6015</v>
@@ -71679,7 +71679,7 @@
         <v>7</v>
       </c>
       <c r="D1393" s="1" t="s">
-        <v>9181</v>
+        <v>9179</v>
       </c>
       <c r="E1393" s="1" t="s">
         <v>6015</v>
@@ -71773,7 +71773,7 @@
         <v>1945</v>
       </c>
       <c r="D1398" s="1" t="s">
-        <v>8893</v>
+        <v>8891</v>
       </c>
       <c r="E1398" s="1" t="s">
         <v>5074</v>
@@ -71790,7 +71790,7 @@
         <v>6599</v>
       </c>
       <c r="D1399" s="1" t="s">
-        <v>9370</v>
+        <v>9368</v>
       </c>
       <c r="E1399" s="1" t="s">
         <v>7212</v>
@@ -71887,7 +71887,7 @@
         <v>6599</v>
       </c>
       <c r="D1404" s="1" t="s">
-        <v>9368</v>
+        <v>9366</v>
       </c>
       <c r="E1404" s="1" t="s">
         <v>7206</v>
@@ -71904,7 +71904,7 @@
         <v>7</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>9424</v>
+        <v>9422</v>
       </c>
       <c r="E1405" s="1" t="s">
         <v>5387</v>
@@ -71924,7 +71924,7 @@
         <v>4444</v>
       </c>
       <c r="D1406" s="1" t="s">
-        <v>8725</v>
+        <v>8723</v>
       </c>
       <c r="E1406" s="1" t="s">
         <v>4505</v>
@@ -71941,7 +71941,7 @@
         <v>255</v>
       </c>
       <c r="D1407" s="1" t="s">
-        <v>9350</v>
+        <v>9348</v>
       </c>
       <c r="E1407" s="1" t="s">
         <v>7146</v>
@@ -72015,7 +72015,7 @@
         <v>12</v>
       </c>
       <c r="D1411" s="1" t="s">
-        <v>8941</v>
+        <v>8939</v>
       </c>
       <c r="E1411" s="1" t="s">
         <v>5227</v>
@@ -72169,7 +72169,7 @@
         <v>262</v>
       </c>
       <c r="D1419" s="1" t="s">
-        <v>8992</v>
+        <v>8990</v>
       </c>
       <c r="E1419" s="1" t="s">
         <v>5400</v>
@@ -72206,7 +72206,7 @@
         <v>7</v>
       </c>
       <c r="D1421" s="1" t="s">
-        <v>8991</v>
+        <v>8989</v>
       </c>
       <c r="E1421" s="1" t="s">
         <v>5397</v>
@@ -72226,7 +72226,7 @@
         <v>6897</v>
       </c>
       <c r="D1422" s="1" t="s">
-        <v>9276</v>
+        <v>9274</v>
       </c>
       <c r="E1422" s="1" t="s">
         <v>6904</v>
@@ -72286,7 +72286,7 @@
         <v>2568</v>
       </c>
       <c r="D1425" s="1" t="s">
-        <v>9427</v>
+        <v>9425</v>
       </c>
       <c r="E1425" s="1" t="s">
         <v>2632</v>
@@ -72383,7 +72383,7 @@
         <v>7</v>
       </c>
       <c r="D1430" s="1" t="s">
-        <v>8849</v>
+        <v>8847</v>
       </c>
       <c r="E1430" s="1" t="s">
         <v>4899</v>
@@ -72474,7 +72474,7 @@
         <v>6803</v>
       </c>
       <c r="D1435" s="1" t="s">
-        <v>9251</v>
+        <v>9249</v>
       </c>
       <c r="E1435" s="1" t="s">
         <v>6816</v>
@@ -72491,7 +72491,7 @@
         <v>5203</v>
       </c>
       <c r="D1436" s="1" t="s">
-        <v>9268</v>
+        <v>9266</v>
       </c>
       <c r="E1436" s="1" t="s">
         <v>6878</v>
@@ -72625,7 +72625,7 @@
         <v>7</v>
       </c>
       <c r="D1443" s="1" t="s">
-        <v>8879</v>
+        <v>8877</v>
       </c>
       <c r="E1443" s="1" t="s">
         <v>5022</v>
@@ -72642,7 +72642,7 @@
         <v>7</v>
       </c>
       <c r="D1444" s="1" t="s">
-        <v>9010</v>
+        <v>9008</v>
       </c>
       <c r="E1444" s="1" t="s">
         <v>5464</v>
@@ -72759,7 +72759,7 @@
         <v>7</v>
       </c>
       <c r="D1450" s="1" t="s">
-        <v>8981</v>
+        <v>8979</v>
       </c>
       <c r="E1450" s="1" t="s">
         <v>5355</v>
@@ -72916,7 +72916,7 @@
         <v>6061</v>
       </c>
       <c r="D1458" s="1" t="s">
-        <v>9507</v>
+        <v>9505</v>
       </c>
       <c r="E1458" s="1" t="s">
         <v>6080</v>
@@ -72933,7 +72933,7 @@
         <v>884</v>
       </c>
       <c r="D1459" s="1" t="s">
-        <v>9290</v>
+        <v>9288</v>
       </c>
       <c r="E1459" s="1" t="s">
         <v>6932</v>
@@ -72970,7 +72970,7 @@
         <v>680</v>
       </c>
       <c r="D1461" s="1" t="s">
-        <v>9344</v>
+        <v>9342</v>
       </c>
       <c r="E1461" s="1" t="s">
         <v>7126</v>
@@ -73047,7 +73047,7 @@
         <v>4444</v>
       </c>
       <c r="D1465" s="1" t="s">
-        <v>8730</v>
+        <v>8728</v>
       </c>
       <c r="E1465" s="1" t="s">
         <v>4520</v>
@@ -73138,7 +73138,7 @@
         <v>7</v>
       </c>
       <c r="D1470" s="1" t="s">
-        <v>9007</v>
+        <v>9005</v>
       </c>
       <c r="E1470" s="1" t="s">
         <v>5450</v>
@@ -73155,7 +73155,7 @@
         <v>7</v>
       </c>
       <c r="D1471" s="1" t="s">
-        <v>9079</v>
+        <v>9077</v>
       </c>
       <c r="E1471" s="1" t="s">
         <v>5700</v>
@@ -73232,7 +73232,7 @@
         <v>7</v>
       </c>
       <c r="D1475" s="1" t="s">
-        <v>9163</v>
+        <v>9161</v>
       </c>
       <c r="E1475" s="1" t="s">
         <v>5951</v>
@@ -73346,7 +73346,7 @@
         <v>7</v>
       </c>
       <c r="D1481" s="1" t="s">
-        <v>9008</v>
+        <v>9006</v>
       </c>
       <c r="E1481" s="1" t="s">
         <v>5456</v>
@@ -73383,7 +73383,7 @@
         <v>266</v>
       </c>
       <c r="D1483" s="1" t="s">
-        <v>9296</v>
+        <v>9294</v>
       </c>
       <c r="E1483" s="1" t="s">
         <v>6950</v>
@@ -73583,7 +73583,7 @@
         <v>4444</v>
       </c>
       <c r="D1493" s="1" t="s">
-        <v>8774</v>
+        <v>8772</v>
       </c>
       <c r="E1493" s="1" t="s">
         <v>4667</v>
@@ -73600,7 +73600,7 @@
         <v>7</v>
       </c>
       <c r="D1494" s="1" t="s">
-        <v>9094</v>
+        <v>9092</v>
       </c>
       <c r="E1494" s="1" t="s">
         <v>5746</v>
@@ -73620,7 +73620,7 @@
         <v>3444</v>
       </c>
       <c r="D1495" s="1" t="s">
-        <v>9421</v>
+        <v>9419</v>
       </c>
       <c r="E1495" s="1" t="s">
         <v>3491</v>
@@ -73637,7 +73637,7 @@
         <v>7</v>
       </c>
       <c r="D1496" s="1" t="s">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="E1496" s="1" t="s">
         <v>5441</v>
@@ -73754,7 +73754,7 @@
         <v>4444</v>
       </c>
       <c r="D1502" s="1" t="s">
-        <v>8777</v>
+        <v>8775</v>
       </c>
       <c r="E1502" s="1" t="s">
         <v>4676</v>
@@ -73771,7 +73771,7 @@
         <v>7</v>
       </c>
       <c r="D1503" s="1" t="s">
-        <v>9044</v>
+        <v>9042</v>
       </c>
       <c r="E1503" s="1" t="s">
         <v>5581</v>
@@ -73808,7 +73808,7 @@
         <v>7</v>
       </c>
       <c r="D1505" s="1" t="s">
-        <v>8993</v>
+        <v>8991</v>
       </c>
       <c r="E1505" s="1" t="s">
         <v>5403</v>
@@ -73825,7 +73825,7 @@
         <v>7</v>
       </c>
       <c r="D1506" s="1" t="s">
-        <v>8997</v>
+        <v>8995</v>
       </c>
       <c r="E1506" s="1" t="s">
         <v>5417</v>
@@ -73942,7 +73942,7 @@
         <v>7</v>
       </c>
       <c r="D1512" s="1" t="s">
-        <v>9098</v>
+        <v>9096</v>
       </c>
       <c r="E1512" s="1" t="s">
         <v>5758</v>
@@ -74039,7 +74039,7 @@
         <v>7</v>
       </c>
       <c r="D1517" s="1" t="s">
-        <v>8862</v>
+        <v>8860</v>
       </c>
       <c r="E1517" s="1" t="s">
         <v>4951</v>
@@ -74173,7 +74173,7 @@
         <v>7</v>
       </c>
       <c r="D1524" s="1" t="s">
-        <v>9036</v>
+        <v>9034</v>
       </c>
       <c r="E1524" s="1" t="s">
         <v>5552</v>
@@ -74193,7 +74193,7 @@
         <v>4372</v>
       </c>
       <c r="D1525" s="1" t="s">
-        <v>9036</v>
+        <v>9034</v>
       </c>
       <c r="E1525" s="1" t="s">
         <v>4384</v>
@@ -74213,7 +74213,7 @@
         <v>4372</v>
       </c>
       <c r="D1526" s="1" t="s">
-        <v>9036</v>
+        <v>9034</v>
       </c>
       <c r="E1526" s="1" t="s">
         <v>4384</v>
@@ -74364,7 +74364,7 @@
         <v>7</v>
       </c>
       <c r="D1534" s="1" t="s">
-        <v>8978</v>
+        <v>8976</v>
       </c>
       <c r="E1534" s="1" t="s">
         <v>5346</v>
@@ -74424,7 +74424,7 @@
         <v>4444</v>
       </c>
       <c r="D1537" s="1" t="s">
-        <v>8709</v>
+        <v>8707</v>
       </c>
       <c r="E1537" s="1" t="s">
         <v>4445</v>
@@ -74644,7 +74644,7 @@
         <v>4444</v>
       </c>
       <c r="D1548" s="1" t="s">
-        <v>8738</v>
+        <v>8736</v>
       </c>
       <c r="E1548" s="1" t="s">
         <v>4543</v>
@@ -74664,7 +74664,7 @@
         <v>4444</v>
       </c>
       <c r="D1549" s="1" t="s">
-        <v>8743</v>
+        <v>8741</v>
       </c>
       <c r="E1549" s="1" t="s">
         <v>4558</v>
@@ -74721,7 +74721,7 @@
         <v>7</v>
       </c>
       <c r="D1552" s="1" t="s">
-        <v>9142</v>
+        <v>9140</v>
       </c>
       <c r="E1552" s="1" t="s">
         <v>5881</v>
@@ -74778,7 +74778,7 @@
         <v>6923</v>
       </c>
       <c r="D1555" s="1" t="s">
-        <v>9333</v>
+        <v>9331</v>
       </c>
       <c r="E1555" s="1" t="s">
         <v>7087</v>
@@ -74798,7 +74798,7 @@
         <v>4444</v>
       </c>
       <c r="D1556" s="1" t="s">
-        <v>8740</v>
+        <v>8738</v>
       </c>
       <c r="E1556" s="1" t="s">
         <v>4549</v>
@@ -74815,7 +74815,7 @@
         <v>7</v>
       </c>
       <c r="D1557" s="1" t="s">
-        <v>9091</v>
+        <v>9089</v>
       </c>
       <c r="E1557" s="1" t="s">
         <v>5736</v>
@@ -74835,7 +74835,7 @@
         <v>4444</v>
       </c>
       <c r="D1558" s="1" t="s">
-        <v>8739</v>
+        <v>8737</v>
       </c>
       <c r="E1558" s="1" t="s">
         <v>4546</v>
@@ -74852,7 +74852,7 @@
         <v>5874</v>
       </c>
       <c r="D1559" s="1" t="s">
-        <v>9140</v>
+        <v>9138</v>
       </c>
       <c r="E1559" s="1" t="s">
         <v>5875</v>
@@ -74892,7 +74892,7 @@
         <v>4444</v>
       </c>
       <c r="D1561" s="1" t="s">
-        <v>8742</v>
+        <v>8740</v>
       </c>
       <c r="E1561" s="1" t="s">
         <v>4555</v>
@@ -74912,7 +74912,7 @@
         <v>4444</v>
       </c>
       <c r="D1562" s="1" t="s">
-        <v>8741</v>
+        <v>8739</v>
       </c>
       <c r="E1562" s="1" t="s">
         <v>4552</v>
@@ -75012,7 +75012,7 @@
         <v>4444</v>
       </c>
       <c r="D1567" s="1" t="s">
-        <v>8710</v>
+        <v>8708</v>
       </c>
       <c r="E1567" s="1" t="s">
         <v>4448</v>
@@ -75032,7 +75032,7 @@
         <v>4444</v>
       </c>
       <c r="D1568" s="1" t="s">
-        <v>8744</v>
+        <v>8742</v>
       </c>
       <c r="E1568" s="1" t="s">
         <v>4561</v>
@@ -75072,7 +75072,7 @@
         <v>4444</v>
       </c>
       <c r="D1570" s="1" t="s">
-        <v>8737</v>
+        <v>8735</v>
       </c>
       <c r="E1570" s="1" t="s">
         <v>4540</v>
@@ -75109,7 +75109,7 @@
         <v>7</v>
       </c>
       <c r="D1572" s="1" t="s">
-        <v>9090</v>
+        <v>9088</v>
       </c>
       <c r="E1572" s="1" t="s">
         <v>5733</v>
@@ -75129,7 +75129,7 @@
         <v>4444</v>
       </c>
       <c r="D1573" s="1" t="s">
-        <v>8711</v>
+        <v>8709</v>
       </c>
       <c r="E1573" s="1" t="s">
         <v>4451</v>
@@ -75149,7 +75149,7 @@
         <v>4444</v>
       </c>
       <c r="D1574" s="1" t="s">
-        <v>8745</v>
+        <v>8743</v>
       </c>
       <c r="E1574" s="1" t="s">
         <v>4564</v>
@@ -75169,7 +75169,7 @@
         <v>4444</v>
       </c>
       <c r="D1575" s="1" t="s">
-        <v>8747</v>
+        <v>8745</v>
       </c>
       <c r="E1575" s="1" t="s">
         <v>4570</v>
@@ -75206,7 +75206,7 @@
         <v>1702</v>
       </c>
       <c r="D1577" s="1" t="s">
-        <v>9378</v>
+        <v>9376</v>
       </c>
       <c r="E1577" s="1" t="s">
         <v>7232</v>
@@ -75223,7 +75223,7 @@
         <v>15</v>
       </c>
       <c r="D1578" s="1" t="s">
-        <v>9355</v>
+        <v>9353</v>
       </c>
       <c r="E1578" s="1" t="s">
         <v>7163</v>
@@ -75300,7 +75300,7 @@
         <v>7</v>
       </c>
       <c r="D1582" s="1" t="s">
-        <v>8907</v>
+        <v>8905</v>
       </c>
       <c r="E1582" s="1" t="s">
         <v>3277</v>
@@ -75357,7 +75357,7 @@
         <v>87</v>
       </c>
       <c r="D1585" s="1" t="s">
-        <v>8814</v>
+        <v>8812</v>
       </c>
       <c r="E1585" s="1" t="s">
         <v>4791</v>
@@ -75377,7 +75377,7 @@
         <v>4444</v>
       </c>
       <c r="D1586" s="1" t="s">
-        <v>8729</v>
+        <v>8727</v>
       </c>
       <c r="E1586" s="1" t="s">
         <v>4517</v>
@@ -75417,7 +75417,7 @@
         <v>3839</v>
       </c>
       <c r="D1588" s="1" t="s">
-        <v>8798</v>
+        <v>8796</v>
       </c>
       <c r="E1588" s="1" t="s">
         <v>4744</v>
@@ -75511,7 +75511,7 @@
         <v>7</v>
       </c>
       <c r="D1593" s="1" t="s">
-        <v>9125</v>
+        <v>9123</v>
       </c>
       <c r="E1593" s="1" t="s">
         <v>5829</v>
@@ -75548,7 +75548,7 @@
         <v>1949</v>
       </c>
       <c r="D1595" s="1" t="s">
-        <v>9346</v>
+        <v>9344</v>
       </c>
       <c r="E1595" s="1" t="s">
         <v>7135</v>
@@ -75645,7 +75645,7 @@
         <v>7</v>
       </c>
       <c r="D1600" s="1" t="s">
-        <v>9021</v>
+        <v>9019</v>
       </c>
       <c r="E1600" s="1" t="s">
         <v>5500</v>
@@ -75682,7 +75682,7 @@
         <v>6599</v>
       </c>
       <c r="D1602" s="1" t="s">
-        <v>9377</v>
+        <v>9375</v>
       </c>
       <c r="E1602" s="1" t="s">
         <v>7229</v>
@@ -75699,7 +75699,7 @@
         <v>6599</v>
       </c>
       <c r="D1603" s="1" t="s">
-        <v>9376</v>
+        <v>9374</v>
       </c>
       <c r="E1603" s="1" t="s">
         <v>7226</v>
@@ -75716,7 +75716,7 @@
         <v>7</v>
       </c>
       <c r="D1604" s="1" t="s">
-        <v>8887</v>
+        <v>8885</v>
       </c>
       <c r="E1604" s="1" t="s">
         <v>5046</v>
@@ -75733,7 +75733,7 @@
         <v>7</v>
       </c>
       <c r="D1605" s="1" t="s">
-        <v>8887</v>
+        <v>8885</v>
       </c>
       <c r="E1605" s="1" t="s">
         <v>5046</v>
@@ -75790,7 +75790,7 @@
         <v>7</v>
       </c>
       <c r="D1608" s="1" t="s">
-        <v>9013</v>
+        <v>9011</v>
       </c>
       <c r="E1608" s="1" t="s">
         <v>5475</v>
@@ -75807,7 +75807,7 @@
         <v>7</v>
       </c>
       <c r="D1609" s="1" t="s">
-        <v>8803</v>
+        <v>8801</v>
       </c>
       <c r="E1609" s="1" t="s">
         <v>4759</v>
@@ -75901,7 +75901,7 @@
         <v>7</v>
       </c>
       <c r="D1614" s="1" t="s">
-        <v>9027</v>
+        <v>9025</v>
       </c>
       <c r="E1614" s="1" t="s">
         <v>5518</v>
@@ -75938,7 +75938,7 @@
         <v>42</v>
       </c>
       <c r="D1616" s="1" t="s">
-        <v>9271</v>
+        <v>9269</v>
       </c>
       <c r="E1616" s="1" t="s">
         <v>6887</v>
@@ -76032,7 +76032,7 @@
         <v>1985</v>
       </c>
       <c r="D1621" s="1" t="s">
-        <v>9263</v>
+        <v>9261</v>
       </c>
       <c r="E1621" s="1" t="s">
         <v>6861</v>
@@ -76069,7 +76069,7 @@
         <v>7</v>
       </c>
       <c r="D1623" s="1" t="s">
-        <v>9028</v>
+        <v>9026</v>
       </c>
       <c r="E1623" s="1" t="s">
         <v>5521</v>
@@ -76106,7 +76106,7 @@
         <v>7</v>
       </c>
       <c r="D1625" s="1" t="s">
-        <v>9158</v>
+        <v>9156</v>
       </c>
       <c r="E1625" s="1" t="s">
         <v>5937</v>
@@ -76314,7 +76314,7 @@
         <v>7</v>
       </c>
       <c r="D1636" s="1" t="s">
-        <v>9056</v>
+        <v>9054</v>
       </c>
       <c r="E1636" s="1" t="s">
         <v>5624</v>
@@ -76354,7 +76354,7 @@
         <v>6037</v>
       </c>
       <c r="D1638" s="1" t="s">
-        <v>9190</v>
+        <v>9188</v>
       </c>
       <c r="E1638" s="1" t="s">
         <v>6058</v>
@@ -76371,7 +76371,7 @@
         <v>1181</v>
       </c>
       <c r="D1639" s="1" t="s">
-        <v>9138</v>
+        <v>9136</v>
       </c>
       <c r="E1639" s="1" t="s">
         <v>5868</v>
@@ -76445,7 +76445,7 @@
         <v>7</v>
       </c>
       <c r="D1643" s="1" t="s">
-        <v>9118</v>
+        <v>9116</v>
       </c>
       <c r="E1643" s="1" t="s">
         <v>5801</v>
@@ -76639,7 +76639,7 @@
         <v>6997</v>
       </c>
       <c r="D1653" s="1" t="s">
-        <v>9311</v>
+        <v>9309</v>
       </c>
       <c r="E1653" s="1" t="s">
         <v>6998</v>
@@ -76656,7 +76656,7 @@
         <v>7</v>
       </c>
       <c r="D1654" s="1" t="s">
-        <v>8965</v>
+        <v>8963</v>
       </c>
       <c r="E1654" s="1" t="s">
         <v>5302</v>
@@ -76673,7 +76673,7 @@
         <v>7</v>
       </c>
       <c r="D1655" s="1" t="s">
-        <v>8965</v>
+        <v>8963</v>
       </c>
       <c r="E1655" s="1" t="s">
         <v>5302</v>
@@ -76690,7 +76690,7 @@
         <v>7</v>
       </c>
       <c r="D1656" s="1" t="s">
-        <v>9100</v>
+        <v>9098</v>
       </c>
       <c r="E1656" s="1" t="s">
         <v>5764</v>
@@ -76935,7 +76935,7 @@
         <v>87</v>
       </c>
       <c r="D1669" s="1" t="s">
-        <v>8854</v>
+        <v>8852</v>
       </c>
       <c r="E1669" s="1" t="s">
         <v>4911</v>
@@ -76992,7 +76992,7 @@
         <v>7</v>
       </c>
       <c r="D1672" s="1" t="s">
-        <v>9129</v>
+        <v>9127</v>
       </c>
       <c r="E1672" s="1" t="s">
         <v>5840</v>
@@ -77029,7 +77029,7 @@
         <v>7</v>
       </c>
       <c r="D1674" s="1" t="s">
-        <v>9020</v>
+        <v>9018</v>
       </c>
       <c r="E1674" s="1" t="s">
         <v>5494</v>
@@ -77243,7 +77243,7 @@
         <v>7</v>
       </c>
       <c r="D1685" s="1" t="s">
-        <v>9078</v>
+        <v>9076</v>
       </c>
       <c r="E1685" s="1" t="s">
         <v>5697</v>
@@ -77343,7 +77343,7 @@
         <v>4444</v>
       </c>
       <c r="D1690" s="1" t="s">
-        <v>8757</v>
+        <v>8755</v>
       </c>
       <c r="E1690" s="1" t="s">
         <v>4606</v>
@@ -77360,7 +77360,7 @@
         <v>2972</v>
       </c>
       <c r="D1691" s="1" t="s">
-        <v>8949</v>
+        <v>8947</v>
       </c>
       <c r="E1691" s="1" t="s">
         <v>5255</v>
@@ -77377,7 +77377,7 @@
         <v>7</v>
       </c>
       <c r="D1692" s="1" t="s">
-        <v>9018</v>
+        <v>9016</v>
       </c>
       <c r="E1692" s="1" t="s">
         <v>5490</v>
@@ -77417,7 +77417,7 @@
         <v>4444</v>
       </c>
       <c r="D1694" s="1" t="s">
-        <v>8785</v>
+        <v>8783</v>
       </c>
       <c r="E1694" s="1" t="s">
         <v>4700</v>
@@ -77437,7 +77437,7 @@
         <v>4444</v>
       </c>
       <c r="D1695" s="1" t="s">
-        <v>8785</v>
+        <v>8783</v>
       </c>
       <c r="E1695" s="1" t="s">
         <v>4700</v>
@@ -77457,7 +77457,7 @@
         <v>4444</v>
       </c>
       <c r="D1696" s="1" t="s">
-        <v>8784</v>
+        <v>8782</v>
       </c>
       <c r="E1696" s="1" t="s">
         <v>4696</v>
@@ -77477,7 +77477,7 @@
         <v>4444</v>
       </c>
       <c r="D1697" s="1" t="s">
-        <v>8746</v>
+        <v>8744</v>
       </c>
       <c r="E1697" s="1" t="s">
         <v>4567</v>
@@ -77494,7 +77494,7 @@
         <v>7</v>
       </c>
       <c r="D1698" s="1" t="s">
-        <v>8945</v>
+        <v>8943</v>
       </c>
       <c r="E1698" s="1" t="s">
         <v>5238</v>
@@ -77514,7 +77514,7 @@
         <v>1144</v>
       </c>
       <c r="D1699" s="1" t="s">
-        <v>8694</v>
+        <v>8692</v>
       </c>
       <c r="E1699" s="1" t="s">
         <v>4369</v>
@@ -77691,7 +77691,7 @@
         <v>2956</v>
       </c>
       <c r="D1708" s="1" t="s">
-        <v>9492</v>
+        <v>9490</v>
       </c>
       <c r="E1708" s="1" t="s">
         <v>3241</v>
@@ -77731,13 +77731,13 @@
         <v>6897</v>
       </c>
       <c r="D1710" s="1" t="s">
-        <v>9428</v>
+        <v>9426</v>
       </c>
       <c r="E1710" s="1" t="s">
-        <v>9281</v>
+        <v>9279</v>
       </c>
       <c r="F1710" s="1" t="s">
-        <v>9281</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="1711" spans="1:6">
@@ -77999,7 +77999,7 @@
         <v>247</v>
       </c>
       <c r="D1724" s="4" t="s">
-        <v>8924</v>
+        <v>8922</v>
       </c>
       <c r="E1724" s="4" t="s">
         <v>5174</v>
@@ -78016,7 +78016,7 @@
         <v>5203</v>
       </c>
       <c r="D1725" s="4" t="s">
-        <v>9269</v>
+        <v>9267</v>
       </c>
       <c r="E1725" s="4" t="s">
         <v>6881</v>
@@ -78036,7 +78036,7 @@
         <v>2806</v>
       </c>
       <c r="D1726" s="1" t="s">
-        <v>9387</v>
+        <v>9385</v>
       </c>
       <c r="E1726" s="1" t="s">
         <v>4110</v>
@@ -78056,7 +78056,7 @@
         <v>1945</v>
       </c>
       <c r="D1727" s="1" t="s">
-        <v>8898</v>
+        <v>8896</v>
       </c>
       <c r="E1727" s="1" t="s">
         <v>5089</v>
@@ -78096,7 +78096,7 @@
         <v>1945</v>
       </c>
       <c r="D1729" s="1" t="s">
-        <v>8899</v>
+        <v>8897</v>
       </c>
       <c r="E1729" s="1" t="s">
         <v>5092</v>
@@ -78273,7 +78273,7 @@
         <v>6599</v>
       </c>
       <c r="D1738" s="1" t="s">
-        <v>9366</v>
+        <v>9364</v>
       </c>
       <c r="E1738" s="1" t="s">
         <v>7200</v>
@@ -78290,7 +78290,7 @@
         <v>7</v>
       </c>
       <c r="D1739" s="1" t="s">
-        <v>8968</v>
+        <v>8966</v>
       </c>
       <c r="E1739" s="1" t="s">
         <v>5312</v>
@@ -78347,7 +78347,7 @@
         <v>7</v>
       </c>
       <c r="D1742" s="1" t="s">
-        <v>8809</v>
+        <v>8807</v>
       </c>
       <c r="E1742" s="1" t="s">
         <v>4772</v>
@@ -78364,7 +78364,7 @@
         <v>7</v>
       </c>
       <c r="D1743" s="1" t="s">
-        <v>8832</v>
+        <v>8830</v>
       </c>
       <c r="E1743" s="1" t="s">
         <v>4845</v>
@@ -78438,7 +78438,7 @@
         <v>7</v>
       </c>
       <c r="D1747" s="1" t="s">
-        <v>8951</v>
+        <v>8949</v>
       </c>
       <c r="E1747" s="1" t="s">
         <v>5264</v>
@@ -78498,7 +78498,7 @@
         <v>2568</v>
       </c>
       <c r="D1750" s="1" t="s">
-        <v>9425</v>
+        <v>9423</v>
       </c>
       <c r="E1750" s="1" t="s">
         <v>2626</v>
@@ -78575,7 +78575,7 @@
         <v>1945</v>
       </c>
       <c r="D1754" s="1" t="s">
-        <v>9519</v>
+        <v>9517</v>
       </c>
       <c r="E1754" s="1" t="s">
         <v>2069</v>
@@ -78655,7 +78655,7 @@
         <v>2551</v>
       </c>
       <c r="D1758" s="1" t="s">
-        <v>9520</v>
+        <v>9518</v>
       </c>
       <c r="E1758" s="1" t="s">
         <v>2555</v>
@@ -78675,7 +78675,7 @@
         <v>2551</v>
       </c>
       <c r="D1759" s="1" t="s">
-        <v>9521</v>
+        <v>9519</v>
       </c>
       <c r="E1759" s="1" t="s">
         <v>2552</v>
@@ -78695,7 +78695,7 @@
         <v>3444</v>
       </c>
       <c r="D1760" s="1" t="s">
-        <v>9420</v>
+        <v>9418</v>
       </c>
       <c r="E1760" s="1" t="s">
         <v>3488</v>
@@ -78732,7 +78732,7 @@
         <v>7</v>
       </c>
       <c r="D1762" s="1" t="s">
-        <v>8840</v>
+        <v>8838</v>
       </c>
       <c r="E1762" s="1" t="s">
         <v>4872</v>
@@ -78749,7 +78749,7 @@
         <v>27</v>
       </c>
       <c r="D1763" s="1" t="s">
-        <v>9024</v>
+        <v>9022</v>
       </c>
       <c r="E1763" s="1" t="s">
         <v>5509</v>
@@ -78786,7 +78786,7 @@
         <v>7</v>
       </c>
       <c r="D1765" s="1" t="s">
-        <v>8847</v>
+        <v>8845</v>
       </c>
       <c r="E1765" s="1" t="s">
         <v>4893</v>
@@ -78997,7 +78997,7 @@
         <v>5324</v>
       </c>
       <c r="D1776" s="4" t="s">
-        <v>8972</v>
+        <v>8970</v>
       </c>
       <c r="E1776" s="4" t="s">
         <v>5325</v>
@@ -79051,7 +79051,7 @@
         <v>1377</v>
       </c>
       <c r="D1779" s="4" t="s">
-        <v>9363</v>
+        <v>9361</v>
       </c>
       <c r="E1779" s="4" t="s">
         <v>7190</v>
@@ -79068,7 +79068,7 @@
         <v>7</v>
       </c>
       <c r="D1780" s="1" t="s">
-        <v>9117</v>
+        <v>9115</v>
       </c>
       <c r="E1780" s="1" t="s">
         <v>5798</v>
@@ -79185,7 +79185,7 @@
         <v>87</v>
       </c>
       <c r="D1786" s="1" t="s">
-        <v>9522</v>
+        <v>9520</v>
       </c>
       <c r="E1786" s="1" t="s">
         <v>4995</v>
@@ -79202,7 +79202,7 @@
         <v>7</v>
       </c>
       <c r="D1787" s="1" t="s">
-        <v>8876</v>
+        <v>8874</v>
       </c>
       <c r="E1787" s="1" t="s">
         <v>5008</v>
@@ -79222,7 +79222,7 @@
         <v>4444</v>
       </c>
       <c r="D1788" s="1" t="s">
-        <v>8772</v>
+        <v>8770</v>
       </c>
       <c r="E1788" s="1" t="s">
         <v>4661</v>
@@ -79242,7 +79242,7 @@
         <v>4444</v>
       </c>
       <c r="D1789" s="1" t="s">
-        <v>8776</v>
+        <v>8774</v>
       </c>
       <c r="E1789" s="1" t="s">
         <v>4673</v>
@@ -79279,7 +79279,7 @@
         <v>7</v>
       </c>
       <c r="D1791" s="1" t="s">
-        <v>8841</v>
+        <v>8839</v>
       </c>
       <c r="E1791" s="1" t="s">
         <v>4875</v>
@@ -79296,7 +79296,7 @@
         <v>7</v>
       </c>
       <c r="D1792" s="1" t="s">
-        <v>8842</v>
+        <v>8840</v>
       </c>
       <c r="E1792" s="1" t="s">
         <v>4879</v>
@@ -79313,7 +79313,7 @@
         <v>7</v>
       </c>
       <c r="D1793" s="1" t="s">
-        <v>8845</v>
+        <v>8843</v>
       </c>
       <c r="E1793" s="1" t="s">
         <v>4887</v>
@@ -79330,7 +79330,7 @@
         <v>2160</v>
       </c>
       <c r="D1794" s="1" t="s">
-        <v>8846</v>
+        <v>8844</v>
       </c>
       <c r="E1794" s="1" t="s">
         <v>4890</v>
@@ -79347,7 +79347,7 @@
         <v>7</v>
       </c>
       <c r="D1795" s="1" t="s">
-        <v>9135</v>
+        <v>9133</v>
       </c>
       <c r="E1795" s="1" t="s">
         <v>5860</v>
@@ -79364,7 +79364,7 @@
         <v>7</v>
       </c>
       <c r="D1796" s="1" t="s">
-        <v>8954</v>
+        <v>8952</v>
       </c>
       <c r="E1796" s="1" t="s">
         <v>5276</v>
@@ -79381,7 +79381,7 @@
         <v>7</v>
       </c>
       <c r="D1797" s="1" t="s">
-        <v>8843</v>
+        <v>8841</v>
       </c>
       <c r="E1797" s="1" t="s">
         <v>4882</v>
@@ -79398,7 +79398,7 @@
         <v>7</v>
       </c>
       <c r="D1798" s="1" t="s">
-        <v>8844</v>
+        <v>8842</v>
       </c>
       <c r="E1798" s="1" t="s">
         <v>4884</v>
@@ -79418,7 +79418,7 @@
         <v>1945</v>
       </c>
       <c r="D1799" s="4" t="s">
-        <v>9523</v>
+        <v>9521</v>
       </c>
       <c r="E1799" s="4" t="s">
         <v>5071</v>
@@ -79438,7 +79438,7 @@
         <v>1945</v>
       </c>
       <c r="D1800" s="4" t="s">
-        <v>9524</v>
+        <v>9522</v>
       </c>
       <c r="E1800" s="4" t="s">
         <v>5068</v>
@@ -79455,7 +79455,7 @@
         <v>7</v>
       </c>
       <c r="D1801" s="1" t="s">
-        <v>8946</v>
+        <v>8944</v>
       </c>
       <c r="E1801" s="1" t="s">
         <v>5241</v>
@@ -79532,7 +79532,7 @@
         <v>7</v>
       </c>
       <c r="D1805" s="1" t="s">
-        <v>8802</v>
+        <v>8800</v>
       </c>
       <c r="E1805" s="1" t="s">
         <v>4756</v>
@@ -79632,7 +79632,7 @@
         <v>3828</v>
       </c>
       <c r="D1810" s="1" t="s">
-        <v>9385</v>
+        <v>9383</v>
       </c>
       <c r="E1810" s="1" t="s">
         <v>4034</v>
@@ -79652,7 +79652,7 @@
         <v>2956</v>
       </c>
       <c r="D1811" s="1" t="s">
-        <v>9525</v>
+        <v>9523</v>
       </c>
       <c r="E1811" s="1" t="s">
         <v>3217</v>
@@ -79709,7 +79709,7 @@
         <v>3067</v>
       </c>
       <c r="D1814" s="1" t="s">
-        <v>9257</v>
+        <v>9255</v>
       </c>
       <c r="E1814" s="1" t="s">
         <v>6837</v>
@@ -79729,7 +79729,7 @@
         <v>3265</v>
       </c>
       <c r="D1815" s="1" t="s">
-        <v>9526</v>
+        <v>9524</v>
       </c>
       <c r="E1815" s="1" t="s">
         <v>3269</v>
@@ -79749,7 +79749,7 @@
         <v>709</v>
       </c>
       <c r="D1816" s="1" t="s">
-        <v>9439</v>
+        <v>9437</v>
       </c>
       <c r="E1816" s="1" t="s">
         <v>6634</v>
@@ -79769,7 +79769,7 @@
         <v>709</v>
       </c>
       <c r="D1817" s="1" t="s">
-        <v>9438</v>
+        <v>9436</v>
       </c>
       <c r="E1817" s="1" t="s">
         <v>6631</v>
@@ -79789,7 +79789,7 @@
         <v>709</v>
       </c>
       <c r="D1818" s="1" t="s">
-        <v>9437</v>
+        <v>9435</v>
       </c>
       <c r="E1818" s="1" t="s">
         <v>6637</v>
@@ -79809,7 +79809,7 @@
         <v>709</v>
       </c>
       <c r="D1819" s="1" t="s">
-        <v>9527</v>
+        <v>9525</v>
       </c>
       <c r="E1819" s="1" t="s">
         <v>1617</v>
@@ -80223,7 +80223,7 @@
         <v>6061</v>
       </c>
       <c r="D1840" s="1" t="s">
-        <v>9196</v>
+        <v>9194</v>
       </c>
       <c r="E1840" s="1" t="s">
         <v>6087</v>
@@ -80240,7 +80240,7 @@
         <v>216</v>
       </c>
       <c r="D1841" s="1" t="s">
-        <v>9239</v>
+        <v>9237</v>
       </c>
       <c r="E1841" s="1" t="s">
         <v>6778</v>
@@ -80257,7 +80257,7 @@
         <v>7</v>
       </c>
       <c r="D1842" s="1" t="s">
-        <v>9089</v>
+        <v>9087</v>
       </c>
       <c r="E1842" s="1" t="s">
         <v>5730</v>
@@ -80277,7 +80277,7 @@
         <v>709</v>
       </c>
       <c r="D1843" s="4" t="s">
-        <v>9528</v>
+        <v>9526</v>
       </c>
       <c r="E1843" s="4" t="s">
         <v>1390</v>
@@ -80377,7 +80377,7 @@
         <v>4444</v>
       </c>
       <c r="D1848" s="1" t="s">
-        <v>8786</v>
+        <v>8784</v>
       </c>
       <c r="E1848" s="1" t="s">
         <v>4702</v>
@@ -80591,7 +80591,7 @@
         <v>7</v>
       </c>
       <c r="D1859" s="1" t="s">
-        <v>8928</v>
+        <v>8926</v>
       </c>
       <c r="E1859" s="1" t="s">
         <v>5188</v>
@@ -80671,7 +80671,7 @@
         <v>4444</v>
       </c>
       <c r="D1863" s="1" t="s">
-        <v>8761</v>
+        <v>8759</v>
       </c>
       <c r="E1863" s="1" t="s">
         <v>681</v>
@@ -80691,7 +80691,7 @@
         <v>4444</v>
       </c>
       <c r="D1864" s="1" t="s">
-        <v>8762</v>
+        <v>8760</v>
       </c>
       <c r="E1864" s="1" t="s">
         <v>4620</v>
@@ -80708,7 +80708,7 @@
         <v>7</v>
       </c>
       <c r="D1865" s="4" t="s">
-        <v>9529</v>
+        <v>9527</v>
       </c>
       <c r="E1865" s="4" t="s">
         <v>5633</v>
@@ -80728,7 +80728,7 @@
         <v>3444</v>
       </c>
       <c r="D1866" s="1" t="s">
-        <v>9530</v>
+        <v>9528</v>
       </c>
       <c r="E1866" s="1" t="s">
         <v>3461</v>
@@ -80745,7 +80745,7 @@
         <v>7</v>
       </c>
       <c r="D1867" s="1" t="s">
-        <v>9095</v>
+        <v>9093</v>
       </c>
       <c r="E1867" s="1" t="s">
         <v>5749</v>
@@ -81025,7 +81025,7 @@
         <v>6061</v>
       </c>
       <c r="D1881" s="1" t="s">
-        <v>9450</v>
+        <v>9448</v>
       </c>
       <c r="E1881" s="1" t="s">
         <v>173</v>
@@ -81062,7 +81062,7 @@
         <v>1034</v>
       </c>
       <c r="D1883" s="1" t="s">
-        <v>9307</v>
+        <v>9305</v>
       </c>
       <c r="E1883" s="1" t="s">
         <v>6985</v>
@@ -81099,7 +81099,7 @@
         <v>1034</v>
       </c>
       <c r="D1885" s="1" t="s">
-        <v>9304</v>
+        <v>9302</v>
       </c>
       <c r="E1885" s="1" t="s">
         <v>6976</v>
@@ -81116,7 +81116,7 @@
         <v>1034</v>
       </c>
       <c r="D1886" s="1" t="s">
-        <v>9302</v>
+        <v>9300</v>
       </c>
       <c r="E1886" s="1" t="s">
         <v>6970</v>
@@ -81193,7 +81193,7 @@
         <v>1034</v>
       </c>
       <c r="D1890" s="1" t="s">
-        <v>9308</v>
+        <v>9306</v>
       </c>
       <c r="E1890" s="1" t="s">
         <v>6987</v>
@@ -81210,7 +81210,7 @@
         <v>1034</v>
       </c>
       <c r="D1891" s="1" t="s">
-        <v>9301</v>
+        <v>9299</v>
       </c>
       <c r="E1891" s="1" t="s">
         <v>6967</v>
@@ -81247,7 +81247,7 @@
         <v>1034</v>
       </c>
       <c r="D1893" s="1" t="s">
-        <v>9306</v>
+        <v>9304</v>
       </c>
       <c r="E1893" s="1" t="s">
         <v>6982</v>
@@ -81344,7 +81344,7 @@
         <v>1034</v>
       </c>
       <c r="D1898" s="1" t="s">
-        <v>9305</v>
+        <v>9303</v>
       </c>
       <c r="E1898" s="1" t="s">
         <v>6979</v>
@@ -81481,7 +81481,7 @@
         <v>7</v>
       </c>
       <c r="D1905" s="1" t="s">
-        <v>9055</v>
+        <v>9053</v>
       </c>
       <c r="E1905" s="1" t="s">
         <v>5621</v>
@@ -81598,7 +81598,7 @@
         <v>1034</v>
       </c>
       <c r="D1911" s="1" t="s">
-        <v>9303</v>
+        <v>9301</v>
       </c>
       <c r="E1911" s="1" t="s">
         <v>6973</v>
@@ -81655,7 +81655,7 @@
         <v>3233</v>
       </c>
       <c r="D1914" s="1" t="s">
-        <v>9172</v>
+        <v>9170</v>
       </c>
       <c r="E1914" s="1" t="s">
         <v>5986</v>
@@ -81695,7 +81695,7 @@
         <v>2956</v>
       </c>
       <c r="D1916" s="1" t="s">
-        <v>9531</v>
+        <v>9529</v>
       </c>
       <c r="E1916" s="1" t="s">
         <v>3214</v>
@@ -81775,7 +81775,7 @@
         <v>3839</v>
       </c>
       <c r="D1920" s="1" t="s">
-        <v>8796</v>
+        <v>8794</v>
       </c>
       <c r="E1920" s="1" t="s">
         <v>4738</v>
@@ -81792,7 +81792,7 @@
         <v>7</v>
       </c>
       <c r="D1921" s="1" t="s">
-        <v>9103</v>
+        <v>9101</v>
       </c>
       <c r="E1921" s="1" t="s">
         <v>5772</v>
@@ -81809,7 +81809,7 @@
         <v>7106</v>
       </c>
       <c r="D1922" s="1" t="s">
-        <v>9340</v>
+        <v>9338</v>
       </c>
       <c r="E1922" s="1" t="s">
         <v>7113</v>
@@ -81846,7 +81846,7 @@
         <v>7</v>
       </c>
       <c r="D1924" s="1" t="s">
-        <v>8827</v>
+        <v>8825</v>
       </c>
       <c r="E1924" s="1" t="s">
         <v>4835</v>
@@ -81863,13 +81863,13 @@
         <v>3379</v>
       </c>
       <c r="D1925" s="1" t="s">
-        <v>9403</v>
+        <v>9401</v>
       </c>
       <c r="E1925" s="1" t="s">
-        <v>9286</v>
+        <v>9284</v>
       </c>
       <c r="F1925" t="s">
-        <v>9287</v>
+        <v>9285</v>
       </c>
     </row>
     <row r="1926" spans="1:6">
@@ -81880,7 +81880,7 @@
         <v>7</v>
       </c>
       <c r="D1926" s="1" t="s">
-        <v>8838</v>
+        <v>8836</v>
       </c>
       <c r="E1926" s="1" t="s">
         <v>4866</v>
@@ -81917,7 +81917,7 @@
         <v>7</v>
       </c>
       <c r="D1928" s="1" t="s">
-        <v>9037</v>
+        <v>9035</v>
       </c>
       <c r="E1928" s="1" t="s">
         <v>5555</v>
@@ -81937,7 +81937,7 @@
         <v>2858</v>
       </c>
       <c r="D1929" s="1" t="s">
-        <v>9532</v>
+        <v>9530</v>
       </c>
       <c r="E1929" s="1" t="s">
         <v>2932</v>
@@ -81954,7 +81954,7 @@
         <v>7</v>
       </c>
       <c r="D1930" s="1" t="s">
-        <v>9015</v>
+        <v>9013</v>
       </c>
       <c r="E1930" s="1" t="s">
         <v>5482</v>
@@ -81971,7 +81971,7 @@
         <v>1414</v>
       </c>
       <c r="D1931" s="1" t="s">
-        <v>9321</v>
+        <v>9319</v>
       </c>
       <c r="E1931" s="1" t="s">
         <v>7043</v>
@@ -82028,7 +82028,7 @@
         <v>7</v>
       </c>
       <c r="D1934" s="1" t="s">
-        <v>9123</v>
+        <v>9121</v>
       </c>
       <c r="E1934" s="1" t="s">
         <v>5823</v>
@@ -82065,7 +82065,7 @@
         <v>6867</v>
       </c>
       <c r="D1936" s="1" t="s">
-        <v>9265</v>
+        <v>9263</v>
       </c>
       <c r="E1936" s="1" t="s">
         <v>6868</v>
@@ -82082,7 +82082,7 @@
         <v>7</v>
       </c>
       <c r="D1937" s="1" t="s">
-        <v>8957</v>
+        <v>8955</v>
       </c>
       <c r="E1937" s="1" t="s">
         <v>5285</v>
@@ -82099,7 +82099,7 @@
         <v>7</v>
       </c>
       <c r="D1938" s="1" t="s">
-        <v>9145</v>
+        <v>9143</v>
       </c>
       <c r="E1938" s="1" t="s">
         <v>5890</v>
@@ -82136,7 +82136,7 @@
         <v>46</v>
       </c>
       <c r="D1940" s="1" t="s">
-        <v>9171</v>
+        <v>9169</v>
       </c>
       <c r="E1940" s="1" t="s">
         <v>5984</v>
@@ -82256,7 +82256,7 @@
         <v>2568</v>
       </c>
       <c r="D1946" s="1" t="s">
-        <v>9408</v>
+        <v>9406</v>
       </c>
       <c r="E1946" s="1" t="s">
         <v>2611</v>
@@ -82330,7 +82330,7 @@
         <v>15</v>
       </c>
       <c r="D1950" s="1" t="s">
-        <v>9359</v>
+        <v>9357</v>
       </c>
       <c r="E1950" s="1" t="s">
         <v>7175</v>
@@ -82367,7 +82367,7 @@
         <v>15</v>
       </c>
       <c r="D1952" s="1" t="s">
-        <v>9361</v>
+        <v>9359</v>
       </c>
       <c r="E1952" s="1" t="s">
         <v>7181</v>
@@ -82541,7 +82541,7 @@
         <v>7</v>
       </c>
       <c r="D1961" s="1" t="s">
-        <v>8977</v>
+        <v>8975</v>
       </c>
       <c r="E1961" s="1" t="s">
         <v>5342</v>
@@ -82592,7 +82592,7 @@
         <v>7</v>
       </c>
       <c r="D1964" s="1" t="s">
-        <v>8810</v>
+        <v>8808</v>
       </c>
       <c r="E1964" s="1" t="s">
         <v>4779</v>
@@ -82609,7 +82609,7 @@
         <v>7</v>
       </c>
       <c r="D1965" s="1" t="s">
-        <v>8810</v>
+        <v>8808</v>
       </c>
       <c r="E1965" s="1" t="s">
         <v>4779</v>
@@ -82683,7 +82683,7 @@
         <v>7</v>
       </c>
       <c r="D1969" s="1" t="s">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="E1969" s="1" t="s">
         <v>5433</v>
@@ -82720,7 +82720,7 @@
         <v>7</v>
       </c>
       <c r="D1971" s="1" t="s">
-        <v>9042</v>
+        <v>9040</v>
       </c>
       <c r="E1971" s="1" t="s">
         <v>5571</v>
@@ -82780,13 +82780,13 @@
         <v>6897</v>
       </c>
       <c r="D1974" s="1" t="s">
-        <v>9429</v>
+        <v>9427</v>
       </c>
       <c r="E1974" s="1" t="s">
-        <v>9279</v>
+        <v>9277</v>
       </c>
       <c r="F1974" t="s">
-        <v>9280</v>
+        <v>9278</v>
       </c>
     </row>
     <row r="1975" spans="1:6">
@@ -82817,7 +82817,7 @@
         <v>7</v>
       </c>
       <c r="D1976" s="1" t="s">
-        <v>9019</v>
+        <v>9017</v>
       </c>
       <c r="E1976" s="1" t="s">
         <v>5492</v>
@@ -82834,7 +82834,7 @@
         <v>3067</v>
       </c>
       <c r="D1977" s="1" t="s">
-        <v>9256</v>
+        <v>9254</v>
       </c>
       <c r="E1977" s="1" t="s">
         <v>6833</v>
@@ -82891,7 +82891,7 @@
         <v>7</v>
       </c>
       <c r="D1980" s="1" t="s">
-        <v>8812</v>
+        <v>8810</v>
       </c>
       <c r="E1980" s="1" t="s">
         <v>4785</v>
@@ -82968,13 +82968,13 @@
         <v>7</v>
       </c>
       <c r="D1984" s="1" t="s">
-        <v>9433</v>
+        <v>9431</v>
       </c>
       <c r="E1984" s="1" t="s">
-        <v>9108</v>
+        <v>9106</v>
       </c>
       <c r="F1984" s="1" t="s">
-        <v>9109</v>
+        <v>9107</v>
       </c>
     </row>
     <row r="1985" spans="1:6">
@@ -82985,13 +82985,13 @@
         <v>7</v>
       </c>
       <c r="D1985" s="1" t="s">
-        <v>9432</v>
+        <v>9430</v>
       </c>
       <c r="E1985" s="1" t="s">
-        <v>9106</v>
+        <v>9104</v>
       </c>
       <c r="F1985" t="s">
-        <v>9107</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="1986" spans="1:6">
@@ -83105,7 +83105,7 @@
         <v>1945</v>
       </c>
       <c r="D1991" s="1" t="s">
-        <v>8892</v>
+        <v>8890</v>
       </c>
       <c r="E1991" s="1" t="s">
         <v>5065</v>
@@ -83125,7 +83125,7 @@
         <v>1945</v>
       </c>
       <c r="D1992" s="1" t="s">
-        <v>8897</v>
+        <v>8895</v>
       </c>
       <c r="E1992" s="1" t="s">
         <v>5086</v>
@@ -83225,7 +83225,7 @@
         <v>1891</v>
       </c>
       <c r="D1997" s="1" t="s">
-        <v>8692</v>
+        <v>8690</v>
       </c>
       <c r="E1997" s="1" t="s">
         <v>4363</v>
@@ -83242,7 +83242,7 @@
         <v>980</v>
       </c>
       <c r="D1998" s="1" t="s">
-        <v>9446</v>
+        <v>9444</v>
       </c>
       <c r="E1998" s="1" t="s">
         <v>981</v>
@@ -83282,7 +83282,7 @@
         <v>709</v>
       </c>
       <c r="D2000" s="1" t="s">
-        <v>9539</v>
+        <v>9537</v>
       </c>
       <c r="E2000" s="1" t="s">
         <v>1584</v>
@@ -83302,7 +83302,7 @@
         <v>709</v>
       </c>
       <c r="D2001" s="1" t="s">
-        <v>9538</v>
+        <v>9536</v>
       </c>
       <c r="E2001" s="1" t="s">
         <v>1587</v>
@@ -83322,7 +83322,7 @@
         <v>709</v>
       </c>
       <c r="D2002" s="4" t="s">
-        <v>9533</v>
+        <v>9531</v>
       </c>
       <c r="E2002" s="4" t="s">
         <v>1639</v>
@@ -83382,7 +83382,7 @@
         <v>2669</v>
       </c>
       <c r="D2005" s="4" t="s">
-        <v>9534</v>
+        <v>9532</v>
       </c>
       <c r="E2005" s="4" t="s">
         <v>2698</v>
@@ -83402,7 +83402,7 @@
         <v>2669</v>
       </c>
       <c r="D2006" s="4" t="s">
-        <v>9535</v>
+        <v>9533</v>
       </c>
       <c r="E2006" s="4" t="s">
         <v>2695</v>
@@ -83422,7 +83422,7 @@
         <v>709</v>
       </c>
       <c r="D2007" s="1" t="s">
-        <v>9540</v>
+        <v>9538</v>
       </c>
       <c r="E2007" s="1" t="s">
         <v>1593</v>
@@ -83442,7 +83442,7 @@
         <v>709</v>
       </c>
       <c r="D2008" s="4" t="s">
-        <v>9536</v>
+        <v>9534</v>
       </c>
       <c r="E2008" s="4" t="s">
         <v>1286</v>
@@ -83462,7 +83462,7 @@
         <v>709</v>
       </c>
       <c r="D2009" s="1" t="s">
-        <v>9537</v>
+        <v>9535</v>
       </c>
       <c r="E2009" s="1" t="s">
         <v>1590</v>
@@ -83479,7 +83479,7 @@
         <v>4797</v>
       </c>
       <c r="D2010" s="1" t="s">
-        <v>8816</v>
+        <v>8814</v>
       </c>
       <c r="E2010" s="1" t="s">
         <v>4798</v>
@@ -83556,7 +83556,7 @@
         <v>7</v>
       </c>
       <c r="D2014" s="1" t="s">
-        <v>9031</v>
+        <v>9029</v>
       </c>
       <c r="E2014" s="1" t="s">
         <v>5538</v>
@@ -84210,7 +84210,7 @@
         <v>7</v>
       </c>
       <c r="D2047" s="1" t="s">
-        <v>9046</v>
+        <v>9044</v>
       </c>
       <c r="E2047" s="1" t="s">
         <v>5592</v>
@@ -84247,7 +84247,7 @@
         <v>7</v>
       </c>
       <c r="D2049" s="1" t="s">
-        <v>9080</v>
+        <v>9078</v>
       </c>
       <c r="E2049" s="1" t="s">
         <v>5703</v>
@@ -84264,7 +84264,7 @@
         <v>7</v>
       </c>
       <c r="D2050" s="1" t="s">
-        <v>9074</v>
+        <v>9072</v>
       </c>
       <c r="E2050" s="1" t="s">
         <v>5685</v>
@@ -84321,7 +84321,7 @@
         <v>4444</v>
       </c>
       <c r="D2053" s="1" t="s">
-        <v>9541</v>
+        <v>9539</v>
       </c>
       <c r="E2053" s="1" t="s">
         <v>4493</v>
@@ -84338,7 +84338,7 @@
         <v>7</v>
       </c>
       <c r="D2054" s="1" t="s">
-        <v>9170</v>
+        <v>9168</v>
       </c>
       <c r="E2054" s="1" t="s">
         <v>5977</v>
@@ -84355,7 +84355,7 @@
         <v>7</v>
       </c>
       <c r="D2055" s="1" t="s">
-        <v>9173</v>
+        <v>9171</v>
       </c>
       <c r="E2055" s="1" t="s">
         <v>5991</v>
@@ -84595,7 +84595,7 @@
         <v>4444</v>
       </c>
       <c r="D2067" s="1" t="s">
-        <v>8791</v>
+        <v>8789</v>
       </c>
       <c r="E2067" s="1" t="s">
         <v>4719</v>
@@ -84615,7 +84615,7 @@
         <v>4444</v>
       </c>
       <c r="D2068" s="1" t="s">
-        <v>8793</v>
+        <v>8791</v>
       </c>
       <c r="E2068" s="1" t="s">
         <v>4725</v>
@@ -84635,7 +84635,7 @@
         <v>4444</v>
       </c>
       <c r="D2069" s="1" t="s">
-        <v>8756</v>
+        <v>8754</v>
       </c>
       <c r="E2069" s="1" t="s">
         <v>4601</v>
@@ -84652,7 +84652,7 @@
         <v>7</v>
       </c>
       <c r="D2070" s="1" t="s">
-        <v>9155</v>
+        <v>9153</v>
       </c>
       <c r="E2070" s="1" t="s">
         <v>5919</v>
@@ -84669,7 +84669,7 @@
         <v>1702</v>
       </c>
       <c r="D2071" s="4" t="s">
-        <v>9057</v>
+        <v>9055</v>
       </c>
       <c r="E2071" s="4" t="s">
         <v>5627</v>
@@ -84706,7 +84706,7 @@
         <v>7</v>
       </c>
       <c r="D2073" s="1" t="s">
-        <v>8834</v>
+        <v>8832</v>
       </c>
       <c r="E2073" s="1" t="s">
         <v>4851</v>
@@ -84726,7 +84726,7 @@
         <v>1945</v>
       </c>
       <c r="D2074" s="4" t="s">
-        <v>8894</v>
+        <v>8892</v>
       </c>
       <c r="E2074" s="4" t="s">
         <v>5077</v>
@@ -84746,7 +84746,7 @@
         <v>1945</v>
       </c>
       <c r="D2075" s="1" t="s">
-        <v>8896</v>
+        <v>8894</v>
       </c>
       <c r="E2075" s="1" t="s">
         <v>5083</v>
@@ -84766,7 +84766,7 @@
         <v>1945</v>
       </c>
       <c r="D2076" s="1" t="s">
-        <v>8895</v>
+        <v>8893</v>
       </c>
       <c r="E2076" s="1" t="s">
         <v>5080</v>
@@ -84826,7 +84826,7 @@
         <v>4444</v>
       </c>
       <c r="D2079" s="1" t="s">
-        <v>9324</v>
+        <v>9322</v>
       </c>
       <c r="E2079" s="1" t="s">
         <v>7055</v>
@@ -84843,7 +84843,7 @@
         <v>7</v>
       </c>
       <c r="D2080" s="1" t="s">
-        <v>9029</v>
+        <v>9027</v>
       </c>
       <c r="E2080" s="1" t="s">
         <v>5524</v>
@@ -84960,7 +84960,7 @@
         <v>7</v>
       </c>
       <c r="D2086" s="1" t="s">
-        <v>9065</v>
+        <v>9063</v>
       </c>
       <c r="E2086" s="1" t="s">
         <v>5658</v>
@@ -85000,7 +85000,7 @@
         <v>217</v>
       </c>
       <c r="D2088" t="s">
-        <v>9468</v>
+        <v>9466</v>
       </c>
       <c r="E2088" s="1" t="s">
         <v>277</v>
@@ -85040,7 +85040,7 @@
         <v>3828</v>
       </c>
       <c r="D2090" s="1" t="s">
-        <v>9386</v>
+        <v>9384</v>
       </c>
       <c r="E2090" s="1" t="s">
         <v>4019</v>
@@ -85177,7 +85177,7 @@
         <v>7</v>
       </c>
       <c r="D2097" s="1" t="s">
-        <v>8962</v>
+        <v>8960</v>
       </c>
       <c r="E2097" s="1" t="s">
         <v>5292</v>
@@ -85214,7 +85214,7 @@
         <v>7</v>
       </c>
       <c r="D2099" s="1" t="s">
-        <v>9059</v>
+        <v>9057</v>
       </c>
       <c r="E2099" s="1" t="s">
         <v>5639</v>
@@ -85231,7 +85231,7 @@
         <v>7</v>
       </c>
       <c r="D2100" s="1" t="s">
-        <v>9059</v>
+        <v>9057</v>
       </c>
       <c r="E2100" s="1" t="s">
         <v>5639</v>
@@ -85251,7 +85251,7 @@
         <v>695</v>
       </c>
       <c r="D2101" s="1" t="s">
-        <v>9477</v>
+        <v>9475</v>
       </c>
       <c r="E2101" s="1" t="s">
         <v>702</v>
@@ -85268,7 +85268,7 @@
         <v>390</v>
       </c>
       <c r="D2102" s="1" t="s">
-        <v>9316</v>
+        <v>9314</v>
       </c>
       <c r="E2102" s="1" t="s">
         <v>7018</v>
@@ -85365,7 +85365,7 @@
         <v>247</v>
       </c>
       <c r="D2107" s="1" t="s">
-        <v>9334</v>
+        <v>9332</v>
       </c>
       <c r="E2107" s="1" t="s">
         <v>7090</v>
@@ -85422,7 +85422,7 @@
         <v>7</v>
       </c>
       <c r="D2110" s="1" t="s">
-        <v>9050</v>
+        <v>9048</v>
       </c>
       <c r="E2110" s="1" t="s">
         <v>5603</v>
@@ -85442,7 +85442,7 @@
         <v>4444</v>
       </c>
       <c r="D2111" s="1" t="s">
-        <v>8733</v>
+        <v>8731</v>
       </c>
       <c r="E2111" s="1" t="s">
         <v>4529</v>
@@ -85499,7 +85499,7 @@
         <v>7</v>
       </c>
       <c r="D2114" s="1" t="s">
-        <v>9051</v>
+        <v>9049</v>
       </c>
       <c r="E2114" s="1" t="s">
         <v>5608</v>
@@ -85536,7 +85536,7 @@
         <v>7</v>
       </c>
       <c r="D2116" s="1" t="s">
-        <v>9052</v>
+        <v>9050</v>
       </c>
       <c r="E2116" s="1" t="s">
         <v>5610</v>
@@ -85593,13 +85593,13 @@
         <v>7</v>
       </c>
       <c r="D2119" s="1" t="s">
+        <v>8957</v>
+      </c>
+      <c r="E2119" s="1" t="s">
+        <v>8958</v>
+      </c>
+      <c r="F2119" t="s">
         <v>8959</v>
-      </c>
-      <c r="E2119" s="1" t="s">
-        <v>8960</v>
-      </c>
-      <c r="F2119" t="s">
-        <v>8961</v>
       </c>
     </row>
     <row r="2120" spans="1:6">
@@ -85650,7 +85650,7 @@
         <v>7</v>
       </c>
       <c r="D2122" s="1" t="s">
-        <v>8863</v>
+        <v>8861</v>
       </c>
       <c r="E2122" s="1" t="s">
         <v>4954</v>
@@ -85810,7 +85810,7 @@
         <v>6897</v>
       </c>
       <c r="D2130" s="1" t="s">
-        <v>9275</v>
+        <v>9273</v>
       </c>
       <c r="E2130" s="1" t="s">
         <v>6901</v>
@@ -85830,7 +85830,7 @@
         <v>2794</v>
       </c>
       <c r="D2131" s="1" t="s">
-        <v>9407</v>
+        <v>9405</v>
       </c>
       <c r="E2131" s="1" t="s">
         <v>8586</v>
@@ -85887,7 +85887,7 @@
         <v>216</v>
       </c>
       <c r="D2134" s="1" t="s">
-        <v>9245</v>
+        <v>9243</v>
       </c>
       <c r="E2134" s="1" t="s">
         <v>6796</v>
@@ -85924,7 +85924,7 @@
         <v>6803</v>
       </c>
       <c r="D2136" s="1" t="s">
-        <v>9247</v>
+        <v>9245</v>
       </c>
       <c r="E2136" s="1" t="s">
         <v>6804</v>
@@ -86035,7 +86035,7 @@
         <v>4444</v>
       </c>
       <c r="D2142" s="1" t="s">
-        <v>8734</v>
+        <v>8732</v>
       </c>
       <c r="E2142" s="1" t="s">
         <v>4532</v>
@@ -86169,7 +86169,7 @@
         <v>7</v>
       </c>
       <c r="D2149" s="1" t="s">
-        <v>9472</v>
+        <v>9470</v>
       </c>
       <c r="E2149" s="1" t="s">
         <v>5931</v>
@@ -86226,7 +86226,7 @@
         <v>6803</v>
       </c>
       <c r="D2152" s="1" t="s">
-        <v>9252</v>
+        <v>9250</v>
       </c>
       <c r="E2152" s="1" t="s">
         <v>6821</v>
@@ -86246,7 +86246,7 @@
         <v>6897</v>
       </c>
       <c r="D2153" s="1" t="s">
-        <v>9277</v>
+        <v>9275</v>
       </c>
       <c r="E2153" s="1" t="s">
         <v>6909</v>
@@ -86263,7 +86263,7 @@
         <v>216</v>
       </c>
       <c r="D2154" s="1" t="s">
-        <v>9229</v>
+        <v>9227</v>
       </c>
       <c r="E2154" s="1" t="s">
         <v>6744</v>
@@ -86300,7 +86300,7 @@
         <v>1068</v>
       </c>
       <c r="D2156" s="1" t="s">
-        <v>9347</v>
+        <v>9345</v>
       </c>
       <c r="E2156" s="1" t="s">
         <v>7138</v>
@@ -86317,7 +86317,7 @@
         <v>7</v>
       </c>
       <c r="D2157" s="1" t="s">
-        <v>9038</v>
+        <v>9036</v>
       </c>
       <c r="E2157" s="1" t="s">
         <v>5559</v>
@@ -86354,7 +86354,7 @@
         <v>7</v>
       </c>
       <c r="D2159" s="1" t="s">
-        <v>9116</v>
+        <v>9114</v>
       </c>
       <c r="E2159" s="1" t="s">
         <v>5795</v>
@@ -86391,7 +86391,7 @@
         <v>7</v>
       </c>
       <c r="D2161" s="1" t="s">
-        <v>9023</v>
+        <v>9021</v>
       </c>
       <c r="E2161" s="1" t="s">
         <v>5506</v>
@@ -86428,7 +86428,7 @@
         <v>15</v>
       </c>
       <c r="D2163" s="1" t="s">
-        <v>9357</v>
+        <v>9355</v>
       </c>
       <c r="E2163" s="1" t="s">
         <v>7169</v>
@@ -86445,7 +86445,7 @@
         <v>1034</v>
       </c>
       <c r="D2164" s="1" t="s">
-        <v>9300</v>
+        <v>9298</v>
       </c>
       <c r="E2164" s="1" t="s">
         <v>6964</v>
@@ -86485,7 +86485,7 @@
         <v>2568</v>
       </c>
       <c r="D2166" s="1" t="s">
-        <v>9426</v>
+        <v>9424</v>
       </c>
       <c r="E2166" s="1" t="s">
         <v>2629</v>
@@ -86522,7 +86522,7 @@
         <v>7</v>
       </c>
       <c r="D2168" s="1" t="s">
-        <v>9060</v>
+        <v>9058</v>
       </c>
       <c r="E2168" s="1" t="s">
         <v>5643</v>
@@ -86579,7 +86579,7 @@
         <v>7</v>
       </c>
       <c r="D2171" s="1" t="s">
-        <v>9061</v>
+        <v>9059</v>
       </c>
       <c r="E2171" s="1" t="s">
         <v>5646</v>
@@ -86596,7 +86596,7 @@
         <v>1963</v>
       </c>
       <c r="D2172" s="1" t="s">
-        <v>8889</v>
+        <v>8887</v>
       </c>
       <c r="E2172" s="1" t="s">
         <v>5052</v>
@@ -86796,7 +86796,7 @@
         <v>2956</v>
       </c>
       <c r="D2182" s="1" t="s">
-        <v>9417</v>
+        <v>9415</v>
       </c>
       <c r="E2182" s="1" t="s">
         <v>3085</v>
@@ -86833,7 +86833,7 @@
         <v>7</v>
       </c>
       <c r="D2184" s="1" t="s">
-        <v>9179</v>
+        <v>9177</v>
       </c>
       <c r="E2184" s="1" t="s">
         <v>6009</v>
@@ -86990,7 +86990,7 @@
         <v>7</v>
       </c>
       <c r="D2192" s="1" t="s">
-        <v>9077</v>
+        <v>9075</v>
       </c>
       <c r="E2192" s="1" t="s">
         <v>5695</v>
@@ -87158,7 +87158,7 @@
         <v>4444</v>
       </c>
       <c r="D2201" s="1" t="s">
-        <v>8732</v>
+        <v>8730</v>
       </c>
       <c r="E2201" s="1" t="s">
         <v>4526</v>
@@ -87175,7 +87175,7 @@
         <v>7</v>
       </c>
       <c r="D2202" s="1" t="s">
-        <v>8922</v>
+        <v>8920</v>
       </c>
       <c r="E2202" s="1" t="s">
         <v>5168</v>
@@ -87192,7 +87192,7 @@
         <v>7</v>
       </c>
       <c r="D2203" s="1" t="s">
-        <v>8921</v>
+        <v>8919</v>
       </c>
       <c r="E2203" s="1" t="s">
         <v>5163</v>
@@ -87226,7 +87226,7 @@
         <v>93</v>
       </c>
       <c r="D2205" s="1" t="s">
-        <v>9209</v>
+        <v>9207</v>
       </c>
       <c r="E2205" s="1" t="s">
         <v>6678</v>
@@ -87243,7 +87243,7 @@
         <v>6599</v>
       </c>
       <c r="D2206" s="1" t="s">
-        <v>9367</v>
+        <v>9365</v>
       </c>
       <c r="E2206" s="1" t="s">
         <v>7203</v>
@@ -87260,7 +87260,7 @@
         <v>7</v>
       </c>
       <c r="D2207" s="1" t="s">
-        <v>9084</v>
+        <v>9082</v>
       </c>
       <c r="E2207" s="1" t="s">
         <v>5715</v>
@@ -87460,7 +87460,7 @@
         <v>4444</v>
       </c>
       <c r="D2217" s="1" t="s">
-        <v>8735</v>
+        <v>8733</v>
       </c>
       <c r="E2217" s="1" t="s">
         <v>4535</v>
@@ -87520,7 +87520,7 @@
         <v>6061</v>
       </c>
       <c r="D2220" s="1" t="s">
-        <v>9506</v>
+        <v>9504</v>
       </c>
       <c r="E2220" s="1" t="s">
         <v>6100</v>
@@ -87537,7 +87537,7 @@
         <v>3170</v>
       </c>
       <c r="D2221" s="1" t="s">
-        <v>9505</v>
+        <v>9503</v>
       </c>
       <c r="E2221" s="1" t="s">
         <v>6667</v>
@@ -87554,7 +87554,7 @@
         <v>2110</v>
       </c>
       <c r="D2222" s="1" t="s">
-        <v>9504</v>
+        <v>9502</v>
       </c>
       <c r="E2222" s="1" t="s">
         <v>6658</v>
@@ -87571,7 +87571,7 @@
         <v>3170</v>
       </c>
       <c r="D2223" s="1" t="s">
-        <v>9503</v>
+        <v>9501</v>
       </c>
       <c r="E2223" s="1" t="s">
         <v>6670</v>
@@ -87588,7 +87588,7 @@
         <v>3170</v>
       </c>
       <c r="D2224" s="1" t="s">
-        <v>9502</v>
+        <v>9500</v>
       </c>
       <c r="E2224" s="1" t="s">
         <v>6664</v>
@@ -87605,10 +87605,10 @@
         <v>93</v>
       </c>
       <c r="D2225" s="1" t="s">
-        <v>9501</v>
+        <v>9499</v>
       </c>
       <c r="E2225" s="1" t="s">
-        <v>9430</v>
+        <v>9428</v>
       </c>
       <c r="F2225" t="s">
         <v>6673</v>
@@ -87622,7 +87622,7 @@
         <v>3170</v>
       </c>
       <c r="D2226" s="1" t="s">
-        <v>9500</v>
+        <v>9498</v>
       </c>
       <c r="E2226" s="1" t="s">
         <v>6661</v>
@@ -87639,7 +87639,7 @@
         <v>93</v>
       </c>
       <c r="D2227" s="1" t="s">
-        <v>9499</v>
+        <v>9497</v>
       </c>
       <c r="E2227" s="1" t="s">
         <v>6675</v>
@@ -87699,7 +87699,7 @@
         <v>6037</v>
       </c>
       <c r="D2230" s="4" t="s">
-        <v>9542</v>
+        <v>9540</v>
       </c>
       <c r="E2230" s="4" t="s">
         <v>6043</v>
@@ -87719,7 +87719,7 @@
         <v>6037</v>
       </c>
       <c r="D2231" s="4" t="s">
-        <v>9543</v>
+        <v>9541</v>
       </c>
       <c r="E2231" s="4" t="s">
         <v>6049</v>
@@ -87739,7 +87739,7 @@
         <v>6037</v>
       </c>
       <c r="D2232" s="4" t="s">
-        <v>9189</v>
+        <v>9187</v>
       </c>
       <c r="E2232" s="4" t="s">
         <v>6055</v>
@@ -87819,7 +87819,7 @@
         <v>8</v>
       </c>
       <c r="D2236" s="1" t="s">
-        <v>9544</v>
+        <v>9542</v>
       </c>
       <c r="E2236" s="1" t="s">
         <v>57</v>
@@ -87853,7 +87853,7 @@
         <v>7</v>
       </c>
       <c r="D2238" s="1" t="s">
-        <v>8906</v>
+        <v>8904</v>
       </c>
       <c r="E2238" s="1" t="s">
         <v>3323</v>
@@ -87893,7 +87893,7 @@
         <v>3282</v>
       </c>
       <c r="D2240" s="1" t="s">
-        <v>9414</v>
+        <v>9412</v>
       </c>
       <c r="E2240" s="1" t="s">
         <v>3328</v>
@@ -88030,7 +88030,7 @@
         <v>7</v>
       </c>
       <c r="D2247" s="1" t="s">
-        <v>9085</v>
+        <v>9083</v>
       </c>
       <c r="E2247" s="1" t="s">
         <v>5718</v>
@@ -88164,7 +88164,7 @@
         <v>7</v>
       </c>
       <c r="D2254" s="1" t="s">
-        <v>9025</v>
+        <v>9023</v>
       </c>
       <c r="E2254" s="1" t="s">
         <v>5512</v>
@@ -88181,7 +88181,7 @@
         <v>7</v>
       </c>
       <c r="D2255" s="1" t="s">
-        <v>9026</v>
+        <v>9024</v>
       </c>
       <c r="E2255" s="1" t="s">
         <v>5515</v>
@@ -88198,7 +88198,7 @@
         <v>7</v>
       </c>
       <c r="D2256" s="1" t="s">
-        <v>8804</v>
+        <v>8802</v>
       </c>
       <c r="E2256" s="1" t="s">
         <v>4762</v>
@@ -88215,7 +88215,7 @@
         <v>7</v>
       </c>
       <c r="D2257" s="1" t="s">
-        <v>8939</v>
+        <v>8937</v>
       </c>
       <c r="E2257" s="1" t="s">
         <v>5221</v>
@@ -88252,7 +88252,7 @@
         <v>6599</v>
       </c>
       <c r="D2259" s="1" t="s">
-        <v>9365</v>
+        <v>9363</v>
       </c>
       <c r="E2259" s="1" t="s">
         <v>7197</v>
@@ -88289,7 +88289,7 @@
         <v>7</v>
       </c>
       <c r="D2261" s="1" t="s">
-        <v>9030</v>
+        <v>9028</v>
       </c>
       <c r="E2261" s="1" t="s">
         <v>5527</v>
@@ -88403,7 +88403,7 @@
         <v>7</v>
       </c>
       <c r="D2267" s="1" t="s">
-        <v>8825</v>
+        <v>8823</v>
       </c>
       <c r="E2267" s="1" t="s">
         <v>4829</v>
@@ -88480,7 +88480,7 @@
         <v>7</v>
       </c>
       <c r="D2271" s="1" t="s">
-        <v>8824</v>
+        <v>8822</v>
       </c>
       <c r="E2271" s="1" t="s">
         <v>4826</v>
@@ -88497,7 +88497,7 @@
         <v>7</v>
       </c>
       <c r="D2272" s="1" t="s">
-        <v>9149</v>
+        <v>9147</v>
       </c>
       <c r="E2272" s="1" t="s">
         <v>5903</v>
@@ -88557,7 +88557,7 @@
         <v>8</v>
       </c>
       <c r="D2275" s="1" t="s">
-        <v>9473</v>
+        <v>9471</v>
       </c>
       <c r="E2275" s="1" t="s">
         <v>192</v>
@@ -88794,7 +88794,7 @@
         <v>4444</v>
       </c>
       <c r="D2287" s="1" t="s">
-        <v>8749</v>
+        <v>8747</v>
       </c>
       <c r="E2287" s="1" t="s">
         <v>4576</v>
@@ -88814,7 +88814,7 @@
         <v>4444</v>
       </c>
       <c r="D2288" s="1" t="s">
-        <v>8717</v>
+        <v>8715</v>
       </c>
       <c r="E2288" s="1" t="s">
         <v>4472</v>
@@ -88834,7 +88834,7 @@
         <v>4444</v>
       </c>
       <c r="D2289" s="1" t="s">
-        <v>8753</v>
+        <v>8751</v>
       </c>
       <c r="E2289" s="1" t="s">
         <v>4589</v>
@@ -88851,7 +88851,7 @@
         <v>7106</v>
       </c>
       <c r="D2290" s="1" t="s">
-        <v>9339</v>
+        <v>9337</v>
       </c>
       <c r="E2290" s="1" t="s">
         <v>7110</v>
@@ -88908,7 +88908,7 @@
         <v>2972</v>
       </c>
       <c r="D2293" s="1" t="s">
-        <v>9320</v>
+        <v>9318</v>
       </c>
       <c r="E2293" s="1" t="s">
         <v>7040</v>
@@ -88928,7 +88928,7 @@
         <v>4444</v>
       </c>
       <c r="D2294" s="1" t="s">
-        <v>8731</v>
+        <v>8729</v>
       </c>
       <c r="E2294" s="1" t="s">
         <v>4523</v>
@@ -89082,10 +89082,10 @@
         <v>6599</v>
       </c>
       <c r="D2302" s="1" t="s">
-        <v>9373</v>
+        <v>9371</v>
       </c>
       <c r="E2302" s="1" t="s">
-        <v>9374</v>
+        <v>9372</v>
       </c>
       <c r="F2302" t="s">
         <v>7221</v>
@@ -89213,7 +89213,7 @@
         <v>4156</v>
       </c>
       <c r="D2309" s="1" t="s">
-        <v>9332</v>
+        <v>9330</v>
       </c>
       <c r="E2309" s="1" t="s">
         <v>7084</v>
@@ -89330,7 +89330,7 @@
         <v>7</v>
       </c>
       <c r="D2315" s="1" t="s">
-        <v>9119</v>
+        <v>9117</v>
       </c>
       <c r="E2315" s="1" t="s">
         <v>5811</v>
@@ -89347,7 +89347,7 @@
         <v>266</v>
       </c>
       <c r="D2316" s="1" t="s">
-        <v>9298</v>
+        <v>9296</v>
       </c>
       <c r="E2316" s="1" t="s">
         <v>6956</v>
@@ -89364,7 +89364,7 @@
         <v>7</v>
       </c>
       <c r="D2317" s="1" t="s">
-        <v>9034</v>
+        <v>9032</v>
       </c>
       <c r="E2317" s="1" t="s">
         <v>5547</v>
@@ -89381,7 +89381,7 @@
         <v>270</v>
       </c>
       <c r="D2318" s="1" t="s">
-        <v>9035</v>
+        <v>9033</v>
       </c>
       <c r="E2318" s="1" t="s">
         <v>5550</v>
@@ -89418,7 +89418,7 @@
         <v>7</v>
       </c>
       <c r="D2320" s="1" t="s">
-        <v>8986</v>
+        <v>8984</v>
       </c>
       <c r="E2320" s="1" t="s">
         <v>5377</v>
@@ -89475,7 +89475,7 @@
         <v>7</v>
       </c>
       <c r="D2323" s="1" t="s">
-        <v>9121</v>
+        <v>9119</v>
       </c>
       <c r="E2323" s="1" t="s">
         <v>5817</v>
@@ -89492,7 +89492,7 @@
         <v>7</v>
       </c>
       <c r="D2324" s="1" t="s">
-        <v>8985</v>
+        <v>8983</v>
       </c>
       <c r="E2324" s="1" t="s">
         <v>5374</v>
@@ -89509,7 +89509,7 @@
         <v>390</v>
       </c>
       <c r="D2325" s="1" t="s">
-        <v>9498</v>
+        <v>9496</v>
       </c>
       <c r="E2325" s="1" t="s">
         <v>7024</v>
@@ -89786,7 +89786,7 @@
         <v>709</v>
       </c>
       <c r="D2339" s="1" t="s">
-        <v>9273</v>
+        <v>9271</v>
       </c>
       <c r="E2339" s="1" t="s">
         <v>6895</v>
@@ -89803,7 +89803,7 @@
         <v>444</v>
       </c>
       <c r="D2340" s="1" t="s">
-        <v>9264</v>
+        <v>9262</v>
       </c>
       <c r="E2340" s="1" t="s">
         <v>6864</v>
@@ -89823,7 +89823,7 @@
         <v>4444</v>
       </c>
       <c r="D2341" s="1" t="s">
-        <v>8714</v>
+        <v>8712</v>
       </c>
       <c r="E2341" s="1" t="s">
         <v>4463</v>
@@ -89843,7 +89843,7 @@
         <v>4444</v>
       </c>
       <c r="D2342" s="1" t="s">
-        <v>8724</v>
+        <v>8722</v>
       </c>
       <c r="E2342" s="1" t="s">
         <v>4502</v>
@@ -89880,7 +89880,7 @@
         <v>93</v>
       </c>
       <c r="D2344" s="1" t="s">
-        <v>9212</v>
+        <v>9210</v>
       </c>
       <c r="E2344" s="1" t="s">
         <v>6690</v>
@@ -90037,7 +90037,7 @@
         <v>7</v>
       </c>
       <c r="D2352" s="1" t="s">
-        <v>9126</v>
+        <v>9124</v>
       </c>
       <c r="E2352" s="1" t="s">
         <v>5832</v>
@@ -90054,7 +90054,7 @@
         <v>7</v>
       </c>
       <c r="D2353" s="1" t="s">
-        <v>9127</v>
+        <v>9125</v>
       </c>
       <c r="E2353" s="1" t="s">
         <v>5835</v>
@@ -90114,7 +90114,7 @@
         <v>4444</v>
       </c>
       <c r="D2356" s="1" t="s">
-        <v>8759</v>
+        <v>8757</v>
       </c>
       <c r="E2356" s="1" t="s">
         <v>4612</v>
@@ -90168,7 +90168,7 @@
         <v>7</v>
       </c>
       <c r="D2359" s="1" t="s">
-        <v>8823</v>
+        <v>8821</v>
       </c>
       <c r="E2359" s="1" t="s">
         <v>4823</v>
@@ -90185,7 +90185,7 @@
         <v>7</v>
       </c>
       <c r="D2360" s="1" t="s">
-        <v>9068</v>
+        <v>9066</v>
       </c>
       <c r="E2360" s="1" t="s">
         <v>5667</v>
@@ -90202,7 +90202,7 @@
         <v>7</v>
       </c>
       <c r="D2361" s="1" t="s">
-        <v>9066</v>
+        <v>9064</v>
       </c>
       <c r="E2361" s="1" t="s">
         <v>5661</v>
@@ -90219,7 +90219,7 @@
         <v>7</v>
       </c>
       <c r="D2362" s="1" t="s">
-        <v>9067</v>
+        <v>9065</v>
       </c>
       <c r="E2362" s="1" t="s">
         <v>5664</v>
@@ -90236,7 +90236,7 @@
         <v>7</v>
       </c>
       <c r="D2363" s="1" t="s">
-        <v>9069</v>
+        <v>9067</v>
       </c>
       <c r="E2363" s="1" t="s">
         <v>5670</v>
@@ -90633,7 +90633,7 @@
         <v>7</v>
       </c>
       <c r="D2383" s="1" t="s">
-        <v>9133</v>
+        <v>9131</v>
       </c>
       <c r="E2383" s="1" t="s">
         <v>5855</v>
@@ -90670,7 +90670,7 @@
         <v>7</v>
       </c>
       <c r="D2385" s="1" t="s">
-        <v>8884</v>
+        <v>8882</v>
       </c>
       <c r="E2385" s="1" t="s">
         <v>5038</v>
@@ -90907,7 +90907,7 @@
         <v>4258</v>
       </c>
       <c r="D2397" s="1" t="s">
-        <v>9545</v>
+        <v>9543</v>
       </c>
       <c r="E2397" s="1" t="s">
         <v>4258</v>
@@ -90927,7 +90927,7 @@
         <v>4444</v>
       </c>
       <c r="D2398" s="1" t="s">
-        <v>8775</v>
+        <v>8773</v>
       </c>
       <c r="E2398" s="1" t="s">
         <v>4670</v>
@@ -90981,7 +90981,7 @@
         <v>7</v>
       </c>
       <c r="D2401" s="1" t="s">
-        <v>8813</v>
+        <v>8811</v>
       </c>
       <c r="E2401" s="1" t="s">
         <v>4788</v>
@@ -91001,7 +91001,7 @@
         <v>4444</v>
       </c>
       <c r="D2402" s="1" t="s">
-        <v>8726</v>
+        <v>8724</v>
       </c>
       <c r="E2402" s="1" t="s">
         <v>4508</v>
@@ -91041,7 +91041,7 @@
         <v>4444</v>
       </c>
       <c r="D2404" s="1" t="s">
-        <v>8751</v>
+        <v>8749</v>
       </c>
       <c r="E2404" s="1" t="s">
         <v>4582</v>
@@ -91212,7 +91212,7 @@
         <v>7</v>
       </c>
       <c r="D2413" s="1" t="s">
-        <v>9152</v>
+        <v>9150</v>
       </c>
       <c r="E2413" s="1" t="s">
         <v>5912</v>
@@ -91229,7 +91229,7 @@
         <v>7</v>
       </c>
       <c r="D2414" s="1" t="s">
-        <v>9154</v>
+        <v>9152</v>
       </c>
       <c r="E2414" s="1" t="s">
         <v>5917</v>
@@ -91246,7 +91246,7 @@
         <v>7</v>
       </c>
       <c r="D2415" s="1" t="s">
-        <v>9153</v>
+        <v>9151</v>
       </c>
       <c r="E2415" s="1" t="s">
         <v>5915</v>
@@ -91306,7 +91306,7 @@
         <v>6897</v>
       </c>
       <c r="D2418" s="1" t="s">
-        <v>9278</v>
+        <v>9276</v>
       </c>
       <c r="E2418" s="1" t="s">
         <v>6912</v>
@@ -91323,13 +91323,13 @@
         <v>7</v>
       </c>
       <c r="D2419" s="1" t="s">
-        <v>9393</v>
+        <v>9391</v>
       </c>
       <c r="E2419" s="1" t="s">
-        <v>8806</v>
+        <v>8804</v>
       </c>
       <c r="F2419" t="s">
-        <v>8807</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="2420" spans="1:6">
@@ -91460,7 +91460,7 @@
         <v>42</v>
       </c>
       <c r="D2426" s="1" t="s">
-        <v>9266</v>
+        <v>9264</v>
       </c>
       <c r="E2426" s="1" t="s">
         <v>6871</v>
@@ -91500,7 +91500,7 @@
         <v>4444</v>
       </c>
       <c r="D2428" s="1" t="s">
-        <v>8715</v>
+        <v>8713</v>
       </c>
       <c r="E2428" s="1" t="s">
         <v>4466</v>
@@ -91517,7 +91517,7 @@
         <v>7</v>
       </c>
       <c r="D2429" s="1" t="s">
-        <v>8929</v>
+        <v>8927</v>
       </c>
       <c r="E2429" s="1" t="s">
         <v>5191</v>
@@ -91577,7 +91577,7 @@
         <v>217</v>
       </c>
       <c r="D2432" s="1" t="s">
-        <v>8967</v>
+        <v>8965</v>
       </c>
       <c r="E2432" s="1" t="s">
         <v>338</v>
@@ -91594,7 +91594,7 @@
         <v>7</v>
       </c>
       <c r="D2433" s="1" t="s">
-        <v>8967</v>
+        <v>8965</v>
       </c>
       <c r="E2433" s="1" t="s">
         <v>5307</v>
@@ -91611,7 +91611,7 @@
         <v>1949</v>
       </c>
       <c r="D2434" s="1" t="s">
-        <v>9348</v>
+        <v>9346</v>
       </c>
       <c r="E2434" s="1" t="s">
         <v>7135</v>
@@ -91628,7 +91628,7 @@
         <v>1162</v>
       </c>
       <c r="D2435" s="1" t="s">
-        <v>9162</v>
+        <v>9160</v>
       </c>
       <c r="E2435" s="1" t="s">
         <v>5948</v>
@@ -91822,7 +91822,7 @@
         <v>6803</v>
       </c>
       <c r="D2445" s="1" t="s">
-        <v>9250</v>
+        <v>9248</v>
       </c>
       <c r="E2445" s="1" t="s">
         <v>6813</v>
@@ -91879,7 +91879,7 @@
         <v>7</v>
       </c>
       <c r="D2448" s="1" t="s">
-        <v>9168</v>
+        <v>9166</v>
       </c>
       <c r="E2448" s="1" t="s">
         <v>5971</v>
@@ -91899,7 +91899,7 @@
         <v>6061</v>
       </c>
       <c r="D2449" s="1" t="s">
-        <v>9496</v>
+        <v>9494</v>
       </c>
       <c r="E2449" s="1" t="s">
         <v>6097</v>
@@ -91916,7 +91916,7 @@
         <v>93</v>
       </c>
       <c r="D2450" s="4" t="s">
-        <v>8923</v>
+        <v>8921</v>
       </c>
       <c r="E2450" s="4" t="s">
         <v>5171</v>
@@ -91953,7 +91953,7 @@
         <v>1949</v>
       </c>
       <c r="D2452" s="4" t="s">
-        <v>9497</v>
+        <v>9495</v>
       </c>
       <c r="E2452" s="4" t="s">
         <v>7129</v>
@@ -92030,7 +92030,7 @@
         <v>7149</v>
       </c>
       <c r="D2456" s="1" t="s">
-        <v>9351</v>
+        <v>9349</v>
       </c>
       <c r="E2456" s="1" t="s">
         <v>7150</v>
@@ -92047,7 +92047,7 @@
         <v>5130</v>
       </c>
       <c r="D2457" s="1" t="s">
-        <v>9353</v>
+        <v>9351</v>
       </c>
       <c r="E2457" s="1" t="s">
         <v>7157</v>
@@ -92215,7 +92215,7 @@
         <v>7</v>
       </c>
       <c r="D2466" s="1" t="s">
-        <v>9146</v>
+        <v>9144</v>
       </c>
       <c r="E2466" s="1" t="s">
         <v>5893</v>
@@ -92289,7 +92289,7 @@
         <v>3084</v>
       </c>
       <c r="D2470" s="1" t="s">
-        <v>8835</v>
+        <v>8833</v>
       </c>
       <c r="E2470" s="1" t="s">
         <v>4854</v>
@@ -92540,7 +92540,7 @@
         <v>7</v>
       </c>
       <c r="D2483" s="1" t="s">
-        <v>9174</v>
+        <v>9172</v>
       </c>
       <c r="E2483" s="1" t="s">
         <v>5994</v>
@@ -92557,7 +92557,7 @@
         <v>7</v>
       </c>
       <c r="D2484" s="1" t="s">
-        <v>9164</v>
+        <v>9162</v>
       </c>
       <c r="E2484" s="1" t="s">
         <v>5959</v>
@@ -92574,7 +92574,7 @@
         <v>7</v>
       </c>
       <c r="D2485" s="1" t="s">
-        <v>9169</v>
+        <v>9167</v>
       </c>
       <c r="E2485" s="1" t="s">
         <v>5974</v>
@@ -92591,7 +92591,7 @@
         <v>216</v>
       </c>
       <c r="D2486" s="1" t="s">
-        <v>9244</v>
+        <v>9242</v>
       </c>
       <c r="E2486" s="1" t="s">
         <v>6793</v>
@@ -92628,7 +92628,7 @@
         <v>7</v>
       </c>
       <c r="D2488" s="1" t="s">
-        <v>9183</v>
+        <v>9181</v>
       </c>
       <c r="E2488" s="1" t="s">
         <v>6022</v>
@@ -92765,7 +92765,7 @@
         <v>7</v>
       </c>
       <c r="D2495" s="1" t="s">
-        <v>9092</v>
+        <v>9090</v>
       </c>
       <c r="E2495" s="1" t="s">
         <v>5740</v>
@@ -93096,7 +93096,7 @@
         <v>7</v>
       </c>
       <c r="D2512" s="1" t="s">
-        <v>8848</v>
+        <v>8846</v>
       </c>
       <c r="E2512" s="1" t="s">
         <v>4896</v>
@@ -93153,7 +93153,7 @@
         <v>6803</v>
       </c>
       <c r="D2515" s="1" t="s">
-        <v>9249</v>
+        <v>9247</v>
       </c>
       <c r="E2515" s="1" t="s">
         <v>6810</v>
@@ -93210,7 +93210,7 @@
         <v>7</v>
       </c>
       <c r="D2518" s="1" t="s">
-        <v>9151</v>
+        <v>9149</v>
       </c>
       <c r="E2518" s="1" t="s">
         <v>5909</v>
@@ -93227,7 +93227,7 @@
         <v>7</v>
       </c>
       <c r="D2519" s="1" t="s">
-        <v>9167</v>
+        <v>9165</v>
       </c>
       <c r="E2519" s="1" t="s">
         <v>5968</v>
@@ -93367,7 +93367,7 @@
         <v>8</v>
       </c>
       <c r="D2526" s="1" t="s">
-        <v>9546</v>
+        <v>9544</v>
       </c>
       <c r="E2526" s="1" t="s">
         <v>190</v>
@@ -93404,7 +93404,7 @@
         <v>7</v>
       </c>
       <c r="D2528" s="1" t="s">
-        <v>9184</v>
+        <v>9182</v>
       </c>
       <c r="E2528" s="1" t="s">
         <v>6025</v>
@@ -93521,7 +93521,7 @@
         <v>7</v>
       </c>
       <c r="D2534" s="1" t="s">
-        <v>9032</v>
+        <v>9030</v>
       </c>
       <c r="E2534" s="1" t="s">
         <v>5541</v>
@@ -93858,7 +93858,7 @@
         <v>6061</v>
       </c>
       <c r="D2551" s="1" t="s">
-        <v>9495</v>
+        <v>9493</v>
       </c>
       <c r="E2551" s="1" t="s">
         <v>6071</v>
@@ -93938,7 +93938,7 @@
         <v>3779</v>
       </c>
       <c r="D2555" s="1" t="s">
-        <v>9441</v>
+        <v>9439</v>
       </c>
       <c r="E2555" s="1" t="s">
         <v>3789</v>
@@ -93998,7 +93998,7 @@
         <v>204</v>
       </c>
       <c r="D2558" s="1" t="s">
-        <v>9547</v>
+        <v>9545</v>
       </c>
       <c r="F2558" t="s">
         <v>212</v>
@@ -94015,7 +94015,7 @@
         <v>204</v>
       </c>
       <c r="D2559" s="1" t="s">
-        <v>9546</v>
+        <v>9544</v>
       </c>
       <c r="F2559" t="s">
         <v>214</v>
@@ -94029,7 +94029,7 @@
         <v>7</v>
       </c>
       <c r="D2560" s="1" t="s">
-        <v>9548</v>
+        <v>9546</v>
       </c>
       <c r="F2560" t="s">
         <v>5033</v>
